--- a/JavaMasterclassTin_timeSchedulle.xlsx
+++ b/JavaMasterclassTin_timeSchedulle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning\JavaTimBuchalkaClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087FEEF3-8EFD-4858-833E-2EF8CE153915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B87B62-3007-4081-BC95-E90511AEAC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>dia</t>
   </si>
@@ -258,12 +258,27 @@
   <si>
     <t>overloaded challenge</t>
   </si>
+  <si>
+    <t>For Loop recap</t>
+  </si>
+  <si>
+    <t>63.1</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 15: Sum Odd</t>
+  </si>
+  <si>
+    <t>Sum 3 and 5 Challenge And Using IntelliJ's Debugger</t>
+  </si>
+  <si>
+    <t>The while and do while statements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +323,19 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -462,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -482,6 +510,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -572,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,9 +623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -631,7 +663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -737,7 +769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -879,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -887,18 +919,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC85575E-DCEB-43FC-A93E-D47C9095EFB1}">
-  <dimension ref="A1:G459"/>
+  <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -918,14 +952,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="34">
         <v>45323</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2">
@@ -935,9 +969,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="D3" s="16"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="35"/>
+      <c r="D3" s="20"/>
       <c r="E3">
         <v>50</v>
       </c>
@@ -945,9 +979,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="D4" s="16"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="35"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
@@ -955,9 +989,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="35"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
@@ -965,9 +999,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="D6" s="16"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="35"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
@@ -975,9 +1009,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="31"/>
-      <c r="D7" s="16"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="35"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
@@ -985,9 +1019,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="31"/>
-      <c r="D8" s="16"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="35"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
@@ -995,12 +1029,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="35"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1008,3823 +1042,5139 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="D10" s="16"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="35"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="15">
         <v>45343</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="D11" s="16"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="35"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="15">
         <v>45343</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="D12" s="16"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="35"/>
+      <c r="D12" s="20"/>
       <c r="E12">
         <v>51</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="15">
         <v>45344</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="D13" s="16"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="35"/>
+      <c r="D13" s="20"/>
       <c r="E13">
         <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="15">
         <v>45344</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="D14" s="16"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="35"/>
+      <c r="D14" s="20"/>
       <c r="E14">
         <v>53</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="D15" s="16"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="35"/>
+      <c r="D15" s="20"/>
       <c r="E15">
         <v>54</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
-      <c r="D16" s="16"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="35"/>
+      <c r="D16" s="20"/>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
-      <c r="D17" s="16"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="35"/>
+      <c r="D17" s="20"/>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="D18" s="16"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="35"/>
+      <c r="D18" s="20"/>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="36"/>
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="D21" s="16"/>
-      <c r="E21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="32"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="4">
         <v>55</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="D22" s="16"/>
-      <c r="E22">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="32"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="4">
         <v>56</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="D23" s="16"/>
-      <c r="E23">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="32"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="4">
         <v>57</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="D24" s="16"/>
-      <c r="E24">
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="32"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="4">
         <v>58</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="D25" s="16"/>
-      <c r="E25">
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="32"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="4">
         <v>59</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="D26" s="16"/>
-      <c r="E26">
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="32"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="4">
         <v>60</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="D27" s="16"/>
-      <c r="E27">
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="32"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="4">
         <v>61</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="D28" s="16"/>
-      <c r="E28">
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="32"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="4">
         <v>62</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="15">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="D29" s="16"/>
-      <c r="E29">
+      <c r="B29" s="32"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="4">
         <v>63</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="D30" s="16"/>
-      <c r="E30">
+      <c r="F29" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="15">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="32"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="15">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="32"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="4">
         <v>64</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="D31" s="16"/>
-      <c r="E31">
+      <c r="F31" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="15">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="32"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="4">
         <v>65</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="D32" s="16"/>
-      <c r="E32">
+      <c r="F32" s="16"/>
+      <c r="G32" s="18">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="32"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="4">
         <v>66</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
-      <c r="D33" s="16"/>
-      <c r="E33">
+      <c r="F33" s="16"/>
+      <c r="G33" s="18">
+        <v>45409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="32"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="4">
         <v>67</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
-      <c r="D34" s="16"/>
-      <c r="E34">
+      <c r="F34" s="16"/>
+      <c r="G34" s="18">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="32"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="4">
         <v>68</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="28"/>
-      <c r="D35" s="16"/>
-      <c r="E35">
+      <c r="F35" s="16"/>
+      <c r="G35" s="18">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="32"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="4">
         <v>69</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="28"/>
-      <c r="D36" s="16"/>
-      <c r="E36">
+      <c r="F36" s="16"/>
+      <c r="G36" s="18">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="32"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="4">
         <v>70</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="28"/>
-      <c r="D37" s="16"/>
-      <c r="E37">
+      <c r="F37" s="16"/>
+      <c r="G37" s="18">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="32"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="4">
         <v>71</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="28"/>
-      <c r="D38" s="16"/>
-      <c r="E38">
+      <c r="F38" s="16"/>
+      <c r="G38" s="18">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="32"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="4">
         <v>72</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="28"/>
-      <c r="D39" s="16"/>
-      <c r="E39">
+      <c r="F39" s="16"/>
+      <c r="G39" s="18">
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="32"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="4">
         <v>73</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="29"/>
-      <c r="C40" s="7">
+      <c r="F40" s="16"/>
+      <c r="G40" s="18">
+        <v>45416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="33"/>
+      <c r="C41" s="7">
         <v>24</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="7">
+      <c r="D41" s="21"/>
+      <c r="E41" s="6">
         <v>74</v>
       </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="18">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>25</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D42" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E42" s="2">
         <v>75</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42">
+      <c r="F42" s="3"/>
+      <c r="G42" s="18">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43">
         <v>76</v>
       </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43">
+      <c r="F43" s="5"/>
+      <c r="G43" s="18">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44">
         <v>77</v>
       </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44">
+      <c r="F44" s="5"/>
+      <c r="G44" s="18">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45">
         <v>78</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45">
+      <c r="F45" s="5"/>
+      <c r="G45" s="18">
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46">
         <v>79</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46">
+      <c r="F46" s="5"/>
+      <c r="G46" s="18">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47">
         <v>80</v>
       </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="18">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47">
+      <c r="B48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48">
         <v>81</v>
       </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48">
+      <c r="F48" s="5"/>
+      <c r="G48" s="18">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49">
         <v>82</v>
       </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49">
+      <c r="F49" s="5"/>
+      <c r="G49" s="18">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50">
         <v>83</v>
       </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="17"/>
-      <c r="C50">
+      <c r="F50" s="5"/>
+      <c r="G50" s="18">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="21"/>
+      <c r="C51">
         <v>29</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50">
+      <c r="D51" s="20"/>
+      <c r="E51">
         <v>84</v>
       </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+      <c r="F51" s="5"/>
+      <c r="G51" s="18">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51">
+      <c r="D52" s="20"/>
+      <c r="E52">
         <v>85</v>
       </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="28"/>
-      <c r="D52" s="16"/>
-      <c r="E52">
+      <c r="F52" s="5"/>
+      <c r="G52" s="18">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="32"/>
+      <c r="D53" s="20"/>
+      <c r="E53">
         <v>86</v>
       </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="28"/>
-      <c r="D53" s="16"/>
-      <c r="E53">
+      <c r="F53" s="5"/>
+      <c r="G53" s="18">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="32"/>
+      <c r="D54" s="20"/>
+      <c r="E54">
         <v>87</v>
       </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="28"/>
-      <c r="D54" s="16"/>
-      <c r="E54">
+      <c r="F54" s="5"/>
+      <c r="G54" s="18">
+        <v>45430</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="32"/>
+      <c r="D55" s="20"/>
+      <c r="E55">
         <v>88</v>
       </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="28"/>
-      <c r="D55" s="16"/>
-      <c r="E55">
+      <c r="F55" s="5"/>
+      <c r="G55" s="18">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="32"/>
+      <c r="D56" s="20"/>
+      <c r="E56">
         <v>89</v>
       </c>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="28"/>
-      <c r="D56" s="16"/>
-      <c r="E56">
+      <c r="F56" s="5"/>
+      <c r="G56" s="18">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="32"/>
+      <c r="D57" s="20"/>
+      <c r="E57">
         <v>90</v>
       </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="28"/>
-      <c r="D57" s="16"/>
-      <c r="E57">
+      <c r="F57" s="5"/>
+      <c r="G57" s="18">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="32"/>
+      <c r="D58" s="20"/>
+      <c r="E58">
         <v>91</v>
       </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="28"/>
-      <c r="D58" s="16"/>
-      <c r="E58">
+      <c r="F58" s="5"/>
+      <c r="G58" s="18">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="32"/>
+      <c r="D59" s="20"/>
+      <c r="E59">
         <v>92</v>
       </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="28"/>
-      <c r="D59" s="16"/>
-      <c r="E59">
+      <c r="F59" s="5"/>
+      <c r="G59" s="18">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="32"/>
+      <c r="D60" s="20"/>
+      <c r="E60">
         <v>93</v>
       </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="28"/>
-      <c r="D60" s="16"/>
-      <c r="E60">
+      <c r="F60" s="5"/>
+      <c r="G60" s="18">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="32"/>
+      <c r="D61" s="20"/>
+      <c r="E61">
         <v>94</v>
       </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="28"/>
-      <c r="D61" s="16"/>
-      <c r="E61">
+      <c r="F61" s="5"/>
+      <c r="G61" s="18">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="32"/>
+      <c r="D62" s="20"/>
+      <c r="E62">
         <v>95</v>
       </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="28"/>
-      <c r="D62" s="16"/>
-      <c r="E62">
+      <c r="F62" s="5"/>
+      <c r="G62" s="18">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="32"/>
+      <c r="D63" s="20"/>
+      <c r="E63">
         <v>96</v>
       </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="28"/>
-      <c r="D63" s="16"/>
-      <c r="E63">
+      <c r="F63" s="5"/>
+      <c r="G63" s="18">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="32"/>
+      <c r="D64" s="20"/>
+      <c r="E64">
         <v>97</v>
       </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="28"/>
-      <c r="D64" s="16"/>
-      <c r="E64">
+      <c r="F64" s="5"/>
+      <c r="G64" s="18">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="32"/>
+      <c r="D65" s="20"/>
+      <c r="E65">
         <v>98</v>
       </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="29"/>
-      <c r="C65" s="7">
+      <c r="F65" s="5"/>
+      <c r="G65" s="18">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="33"/>
+      <c r="C66" s="7">
         <v>9</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="7">
+      <c r="D66" s="21"/>
+      <c r="E66" s="7">
         <v>99</v>
       </c>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="15" t="s">
+      <c r="F66" s="8"/>
+      <c r="G66" s="18">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="2">
         <v>10</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D67" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E67" s="2">
         <v>100</v>
       </c>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67">
+      <c r="F67" s="3"/>
+      <c r="G67" s="18">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68">
         <v>101</v>
       </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68">
+      <c r="F68" s="5"/>
+      <c r="G68" s="18">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69">
         <v>102</v>
       </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69">
+      <c r="F69" s="5"/>
+      <c r="G69" s="18">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70">
         <v>103</v>
       </c>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70">
+      <c r="F70" s="5"/>
+      <c r="G70" s="18">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71">
         <v>104</v>
       </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71">
+      <c r="F71" s="5"/>
+      <c r="G71" s="18">
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72">
         <v>105</v>
       </c>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="F72" s="5"/>
+      <c r="G72" s="18">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72">
+      <c r="B73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73">
         <v>106</v>
       </c>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73">
+      <c r="F73" s="5"/>
+      <c r="G73" s="18">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74">
         <v>107</v>
       </c>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74">
+      <c r="F74" s="5"/>
+      <c r="G74" s="18">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75">
         <v>108</v>
       </c>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75">
+      <c r="F75" s="5"/>
+      <c r="G75" s="18">
+        <v>45451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76">
         <v>109</v>
       </c>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76">
+      <c r="F76" s="5"/>
+      <c r="G76" s="18">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77">
         <v>110</v>
       </c>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77">
+      <c r="F77" s="5"/>
+      <c r="G77" s="18">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78">
         <v>111</v>
       </c>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78">
+      <c r="F78" s="5"/>
+      <c r="G78" s="18">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79">
         <v>112</v>
       </c>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79">
+      <c r="F79" s="5"/>
+      <c r="G79" s="18">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80">
         <v>113</v>
       </c>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80">
+      <c r="F80" s="5"/>
+      <c r="G80" s="18">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81">
         <v>114</v>
       </c>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81">
+      <c r="F81" s="5"/>
+      <c r="G81" s="18">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82">
         <v>115</v>
       </c>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="17"/>
-      <c r="C82" s="7">
+      <c r="F82" s="5"/>
+      <c r="G82" s="18">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="21"/>
+      <c r="C83" s="7">
         <v>23</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="7">
+      <c r="D83" s="21"/>
+      <c r="E83" s="7">
         <v>116</v>
       </c>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="15" t="s">
+      <c r="F83" s="8"/>
+      <c r="G83" s="18">
+        <v>45459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C84" s="2">
         <v>24</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D84" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E84" s="2">
         <v>117</v>
       </c>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84">
+      <c r="F84" s="3"/>
+      <c r="G84" s="18">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85">
         <v>118</v>
       </c>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85">
+      <c r="F85" s="5"/>
+      <c r="G85" s="18">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86">
         <v>119</v>
       </c>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86">
+      <c r="F86" s="5"/>
+      <c r="G86" s="18">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87">
         <v>120</v>
       </c>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="F87" s="5"/>
+      <c r="G87" s="18">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87">
+      <c r="B88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88">
         <v>121</v>
       </c>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88">
+      <c r="F88" s="5"/>
+      <c r="G88" s="18">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89">
         <v>122</v>
       </c>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89">
+      <c r="F89" s="5"/>
+      <c r="G89" s="18">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90">
         <v>123</v>
       </c>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90">
+      <c r="F90" s="5"/>
+      <c r="G90" s="18">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91">
         <v>124</v>
       </c>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91">
+      <c r="F91" s="5"/>
+      <c r="G91" s="18">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92">
         <v>125</v>
       </c>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92">
+      <c r="F92" s="5"/>
+      <c r="G92" s="18">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93">
         <v>126</v>
       </c>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93">
+      <c r="F93" s="5"/>
+      <c r="G93" s="18">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94">
         <v>127</v>
       </c>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94">
+      <c r="F94" s="5"/>
+      <c r="G94" s="18">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95">
         <v>128</v>
       </c>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="17"/>
-      <c r="C95" s="7">
+      <c r="F95" s="5"/>
+      <c r="G95" s="18">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="21"/>
+      <c r="C96" s="7">
         <v>2</v>
       </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="7">
+      <c r="D96" s="21"/>
+      <c r="E96" s="7">
         <v>129</v>
       </c>
-      <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="18" t="s">
+      <c r="F96" s="8"/>
+      <c r="G96" s="18">
+        <v>45472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B97" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C97" s="2">
         <v>3</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D97" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E97" s="2">
         <v>130</v>
       </c>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97">
+      <c r="F97" s="3"/>
+      <c r="G97" s="18">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98">
         <v>131</v>
       </c>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98">
+      <c r="F98" s="5"/>
+      <c r="G98" s="18">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99">
         <v>132</v>
       </c>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99">
+      <c r="F99" s="5"/>
+      <c r="G99" s="18">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100">
         <v>133</v>
       </c>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100">
+      <c r="F100" s="5"/>
+      <c r="G100" s="18">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101">
         <v>134</v>
       </c>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101">
+      <c r="F101" s="5"/>
+      <c r="G101" s="18">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102">
         <v>135</v>
       </c>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102">
+      <c r="F102" s="5"/>
+      <c r="G102" s="18">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103">
         <v>136</v>
       </c>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="F103" s="5"/>
+      <c r="G103" s="18">
+        <v>45479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103">
+      <c r="B104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104">
         <v>137</v>
       </c>
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104">
+      <c r="F104" s="5"/>
+      <c r="G104" s="18">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105">
         <v>138</v>
       </c>
-      <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105">
+      <c r="F105" s="5"/>
+      <c r="G105" s="18">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106">
         <v>139</v>
       </c>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106">
+      <c r="F106" s="5"/>
+      <c r="G106" s="18">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107">
         <v>140</v>
       </c>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107">
+      <c r="F107" s="5"/>
+      <c r="G107" s="18">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108">
         <v>141</v>
       </c>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108">
+      <c r="F108" s="5"/>
+      <c r="G108" s="18">
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109">
         <v>142</v>
       </c>
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109">
+      <c r="F109" s="5"/>
+      <c r="G109" s="18">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110">
         <v>143</v>
       </c>
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110">
+      <c r="F110" s="5"/>
+      <c r="G110" s="18">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111">
         <v>144</v>
       </c>
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111">
+      <c r="F111" s="5"/>
+      <c r="G111" s="18">
+        <v>45487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112">
         <v>145</v>
       </c>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112">
+      <c r="F112" s="5"/>
+      <c r="G112" s="18">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113">
         <v>146</v>
       </c>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="20"/>
-      <c r="C113" s="7">
+      <c r="F113" s="5"/>
+      <c r="G113" s="18">
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B114" s="24"/>
+      <c r="C114" s="7">
         <v>16</v>
       </c>
-      <c r="D113" s="20"/>
-      <c r="E113" s="7">
+      <c r="D114" s="24"/>
+      <c r="E114" s="7">
         <v>147</v>
       </c>
-      <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="15" t="s">
+      <c r="F114" s="8"/>
+      <c r="G114" s="18">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B115" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C115" s="2">
         <v>18</v>
       </c>
-      <c r="D114" s="15" t="s">
+      <c r="D115" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E115" s="2">
         <v>148</v>
       </c>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115">
+      <c r="F115" s="3"/>
+      <c r="G115" s="18">
+        <v>45491</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116">
         <v>149</v>
       </c>
-      <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116">
+      <c r="F116" s="5"/>
+      <c r="G116" s="18">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117">
         <v>150</v>
       </c>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117">
+      <c r="F117" s="5"/>
+      <c r="G117" s="18">
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118">
         <v>151</v>
       </c>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118">
+      <c r="F118" s="5"/>
+      <c r="G118" s="18">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119">
         <v>152</v>
       </c>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119">
+      <c r="F119" s="5"/>
+      <c r="G119" s="18">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120">
         <v>153</v>
       </c>
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120">
+      <c r="F120" s="5"/>
+      <c r="G120" s="18">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121">
         <v>154</v>
       </c>
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="F121" s="5"/>
+      <c r="G121" s="18">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>37</v>
       </c>
-      <c r="B121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121">
+      <c r="B122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122">
         <v>155</v>
       </c>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122">
+      <c r="F122" s="5"/>
+      <c r="G122" s="18">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123">
         <v>156</v>
       </c>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123">
+      <c r="F123" s="5"/>
+      <c r="G123" s="18">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124">
         <v>157</v>
       </c>
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124">
+      <c r="F124" s="5"/>
+      <c r="G124" s="18">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125">
         <v>158</v>
       </c>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125">
+      <c r="F125" s="5"/>
+      <c r="G125" s="18">
+        <v>45501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126">
         <v>159</v>
       </c>
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126">
+      <c r="F126" s="5"/>
+      <c r="G126" s="18">
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127">
         <v>160</v>
       </c>
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127">
+      <c r="F127" s="5"/>
+      <c r="G127" s="18">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128">
         <v>161</v>
       </c>
-      <c r="F127" s="5"/>
-    </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="17"/>
-      <c r="C128" s="7">
+      <c r="F128" s="5"/>
+      <c r="G128" s="18">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B129" s="21"/>
+      <c r="C129" s="7">
         <v>30</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="7">
+      <c r="D129" s="21"/>
+      <c r="E129" s="7">
         <v>162</v>
       </c>
-      <c r="F128" s="8"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="1"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="15" t="s">
+      <c r="F129" s="8"/>
+      <c r="G129" s="18">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B130" s="1"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E130" s="2">
         <v>163</v>
       </c>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="4"/>
-      <c r="D130" s="16"/>
-      <c r="E130">
+      <c r="F130" s="3"/>
+      <c r="G130" s="18">
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B131" s="4"/>
+      <c r="D131" s="20"/>
+      <c r="E131">
         <v>164</v>
       </c>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B131" s="4"/>
-      <c r="D131" s="16"/>
-      <c r="E131">
+      <c r="F131" s="5"/>
+      <c r="G131" s="18">
+        <v>45507</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B132" s="4"/>
+      <c r="D132" s="20"/>
+      <c r="E132">
         <v>165</v>
       </c>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="4"/>
-      <c r="D132" s="16"/>
-      <c r="E132">
+      <c r="F132" s="5"/>
+      <c r="G132" s="18">
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B133" s="4"/>
+      <c r="D133" s="20"/>
+      <c r="E133">
         <v>166</v>
       </c>
-      <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="4"/>
-      <c r="D133" s="16"/>
-      <c r="E133">
+      <c r="F133" s="5"/>
+      <c r="G133" s="18">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B134" s="4"/>
+      <c r="D134" s="20"/>
+      <c r="E134">
         <v>167</v>
       </c>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B134" s="4"/>
-      <c r="D134" s="16"/>
-      <c r="E134">
+      <c r="F134" s="5"/>
+      <c r="G134" s="18">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B135" s="4"/>
+      <c r="D135" s="20"/>
+      <c r="E135">
         <v>168</v>
       </c>
-      <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="4"/>
-      <c r="D135" s="16"/>
-      <c r="E135">
+      <c r="F135" s="5"/>
+      <c r="G135" s="18">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B136" s="4"/>
+      <c r="D136" s="20"/>
+      <c r="E136">
         <v>169</v>
       </c>
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="4"/>
-      <c r="D136" s="16"/>
-      <c r="E136">
+      <c r="F136" s="5"/>
+      <c r="G136" s="18">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B137" s="4"/>
+      <c r="D137" s="20"/>
+      <c r="E137">
         <v>170</v>
       </c>
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="4"/>
-      <c r="D137" s="16"/>
-      <c r="E137">
+      <c r="F137" s="5"/>
+      <c r="G137" s="18">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B138" s="4"/>
+      <c r="D138" s="20"/>
+      <c r="E138">
         <v>171</v>
       </c>
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="4"/>
-      <c r="D138" s="16"/>
-      <c r="E138">
+      <c r="F138" s="5"/>
+      <c r="G138" s="18">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B139" s="4"/>
+      <c r="D139" s="20"/>
+      <c r="E139">
         <v>172</v>
       </c>
-      <c r="F138" s="5"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="4"/>
-      <c r="D139" s="16"/>
-      <c r="E139">
+      <c r="F139" s="5"/>
+      <c r="G139" s="18">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B140" s="4"/>
+      <c r="D140" s="20"/>
+      <c r="E140">
         <v>173</v>
       </c>
-      <c r="F139" s="5"/>
-    </row>
-    <row r="140" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="6"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="7">
+      <c r="F140" s="5"/>
+      <c r="G140" s="18">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B141" s="6"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="7">
         <v>174</v>
       </c>
-      <c r="F140" s="8"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="1"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="33" t="s">
+      <c r="F141" s="8"/>
+      <c r="G141" s="18">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B142" s="1"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E142" s="2">
         <v>175</v>
       </c>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="4"/>
-      <c r="D142" s="34"/>
-      <c r="E142">
+      <c r="F142" s="3"/>
+      <c r="G142" s="18">
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B143" s="4"/>
+      <c r="D143" s="38"/>
+      <c r="E143">
         <v>176</v>
       </c>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="4"/>
-      <c r="D143" s="34"/>
-      <c r="E143">
+      <c r="F143" s="5"/>
+      <c r="G143" s="18">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B144" s="4"/>
+      <c r="D144" s="38"/>
+      <c r="E144">
         <v>177</v>
       </c>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="4"/>
-      <c r="D144" s="34"/>
-      <c r="E144">
+      <c r="F144" s="5"/>
+      <c r="G144" s="18">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B145" s="4"/>
+      <c r="D145" s="38"/>
+      <c r="E145">
         <v>178</v>
       </c>
-      <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="4"/>
-      <c r="D145" s="34"/>
-      <c r="E145">
+      <c r="F145" s="5"/>
+      <c r="G145" s="18">
+        <v>45521</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B146" s="4"/>
+      <c r="D146" s="38"/>
+      <c r="E146">
         <v>179</v>
       </c>
-      <c r="F145" s="5"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B146" s="4"/>
-      <c r="D146" s="34"/>
-      <c r="E146">
+      <c r="F146" s="5"/>
+      <c r="G146" s="18">
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B147" s="4"/>
+      <c r="D147" s="38"/>
+      <c r="E147">
         <v>180</v>
       </c>
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B147" s="4"/>
-      <c r="D147" s="34"/>
-      <c r="E147">
+      <c r="F147" s="5"/>
+      <c r="G147" s="18">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B148" s="4"/>
+      <c r="D148" s="38"/>
+      <c r="E148">
         <v>181</v>
       </c>
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="7">
+      <c r="F148" s="5"/>
+      <c r="G148" s="18">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="7">
         <v>182</v>
       </c>
-      <c r="F148" s="8"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="1"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="24" t="s">
+      <c r="F149" s="8"/>
+      <c r="G149" s="18">
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B150" s="1"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E150" s="2">
         <v>183</v>
       </c>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B150" s="4"/>
-      <c r="D150" s="25"/>
-      <c r="E150">
+      <c r="F150" s="3"/>
+      <c r="G150" s="18">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B151" s="4"/>
+      <c r="D151" s="29"/>
+      <c r="E151">
         <v>184</v>
       </c>
-      <c r="F150" s="5"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="4"/>
-      <c r="D151" s="25"/>
-      <c r="E151">
+      <c r="F151" s="5"/>
+      <c r="G151" s="18">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B152" s="4"/>
+      <c r="D152" s="29"/>
+      <c r="E152">
         <v>185</v>
       </c>
-      <c r="F151" s="5"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B152" s="4"/>
-      <c r="D152" s="25"/>
-      <c r="E152">
+      <c r="F152" s="5"/>
+      <c r="G152" s="18">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B153" s="4"/>
+      <c r="D153" s="29"/>
+      <c r="E153">
         <v>186</v>
       </c>
-      <c r="F152" s="5"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="4"/>
-      <c r="D153" s="25"/>
-      <c r="E153">
+      <c r="F153" s="5"/>
+      <c r="G153" s="18">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B154" s="4"/>
+      <c r="D154" s="29"/>
+      <c r="E154">
         <v>187</v>
       </c>
-      <c r="F153" s="5"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="4"/>
-      <c r="D154" s="25"/>
-      <c r="E154">
+      <c r="F154" s="5"/>
+      <c r="G154" s="18">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B155" s="4"/>
+      <c r="D155" s="29"/>
+      <c r="E155">
         <v>188</v>
       </c>
-      <c r="F154" s="5"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B155" s="4"/>
-      <c r="D155" s="25"/>
-      <c r="E155">
+      <c r="F155" s="5"/>
+      <c r="G155" s="18">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B156" s="4"/>
+      <c r="D156" s="29"/>
+      <c r="E156">
         <v>189</v>
       </c>
-      <c r="F155" s="5"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="4"/>
-      <c r="D156" s="25"/>
-      <c r="E156">
+      <c r="F156" s="5"/>
+      <c r="G156" s="18">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B157" s="4"/>
+      <c r="D157" s="29"/>
+      <c r="E157">
         <v>190</v>
       </c>
-      <c r="F156" s="5"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="4"/>
-      <c r="D157" s="25"/>
-      <c r="E157">
+      <c r="F157" s="5"/>
+      <c r="G157" s="18">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B158" s="4"/>
+      <c r="D158" s="29"/>
+      <c r="E158">
         <v>191</v>
       </c>
-      <c r="F157" s="5"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B158" s="4"/>
-      <c r="D158" s="25"/>
-      <c r="E158">
+      <c r="F158" s="5"/>
+      <c r="G158" s="18">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B159" s="4"/>
+      <c r="D159" s="29"/>
+      <c r="E159">
         <v>192</v>
       </c>
-      <c r="F158" s="5"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B159" s="4"/>
-      <c r="D159" s="25"/>
-      <c r="E159">
+      <c r="F159" s="5"/>
+      <c r="G159" s="18">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B160" s="4"/>
+      <c r="D160" s="29"/>
+      <c r="E160">
         <v>193</v>
       </c>
-      <c r="F159" s="5"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B160" s="4"/>
-      <c r="D160" s="25"/>
-      <c r="E160">
+      <c r="F160" s="5"/>
+      <c r="G160" s="18">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B161" s="4"/>
+      <c r="D161" s="29"/>
+      <c r="E161">
         <v>194</v>
       </c>
-      <c r="F160" s="5"/>
-    </row>
-    <row r="161" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="6"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="7">
+      <c r="F161" s="5"/>
+      <c r="G161" s="18">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B162" s="6"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="7">
         <v>195</v>
       </c>
-      <c r="F161" s="8"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B162" s="1"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="15" t="s">
+      <c r="F162" s="8"/>
+      <c r="G162" s="18">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B163" s="1"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E163" s="2">
         <v>196</v>
       </c>
-      <c r="F162" s="3"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B163" s="4"/>
-      <c r="D163" s="16"/>
-      <c r="E163">
+      <c r="F163" s="3"/>
+      <c r="G163" s="18">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B164" s="4"/>
+      <c r="D164" s="20"/>
+      <c r="E164">
         <v>197</v>
       </c>
-      <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="4"/>
-      <c r="D164" s="16"/>
-      <c r="E164">
+      <c r="F164" s="5"/>
+      <c r="G164" s="18">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B165" s="4"/>
+      <c r="D165" s="20"/>
+      <c r="E165">
         <v>198</v>
       </c>
-      <c r="F164" s="5"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="4"/>
-      <c r="D165" s="16"/>
-      <c r="E165">
+      <c r="F165" s="5"/>
+      <c r="G165" s="18">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B166" s="4"/>
+      <c r="D166" s="20"/>
+      <c r="E166">
         <v>199</v>
       </c>
-      <c r="F165" s="5"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B166" s="4"/>
-      <c r="D166" s="16"/>
-      <c r="E166">
+      <c r="F166" s="5"/>
+      <c r="G166" s="18">
+        <v>45542</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B167" s="4"/>
+      <c r="D167" s="20"/>
+      <c r="E167">
         <v>200</v>
       </c>
-      <c r="F166" s="5"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B167" s="4"/>
-      <c r="D167" s="16"/>
-      <c r="E167">
+      <c r="F167" s="5"/>
+      <c r="G167" s="18">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B168" s="4"/>
+      <c r="D168" s="20"/>
+      <c r="E168">
         <v>201</v>
       </c>
-      <c r="F167" s="5"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B168" s="4"/>
-      <c r="D168" s="16"/>
-      <c r="E168">
+      <c r="F168" s="5"/>
+      <c r="G168" s="18">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B169" s="4"/>
+      <c r="D169" s="20"/>
+      <c r="E169">
         <v>202</v>
       </c>
-      <c r="F168" s="5"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B169" s="4"/>
-      <c r="D169" s="16"/>
-      <c r="E169">
+      <c r="F169" s="5"/>
+      <c r="G169" s="18">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B170" s="4"/>
+      <c r="D170" s="20"/>
+      <c r="E170">
         <v>203</v>
       </c>
-      <c r="F169" s="5"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B170" s="4"/>
-      <c r="D170" s="16"/>
-      <c r="E170">
+      <c r="F170" s="5"/>
+      <c r="G170" s="18">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B171" s="4"/>
+      <c r="D171" s="20"/>
+      <c r="E171">
         <v>204</v>
       </c>
-      <c r="F170" s="5"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B171" s="4"/>
-      <c r="D171" s="16"/>
-      <c r="E171">
+      <c r="F171" s="5"/>
+      <c r="G171" s="18">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B172" s="4"/>
+      <c r="D172" s="20"/>
+      <c r="E172">
         <v>205</v>
       </c>
-      <c r="F171" s="5"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B172" s="4"/>
-      <c r="D172" s="16"/>
-      <c r="E172">
+      <c r="F172" s="5"/>
+      <c r="G172" s="18">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B173" s="4"/>
+      <c r="D173" s="20"/>
+      <c r="E173">
         <v>206</v>
       </c>
-      <c r="F172" s="5"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B173" s="4"/>
-      <c r="D173" s="16"/>
-      <c r="E173">
+      <c r="F173" s="5"/>
+      <c r="G173" s="18">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B174" s="4"/>
+      <c r="D174" s="20"/>
+      <c r="E174">
         <v>207</v>
       </c>
-      <c r="F173" s="5"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B174" s="4"/>
-      <c r="D174" s="16"/>
-      <c r="E174">
+      <c r="F174" s="5"/>
+      <c r="G174" s="18">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B175" s="4"/>
+      <c r="D175" s="20"/>
+      <c r="E175">
         <v>208</v>
       </c>
-      <c r="F174" s="5"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B175" s="4"/>
-      <c r="D175" s="16"/>
-      <c r="E175">
+      <c r="F175" s="5"/>
+      <c r="G175" s="18">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B176" s="4"/>
+      <c r="D176" s="20"/>
+      <c r="E176">
         <v>209</v>
       </c>
-      <c r="F175" s="5"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B176" s="4"/>
-      <c r="D176" s="16"/>
-      <c r="E176">
+      <c r="F176" s="5"/>
+      <c r="G176" s="18">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B177" s="4"/>
+      <c r="D177" s="20"/>
+      <c r="E177">
         <v>210</v>
       </c>
-      <c r="F176" s="5"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B177" s="4"/>
-      <c r="D177" s="16"/>
-      <c r="E177">
+      <c r="F177" s="5"/>
+      <c r="G177" s="18">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B178" s="4"/>
+      <c r="D178" s="20"/>
+      <c r="E178">
         <v>211</v>
       </c>
-      <c r="F177" s="5"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B178" s="4"/>
-      <c r="D178" s="16"/>
-      <c r="E178">
+      <c r="F178" s="5"/>
+      <c r="G178" s="18">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B179" s="4"/>
+      <c r="D179" s="20"/>
+      <c r="E179">
         <v>212</v>
       </c>
-      <c r="F178" s="5"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B179" s="4"/>
-      <c r="D179" s="16"/>
-      <c r="E179">
+      <c r="F179" s="5"/>
+      <c r="G179" s="18">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B180" s="4"/>
+      <c r="D180" s="20"/>
+      <c r="E180">
         <v>213</v>
       </c>
-      <c r="F179" s="5"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B180" s="4"/>
-      <c r="D180" s="16"/>
-      <c r="E180">
+      <c r="F180" s="5"/>
+      <c r="G180" s="18">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B181" s="4"/>
+      <c r="D181" s="20"/>
+      <c r="E181">
         <v>214</v>
       </c>
-      <c r="F180" s="5"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B181" s="4"/>
-      <c r="D181" s="16"/>
-      <c r="E181">
+      <c r="F181" s="5"/>
+      <c r="G181" s="18">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B182" s="4"/>
+      <c r="D182" s="20"/>
+      <c r="E182">
         <v>215</v>
       </c>
-      <c r="F181" s="5"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B182" s="4"/>
-      <c r="D182" s="16"/>
-      <c r="E182">
+      <c r="F182" s="5"/>
+      <c r="G182" s="18">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B183" s="4"/>
+      <c r="D183" s="20"/>
+      <c r="E183">
         <v>216</v>
       </c>
-      <c r="F182" s="5"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B183" s="4"/>
-      <c r="D183" s="16"/>
-      <c r="E183">
+      <c r="F183" s="5"/>
+      <c r="G183" s="18">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B184" s="4"/>
+      <c r="D184" s="20"/>
+      <c r="E184">
         <v>217</v>
       </c>
-      <c r="F183" s="5"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B184" s="4"/>
-      <c r="D184" s="16"/>
-      <c r="E184">
+      <c r="F184" s="5"/>
+      <c r="G184" s="18">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B185" s="4"/>
+      <c r="D185" s="20"/>
+      <c r="E185">
         <v>218</v>
       </c>
-      <c r="F184" s="5"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B185" s="4"/>
-      <c r="D185" s="16"/>
-      <c r="E185">
+      <c r="F185" s="5"/>
+      <c r="G185" s="18">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B186" s="4"/>
+      <c r="D186" s="20"/>
+      <c r="E186">
         <v>219</v>
       </c>
-      <c r="F185" s="5"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B186" s="4"/>
-      <c r="D186" s="16"/>
-      <c r="E186">
+      <c r="F186" s="5"/>
+      <c r="G186" s="18">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B187" s="4"/>
+      <c r="D187" s="20"/>
+      <c r="E187">
         <v>220</v>
       </c>
-      <c r="F186" s="5"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B187" s="4"/>
-      <c r="D187" s="16"/>
-      <c r="E187">
+      <c r="F187" s="5"/>
+      <c r="G187" s="18">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B188" s="4"/>
+      <c r="D188" s="20"/>
+      <c r="E188">
         <v>221</v>
       </c>
-      <c r="F187" s="5"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B188" s="4"/>
-      <c r="D188" s="16"/>
-      <c r="E188">
+      <c r="F188" s="5"/>
+      <c r="G188" s="18">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B189" s="4"/>
+      <c r="D189" s="20"/>
+      <c r="E189">
         <v>222</v>
       </c>
-      <c r="F188" s="5"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B189" s="4"/>
-      <c r="D189" s="16"/>
-      <c r="E189">
+      <c r="F189" s="5"/>
+      <c r="G189" s="18">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B190" s="4"/>
+      <c r="D190" s="20"/>
+      <c r="E190">
         <v>223</v>
       </c>
-      <c r="F189" s="5"/>
-    </row>
-    <row r="190" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="6"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="7">
+      <c r="F190" s="5"/>
+      <c r="G190" s="18">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B191" s="6"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="7">
         <v>224</v>
       </c>
-      <c r="F190" s="8"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B191" s="1"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="15" t="s">
+      <c r="F191" s="8"/>
+      <c r="G191" s="18">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B192" s="1"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E192" s="2">
         <v>225</v>
       </c>
-      <c r="F191" s="3"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B192" s="4"/>
-      <c r="D192" s="16"/>
-      <c r="E192">
+      <c r="F192" s="3"/>
+      <c r="G192" s="18">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B193" s="4"/>
+      <c r="D193" s="20"/>
+      <c r="E193">
         <v>226</v>
       </c>
-      <c r="F192" s="5"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B193" s="4"/>
-      <c r="D193" s="16"/>
-      <c r="E193">
+      <c r="F193" s="5"/>
+      <c r="G193" s="18">
+        <v>45569</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B194" s="4"/>
+      <c r="D194" s="20"/>
+      <c r="E194">
         <v>227</v>
       </c>
-      <c r="F193" s="5"/>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B194" s="4"/>
-      <c r="D194" s="16"/>
-      <c r="E194">
+      <c r="F194" s="5"/>
+      <c r="G194" s="18">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B195" s="4"/>
+      <c r="D195" s="20"/>
+      <c r="E195">
         <v>228</v>
       </c>
-      <c r="F194" s="5"/>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B195" s="4"/>
-      <c r="D195" s="16"/>
-      <c r="E195">
+      <c r="F195" s="5"/>
+      <c r="G195" s="18">
+        <v>45571</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B196" s="4"/>
+      <c r="D196" s="20"/>
+      <c r="E196">
         <v>229</v>
       </c>
-      <c r="F195" s="5"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B196" s="4"/>
-      <c r="D196" s="16"/>
-      <c r="E196">
+      <c r="F196" s="5"/>
+      <c r="G196" s="18">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B197" s="4"/>
+      <c r="D197" s="20"/>
+      <c r="E197">
         <v>230</v>
       </c>
-      <c r="F196" s="5"/>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B197" s="4"/>
-      <c r="D197" s="16"/>
-      <c r="E197">
+      <c r="F197" s="5"/>
+      <c r="G197" s="18">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B198" s="4"/>
+      <c r="D198" s="20"/>
+      <c r="E198">
         <v>231</v>
       </c>
-      <c r="F197" s="5"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B198" s="4"/>
-      <c r="D198" s="16"/>
-      <c r="E198">
+      <c r="F198" s="5"/>
+      <c r="G198" s="18">
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B199" s="4"/>
+      <c r="D199" s="20"/>
+      <c r="E199">
         <v>232</v>
       </c>
-      <c r="F198" s="5"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B199" s="4"/>
-      <c r="D199" s="16"/>
-      <c r="E199">
+      <c r="F199" s="5"/>
+      <c r="G199" s="18">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B200" s="4"/>
+      <c r="D200" s="20"/>
+      <c r="E200">
         <v>233</v>
       </c>
-      <c r="F199" s="5"/>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B200" s="4"/>
-      <c r="D200" s="16"/>
-      <c r="E200">
+      <c r="F200" s="5"/>
+      <c r="G200" s="18">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B201" s="4"/>
+      <c r="D201" s="20"/>
+      <c r="E201">
         <v>234</v>
       </c>
-      <c r="F200" s="5"/>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B201" s="4"/>
-      <c r="D201" s="16"/>
-      <c r="E201">
+      <c r="F201" s="5"/>
+      <c r="G201" s="18">
+        <v>45577</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B202" s="4"/>
+      <c r="D202" s="20"/>
+      <c r="E202">
         <v>235</v>
       </c>
-      <c r="F201" s="5"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B202" s="4"/>
-      <c r="D202" s="16"/>
-      <c r="E202">
+      <c r="F202" s="5"/>
+      <c r="G202" s="18">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B203" s="4"/>
+      <c r="D203" s="20"/>
+      <c r="E203">
         <v>236</v>
       </c>
-      <c r="F202" s="5"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B203" s="4"/>
-      <c r="D203" s="16"/>
-      <c r="E203">
+      <c r="F203" s="5"/>
+      <c r="G203" s="18">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B204" s="4"/>
+      <c r="D204" s="20"/>
+      <c r="E204">
         <v>237</v>
       </c>
-      <c r="F203" s="5"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B204" s="4"/>
-      <c r="D204" s="16"/>
-      <c r="E204">
+      <c r="F204" s="5"/>
+      <c r="G204" s="18">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B205" s="4"/>
+      <c r="D205" s="20"/>
+      <c r="E205">
         <v>238</v>
       </c>
-      <c r="F204" s="5"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B205" s="4"/>
-      <c r="D205" s="16"/>
-      <c r="E205">
+      <c r="F205" s="5"/>
+      <c r="G205" s="18">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B206" s="4"/>
+      <c r="D206" s="20"/>
+      <c r="E206">
         <v>239</v>
       </c>
-      <c r="F205" s="5"/>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B206" s="4"/>
-      <c r="D206" s="16"/>
-      <c r="E206">
+      <c r="F206" s="5"/>
+      <c r="G206" s="18">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B207" s="4"/>
+      <c r="D207" s="20"/>
+      <c r="E207">
         <v>240</v>
       </c>
-      <c r="F206" s="5"/>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B207" s="4"/>
-      <c r="D207" s="16"/>
-      <c r="E207">
+      <c r="F207" s="5"/>
+      <c r="G207" s="18">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B208" s="4"/>
+      <c r="D208" s="20"/>
+      <c r="E208">
         <v>241</v>
       </c>
-      <c r="F207" s="5"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B208" s="4"/>
-      <c r="D208" s="16"/>
-      <c r="E208">
+      <c r="F208" s="5"/>
+      <c r="G208" s="18">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B209" s="4"/>
+      <c r="D209" s="20"/>
+      <c r="E209">
         <v>242</v>
       </c>
-      <c r="F208" s="5"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B209" s="4"/>
-      <c r="D209" s="16"/>
-      <c r="E209">
+      <c r="F209" s="5"/>
+      <c r="G209" s="18">
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B210" s="4"/>
+      <c r="D210" s="20"/>
+      <c r="E210">
         <v>243</v>
       </c>
-      <c r="F209" s="5"/>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B210" s="4"/>
-      <c r="D210" s="16"/>
-      <c r="E210">
+      <c r="F210" s="5"/>
+      <c r="G210" s="18">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B211" s="4"/>
+      <c r="D211" s="20"/>
+      <c r="E211">
         <v>244</v>
       </c>
-      <c r="F210" s="5"/>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B211" s="4"/>
-      <c r="D211" s="16"/>
-      <c r="E211">
+      <c r="F211" s="5"/>
+      <c r="G211" s="18">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B212" s="4"/>
+      <c r="D212" s="20"/>
+      <c r="E212">
         <v>245</v>
       </c>
-      <c r="F211" s="5"/>
-    </row>
-    <row r="212" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="6"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="7">
+      <c r="F212" s="5"/>
+      <c r="G212" s="18">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B213" s="6"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="7">
         <v>246</v>
       </c>
-      <c r="F212" s="8"/>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B213" s="1"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="15" t="s">
+      <c r="F213" s="8"/>
+      <c r="G213" s="18">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B214" s="1"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E214" s="2">
         <v>247</v>
       </c>
-      <c r="F213" s="3"/>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B214" s="4"/>
-      <c r="D214" s="16"/>
-      <c r="E214">
+      <c r="F214" s="3"/>
+      <c r="G214" s="18">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B215" s="4"/>
+      <c r="D215" s="20"/>
+      <c r="E215">
         <v>248</v>
       </c>
-      <c r="F214" s="5"/>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B215" s="4"/>
-      <c r="D215" s="16"/>
-      <c r="E215">
+      <c r="F215" s="5"/>
+      <c r="G215" s="18">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B216" s="4"/>
+      <c r="D216" s="20"/>
+      <c r="E216">
         <v>249</v>
       </c>
-      <c r="F215" s="5"/>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B216" s="4"/>
-      <c r="D216" s="16"/>
-      <c r="E216">
+      <c r="F216" s="5"/>
+      <c r="G216" s="18">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B217" s="4"/>
+      <c r="D217" s="20"/>
+      <c r="E217">
         <v>250</v>
       </c>
-      <c r="F216" s="5"/>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B217" s="4"/>
-      <c r="D217" s="16"/>
-      <c r="E217">
+      <c r="F217" s="5"/>
+      <c r="G217" s="18">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B218" s="4"/>
+      <c r="D218" s="20"/>
+      <c r="E218">
         <v>251</v>
       </c>
-      <c r="F217" s="5"/>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B218" s="4"/>
-      <c r="D218" s="16"/>
-      <c r="E218">
+      <c r="F218" s="5"/>
+      <c r="G218" s="18">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B219" s="4"/>
+      <c r="D219" s="20"/>
+      <c r="E219">
         <v>252</v>
       </c>
-      <c r="F218" s="5"/>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B219" s="4"/>
-      <c r="D219" s="16"/>
-      <c r="E219">
+      <c r="F219" s="5"/>
+      <c r="G219" s="18">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B220" s="4"/>
+      <c r="D220" s="20"/>
+      <c r="E220">
         <v>253</v>
       </c>
-      <c r="F219" s="5"/>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B220" s="4"/>
-      <c r="D220" s="16"/>
-      <c r="E220">
+      <c r="F220" s="5"/>
+      <c r="G220" s="18">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B221" s="4"/>
+      <c r="D221" s="20"/>
+      <c r="E221">
         <v>254</v>
       </c>
-      <c r="F220" s="5"/>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B221" s="4"/>
-      <c r="D221" s="16"/>
-      <c r="E221">
+      <c r="F221" s="5"/>
+      <c r="G221" s="18">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B222" s="4"/>
+      <c r="D222" s="20"/>
+      <c r="E222">
         <v>255</v>
       </c>
-      <c r="F221" s="5"/>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B222" s="4"/>
-      <c r="D222" s="16"/>
-      <c r="E222">
+      <c r="F222" s="5"/>
+      <c r="G222" s="18">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B223" s="4"/>
+      <c r="D223" s="20"/>
+      <c r="E223">
         <v>256</v>
       </c>
-      <c r="F222" s="5"/>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B223" s="4"/>
-      <c r="D223" s="16"/>
-      <c r="E223">
+      <c r="F223" s="5"/>
+      <c r="G223" s="18">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B224" s="4"/>
+      <c r="D224" s="20"/>
+      <c r="E224">
         <v>257</v>
       </c>
-      <c r="F223" s="5"/>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B224" s="4"/>
-      <c r="D224" s="16"/>
-      <c r="E224">
+      <c r="F224" s="5"/>
+      <c r="G224" s="18">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B225" s="4"/>
+      <c r="D225" s="20"/>
+      <c r="E225">
         <v>258</v>
       </c>
-      <c r="F224" s="5"/>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B225" s="4"/>
-      <c r="D225" s="16"/>
-      <c r="E225">
+      <c r="F225" s="5"/>
+      <c r="G225" s="18">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B226" s="4"/>
+      <c r="D226" s="20"/>
+      <c r="E226">
         <v>259</v>
       </c>
-      <c r="F225" s="5"/>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B226" s="4"/>
-      <c r="D226" s="16"/>
-      <c r="E226">
+      <c r="F226" s="5"/>
+      <c r="G226" s="18">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B227" s="4"/>
+      <c r="D227" s="20"/>
+      <c r="E227">
         <v>260</v>
       </c>
-      <c r="F226" s="5"/>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B227" s="4"/>
-      <c r="D227" s="16"/>
-      <c r="E227">
+      <c r="F227" s="5"/>
+      <c r="G227" s="18">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B228" s="4"/>
+      <c r="D228" s="20"/>
+      <c r="E228">
         <v>261</v>
       </c>
-      <c r="F227" s="5"/>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B228" s="4"/>
-      <c r="D228" s="16"/>
-      <c r="E228">
+      <c r="F228" s="5"/>
+      <c r="G228" s="18">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B229" s="4"/>
+      <c r="D229" s="20"/>
+      <c r="E229">
         <v>262</v>
       </c>
-      <c r="F228" s="5"/>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B229" s="4"/>
-      <c r="D229" s="16"/>
-      <c r="E229">
+      <c r="F229" s="5"/>
+      <c r="G229" s="18">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B230" s="4"/>
+      <c r="D230" s="20"/>
+      <c r="E230">
         <v>263</v>
       </c>
-      <c r="F229" s="5"/>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B230" s="4"/>
-      <c r="D230" s="16"/>
-      <c r="E230">
+      <c r="F230" s="5"/>
+      <c r="G230" s="18">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B231" s="4"/>
+      <c r="D231" s="20"/>
+      <c r="E231">
         <v>264</v>
       </c>
-      <c r="F230" s="5"/>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B231" s="4"/>
-      <c r="D231" s="16"/>
-      <c r="E231">
+      <c r="F231" s="5"/>
+      <c r="G231" s="18">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B232" s="4"/>
+      <c r="D232" s="20"/>
+      <c r="E232">
         <v>265</v>
       </c>
-      <c r="F231" s="5"/>
-    </row>
-    <row r="232" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="6"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="17"/>
-      <c r="E232" s="7">
+      <c r="F232" s="5"/>
+      <c r="G232" s="18">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B233" s="6"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="21"/>
+      <c r="E233" s="7">
         <v>266</v>
       </c>
-      <c r="F232" s="8"/>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B233" s="1"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="21" t="s">
+      <c r="F233" s="8"/>
+      <c r="G233" s="18">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B234" s="1"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E234" s="2">
         <v>267</v>
       </c>
-      <c r="F233" s="3"/>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B234" s="4"/>
-      <c r="D234" s="22"/>
-      <c r="E234">
+      <c r="F234" s="3"/>
+      <c r="G234" s="18">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B235" s="4"/>
+      <c r="D235" s="26"/>
+      <c r="E235">
         <v>268</v>
       </c>
-      <c r="F234" s="5"/>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B235" s="4"/>
-      <c r="D235" s="22"/>
-      <c r="E235">
+      <c r="F235" s="5"/>
+      <c r="G235" s="18">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B236" s="4"/>
+      <c r="D236" s="26"/>
+      <c r="E236">
         <v>269</v>
       </c>
-      <c r="F235" s="5"/>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B236" s="4"/>
-      <c r="D236" s="22"/>
-      <c r="E236">
+      <c r="F236" s="5"/>
+      <c r="G236" s="18">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B237" s="4"/>
+      <c r="D237" s="26"/>
+      <c r="E237">
         <v>270</v>
       </c>
-      <c r="F236" s="5"/>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B237" s="4"/>
-      <c r="D237" s="22"/>
-      <c r="E237">
+      <c r="F237" s="5"/>
+      <c r="G237" s="18">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B238" s="4"/>
+      <c r="D238" s="26"/>
+      <c r="E238">
         <v>271</v>
       </c>
-      <c r="F237" s="5"/>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B238" s="4"/>
-      <c r="D238" s="22"/>
-      <c r="E238">
+      <c r="F238" s="5"/>
+      <c r="G238" s="18">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B239" s="4"/>
+      <c r="D239" s="26"/>
+      <c r="E239">
         <v>272</v>
       </c>
-      <c r="F238" s="5"/>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B239" s="4"/>
-      <c r="D239" s="22"/>
-      <c r="E239">
+      <c r="F239" s="5"/>
+      <c r="G239" s="18">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B240" s="4"/>
+      <c r="D240" s="26"/>
+      <c r="E240">
         <v>273</v>
       </c>
-      <c r="F239" s="5"/>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B240" s="4"/>
-      <c r="D240" s="22"/>
-      <c r="E240">
+      <c r="F240" s="5"/>
+      <c r="G240" s="18">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B241" s="4"/>
+      <c r="D241" s="26"/>
+      <c r="E241">
         <v>274</v>
       </c>
-      <c r="F240" s="5"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B241" s="4"/>
-      <c r="D241" s="22"/>
-      <c r="E241">
+      <c r="F241" s="5"/>
+      <c r="G241" s="18">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B242" s="4"/>
+      <c r="D242" s="26"/>
+      <c r="E242">
         <v>275</v>
       </c>
-      <c r="F241" s="5"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B242" s="4"/>
-      <c r="D242" s="22"/>
-      <c r="E242">
+      <c r="F242" s="5"/>
+      <c r="G242" s="18">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B243" s="4"/>
+      <c r="D243" s="26"/>
+      <c r="E243">
         <v>276</v>
       </c>
-      <c r="F242" s="5"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B243" s="4"/>
-      <c r="D243" s="22"/>
-      <c r="E243">
+      <c r="F243" s="5"/>
+      <c r="G243" s="18">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B244" s="4"/>
+      <c r="D244" s="26"/>
+      <c r="E244">
         <v>277</v>
       </c>
-      <c r="F243" s="5"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B244" s="4"/>
-      <c r="D244" s="22"/>
-      <c r="E244">
+      <c r="F244" s="5"/>
+      <c r="G244" s="18">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B245" s="4"/>
+      <c r="D245" s="26"/>
+      <c r="E245">
         <v>278</v>
       </c>
-      <c r="F244" s="5"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B245" s="4"/>
-      <c r="D245" s="22"/>
-      <c r="E245">
+      <c r="F245" s="5"/>
+      <c r="G245" s="18">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B246" s="4"/>
+      <c r="D246" s="26"/>
+      <c r="E246">
         <v>279</v>
       </c>
-      <c r="F245" s="5"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B246" s="4"/>
-      <c r="D246" s="22"/>
-      <c r="E246">
+      <c r="F246" s="5"/>
+      <c r="G246" s="18">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B247" s="4"/>
+      <c r="D247" s="26"/>
+      <c r="E247">
         <v>280</v>
       </c>
-      <c r="F246" s="5"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B247" s="4"/>
-      <c r="D247" s="22"/>
-      <c r="E247">
+      <c r="F247" s="5"/>
+      <c r="G247" s="18">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B248" s="4"/>
+      <c r="D248" s="26"/>
+      <c r="E248">
         <v>281</v>
       </c>
-      <c r="F247" s="5"/>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B248" s="4"/>
-      <c r="D248" s="22"/>
-      <c r="E248">
+      <c r="F248" s="5"/>
+      <c r="G248" s="18">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B249" s="4"/>
+      <c r="D249" s="26"/>
+      <c r="E249">
         <v>282</v>
       </c>
-      <c r="F248" s="5"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B249" s="4"/>
-      <c r="D249" s="22"/>
-      <c r="E249">
+      <c r="F249" s="5"/>
+      <c r="G249" s="18">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B250" s="4"/>
+      <c r="D250" s="26"/>
+      <c r="E250">
         <v>283</v>
       </c>
-      <c r="F249" s="5"/>
-    </row>
-    <row r="250" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="6"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="23"/>
-      <c r="E250" s="7">
+      <c r="F250" s="5"/>
+      <c r="G250" s="18">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B251" s="6"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="27"/>
+      <c r="E251" s="7">
         <v>284</v>
       </c>
-      <c r="F250" s="8"/>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B251" s="1"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="24" t="s">
+      <c r="F251" s="8"/>
+      <c r="G251" s="18">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B252" s="1"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E251" s="2">
+      <c r="E252" s="2">
         <v>285</v>
       </c>
-      <c r="F251" s="3"/>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B252" s="4"/>
-      <c r="D252" s="25"/>
-      <c r="E252">
+      <c r="F252" s="3"/>
+      <c r="G252" s="18">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B253" s="4"/>
+      <c r="D253" s="29"/>
+      <c r="E253">
         <v>286</v>
       </c>
-      <c r="F252" s="5"/>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B253" s="4"/>
-      <c r="D253" s="25"/>
-      <c r="E253">
+      <c r="F253" s="5"/>
+      <c r="G253" s="18">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B254" s="4"/>
+      <c r="D254" s="29"/>
+      <c r="E254">
         <v>287</v>
       </c>
-      <c r="F253" s="5"/>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B254" s="4"/>
-      <c r="D254" s="25"/>
-      <c r="E254">
+      <c r="F254" s="5"/>
+      <c r="G254" s="18">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B255" s="4"/>
+      <c r="D255" s="29"/>
+      <c r="E255">
         <v>288</v>
       </c>
-      <c r="F254" s="5"/>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B255" s="4"/>
-      <c r="D255" s="25"/>
-      <c r="E255">
+      <c r="F255" s="5"/>
+      <c r="G255" s="18">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B256" s="4"/>
+      <c r="D256" s="29"/>
+      <c r="E256">
         <v>289</v>
       </c>
-      <c r="F255" s="5"/>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B256" s="4"/>
-      <c r="D256" s="25"/>
-      <c r="E256">
+      <c r="F256" s="5"/>
+      <c r="G256" s="18">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B257" s="4"/>
+      <c r="D257" s="29"/>
+      <c r="E257">
         <v>290</v>
       </c>
-      <c r="F256" s="5"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B257" s="4"/>
-      <c r="D257" s="25"/>
-      <c r="E257">
+      <c r="F257" s="5"/>
+      <c r="G257" s="18">
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B258" s="4"/>
+      <c r="D258" s="29"/>
+      <c r="E258">
         <v>291</v>
       </c>
-      <c r="F257" s="5"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B258" s="4"/>
-      <c r="D258" s="25"/>
-      <c r="E258">
+      <c r="F258" s="5"/>
+      <c r="G258" s="18">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B259" s="4"/>
+      <c r="D259" s="29"/>
+      <c r="E259">
         <v>292</v>
       </c>
-      <c r="F258" s="5"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B259" s="4"/>
-      <c r="D259" s="25"/>
-      <c r="E259">
+      <c r="F259" s="5"/>
+      <c r="G259" s="18">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B260" s="4"/>
+      <c r="D260" s="29"/>
+      <c r="E260">
         <v>293</v>
       </c>
-      <c r="F259" s="5"/>
-    </row>
-    <row r="260" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="6"/>
-      <c r="C260" s="7"/>
-      <c r="D260" s="26"/>
-      <c r="E260" s="7">
+      <c r="F260" s="5"/>
+      <c r="G260" s="18">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B261" s="6"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="30"/>
+      <c r="E261" s="7">
         <v>294</v>
       </c>
-      <c r="F260" s="8"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B261" s="1"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="15" t="s">
+      <c r="F261" s="8"/>
+      <c r="G261" s="18">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B262" s="1"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E261" s="2">
+      <c r="E262" s="2">
         <v>295</v>
       </c>
-      <c r="F261" s="3"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B262" s="4"/>
-      <c r="D262" s="16"/>
-      <c r="E262">
+      <c r="F262" s="3"/>
+      <c r="G262" s="18">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B263" s="4"/>
+      <c r="D263" s="20"/>
+      <c r="E263">
         <v>296</v>
       </c>
-      <c r="F262" s="5"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B263" s="4"/>
-      <c r="D263" s="16"/>
-      <c r="E263">
+      <c r="F263" s="5"/>
+      <c r="G263" s="18">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B264" s="4"/>
+      <c r="D264" s="20"/>
+      <c r="E264">
         <v>297</v>
       </c>
-      <c r="F263" s="5"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B264" s="4"/>
-      <c r="D264" s="16"/>
-      <c r="E264">
+      <c r="F264" s="5"/>
+      <c r="G264" s="18">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B265" s="4"/>
+      <c r="D265" s="20"/>
+      <c r="E265">
         <v>298</v>
       </c>
-      <c r="F264" s="5"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B265" s="4"/>
-      <c r="D265" s="16"/>
-      <c r="E265">
+      <c r="F265" s="5"/>
+      <c r="G265" s="18">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B266" s="4"/>
+      <c r="D266" s="20"/>
+      <c r="E266">
         <v>299</v>
       </c>
-      <c r="F265" s="5"/>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B266" s="4"/>
-      <c r="D266" s="16"/>
-      <c r="E266">
+      <c r="F266" s="5"/>
+      <c r="G266" s="18">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B267" s="4"/>
+      <c r="D267" s="20"/>
+      <c r="E267">
         <v>300</v>
       </c>
-      <c r="F266" s="5"/>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B267" s="4"/>
-      <c r="D267" s="16"/>
-      <c r="E267">
+      <c r="F267" s="5"/>
+      <c r="G267" s="18">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B268" s="4"/>
+      <c r="D268" s="20"/>
+      <c r="E268">
         <v>301</v>
       </c>
-      <c r="F267" s="5"/>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B268" s="4"/>
-      <c r="D268" s="16"/>
-      <c r="E268">
+      <c r="F268" s="5"/>
+      <c r="G268" s="18">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B269" s="4"/>
+      <c r="D269" s="20"/>
+      <c r="E269">
         <v>302</v>
       </c>
-      <c r="F268" s="5"/>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B269" s="4"/>
-      <c r="D269" s="16"/>
-      <c r="E269">
+      <c r="F269" s="5"/>
+      <c r="G269" s="18">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B270" s="4"/>
+      <c r="D270" s="20"/>
+      <c r="E270">
         <v>303</v>
       </c>
-      <c r="F269" s="5"/>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B270" s="4"/>
-      <c r="D270" s="16"/>
-      <c r="E270">
+      <c r="F270" s="5"/>
+      <c r="G270" s="18">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B271" s="4"/>
+      <c r="D271" s="20"/>
+      <c r="E271">
         <v>304</v>
       </c>
-      <c r="F270" s="5"/>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B271" s="4"/>
-      <c r="D271" s="16"/>
-      <c r="E271">
+      <c r="F271" s="5"/>
+      <c r="G271" s="18">
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B272" s="4"/>
+      <c r="D272" s="20"/>
+      <c r="E272">
         <v>305</v>
       </c>
-      <c r="F271" s="5"/>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B272" s="4"/>
-      <c r="D272" s="16"/>
-      <c r="E272">
+      <c r="F272" s="5"/>
+      <c r="G272" s="18">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B273" s="4"/>
+      <c r="D273" s="20"/>
+      <c r="E273">
         <v>306</v>
       </c>
-      <c r="F272" s="5"/>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B273" s="4"/>
-      <c r="D273" s="16"/>
-      <c r="E273">
+      <c r="F273" s="5"/>
+      <c r="G273" s="18">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B274" s="4"/>
+      <c r="D274" s="20"/>
+      <c r="E274">
         <v>307</v>
       </c>
-      <c r="F273" s="5"/>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B274" s="4"/>
-      <c r="D274" s="16"/>
-      <c r="E274">
+      <c r="F274" s="5"/>
+      <c r="G274" s="18">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B275" s="4"/>
+      <c r="D275" s="20"/>
+      <c r="E275">
         <v>308</v>
       </c>
-      <c r="F274" s="5"/>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B275" s="4"/>
-      <c r="D275" s="16"/>
-      <c r="E275">
+      <c r="F275" s="5"/>
+      <c r="G275" s="18">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B276" s="4"/>
+      <c r="D276" s="20"/>
+      <c r="E276">
         <v>309</v>
       </c>
-      <c r="F275" s="5"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B276" s="4"/>
-      <c r="D276" s="16"/>
-      <c r="E276">
+      <c r="F276" s="5"/>
+      <c r="G276" s="18">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B277" s="4"/>
+      <c r="D277" s="20"/>
+      <c r="E277">
         <v>310</v>
       </c>
-      <c r="F276" s="5"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B277" s="4"/>
-      <c r="D277" s="16"/>
-      <c r="E277">
+      <c r="F277" s="5"/>
+      <c r="G277" s="18">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B278" s="4"/>
+      <c r="D278" s="20"/>
+      <c r="E278">
         <v>311</v>
       </c>
-      <c r="F277" s="5"/>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B278" s="4"/>
-      <c r="D278" s="16"/>
-      <c r="E278">
+      <c r="F278" s="5"/>
+      <c r="G278" s="18">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B279" s="4"/>
+      <c r="D279" s="20"/>
+      <c r="E279">
         <v>312</v>
       </c>
-      <c r="F278" s="5"/>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B279" s="4"/>
-      <c r="D279" s="16"/>
-      <c r="E279">
+      <c r="F279" s="5"/>
+      <c r="G279" s="18">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B280" s="4"/>
+      <c r="D280" s="20"/>
+      <c r="E280">
         <v>313</v>
       </c>
-      <c r="F279" s="5"/>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B280" s="4"/>
-      <c r="D280" s="16"/>
-      <c r="E280">
+      <c r="F280" s="5"/>
+      <c r="G280" s="18">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B281" s="4"/>
+      <c r="D281" s="20"/>
+      <c r="E281">
         <v>314</v>
       </c>
-      <c r="F280" s="5"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B281" s="4"/>
-      <c r="D281" s="16"/>
-      <c r="E281">
+      <c r="F281" s="5"/>
+      <c r="G281" s="18">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B282" s="4"/>
+      <c r="D282" s="20"/>
+      <c r="E282">
         <v>315</v>
       </c>
-      <c r="F281" s="5"/>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B282" s="4"/>
-      <c r="D282" s="16"/>
-      <c r="E282">
+      <c r="F282" s="5"/>
+      <c r="G282" s="18">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B283" s="4"/>
+      <c r="D283" s="20"/>
+      <c r="E283">
         <v>316</v>
       </c>
-      <c r="F282" s="5"/>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B283" s="4"/>
-      <c r="D283" s="16"/>
-      <c r="E283">
+      <c r="F283" s="5"/>
+      <c r="G283" s="18">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B284" s="4"/>
+      <c r="D284" s="20"/>
+      <c r="E284">
         <v>317</v>
       </c>
-      <c r="F283" s="5"/>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B284" s="4"/>
-      <c r="D284" s="16"/>
-      <c r="E284">
+      <c r="F284" s="5"/>
+      <c r="G284" s="18">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B285" s="4"/>
+      <c r="D285" s="20"/>
+      <c r="E285">
         <v>318</v>
       </c>
-      <c r="F284" s="5"/>
-    </row>
-    <row r="285" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="6"/>
-      <c r="C285" s="7"/>
-      <c r="D285" s="17"/>
-      <c r="E285" s="7">
+      <c r="F285" s="5"/>
+      <c r="G285" s="18">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B286" s="6"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="21"/>
+      <c r="E286" s="7">
         <v>319</v>
       </c>
-      <c r="F285" s="8"/>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B286" s="1"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="15" t="s">
+      <c r="F286" s="8"/>
+      <c r="G286" s="18">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B287" s="1"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E286" s="2">
+      <c r="E287" s="2">
         <v>320</v>
       </c>
-      <c r="F286" s="3"/>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B287" s="4"/>
-      <c r="D287" s="16"/>
-      <c r="E287">
+      <c r="F287" s="3"/>
+      <c r="G287" s="18">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B288" s="4"/>
+      <c r="D288" s="20"/>
+      <c r="E288">
         <v>321</v>
       </c>
-      <c r="F287" s="5"/>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B288" s="4"/>
-      <c r="D288" s="16"/>
-      <c r="E288">
+      <c r="F288" s="5"/>
+      <c r="G288" s="18">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B289" s="4"/>
+      <c r="D289" s="20"/>
+      <c r="E289">
         <v>322</v>
       </c>
-      <c r="F288" s="5"/>
-    </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B289" s="4"/>
-      <c r="D289" s="16"/>
-      <c r="E289">
+      <c r="F289" s="5"/>
+      <c r="G289" s="18">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B290" s="4"/>
+      <c r="D290" s="20"/>
+      <c r="E290">
         <v>323</v>
       </c>
-      <c r="F289" s="5"/>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B290" s="4"/>
-      <c r="D290" s="16"/>
-      <c r="E290">
+      <c r="F290" s="5"/>
+      <c r="G290" s="18">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B291" s="4"/>
+      <c r="D291" s="20"/>
+      <c r="E291">
         <v>324</v>
       </c>
-      <c r="F290" s="5"/>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B291" s="4"/>
-      <c r="D291" s="16"/>
-      <c r="E291">
+      <c r="F291" s="5"/>
+      <c r="G291" s="18">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B292" s="4"/>
+      <c r="D292" s="20"/>
+      <c r="E292">
         <v>325</v>
       </c>
-      <c r="F291" s="5"/>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B292" s="4"/>
-      <c r="D292" s="16"/>
-      <c r="E292">
+      <c r="F292" s="5"/>
+      <c r="G292" s="18">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B293" s="4"/>
+      <c r="D293" s="20"/>
+      <c r="E293">
         <v>326</v>
       </c>
-      <c r="F292" s="5"/>
-    </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B293" s="4"/>
-      <c r="D293" s="16"/>
-      <c r="E293">
+      <c r="F293" s="5"/>
+      <c r="G293" s="18">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B294" s="4"/>
+      <c r="D294" s="20"/>
+      <c r="E294">
         <v>327</v>
       </c>
-      <c r="F293" s="5"/>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B294" s="4"/>
-      <c r="D294" s="16"/>
-      <c r="E294">
+      <c r="F294" s="5"/>
+      <c r="G294" s="18">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B295" s="4"/>
+      <c r="D295" s="20"/>
+      <c r="E295">
         <v>328</v>
       </c>
-      <c r="F294" s="5"/>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B295" s="4"/>
-      <c r="D295" s="16"/>
-      <c r="E295">
+      <c r="F295" s="5"/>
+      <c r="G295" s="18">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B296" s="4"/>
+      <c r="D296" s="20"/>
+      <c r="E296">
         <v>329</v>
       </c>
-      <c r="F295" s="5"/>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B296" s="4"/>
-      <c r="D296" s="16"/>
-      <c r="E296">
+      <c r="F296" s="5"/>
+      <c r="G296" s="18">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B297" s="4"/>
+      <c r="D297" s="20"/>
+      <c r="E297">
         <v>330</v>
       </c>
-      <c r="F296" s="5"/>
-    </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B297" s="4"/>
-      <c r="D297" s="16"/>
-      <c r="E297">
+      <c r="F297" s="5"/>
+      <c r="G297" s="18">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B298" s="4"/>
+      <c r="D298" s="20"/>
+      <c r="E298">
         <v>331</v>
       </c>
-      <c r="F297" s="5"/>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B298" s="4"/>
-      <c r="D298" s="16"/>
-      <c r="E298">
+      <c r="F298" s="5"/>
+      <c r="G298" s="18">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B299" s="4"/>
+      <c r="D299" s="20"/>
+      <c r="E299">
         <v>332</v>
       </c>
-      <c r="F298" s="5"/>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B299" s="4"/>
-      <c r="D299" s="16"/>
-      <c r="E299">
+      <c r="F299" s="5"/>
+      <c r="G299" s="18">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B300" s="4"/>
+      <c r="D300" s="20"/>
+      <c r="E300">
         <v>333</v>
       </c>
-      <c r="F299" s="5"/>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B300" s="4"/>
-      <c r="D300" s="16"/>
-      <c r="E300">
+      <c r="F300" s="5"/>
+      <c r="G300" s="18">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B301" s="4"/>
+      <c r="D301" s="20"/>
+      <c r="E301">
         <v>334</v>
       </c>
-      <c r="F300" s="5"/>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B301" s="4"/>
-      <c r="D301" s="16"/>
-      <c r="E301">
+      <c r="F301" s="5"/>
+      <c r="G301" s="18">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B302" s="4"/>
+      <c r="D302" s="20"/>
+      <c r="E302">
         <v>335</v>
       </c>
-      <c r="F301" s="5"/>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B302" s="4"/>
-      <c r="D302" s="16"/>
-      <c r="E302">
+      <c r="F302" s="5"/>
+      <c r="G302" s="18">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B303" s="4"/>
+      <c r="D303" s="20"/>
+      <c r="E303">
         <v>336</v>
       </c>
-      <c r="F302" s="5"/>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B303" s="4"/>
-      <c r="D303" s="16"/>
-      <c r="E303">
+      <c r="F303" s="5"/>
+      <c r="G303" s="18">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B304" s="4"/>
+      <c r="D304" s="20"/>
+      <c r="E304">
         <v>337</v>
       </c>
-      <c r="F303" s="5"/>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B304" s="4"/>
-      <c r="D304" s="16"/>
-      <c r="E304">
+      <c r="F304" s="5"/>
+      <c r="G304" s="18">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B305" s="4"/>
+      <c r="D305" s="20"/>
+      <c r="E305">
         <v>338</v>
       </c>
-      <c r="F304" s="5"/>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B305" s="4"/>
-      <c r="D305" s="16"/>
-      <c r="E305">
+      <c r="F305" s="5"/>
+      <c r="G305" s="18">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B306" s="4"/>
+      <c r="D306" s="20"/>
+      <c r="E306">
         <v>339</v>
       </c>
-      <c r="F305" s="5"/>
-    </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B306" s="4"/>
-      <c r="D306" s="16"/>
-      <c r="E306">
+      <c r="F306" s="5"/>
+      <c r="G306" s="18">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B307" s="4"/>
+      <c r="D307" s="20"/>
+      <c r="E307">
         <v>340</v>
       </c>
-      <c r="F306" s="5"/>
-    </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B307" s="4"/>
-      <c r="D307" s="16"/>
-      <c r="E307">
+      <c r="F307" s="5"/>
+      <c r="G307" s="18">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B308" s="4"/>
+      <c r="D308" s="20"/>
+      <c r="E308">
         <v>341</v>
       </c>
-      <c r="F307" s="5"/>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B308" s="4"/>
-      <c r="D308" s="16"/>
-      <c r="E308">
+      <c r="F308" s="5"/>
+      <c r="G308" s="18">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B309" s="4"/>
+      <c r="D309" s="20"/>
+      <c r="E309">
         <v>342</v>
       </c>
-      <c r="F308" s="5"/>
-    </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B309" s="4"/>
-      <c r="D309" s="16"/>
-      <c r="E309">
+      <c r="F309" s="5"/>
+      <c r="G309" s="18">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B310" s="4"/>
+      <c r="D310" s="20"/>
+      <c r="E310">
         <v>343</v>
       </c>
-      <c r="F309" s="5"/>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B310" s="4"/>
-      <c r="D310" s="16"/>
-      <c r="E310">
+      <c r="F310" s="5"/>
+      <c r="G310" s="18">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B311" s="4"/>
+      <c r="D311" s="20"/>
+      <c r="E311">
         <v>344</v>
       </c>
-      <c r="F310" s="5"/>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B311" s="4"/>
-      <c r="D311" s="16"/>
-      <c r="E311">
+      <c r="F311" s="5"/>
+      <c r="G311" s="18">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B312" s="4"/>
+      <c r="D312" s="20"/>
+      <c r="E312">
         <v>345</v>
       </c>
-      <c r="F311" s="5"/>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B312" s="4"/>
-      <c r="D312" s="16"/>
-      <c r="E312">
+      <c r="F312" s="5"/>
+      <c r="G312" s="18">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B313" s="4"/>
+      <c r="D313" s="20"/>
+      <c r="E313">
         <v>346</v>
       </c>
-      <c r="F312" s="5"/>
-    </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B313" s="4"/>
-      <c r="D313" s="16"/>
-      <c r="E313">
+      <c r="F313" s="5"/>
+      <c r="G313" s="18">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B314" s="4"/>
+      <c r="D314" s="20"/>
+      <c r="E314">
         <v>347</v>
       </c>
-      <c r="F313" s="5"/>
-    </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B314" s="4"/>
-      <c r="D314" s="16"/>
-      <c r="E314">
+      <c r="F314" s="5"/>
+      <c r="G314" s="18">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B315" s="4"/>
+      <c r="D315" s="20"/>
+      <c r="E315">
         <v>348</v>
       </c>
-      <c r="F314" s="5"/>
-    </row>
-    <row r="315" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B315" s="6"/>
-      <c r="C315" s="7"/>
-      <c r="D315" s="17"/>
-      <c r="E315" s="7">
+      <c r="F315" s="5"/>
+      <c r="G315" s="18">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B316" s="6"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="21"/>
+      <c r="E316" s="7">
         <v>349</v>
       </c>
-      <c r="F315" s="8"/>
-    </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B316" s="1"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="24" t="s">
+      <c r="F316" s="8"/>
+      <c r="G316" s="18">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B317" s="1"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E316" s="2">
+      <c r="E317" s="2">
         <v>350</v>
       </c>
-      <c r="F316" s="3"/>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B317" s="4"/>
-      <c r="D317" s="25"/>
-      <c r="E317">
+      <c r="F317" s="3"/>
+      <c r="G317" s="18">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B318" s="4"/>
+      <c r="D318" s="29"/>
+      <c r="E318">
         <v>351</v>
       </c>
-      <c r="F317" s="5"/>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B318" s="4"/>
-      <c r="D318" s="25"/>
-      <c r="E318">
+      <c r="F318" s="5"/>
+      <c r="G318" s="18">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B319" s="4"/>
+      <c r="D319" s="29"/>
+      <c r="E319">
         <v>352</v>
       </c>
-      <c r="F318" s="5"/>
-    </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B319" s="4"/>
-      <c r="D319" s="25"/>
-      <c r="E319">
+      <c r="F319" s="5"/>
+      <c r="G319" s="18">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B320" s="4"/>
+      <c r="D320" s="29"/>
+      <c r="E320">
         <v>353</v>
       </c>
-      <c r="F319" s="5"/>
-    </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B320" s="4"/>
-      <c r="D320" s="25"/>
-      <c r="E320">
+      <c r="F320" s="5"/>
+      <c r="G320" s="18">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B321" s="4"/>
+      <c r="D321" s="29"/>
+      <c r="E321">
         <v>354</v>
       </c>
-      <c r="F320" s="5"/>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B321" s="4"/>
-      <c r="D321" s="25"/>
-      <c r="E321">
+      <c r="F321" s="5"/>
+      <c r="G321" s="18">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B322" s="4"/>
+      <c r="D322" s="29"/>
+      <c r="E322">
         <v>355</v>
       </c>
-      <c r="F321" s="5"/>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B322" s="4"/>
-      <c r="D322" s="25"/>
-      <c r="E322">
+      <c r="F322" s="5"/>
+      <c r="G322" s="18">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B323" s="4"/>
+      <c r="D323" s="29"/>
+      <c r="E323">
         <v>356</v>
       </c>
-      <c r="F322" s="5"/>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B323" s="4"/>
-      <c r="D323" s="25"/>
-      <c r="E323">
+      <c r="F323" s="5"/>
+      <c r="G323" s="18">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B324" s="4"/>
+      <c r="D324" s="29"/>
+      <c r="E324">
         <v>357</v>
       </c>
-      <c r="F323" s="5"/>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B324" s="4"/>
-      <c r="D324" s="25"/>
-      <c r="E324">
+      <c r="F324" s="5"/>
+      <c r="G324" s="18">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B325" s="4"/>
+      <c r="D325" s="29"/>
+      <c r="E325">
         <v>358</v>
       </c>
-      <c r="F324" s="5"/>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B325" s="4"/>
-      <c r="D325" s="25"/>
-      <c r="E325">
+      <c r="F325" s="5"/>
+      <c r="G325" s="18">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B326" s="4"/>
+      <c r="D326" s="29"/>
+      <c r="E326">
         <v>359</v>
       </c>
-      <c r="F325" s="5"/>
-    </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B326" s="4"/>
-      <c r="D326" s="25"/>
-      <c r="E326">
+      <c r="F326" s="5"/>
+      <c r="G326" s="18">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B327" s="4"/>
+      <c r="D327" s="29"/>
+      <c r="E327">
         <v>360</v>
       </c>
-      <c r="F326" s="5"/>
-    </row>
-    <row r="327" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B327" s="6"/>
-      <c r="C327" s="7"/>
-      <c r="D327" s="26"/>
-      <c r="E327" s="7">
+      <c r="F327" s="5"/>
+      <c r="G327" s="18">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B328" s="6"/>
+      <c r="C328" s="7"/>
+      <c r="D328" s="30"/>
+      <c r="E328" s="7">
         <v>361</v>
       </c>
-      <c r="F327" s="8"/>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B328" s="1"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="15" t="s">
+      <c r="F328" s="8"/>
+      <c r="G328" s="18">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B329" s="1"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E328" s="2">
+      <c r="E329" s="2">
         <v>362</v>
       </c>
-      <c r="F328" s="3"/>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B329" s="4"/>
-      <c r="D329" s="16"/>
-      <c r="E329">
+      <c r="F329" s="3"/>
+      <c r="G329" s="18">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B330" s="4"/>
+      <c r="D330" s="20"/>
+      <c r="E330">
         <v>363</v>
       </c>
-      <c r="F329" s="5"/>
-    </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B330" s="4"/>
-      <c r="D330" s="16"/>
-      <c r="E330">
+      <c r="F330" s="5"/>
+      <c r="G330" s="18">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B331" s="4"/>
+      <c r="D331" s="20"/>
+      <c r="E331">
         <v>364</v>
       </c>
-      <c r="F330" s="5"/>
-    </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B331" s="4"/>
-      <c r="D331" s="16"/>
-      <c r="E331">
+      <c r="F331" s="5"/>
+      <c r="G331" s="18">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B332" s="4"/>
+      <c r="D332" s="20"/>
+      <c r="E332">
         <v>365</v>
       </c>
-      <c r="F331" s="5"/>
-    </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B332" s="4"/>
-      <c r="D332" s="16"/>
-      <c r="E332">
+      <c r="F332" s="5"/>
+      <c r="G332" s="18">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B333" s="4"/>
+      <c r="D333" s="20"/>
+      <c r="E333">
         <v>366</v>
       </c>
-      <c r="F332" s="5"/>
-    </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B333" s="4"/>
-      <c r="D333" s="16"/>
-      <c r="E333">
+      <c r="F333" s="5"/>
+      <c r="G333" s="18">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B334" s="4"/>
+      <c r="D334" s="20"/>
+      <c r="E334">
         <v>367</v>
       </c>
-      <c r="F333" s="5"/>
-    </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B334" s="4"/>
-      <c r="D334" s="16"/>
-      <c r="E334">
+      <c r="F334" s="5"/>
+      <c r="G334" s="18">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B335" s="4"/>
+      <c r="D335" s="20"/>
+      <c r="E335">
         <v>368</v>
       </c>
-      <c r="F334" s="5"/>
-    </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B335" s="4"/>
-      <c r="D335" s="16"/>
-      <c r="E335">
+      <c r="F335" s="5"/>
+      <c r="G335" s="18">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B336" s="4"/>
+      <c r="D336" s="20"/>
+      <c r="E336">
         <v>369</v>
       </c>
-      <c r="F335" s="5"/>
-    </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B336" s="4"/>
-      <c r="D336" s="16"/>
-      <c r="E336">
+      <c r="F336" s="5"/>
+      <c r="G336" s="18">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B337" s="4"/>
+      <c r="D337" s="20"/>
+      <c r="E337">
         <v>370</v>
       </c>
-      <c r="F336" s="5"/>
-    </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B337" s="4"/>
-      <c r="D337" s="16"/>
-      <c r="E337">
+      <c r="F337" s="5"/>
+      <c r="G337" s="18">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B338" s="4"/>
+      <c r="D338" s="20"/>
+      <c r="E338">
         <v>371</v>
       </c>
-      <c r="F337" s="5"/>
-    </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B338" s="4"/>
-      <c r="D338" s="16"/>
-      <c r="E338">
+      <c r="F338" s="5"/>
+      <c r="G338" s="18">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B339" s="4"/>
+      <c r="D339" s="20"/>
+      <c r="E339">
         <v>372</v>
       </c>
-      <c r="F338" s="5"/>
-    </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B339" s="4"/>
-      <c r="D339" s="16"/>
-      <c r="E339">
+      <c r="F339" s="5"/>
+      <c r="G339" s="18">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B340" s="4"/>
+      <c r="D340" s="20"/>
+      <c r="E340">
         <v>373</v>
       </c>
-      <c r="F339" s="5"/>
-    </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B340" s="4"/>
-      <c r="D340" s="16"/>
-      <c r="E340">
+      <c r="F340" s="5"/>
+      <c r="G340" s="18">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B341" s="4"/>
+      <c r="D341" s="20"/>
+      <c r="E341">
         <v>374</v>
       </c>
-      <c r="F340" s="5"/>
-    </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B341" s="4"/>
-      <c r="D341" s="16"/>
-      <c r="E341">
+      <c r="F341" s="5"/>
+      <c r="G341" s="18">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B342" s="4"/>
+      <c r="D342" s="20"/>
+      <c r="E342">
         <v>375</v>
       </c>
-      <c r="F341" s="5"/>
-    </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B342" s="4"/>
-      <c r="D342" s="16"/>
-      <c r="E342">
+      <c r="F342" s="5"/>
+      <c r="G342" s="18">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B343" s="4"/>
+      <c r="D343" s="20"/>
+      <c r="E343">
         <v>376</v>
       </c>
-      <c r="F342" s="5"/>
-    </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B343" s="4"/>
-      <c r="D343" s="16"/>
-      <c r="E343">
+      <c r="F343" s="5"/>
+      <c r="G343" s="18">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B344" s="4"/>
+      <c r="D344" s="20"/>
+      <c r="E344">
         <v>377</v>
       </c>
-      <c r="F343" s="5"/>
-    </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B344" s="4"/>
-      <c r="D344" s="16"/>
-      <c r="E344">
+      <c r="F344" s="5"/>
+      <c r="G344" s="18">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B345" s="4"/>
+      <c r="D345" s="20"/>
+      <c r="E345">
         <v>378</v>
       </c>
-      <c r="F344" s="5"/>
-    </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B345" s="4"/>
-      <c r="D345" s="16"/>
-      <c r="E345">
+      <c r="F345" s="5"/>
+      <c r="G345" s="18">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B346" s="4"/>
+      <c r="D346" s="20"/>
+      <c r="E346">
         <v>379</v>
       </c>
-      <c r="F345" s="5"/>
-    </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B346" s="4"/>
-      <c r="D346" s="16"/>
-      <c r="E346">
+      <c r="F346" s="5"/>
+      <c r="G346" s="18">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B347" s="4"/>
+      <c r="D347" s="20"/>
+      <c r="E347">
         <v>380</v>
       </c>
-      <c r="F346" s="5"/>
-    </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B347" s="4"/>
-      <c r="D347" s="16"/>
-      <c r="E347">
+      <c r="F347" s="5"/>
+      <c r="G347" s="18">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B348" s="4"/>
+      <c r="D348" s="20"/>
+      <c r="E348">
         <v>381</v>
       </c>
-      <c r="F347" s="5"/>
-    </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B348" s="4"/>
-      <c r="D348" s="16"/>
-      <c r="E348">
+      <c r="F348" s="5"/>
+      <c r="G348" s="18">
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B349" s="4"/>
+      <c r="D349" s="20"/>
+      <c r="E349">
         <v>382</v>
       </c>
-      <c r="F348" s="5"/>
-    </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B349" s="4"/>
-      <c r="D349" s="16"/>
-      <c r="E349">
+      <c r="F349" s="5"/>
+      <c r="G349" s="18">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B350" s="4"/>
+      <c r="D350" s="20"/>
+      <c r="E350">
         <v>383</v>
       </c>
-      <c r="F349" s="5"/>
-    </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B350" s="4"/>
-      <c r="D350" s="16"/>
-      <c r="E350">
+      <c r="F350" s="5"/>
+      <c r="G350" s="18">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B351" s="4"/>
+      <c r="D351" s="20"/>
+      <c r="E351">
         <v>384</v>
       </c>
-      <c r="F350" s="5"/>
-    </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B351" s="4"/>
-      <c r="D351" s="16"/>
-      <c r="E351">
+      <c r="F351" s="5"/>
+      <c r="G351" s="18">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B352" s="4"/>
+      <c r="D352" s="20"/>
+      <c r="E352">
         <v>385</v>
       </c>
-      <c r="F351" s="5"/>
-    </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B352" s="4"/>
-      <c r="D352" s="16"/>
-      <c r="E352">
+      <c r="F352" s="5"/>
+      <c r="G352" s="18">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B353" s="4"/>
+      <c r="D353" s="20"/>
+      <c r="E353">
         <v>386</v>
       </c>
-      <c r="F352" s="5"/>
-    </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B353" s="4"/>
-      <c r="D353" s="16"/>
-      <c r="E353">
+      <c r="F353" s="5"/>
+      <c r="G353" s="18">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B354" s="4"/>
+      <c r="D354" s="20"/>
+      <c r="E354">
         <v>387</v>
       </c>
-      <c r="F353" s="5"/>
-    </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B354" s="4"/>
-      <c r="D354" s="16"/>
-      <c r="E354">
+      <c r="F354" s="5"/>
+      <c r="G354" s="18">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B355" s="4"/>
+      <c r="D355" s="20"/>
+      <c r="E355">
         <v>388</v>
       </c>
-      <c r="F354" s="5"/>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B355" s="4"/>
-      <c r="D355" s="16"/>
-      <c r="E355">
+      <c r="F355" s="5"/>
+      <c r="G355" s="18">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B356" s="4"/>
+      <c r="D356" s="20"/>
+      <c r="E356">
         <v>389</v>
       </c>
-      <c r="F355" s="5"/>
-    </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B356" s="4"/>
-      <c r="D356" s="16"/>
-      <c r="E356">
+      <c r="F356" s="5"/>
+      <c r="G356" s="18">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B357" s="4"/>
+      <c r="D357" s="20"/>
+      <c r="E357">
         <v>390</v>
       </c>
-      <c r="F356" s="5"/>
-    </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B357" s="4"/>
-      <c r="D357" s="16"/>
-      <c r="E357">
+      <c r="F357" s="5"/>
+      <c r="G357" s="18">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B358" s="4"/>
+      <c r="D358" s="20"/>
+      <c r="E358">
         <v>391</v>
       </c>
-      <c r="F357" s="5"/>
-    </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B358" s="4"/>
-      <c r="D358" s="16"/>
-      <c r="E358">
+      <c r="F358" s="5"/>
+      <c r="G358" s="18">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B359" s="4"/>
+      <c r="D359" s="20"/>
+      <c r="E359">
         <v>392</v>
       </c>
-      <c r="F358" s="5"/>
-    </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B359" s="4"/>
-      <c r="D359" s="16"/>
-      <c r="E359">
+      <c r="F359" s="5"/>
+      <c r="G359" s="18">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B360" s="4"/>
+      <c r="D360" s="20"/>
+      <c r="E360">
         <v>393</v>
       </c>
-      <c r="F359" s="5"/>
-    </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B360" s="4"/>
-      <c r="D360" s="16"/>
-      <c r="E360">
+      <c r="F360" s="5"/>
+      <c r="G360" s="18">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B361" s="4"/>
+      <c r="D361" s="20"/>
+      <c r="E361">
         <v>394</v>
       </c>
-      <c r="F360" s="5"/>
-    </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B361" s="4"/>
-      <c r="D361" s="16"/>
-      <c r="E361">
+      <c r="F361" s="5"/>
+      <c r="G361" s="18">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B362" s="4"/>
+      <c r="D362" s="20"/>
+      <c r="E362">
         <v>395</v>
       </c>
-      <c r="F361" s="5"/>
-    </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B362" s="4"/>
-      <c r="D362" s="16"/>
-      <c r="E362">
+      <c r="F362" s="5"/>
+      <c r="G362" s="18">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B363" s="4"/>
+      <c r="D363" s="20"/>
+      <c r="E363">
         <v>396</v>
       </c>
-      <c r="F362" s="5"/>
-    </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B363" s="4"/>
-      <c r="D363" s="16"/>
-      <c r="E363">
+      <c r="F363" s="5"/>
+      <c r="G363" s="18">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B364" s="4"/>
+      <c r="D364" s="20"/>
+      <c r="E364">
         <v>397</v>
       </c>
-      <c r="F363" s="5"/>
-    </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B364" s="4"/>
-      <c r="D364" s="16"/>
-      <c r="E364">
+      <c r="F364" s="5"/>
+      <c r="G364" s="18">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B365" s="4"/>
+      <c r="D365" s="20"/>
+      <c r="E365">
         <v>398</v>
       </c>
-      <c r="F364" s="5"/>
-    </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B365" s="4"/>
-      <c r="D365" s="16"/>
-      <c r="E365">
+      <c r="F365" s="5"/>
+      <c r="G365" s="18">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B366" s="4"/>
+      <c r="D366" s="20"/>
+      <c r="E366">
         <v>399</v>
       </c>
-      <c r="F365" s="5"/>
-    </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B366" s="4"/>
-      <c r="D366" s="16"/>
-      <c r="E366">
+      <c r="F366" s="5"/>
+      <c r="G366" s="18">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B367" s="4"/>
+      <c r="D367" s="20"/>
+      <c r="E367">
         <v>400</v>
       </c>
-      <c r="F366" s="5"/>
-    </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B367" s="4"/>
-      <c r="D367" s="16"/>
-      <c r="E367">
+      <c r="F367" s="5"/>
+      <c r="G367" s="18">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B368" s="4"/>
+      <c r="D368" s="20"/>
+      <c r="E368">
         <v>401</v>
       </c>
-      <c r="F367" s="5"/>
-    </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B368" s="4"/>
-      <c r="D368" s="16"/>
-      <c r="E368">
+      <c r="F368" s="5"/>
+      <c r="G368" s="18">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="369" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B369" s="4"/>
+      <c r="D369" s="20"/>
+      <c r="E369">
         <v>402</v>
       </c>
-      <c r="F368" s="5"/>
-    </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B369" s="4"/>
-      <c r="D369" s="16"/>
-      <c r="E369">
+      <c r="F369" s="5"/>
+      <c r="G369" s="18">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="370" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B370" s="4"/>
+      <c r="D370" s="20"/>
+      <c r="E370">
         <v>403</v>
       </c>
-      <c r="F369" s="5"/>
-    </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B370" s="4"/>
-      <c r="D370" s="16"/>
-      <c r="E370">
+      <c r="F370" s="5"/>
+      <c r="G370" s="18">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="371" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B371" s="4"/>
+      <c r="D371" s="20"/>
+      <c r="E371">
         <v>404</v>
       </c>
-      <c r="F370" s="5"/>
-    </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B371" s="4"/>
-      <c r="D371" s="16"/>
-      <c r="E371">
+      <c r="F371" s="5"/>
+      <c r="G371" s="18">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="372" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B372" s="4"/>
+      <c r="D372" s="20"/>
+      <c r="E372">
         <v>405</v>
       </c>
-      <c r="F371" s="5"/>
-    </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B372" s="4"/>
-      <c r="D372" s="16"/>
-      <c r="E372">
+      <c r="F372" s="5"/>
+      <c r="G372" s="18">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B373" s="4"/>
+      <c r="D373" s="20"/>
+      <c r="E373">
         <v>406</v>
       </c>
-      <c r="F372" s="5"/>
-    </row>
-    <row r="373" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B373" s="6"/>
-      <c r="C373" s="7"/>
-      <c r="D373" s="17"/>
-      <c r="E373" s="7">
+      <c r="F373" s="5"/>
+      <c r="G373" s="18">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="374" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B374" s="6"/>
+      <c r="C374" s="7"/>
+      <c r="D374" s="21"/>
+      <c r="E374" s="7">
         <v>407</v>
       </c>
-      <c r="F373" s="8"/>
-    </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B374" s="1"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="18" t="s">
+      <c r="F374" s="8"/>
+      <c r="G374" s="18">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="375" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B375" s="1"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E374" s="2">
+      <c r="E375" s="2">
         <v>408</v>
       </c>
-      <c r="F374" s="3"/>
-    </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B375" s="4"/>
-      <c r="D375" s="19"/>
-      <c r="E375">
+      <c r="F375" s="3"/>
+      <c r="G375" s="18">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="376" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B376" s="4"/>
+      <c r="D376" s="23"/>
+      <c r="E376">
         <v>409</v>
       </c>
-      <c r="F375" s="5"/>
-    </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B376" s="4"/>
-      <c r="D376" s="19"/>
-      <c r="E376">
+      <c r="F376" s="5"/>
+      <c r="G376" s="18">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="377" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B377" s="4"/>
+      <c r="D377" s="23"/>
+      <c r="E377">
         <v>410</v>
       </c>
-      <c r="F376" s="5"/>
-    </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B377" s="4"/>
-      <c r="D377" s="19"/>
-      <c r="E377">
+      <c r="F377" s="5"/>
+      <c r="G377" s="18">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="378" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B378" s="4"/>
+      <c r="D378" s="23"/>
+      <c r="E378">
         <v>411</v>
       </c>
-      <c r="F377" s="5"/>
-    </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B378" s="4"/>
-      <c r="D378" s="19"/>
-      <c r="E378">
+      <c r="F378" s="5"/>
+      <c r="G378" s="18">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B379" s="4"/>
+      <c r="D379" s="23"/>
+      <c r="E379">
         <v>412</v>
       </c>
-      <c r="F378" s="5"/>
-    </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B379" s="4"/>
-      <c r="D379" s="19"/>
-      <c r="E379">
+      <c r="F379" s="5"/>
+      <c r="G379" s="18">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="380" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B380" s="4"/>
+      <c r="D380" s="23"/>
+      <c r="E380">
         <v>413</v>
       </c>
-      <c r="F379" s="5"/>
-    </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B380" s="4"/>
-      <c r="D380" s="19"/>
-      <c r="E380">
+      <c r="F380" s="5"/>
+      <c r="G380" s="18">
+        <v>45756</v>
+      </c>
+    </row>
+    <row r="381" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B381" s="4"/>
+      <c r="D381" s="23"/>
+      <c r="E381">
         <v>414</v>
       </c>
-      <c r="F380" s="5"/>
-    </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B381" s="4"/>
-      <c r="D381" s="19"/>
-      <c r="E381">
+      <c r="F381" s="5"/>
+      <c r="G381" s="18">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="382" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B382" s="4"/>
+      <c r="D382" s="23"/>
+      <c r="E382">
         <v>415</v>
       </c>
-      <c r="F381" s="5"/>
-    </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B382" s="4"/>
-      <c r="D382" s="19"/>
-      <c r="E382">
+      <c r="F382" s="5"/>
+      <c r="G382" s="18">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="383" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B383" s="4"/>
+      <c r="D383" s="23"/>
+      <c r="E383">
         <v>416</v>
       </c>
-      <c r="F382" s="5"/>
-    </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B383" s="4"/>
-      <c r="D383" s="19"/>
-      <c r="E383">
+      <c r="F383" s="5"/>
+      <c r="G383" s="18">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="384" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B384" s="4"/>
+      <c r="D384" s="23"/>
+      <c r="E384">
         <v>417</v>
       </c>
-      <c r="F383" s="5"/>
-    </row>
-    <row r="384" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B384" s="6"/>
-      <c r="C384" s="7"/>
-      <c r="D384" s="20"/>
-      <c r="E384" s="7">
+      <c r="F384" s="5"/>
+      <c r="G384" s="18">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="385" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B385" s="6"/>
+      <c r="C385" s="7"/>
+      <c r="D385" s="24"/>
+      <c r="E385" s="7">
         <v>418</v>
       </c>
-      <c r="F384" s="8"/>
-    </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B385" s="1"/>
-      <c r="C385" s="2"/>
-      <c r="D385" s="15" t="s">
+      <c r="F385" s="8"/>
+      <c r="G385" s="18">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="386" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B386" s="1"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E385" s="2">
+      <c r="E386" s="2">
         <v>419</v>
       </c>
-      <c r="F385" s="3"/>
-    </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B386" s="4"/>
-      <c r="D386" s="16"/>
-      <c r="E386">
+      <c r="F386" s="3"/>
+      <c r="G386" s="18">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="387" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B387" s="4"/>
+      <c r="D387" s="20"/>
+      <c r="E387">
         <v>420</v>
       </c>
-      <c r="F386" s="5"/>
-    </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B387" s="4"/>
-      <c r="D387" s="16"/>
-      <c r="E387">
+      <c r="F387" s="5"/>
+      <c r="G387" s="18">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B388" s="4"/>
+      <c r="D388" s="20"/>
+      <c r="E388">
         <v>421</v>
       </c>
-      <c r="F387" s="5"/>
-    </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B388" s="4"/>
-      <c r="D388" s="16"/>
-      <c r="E388">
+      <c r="F388" s="5"/>
+      <c r="G388" s="18">
+        <v>45764</v>
+      </c>
+    </row>
+    <row r="389" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B389" s="4"/>
+      <c r="D389" s="20"/>
+      <c r="E389">
         <v>422</v>
       </c>
-      <c r="F388" s="5"/>
-    </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B389" s="4"/>
-      <c r="D389" s="16"/>
-      <c r="E389">
+      <c r="F389" s="5"/>
+      <c r="G389" s="18">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="390" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B390" s="4"/>
+      <c r="D390" s="20"/>
+      <c r="E390">
         <v>423</v>
       </c>
-      <c r="F389" s="5"/>
-    </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B390" s="4"/>
-      <c r="D390" s="16"/>
-      <c r="E390">
+      <c r="F390" s="5"/>
+      <c r="G390" s="18">
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="391" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B391" s="4"/>
+      <c r="D391" s="20"/>
+      <c r="E391">
         <v>424</v>
       </c>
-      <c r="F390" s="5"/>
-    </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B391" s="4"/>
-      <c r="D391" s="16"/>
-      <c r="E391">
+      <c r="F391" s="5"/>
+      <c r="G391" s="18">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="392" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B392" s="4"/>
+      <c r="D392" s="20"/>
+      <c r="E392">
         <v>425</v>
       </c>
-      <c r="F391" s="5"/>
-    </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B392" s="4"/>
-      <c r="D392" s="16"/>
-      <c r="E392">
+      <c r="F392" s="5"/>
+      <c r="G392" s="18">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="393" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B393" s="4"/>
+      <c r="D393" s="20"/>
+      <c r="E393">
         <v>426</v>
       </c>
-      <c r="F392" s="5"/>
-    </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B393" s="4"/>
-      <c r="D393" s="16"/>
-      <c r="E393">
+      <c r="F393" s="5"/>
+      <c r="G393" s="18">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="394" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B394" s="4"/>
+      <c r="D394" s="20"/>
+      <c r="E394">
         <v>427</v>
       </c>
-      <c r="F393" s="5"/>
-    </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B394" s="4"/>
-      <c r="D394" s="16"/>
-      <c r="E394">
+      <c r="F394" s="5"/>
+      <c r="G394" s="18">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="395" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B395" s="4"/>
+      <c r="D395" s="20"/>
+      <c r="E395">
         <v>428</v>
       </c>
-      <c r="F394" s="5"/>
-    </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B395" s="4"/>
-      <c r="D395" s="16"/>
-      <c r="E395">
+      <c r="F395" s="5"/>
+      <c r="G395" s="18">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="396" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B396" s="4"/>
+      <c r="D396" s="20"/>
+      <c r="E396">
         <v>429</v>
       </c>
-      <c r="F395" s="5"/>
-    </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B396" s="4"/>
-      <c r="D396" s="16"/>
-      <c r="E396">
+      <c r="F396" s="5"/>
+      <c r="G396" s="18">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="397" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B397" s="4"/>
+      <c r="D397" s="20"/>
+      <c r="E397">
         <v>430</v>
       </c>
-      <c r="F396" s="5"/>
-    </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B397" s="4"/>
-      <c r="D397" s="16"/>
-      <c r="E397">
+      <c r="F397" s="5"/>
+      <c r="G397" s="18">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="398" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B398" s="4"/>
+      <c r="D398" s="20"/>
+      <c r="E398">
         <v>431</v>
       </c>
-      <c r="F397" s="5"/>
-    </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B398" s="4"/>
-      <c r="D398" s="16"/>
-      <c r="E398">
+      <c r="F398" s="5"/>
+      <c r="G398" s="18">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="399" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B399" s="4"/>
+      <c r="D399" s="20"/>
+      <c r="E399">
         <v>432</v>
       </c>
-      <c r="F398" s="5"/>
-    </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B399" s="4"/>
-      <c r="D399" s="16"/>
-      <c r="E399">
+      <c r="F399" s="5"/>
+      <c r="G399" s="18">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="400" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B400" s="4"/>
+      <c r="D400" s="20"/>
+      <c r="E400">
         <v>433</v>
       </c>
-      <c r="F399" s="5"/>
-    </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B400" s="4"/>
-      <c r="D400" s="16"/>
-      <c r="E400">
+      <c r="F400" s="5"/>
+      <c r="G400" s="18">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="401" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B401" s="4"/>
+      <c r="D401" s="20"/>
+      <c r="E401">
         <v>434</v>
       </c>
-      <c r="F400" s="5"/>
-    </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B401" s="4"/>
-      <c r="D401" s="16"/>
-      <c r="E401">
+      <c r="F401" s="5"/>
+      <c r="G401" s="18">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="402" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B402" s="4"/>
+      <c r="D402" s="20"/>
+      <c r="E402">
         <v>435</v>
       </c>
-      <c r="F401" s="5"/>
-    </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B402" s="4"/>
-      <c r="D402" s="16"/>
-      <c r="E402">
+      <c r="F402" s="5"/>
+      <c r="G402" s="18">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="403" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B403" s="4"/>
+      <c r="D403" s="20"/>
+      <c r="E403">
         <v>436</v>
       </c>
-      <c r="F402" s="5"/>
-    </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B403" s="4"/>
-      <c r="D403" s="16"/>
-      <c r="E403">
+      <c r="F403" s="5"/>
+      <c r="G403" s="18">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="404" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B404" s="4"/>
+      <c r="D404" s="20"/>
+      <c r="E404">
         <v>437</v>
       </c>
-      <c r="F403" s="5"/>
-    </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B404" s="4"/>
-      <c r="D404" s="16"/>
-      <c r="E404">
+      <c r="F404" s="5"/>
+      <c r="G404" s="18">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="405" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B405" s="4"/>
+      <c r="D405" s="20"/>
+      <c r="E405">
         <v>438</v>
       </c>
-      <c r="F404" s="5"/>
-    </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B405" s="4"/>
-      <c r="D405" s="16"/>
-      <c r="E405">
+      <c r="F405" s="5"/>
+      <c r="G405" s="18">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="406" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B406" s="4"/>
+      <c r="D406" s="20"/>
+      <c r="E406">
         <v>439</v>
       </c>
-      <c r="F405" s="5"/>
-    </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B406" s="4"/>
-      <c r="D406" s="16"/>
-      <c r="E406">
+      <c r="F406" s="5"/>
+      <c r="G406" s="18">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="407" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B407" s="4"/>
+      <c r="D407" s="20"/>
+      <c r="E407">
         <v>440</v>
       </c>
-      <c r="F406" s="5"/>
-    </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B407" s="4"/>
-      <c r="D407" s="16"/>
-      <c r="E407">
+      <c r="F407" s="5"/>
+      <c r="G407" s="18">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="408" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B408" s="4"/>
+      <c r="D408" s="20"/>
+      <c r="E408">
         <v>441</v>
       </c>
-      <c r="F407" s="5"/>
-    </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B408" s="4"/>
-      <c r="D408" s="16"/>
-      <c r="E408">
+      <c r="F408" s="5"/>
+      <c r="G408" s="18">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="409" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B409" s="4"/>
+      <c r="D409" s="20"/>
+      <c r="E409">
         <v>442</v>
       </c>
-      <c r="F408" s="5"/>
-    </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B409" s="4"/>
-      <c r="D409" s="16"/>
-      <c r="E409">
+      <c r="F409" s="5"/>
+      <c r="G409" s="18">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="410" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B410" s="4"/>
+      <c r="D410" s="20"/>
+      <c r="E410">
         <v>443</v>
       </c>
-      <c r="F409" s="5"/>
-    </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B410" s="4"/>
-      <c r="D410" s="16"/>
-      <c r="E410">
+      <c r="F410" s="5"/>
+      <c r="G410" s="18">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="411" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B411" s="4"/>
+      <c r="D411" s="20"/>
+      <c r="E411">
         <v>444</v>
       </c>
-      <c r="F410" s="5"/>
-    </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B411" s="4"/>
-      <c r="D411" s="16"/>
-      <c r="E411">
+      <c r="F411" s="5"/>
+      <c r="G411" s="18">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="412" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B412" s="4"/>
+      <c r="D412" s="20"/>
+      <c r="E412">
         <v>445</v>
       </c>
-      <c r="F411" s="5"/>
-    </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B412" s="4"/>
-      <c r="D412" s="16"/>
-      <c r="E412">
+      <c r="F412" s="5"/>
+      <c r="G412" s="18">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="413" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B413" s="4"/>
+      <c r="D413" s="20"/>
+      <c r="E413">
         <v>446</v>
       </c>
-      <c r="F412" s="5"/>
-    </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B413" s="4"/>
-      <c r="D413" s="16"/>
-      <c r="E413">
+      <c r="F413" s="5"/>
+      <c r="G413" s="18">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="414" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B414" s="4"/>
+      <c r="D414" s="20"/>
+      <c r="E414">
         <v>447</v>
       </c>
-      <c r="F413" s="5"/>
-    </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B414" s="4"/>
-      <c r="D414" s="16"/>
-      <c r="E414">
+      <c r="F414" s="5"/>
+      <c r="G414" s="18">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="415" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B415" s="4"/>
+      <c r="D415" s="20"/>
+      <c r="E415">
         <v>448</v>
       </c>
-      <c r="F414" s="5"/>
-    </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B415" s="4"/>
-      <c r="D415" s="16"/>
-      <c r="E415">
+      <c r="F415" s="5"/>
+      <c r="G415" s="18">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="416" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B416" s="4"/>
+      <c r="D416" s="20"/>
+      <c r="E416">
         <v>449</v>
       </c>
-      <c r="F415" s="5"/>
-    </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B416" s="4"/>
-      <c r="D416" s="16"/>
-      <c r="E416">
+      <c r="F416" s="5"/>
+      <c r="G416" s="18">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B417" s="4"/>
+      <c r="D417" s="20"/>
+      <c r="E417">
         <v>450</v>
       </c>
-      <c r="F416" s="5"/>
-    </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B417" s="4"/>
-      <c r="D417" s="16"/>
-      <c r="E417">
+      <c r="F417" s="5"/>
+      <c r="G417" s="18">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B418" s="4"/>
+      <c r="D418" s="20"/>
+      <c r="E418">
         <v>451</v>
       </c>
-      <c r="F417" s="5"/>
-    </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B418" s="4"/>
-      <c r="D418" s="16"/>
-      <c r="E418">
+      <c r="F418" s="5"/>
+      <c r="G418" s="18">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B419" s="4"/>
+      <c r="D419" s="20"/>
+      <c r="E419">
         <v>452</v>
       </c>
-      <c r="F418" s="5"/>
-    </row>
-    <row r="419" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B419" s="6"/>
-      <c r="C419" s="7"/>
-      <c r="D419" s="17"/>
-      <c r="E419" s="7">
+      <c r="F419" s="5"/>
+      <c r="G419" s="18">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B420" s="6"/>
+      <c r="C420" s="7"/>
+      <c r="D420" s="21"/>
+      <c r="E420" s="7">
         <v>453</v>
       </c>
-      <c r="F419" s="8"/>
-    </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B420" s="1"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="33" t="s">
+      <c r="F420" s="8"/>
+      <c r="G420" s="18">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B421" s="1"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E420" s="2">
+      <c r="E421" s="2">
         <v>454</v>
       </c>
-      <c r="F420" s="3"/>
-    </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B421" s="4"/>
-      <c r="D421" s="34"/>
-      <c r="E421">
+      <c r="F421" s="3"/>
+      <c r="G421" s="18">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B422" s="4"/>
+      <c r="D422" s="38"/>
+      <c r="E422">
         <v>455</v>
       </c>
-      <c r="F421" s="5"/>
-    </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B422" s="4"/>
-      <c r="D422" s="34"/>
-      <c r="E422">
+      <c r="F422" s="5"/>
+      <c r="G422" s="18">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B423" s="4"/>
+      <c r="D423" s="38"/>
+      <c r="E423">
         <v>456</v>
       </c>
-      <c r="F422" s="5"/>
-    </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B423" s="4"/>
-      <c r="D423" s="34"/>
-      <c r="E423">
+      <c r="F423" s="5"/>
+      <c r="G423" s="18">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B424" s="4"/>
+      <c r="D424" s="38"/>
+      <c r="E424">
         <v>457</v>
       </c>
-      <c r="F423" s="5"/>
-    </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B424" s="4"/>
-      <c r="D424" s="34"/>
-      <c r="E424">
+      <c r="F424" s="5"/>
+      <c r="G424" s="18">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B425" s="4"/>
+      <c r="D425" s="38"/>
+      <c r="E425">
         <v>458</v>
       </c>
-      <c r="F424" s="5"/>
-    </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B425" s="4"/>
-      <c r="D425" s="34"/>
-      <c r="E425">
+      <c r="F425" s="5"/>
+      <c r="G425" s="18">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B426" s="4"/>
+      <c r="D426" s="38"/>
+      <c r="E426">
         <v>459</v>
       </c>
-      <c r="F425" s="5"/>
-    </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B426" s="4"/>
-      <c r="D426" s="34"/>
-      <c r="E426">
+      <c r="F426" s="5"/>
+      <c r="G426" s="18">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B427" s="4"/>
+      <c r="D427" s="38"/>
+      <c r="E427">
         <v>460</v>
       </c>
-      <c r="F426" s="5"/>
-    </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B427" s="4"/>
-      <c r="D427" s="34"/>
-      <c r="E427">
+      <c r="F427" s="5"/>
+      <c r="G427" s="18">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B428" s="4"/>
+      <c r="D428" s="38"/>
+      <c r="E428">
         <v>461</v>
       </c>
-      <c r="F427" s="5"/>
-    </row>
-    <row r="428" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B428" s="6"/>
-      <c r="C428" s="7"/>
-      <c r="D428" s="35"/>
-      <c r="E428" s="7">
+      <c r="F428" s="5"/>
+      <c r="G428" s="18">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="429" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B429" s="6"/>
+      <c r="C429" s="7"/>
+      <c r="D429" s="39"/>
+      <c r="E429" s="7">
         <v>462</v>
       </c>
-      <c r="F428" s="8"/>
-    </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B429" s="1"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="39" t="s">
+      <c r="F429" s="8"/>
+      <c r="G429" s="18">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B430" s="1"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E429" s="2">
+      <c r="E430" s="2">
         <v>463</v>
       </c>
-      <c r="F429" s="3"/>
-    </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B430" s="4"/>
-      <c r="D430" s="40"/>
-      <c r="E430">
+      <c r="F430" s="3"/>
+      <c r="G430" s="18">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B431" s="4"/>
+      <c r="D431" s="44"/>
+      <c r="E431">
         <v>464</v>
       </c>
-      <c r="F430" s="5"/>
-    </row>
-    <row r="431" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B431" s="6"/>
-      <c r="C431" s="7"/>
-      <c r="D431" s="41"/>
-      <c r="E431" s="7">
+      <c r="F431" s="5"/>
+      <c r="G431" s="18">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="432" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B432" s="6"/>
+      <c r="C432" s="7"/>
+      <c r="D432" s="45"/>
+      <c r="E432" s="7">
         <v>465</v>
       </c>
-      <c r="F431" s="8"/>
-    </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B432" s="1"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="36" t="s">
+      <c r="F432" s="8"/>
+      <c r="G432" s="18">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="433" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B433" s="1"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E432" s="2">
+      <c r="E433" s="2">
         <v>466</v>
       </c>
-      <c r="F432" s="3"/>
-    </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B433" s="4"/>
-      <c r="D433" s="37"/>
-      <c r="E433">
+      <c r="F433" s="3"/>
+      <c r="G433" s="18">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="434" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B434" s="4"/>
+      <c r="D434" s="41"/>
+      <c r="E434">
         <v>467</v>
       </c>
-      <c r="F433" s="5"/>
-    </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B434" s="4"/>
-      <c r="D434" s="37"/>
-      <c r="E434">
+      <c r="F434" s="5"/>
+      <c r="G434" s="18">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="435" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B435" s="4"/>
+      <c r="D435" s="41"/>
+      <c r="E435">
         <v>468</v>
       </c>
-      <c r="F434" s="5"/>
-    </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B435" s="4"/>
-      <c r="D435" s="37"/>
-      <c r="E435">
+      <c r="F435" s="5"/>
+      <c r="G435" s="18">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="436" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B436" s="4"/>
+      <c r="D436" s="41"/>
+      <c r="E436">
         <v>469</v>
       </c>
-      <c r="F435" s="5"/>
-    </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B436" s="4"/>
-      <c r="D436" s="37"/>
-      <c r="E436">
+      <c r="F436" s="5"/>
+      <c r="G436" s="18">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="437" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B437" s="4"/>
+      <c r="D437" s="41"/>
+      <c r="E437">
         <v>470</v>
       </c>
-      <c r="F436" s="5"/>
-    </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B437" s="4"/>
-      <c r="D437" s="37"/>
-      <c r="E437">
+      <c r="F437" s="5"/>
+      <c r="G437" s="18">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="438" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B438" s="4"/>
+      <c r="D438" s="41"/>
+      <c r="E438">
         <v>471</v>
       </c>
-      <c r="F437" s="5"/>
-    </row>
-    <row r="438" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B438" s="6"/>
-      <c r="C438" s="7"/>
-      <c r="D438" s="38"/>
-      <c r="E438" s="7">
+      <c r="F438" s="5"/>
+      <c r="G438" s="18">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="439" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B439" s="6"/>
+      <c r="C439" s="7"/>
+      <c r="D439" s="42"/>
+      <c r="E439" s="7">
         <v>472</v>
       </c>
-      <c r="F438" s="8"/>
-    </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B439" s="1"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="21" t="s">
+      <c r="F439" s="8"/>
+      <c r="G439" s="18">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="440" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B440" s="1"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E439" s="2">
+      <c r="E440" s="2">
         <v>473</v>
       </c>
-      <c r="F439" s="3"/>
-    </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B440" s="4"/>
-      <c r="D440" s="22"/>
-      <c r="E440">
+      <c r="F440" s="3"/>
+      <c r="G440" s="18">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="441" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B441" s="4"/>
+      <c r="D441" s="26"/>
+      <c r="E441">
         <v>474</v>
       </c>
-      <c r="F440" s="5"/>
-    </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B441" s="4"/>
-      <c r="D441" s="22"/>
-      <c r="E441">
+      <c r="F441" s="5"/>
+      <c r="G441" s="18">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="442" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B442" s="4"/>
+      <c r="D442" s="26"/>
+      <c r="E442">
         <v>475</v>
       </c>
-      <c r="F441" s="5"/>
-    </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B442" s="4"/>
-      <c r="D442" s="22"/>
-      <c r="E442">
+      <c r="F442" s="5"/>
+      <c r="G442" s="18">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="443" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B443" s="4"/>
+      <c r="D443" s="26"/>
+      <c r="E443">
         <v>476</v>
       </c>
-      <c r="F442" s="5"/>
-    </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B443" s="4"/>
-      <c r="D443" s="22"/>
-      <c r="E443">
+      <c r="F443" s="5"/>
+      <c r="G443" s="18">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="444" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B444" s="4"/>
+      <c r="D444" s="26"/>
+      <c r="E444">
         <v>477</v>
       </c>
-      <c r="F443" s="5"/>
-    </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B444" s="4"/>
-      <c r="D444" s="22"/>
-      <c r="E444">
+      <c r="F444" s="5"/>
+      <c r="G444" s="18">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="445" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B445" s="4"/>
+      <c r="D445" s="26"/>
+      <c r="E445">
         <v>478</v>
       </c>
-      <c r="F444" s="5"/>
-    </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B445" s="4"/>
-      <c r="D445" s="22"/>
-      <c r="E445">
+      <c r="F445" s="5"/>
+      <c r="G445" s="18">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="446" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B446" s="4"/>
+      <c r="D446" s="26"/>
+      <c r="E446">
         <v>479</v>
       </c>
-      <c r="F445" s="5"/>
-    </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B446" s="4"/>
-      <c r="D446" s="22"/>
-      <c r="E446">
+      <c r="F446" s="5"/>
+      <c r="G446" s="18">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="447" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B447" s="4"/>
+      <c r="D447" s="26"/>
+      <c r="E447">
         <v>480</v>
       </c>
-      <c r="F446" s="5"/>
-    </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B447" s="4"/>
-      <c r="D447" s="22"/>
-      <c r="E447">
+      <c r="F447" s="5"/>
+      <c r="G447" s="18">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="448" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B448" s="4"/>
+      <c r="D448" s="26"/>
+      <c r="E448">
         <v>481</v>
       </c>
-      <c r="F447" s="5"/>
-    </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B448" s="4"/>
-      <c r="D448" s="22"/>
-      <c r="E448">
+      <c r="F448" s="5"/>
+      <c r="G448" s="18">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="449" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B449" s="4"/>
+      <c r="D449" s="26"/>
+      <c r="E449">
         <v>482</v>
       </c>
-      <c r="F448" s="5"/>
-    </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B449" s="4"/>
-      <c r="D449" s="22"/>
-      <c r="E449">
+      <c r="F449" s="5"/>
+      <c r="G449" s="18">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="450" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B450" s="4"/>
+      <c r="D450" s="26"/>
+      <c r="E450">
         <v>483</v>
       </c>
-      <c r="F449" s="5"/>
-    </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B450" s="4"/>
-      <c r="D450" s="22"/>
-      <c r="E450">
+      <c r="F450" s="5"/>
+      <c r="G450" s="18">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="451" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B451" s="4"/>
+      <c r="D451" s="26"/>
+      <c r="E451">
         <v>484</v>
       </c>
-      <c r="F450" s="5"/>
-    </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B451" s="4"/>
-      <c r="D451" s="22"/>
-      <c r="E451">
+      <c r="F451" s="5"/>
+      <c r="G451" s="18">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="452" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B452" s="4"/>
+      <c r="D452" s="26"/>
+      <c r="E452">
         <v>485</v>
       </c>
-      <c r="F451" s="5"/>
-    </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B452" s="4"/>
-      <c r="D452" s="22"/>
-      <c r="E452">
+      <c r="F452" s="5"/>
+      <c r="G452" s="18">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="453" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B453" s="4"/>
+      <c r="D453" s="26"/>
+      <c r="E453">
         <v>486</v>
       </c>
-      <c r="F452" s="5"/>
-    </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B453" s="4"/>
-      <c r="D453" s="22"/>
-      <c r="E453">
+      <c r="F453" s="5"/>
+      <c r="G453" s="18">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="454" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B454" s="4"/>
+      <c r="D454" s="26"/>
+      <c r="E454">
         <v>487</v>
       </c>
-      <c r="F453" s="5"/>
-    </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B454" s="4"/>
-      <c r="D454" s="22"/>
-      <c r="E454">
+      <c r="F454" s="5"/>
+      <c r="G454" s="18">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="455" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B455" s="4"/>
+      <c r="D455" s="26"/>
+      <c r="E455">
         <v>488</v>
       </c>
-      <c r="F454" s="5"/>
-    </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B455" s="4"/>
-      <c r="D455" s="22"/>
-      <c r="E455">
+      <c r="F455" s="5"/>
+      <c r="G455" s="18">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="456" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B456" s="4"/>
+      <c r="D456" s="26"/>
+      <c r="E456">
         <v>489</v>
       </c>
-      <c r="F455" s="5"/>
-    </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B456" s="4"/>
-      <c r="D456" s="22"/>
-      <c r="E456">
+      <c r="F456" s="5"/>
+      <c r="G456" s="18">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="457" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B457" s="4"/>
+      <c r="D457" s="26"/>
+      <c r="E457">
         <v>490</v>
       </c>
-      <c r="F456" s="5"/>
-    </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B457" s="4"/>
-      <c r="D457" s="22"/>
-      <c r="E457">
+      <c r="F457" s="5"/>
+      <c r="G457" s="18">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="458" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B458" s="4"/>
+      <c r="D458" s="26"/>
+      <c r="E458">
         <v>491</v>
       </c>
-      <c r="F457" s="5"/>
-    </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B458" s="4"/>
-      <c r="D458" s="22"/>
-      <c r="E458">
+      <c r="F458" s="5"/>
+      <c r="G458" s="18">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="459" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B459" s="4"/>
+      <c r="D459" s="26"/>
+      <c r="E459">
         <v>492</v>
       </c>
-      <c r="F458" s="5"/>
-    </row>
-    <row r="459" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B459" s="6"/>
-      <c r="C459" s="7"/>
-      <c r="D459" s="23"/>
-      <c r="E459" s="7">
+      <c r="F459" s="5"/>
+      <c r="G459" s="18">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="460" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B460" s="6"/>
+      <c r="C460" s="7"/>
+      <c r="D460" s="27"/>
+      <c r="E460" s="7">
         <v>493</v>
       </c>
-      <c r="F459" s="8"/>
+      <c r="F460" s="8"/>
+      <c r="G460" s="18">
+        <v>45836</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D432:D438"/>
-    <mergeCell ref="D439:D459"/>
-    <mergeCell ref="D316:D327"/>
-    <mergeCell ref="D328:D373"/>
-    <mergeCell ref="D374:D384"/>
-    <mergeCell ref="D385:D419"/>
-    <mergeCell ref="D420:D428"/>
-    <mergeCell ref="D429:D431"/>
-    <mergeCell ref="B20:B40"/>
+    <mergeCell ref="D433:D439"/>
+    <mergeCell ref="D440:D460"/>
+    <mergeCell ref="D317:D328"/>
+    <mergeCell ref="D329:D374"/>
+    <mergeCell ref="D375:D385"/>
+    <mergeCell ref="D386:D420"/>
+    <mergeCell ref="D421:D429"/>
+    <mergeCell ref="D430:D432"/>
+    <mergeCell ref="B20:B41"/>
     <mergeCell ref="B2:B19"/>
-    <mergeCell ref="D129:D140"/>
-    <mergeCell ref="D141:D148"/>
-    <mergeCell ref="D149:D161"/>
-    <mergeCell ref="D114:D128"/>
-    <mergeCell ref="B114:B128"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="B83:B95"/>
-    <mergeCell ref="B66:B82"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B51:B65"/>
-    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="D142:D149"/>
+    <mergeCell ref="D150:D162"/>
+    <mergeCell ref="D115:D129"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="B97:B114"/>
+    <mergeCell ref="B84:B96"/>
+    <mergeCell ref="B67:B83"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B66"/>
+    <mergeCell ref="D20:D41"/>
     <mergeCell ref="D2:D19"/>
-    <mergeCell ref="D41:D65"/>
-    <mergeCell ref="D66:D82"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D113"/>
-    <mergeCell ref="D286:D315"/>
-    <mergeCell ref="D162:D190"/>
-    <mergeCell ref="D191:D212"/>
-    <mergeCell ref="D213:D232"/>
-    <mergeCell ref="D233:D250"/>
-    <mergeCell ref="D251:D260"/>
-    <mergeCell ref="D261:D285"/>
+    <mergeCell ref="D42:D66"/>
+    <mergeCell ref="D67:D83"/>
+    <mergeCell ref="D84:D96"/>
+    <mergeCell ref="D97:D114"/>
+    <mergeCell ref="D287:D316"/>
+    <mergeCell ref="D163:D191"/>
+    <mergeCell ref="D192:D213"/>
+    <mergeCell ref="D214:D233"/>
+    <mergeCell ref="D234:D251"/>
+    <mergeCell ref="D252:D261"/>
+    <mergeCell ref="D262:D286"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4836,87 +6186,87 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="10"/>
-    <col min="3" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="50" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="10"/>
+    <col min="3" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="50" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="C1" s="42" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="C1" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="42" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="42" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="42" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="42" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="42" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="42" t="s">
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="42" t="s">
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="42" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="42" t="s">
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="42" t="s">
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="44"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="48"/>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C2" s="4">
         <v>5</v>
       </c>
@@ -5062,7 +6412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -5092,7 +6442,7 @@
       <c r="AU3" s="4"/>
       <c r="AX3" s="5"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5122,7 +6472,7 @@
       <c r="AU4" s="4"/>
       <c r="AX4" s="5"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
@@ -5146,7 +6496,7 @@
       <c r="AU5" s="4"/>
       <c r="AX5" s="5"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -5179,7 +6529,7 @@
       <c r="AU6" s="4"/>
       <c r="AX6" s="5"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
@@ -5203,7 +6553,7 @@
       <c r="AU7" s="4"/>
       <c r="AX7" s="5"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
@@ -5235,7 +6585,7 @@
       <c r="AU8" s="4"/>
       <c r="AX8" s="5"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
@@ -5259,7 +6609,7 @@
       <c r="AU9" s="4"/>
       <c r="AX9" s="5"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
@@ -5289,7 +6639,7 @@
       <c r="AU10" s="4"/>
       <c r="AX10" s="5"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
@@ -5313,7 +6663,7 @@
       <c r="AU11" s="4"/>
       <c r="AX11" s="5"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
@@ -5345,7 +6695,7 @@
       <c r="AU12" s="4"/>
       <c r="AX12" s="5"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
@@ -5369,7 +6719,7 @@
       <c r="AU13" s="4"/>
       <c r="AX13" s="5"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>33</v>
       </c>
@@ -5400,7 +6750,7 @@
       <c r="AU14" s="4"/>
       <c r="AX14" s="5"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
@@ -5424,7 +6774,7 @@
       <c r="AU15" s="4"/>
       <c r="AX15" s="5"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
@@ -5456,7 +6806,7 @@
       <c r="AU16" s="4"/>
       <c r="AX16" s="5"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
@@ -5480,7 +6830,7 @@
       <c r="AU17" s="4"/>
       <c r="AX17" s="5"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>42</v>
       </c>
@@ -5510,7 +6860,7 @@
       <c r="AU18" s="4"/>
       <c r="AX18" s="5"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
@@ -5534,7 +6884,7 @@
       <c r="AU19" s="4"/>
       <c r="AX19" s="5"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>43</v>
       </c>
@@ -5565,7 +6915,7 @@
       <c r="AU20" s="4"/>
       <c r="AX20" s="5"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
@@ -5589,7 +6939,7 @@
       <c r="AU21" s="4"/>
       <c r="AX21" s="5"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>44</v>
       </c>
@@ -5620,7 +6970,7 @@
       <c r="AU22" s="4"/>
       <c r="AX22" s="5"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
@@ -5644,7 +6994,7 @@
       <c r="AU23" s="4"/>
       <c r="AX23" s="5"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>45</v>
       </c>
@@ -5677,7 +7027,7 @@
       <c r="AU24" s="4"/>
       <c r="AX24" s="5"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
@@ -5701,7 +7051,7 @@
       <c r="AU25" s="4"/>
       <c r="AX25" s="5"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -5732,7 +7082,7 @@
       <c r="AU26" s="4"/>
       <c r="AX26" s="5"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C27" s="4"/>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
@@ -5756,7 +7106,7 @@
       <c r="AU27" s="4"/>
       <c r="AX27" s="5"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
@@ -5787,7 +7137,7 @@
       <c r="AU28" s="4"/>
       <c r="AX28" s="5"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
@@ -5811,7 +7161,7 @@
       <c r="AU29" s="4"/>
       <c r="AX29" s="5"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -5843,7 +7193,7 @@
       <c r="AU30" s="4"/>
       <c r="AX30" s="5"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C31" s="4"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
@@ -5867,7 +7217,7 @@
       <c r="AU31" s="4"/>
       <c r="AX31" s="5"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -5898,7 +7248,7 @@
       <c r="AU32" s="4"/>
       <c r="AX32" s="5"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
@@ -5922,7 +7272,7 @@
       <c r="AU33" s="4"/>
       <c r="AX33" s="5"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -5954,7 +7304,7 @@
       <c r="AU34" s="4"/>
       <c r="AX34" s="5"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C35" s="4"/>
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
@@ -5978,7 +7328,7 @@
       <c r="AU35" s="4"/>
       <c r="AX35" s="5"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>51</v>
       </c>
@@ -6010,7 +7360,7 @@
       <c r="AU36" s="11"/>
       <c r="AX36" s="5"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
@@ -6034,7 +7384,7 @@
       <c r="AU37" s="4"/>
       <c r="AX37" s="5"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -6066,7 +7416,7 @@
       <c r="AW38" s="12"/>
       <c r="AX38" s="5"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C39" s="4"/>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
@@ -6090,7 +7440,7 @@
       <c r="AU39" s="4"/>
       <c r="AX39" s="5"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -6120,7 +7470,7 @@
       <c r="AU40" s="4"/>
       <c r="AX40" s="5"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
@@ -6144,7 +7494,7 @@
       <c r="AU41" s="4"/>
       <c r="AX41" s="5"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -6174,7 +7524,7 @@
       <c r="AU42" s="4"/>
       <c r="AX42" s="5"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
@@ -6198,7 +7548,7 @@
       <c r="AU43" s="4"/>
       <c r="AX43" s="5"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -6228,7 +7578,7 @@
       <c r="AU44" s="4"/>
       <c r="AX44" s="5"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
@@ -6252,7 +7602,7 @@
       <c r="AU45" s="4"/>
       <c r="AX45" s="5"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -6282,7 +7632,7 @@
       <c r="AU46" s="4"/>
       <c r="AX46" s="5"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C47" s="4"/>
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
@@ -6306,7 +7656,7 @@
       <c r="AU47" s="4"/>
       <c r="AX47" s="5"/>
     </row>
-    <row r="48" spans="1:50" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -6336,7 +7686,7 @@
       <c r="AU48" s="4"/>
       <c r="AX48" s="5"/>
     </row>
-    <row r="49" spans="1:50" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C49" s="4"/>
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
@@ -6360,7 +7710,7 @@
       <c r="AU49" s="4"/>
       <c r="AX49" s="5"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -6390,7 +7740,7 @@
       <c r="AU50" s="4"/>
       <c r="AX50" s="5"/>
     </row>
-    <row r="51" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="4"/>
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
@@ -6414,7 +7764,7 @@
       <c r="AU51" s="4"/>
       <c r="AX51" s="5"/>
     </row>
-    <row r="52" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -6444,7 +7794,7 @@
       <c r="AU52" s="4"/>
       <c r="AX52" s="5"/>
     </row>
-    <row r="53" spans="1:50" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:50" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -6494,7 +7844,7 @@
       <c r="AW53" s="7"/>
       <c r="AX53" s="8"/>
     </row>
-    <row r="54" spans="1:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AU1:AX1"/>
@@ -6521,7 +7871,7 @@
       <selection sqref="A1:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/JavaMasterclassTin_timeSchedulle.xlsx
+++ b/JavaMasterclassTin_timeSchedulle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning\JavaTimBuchalkaClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B87B62-3007-4081-BC95-E90511AEAC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0761AAD8-F7EE-430E-9E1F-ACB3F75C5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
+    <workbookView xWindow="-5060" yWindow="-16310" windowWidth="38620" windowHeight="15820" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -514,6 +514,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -532,22 +560,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,33 +596,6 @@
     <xf numFmtId="17" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,7 +923,7 @@
   <dimension ref="A1:G460"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -953,13 +954,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34">
+      <c r="B2" s="44">
         <v>45323</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2">
@@ -970,8 +971,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="35"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="45"/>
+      <c r="D3" s="30"/>
       <c r="E3">
         <v>50</v>
       </c>
@@ -980,8 +981,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="35"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="45"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
@@ -990,8 +991,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="35"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="45"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1000,8 +1001,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="35"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="45"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1010,8 +1011,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="35"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="45"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1020,8 +1021,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="35"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="45"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1033,8 +1034,8 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="45"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1043,8 +1044,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="35"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="45"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
@@ -1056,8 +1057,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="35"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="45"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1069,8 +1070,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="35"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="45"/>
+      <c r="D12" s="30"/>
       <c r="E12">
         <v>51</v>
       </c>
@@ -1082,8 +1083,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="35"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="45"/>
+      <c r="D13" s="30"/>
       <c r="E13">
         <v>52</v>
       </c>
@@ -1095,128 +1096,128 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="35"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="45"/>
+      <c r="D14" s="30"/>
       <c r="E14">
         <v>53</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="35"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="45"/>
+      <c r="D15" s="30"/>
       <c r="E15">
         <v>54</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="35"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="45"/>
+      <c r="D16" s="30"/>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="35"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="45"/>
+      <c r="D17" s="30"/>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="35"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="45"/>
+      <c r="D18" s="30"/>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="36"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="29" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="42"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="4">
         <v>55</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="32"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="42"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="4">
         <v>56</v>
       </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="32"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="42"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="4">
         <v>57</v>
       </c>
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="32"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="42"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="4">
         <v>58</v>
       </c>
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="32"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="42"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="4">
         <v>59</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="32"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="42"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="4">
         <v>60</v>
       </c>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="32"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="42"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="4">
         <v>61</v>
       </c>
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="32"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="42"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="4">
         <v>62</v>
       </c>
@@ -1231,8 +1232,8 @@
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="42"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="4">
         <v>63</v>
       </c>
@@ -1244,8 +1245,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="32"/>
-      <c r="D30" s="20"/>
+      <c r="B30" s="42"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="4" t="s">
         <v>74</v>
       </c>
@@ -1257,12 +1258,12 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="32"/>
-      <c r="D31" s="20"/>
+      <c r="B31" s="42"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="4">
         <v>64</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G31" s="15">
@@ -1270,30 +1271,30 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="32"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="42"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="4">
         <v>65</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="18">
+      <c r="G32" s="50">
         <v>45408</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="32"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="42"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="4">
         <v>66</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="18">
-        <v>45409</v>
+      <c r="G33" s="50">
+        <v>45412</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="32"/>
-      <c r="D34" s="20"/>
+      <c r="B34" s="42"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="4">
         <v>67</v>
       </c>
@@ -1303,8 +1304,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="32"/>
-      <c r="D35" s="20"/>
+      <c r="B35" s="42"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="4">
         <v>68</v>
       </c>
@@ -1314,8 +1315,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="32"/>
-      <c r="D36" s="20"/>
+      <c r="B36" s="42"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="4">
         <v>69</v>
       </c>
@@ -1325,8 +1326,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="32"/>
-      <c r="D37" s="20"/>
+      <c r="B37" s="42"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="4">
         <v>70</v>
       </c>
@@ -1336,8 +1337,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="32"/>
-      <c r="D38" s="20"/>
+      <c r="B38" s="42"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="4">
         <v>71</v>
       </c>
@@ -1347,8 +1348,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="32"/>
-      <c r="D39" s="20"/>
+      <c r="B39" s="42"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="4">
         <v>72</v>
       </c>
@@ -1358,8 +1359,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="32"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="42"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="4">
         <v>73</v>
       </c>
@@ -1369,11 +1370,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="33"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="7">
         <v>24</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="6">
         <v>74</v>
       </c>
@@ -1383,13 +1384,13 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="2">
@@ -1401,8 +1402,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43">
         <v>76</v>
       </c>
@@ -1412,8 +1413,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="30"/>
+      <c r="D44" s="30"/>
       <c r="E44">
         <v>77</v>
       </c>
@@ -1423,8 +1424,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="B45" s="30"/>
+      <c r="D45" s="30"/>
       <c r="E45">
         <v>78</v>
       </c>
@@ -1434,8 +1435,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="30"/>
+      <c r="D46" s="30"/>
       <c r="E46">
         <v>79</v>
       </c>
@@ -1445,8 +1446,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="30"/>
+      <c r="D47" s="30"/>
       <c r="E47">
         <v>80</v>
       </c>
@@ -1459,8 +1460,8 @@
       <c r="A48" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="30"/>
+      <c r="D48" s="30"/>
       <c r="E48">
         <v>81</v>
       </c>
@@ -1470,8 +1471,8 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="B49" s="30"/>
+      <c r="D49" s="30"/>
       <c r="E49">
         <v>82</v>
       </c>
@@ -1481,8 +1482,8 @@
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="B50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50">
         <v>83</v>
       </c>
@@ -1492,11 +1493,11 @@
       </c>
     </row>
     <row r="51" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="21"/>
+      <c r="B51" s="31"/>
       <c r="C51">
         <v>29</v>
       </c>
-      <c r="D51" s="20"/>
+      <c r="D51" s="30"/>
       <c r="E51">
         <v>84</v>
       </c>
@@ -1506,13 +1507,13 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="20"/>
+      <c r="D52" s="30"/>
       <c r="E52">
         <v>85</v>
       </c>
@@ -1522,8 +1523,8 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="32"/>
-      <c r="D53" s="20"/>
+      <c r="B53" s="42"/>
+      <c r="D53" s="30"/>
       <c r="E53">
         <v>86</v>
       </c>
@@ -1533,8 +1534,8 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="32"/>
-      <c r="D54" s="20"/>
+      <c r="B54" s="42"/>
+      <c r="D54" s="30"/>
       <c r="E54">
         <v>87</v>
       </c>
@@ -1544,8 +1545,8 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="32"/>
-      <c r="D55" s="20"/>
+      <c r="B55" s="42"/>
+      <c r="D55" s="30"/>
       <c r="E55">
         <v>88</v>
       </c>
@@ -1555,8 +1556,8 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="32"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="42"/>
+      <c r="D56" s="30"/>
       <c r="E56">
         <v>89</v>
       </c>
@@ -1566,8 +1567,8 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="32"/>
-      <c r="D57" s="20"/>
+      <c r="B57" s="42"/>
+      <c r="D57" s="30"/>
       <c r="E57">
         <v>90</v>
       </c>
@@ -1577,8 +1578,8 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="32"/>
-      <c r="D58" s="20"/>
+      <c r="B58" s="42"/>
+      <c r="D58" s="30"/>
       <c r="E58">
         <v>91</v>
       </c>
@@ -1588,8 +1589,8 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="32"/>
-      <c r="D59" s="20"/>
+      <c r="B59" s="42"/>
+      <c r="D59" s="30"/>
       <c r="E59">
         <v>92</v>
       </c>
@@ -1599,8 +1600,8 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="32"/>
-      <c r="D60" s="20"/>
+      <c r="B60" s="42"/>
+      <c r="D60" s="30"/>
       <c r="E60">
         <v>93</v>
       </c>
@@ -1610,8 +1611,8 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="32"/>
-      <c r="D61" s="20"/>
+      <c r="B61" s="42"/>
+      <c r="D61" s="30"/>
       <c r="E61">
         <v>94</v>
       </c>
@@ -1621,8 +1622,8 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="32"/>
-      <c r="D62" s="20"/>
+      <c r="B62" s="42"/>
+      <c r="D62" s="30"/>
       <c r="E62">
         <v>95</v>
       </c>
@@ -1632,8 +1633,8 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="32"/>
-      <c r="D63" s="20"/>
+      <c r="B63" s="42"/>
+      <c r="D63" s="30"/>
       <c r="E63">
         <v>96</v>
       </c>
@@ -1643,8 +1644,8 @@
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="32"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="42"/>
+      <c r="D64" s="30"/>
       <c r="E64">
         <v>97</v>
       </c>
@@ -1654,8 +1655,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="32"/>
-      <c r="D65" s="20"/>
+      <c r="B65" s="42"/>
+      <c r="D65" s="30"/>
       <c r="E65">
         <v>98</v>
       </c>
@@ -1665,11 +1666,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="33"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="7">
         <v>9</v>
       </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="7">
         <v>99</v>
       </c>
@@ -1679,13 +1680,13 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C67" s="2">
         <v>10</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="29" t="s">
         <v>31</v>
       </c>
       <c r="E67" s="2">
@@ -1697,8 +1698,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="20"/>
-      <c r="D68" s="20"/>
+      <c r="B68" s="30"/>
+      <c r="D68" s="30"/>
       <c r="E68">
         <v>101</v>
       </c>
@@ -1708,8 +1709,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B69" s="20"/>
-      <c r="D69" s="20"/>
+      <c r="B69" s="30"/>
+      <c r="D69" s="30"/>
       <c r="E69">
         <v>102</v>
       </c>
@@ -1719,8 +1720,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="20"/>
-      <c r="D70" s="20"/>
+      <c r="B70" s="30"/>
+      <c r="D70" s="30"/>
       <c r="E70">
         <v>103</v>
       </c>
@@ -1730,8 +1731,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="20"/>
-      <c r="D71" s="20"/>
+      <c r="B71" s="30"/>
+      <c r="D71" s="30"/>
       <c r="E71">
         <v>104</v>
       </c>
@@ -1741,8 +1742,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B72" s="20"/>
-      <c r="D72" s="20"/>
+      <c r="B72" s="30"/>
+      <c r="D72" s="30"/>
       <c r="E72">
         <v>105</v>
       </c>
@@ -1755,8 +1756,8 @@
       <c r="A73" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="B73" s="30"/>
+      <c r="D73" s="30"/>
       <c r="E73">
         <v>106</v>
       </c>
@@ -1766,8 +1767,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="B74" s="30"/>
+      <c r="D74" s="30"/>
       <c r="E74">
         <v>107</v>
       </c>
@@ -1777,8 +1778,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="20"/>
-      <c r="D75" s="20"/>
+      <c r="B75" s="30"/>
+      <c r="D75" s="30"/>
       <c r="E75">
         <v>108</v>
       </c>
@@ -1788,8 +1789,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B76" s="20"/>
-      <c r="D76" s="20"/>
+      <c r="B76" s="30"/>
+      <c r="D76" s="30"/>
       <c r="E76">
         <v>109</v>
       </c>
@@ -1799,8 +1800,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B77" s="20"/>
-      <c r="D77" s="20"/>
+      <c r="B77" s="30"/>
+      <c r="D77" s="30"/>
       <c r="E77">
         <v>110</v>
       </c>
@@ -1810,8 +1811,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B78" s="20"/>
-      <c r="D78" s="20"/>
+      <c r="B78" s="30"/>
+      <c r="D78" s="30"/>
       <c r="E78">
         <v>111</v>
       </c>
@@ -1821,8 +1822,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="20"/>
-      <c r="D79" s="20"/>
+      <c r="B79" s="30"/>
+      <c r="D79" s="30"/>
       <c r="E79">
         <v>112</v>
       </c>
@@ -1832,8 +1833,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="20"/>
-      <c r="D80" s="20"/>
+      <c r="B80" s="30"/>
+      <c r="D80" s="30"/>
       <c r="E80">
         <v>113</v>
       </c>
@@ -1843,8 +1844,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="20"/>
-      <c r="D81" s="20"/>
+      <c r="B81" s="30"/>
+      <c r="D81" s="30"/>
       <c r="E81">
         <v>114</v>
       </c>
@@ -1854,8 +1855,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="20"/>
-      <c r="D82" s="20"/>
+      <c r="B82" s="30"/>
+      <c r="D82" s="30"/>
       <c r="E82">
         <v>115</v>
       </c>
@@ -1865,11 +1866,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="21"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="7">
         <v>23</v>
       </c>
-      <c r="D83" s="21"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="7">
         <v>116</v>
       </c>
@@ -1879,13 +1880,13 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="2">
         <v>24</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E84" s="2">
@@ -1897,8 +1898,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B85" s="20"/>
-      <c r="D85" s="20"/>
+      <c r="B85" s="30"/>
+      <c r="D85" s="30"/>
       <c r="E85">
         <v>118</v>
       </c>
@@ -1908,8 +1909,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B86" s="20"/>
-      <c r="D86" s="20"/>
+      <c r="B86" s="30"/>
+      <c r="D86" s="30"/>
       <c r="E86">
         <v>119</v>
       </c>
@@ -1919,8 +1920,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B87" s="20"/>
-      <c r="D87" s="20"/>
+      <c r="B87" s="30"/>
+      <c r="D87" s="30"/>
       <c r="E87">
         <v>120</v>
       </c>
@@ -1933,8 +1934,8 @@
       <c r="A88" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="D88" s="20"/>
+      <c r="B88" s="30"/>
+      <c r="D88" s="30"/>
       <c r="E88">
         <v>121</v>
       </c>
@@ -1944,8 +1945,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B89" s="20"/>
-      <c r="D89" s="20"/>
+      <c r="B89" s="30"/>
+      <c r="D89" s="30"/>
       <c r="E89">
         <v>122</v>
       </c>
@@ -1955,8 +1956,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B90" s="20"/>
-      <c r="D90" s="20"/>
+      <c r="B90" s="30"/>
+      <c r="D90" s="30"/>
       <c r="E90">
         <v>123</v>
       </c>
@@ -1966,8 +1967,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="20"/>
-      <c r="D91" s="20"/>
+      <c r="B91" s="30"/>
+      <c r="D91" s="30"/>
       <c r="E91">
         <v>124</v>
       </c>
@@ -1977,8 +1978,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B92" s="20"/>
-      <c r="D92" s="20"/>
+      <c r="B92" s="30"/>
+      <c r="D92" s="30"/>
       <c r="E92">
         <v>125</v>
       </c>
@@ -1988,8 +1989,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="20"/>
-      <c r="D93" s="20"/>
+      <c r="B93" s="30"/>
+      <c r="D93" s="30"/>
       <c r="E93">
         <v>126</v>
       </c>
@@ -1999,8 +2000,8 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="20"/>
-      <c r="D94" s="20"/>
+      <c r="B94" s="30"/>
+      <c r="D94" s="30"/>
       <c r="E94">
         <v>127</v>
       </c>
@@ -2010,8 +2011,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="20"/>
-      <c r="D95" s="20"/>
+      <c r="B95" s="30"/>
+      <c r="D95" s="30"/>
       <c r="E95">
         <v>128</v>
       </c>
@@ -2021,11 +2022,11 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="21"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="7">
         <v>2</v>
       </c>
-      <c r="D96" s="21"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="7">
         <v>129</v>
       </c>
@@ -2035,13 +2036,13 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C97" s="2">
         <v>3</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E97" s="2">
@@ -2053,8 +2054,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B98" s="23"/>
-      <c r="D98" s="23"/>
+      <c r="B98" s="33"/>
+      <c r="D98" s="33"/>
       <c r="E98">
         <v>131</v>
       </c>
@@ -2064,8 +2065,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B99" s="23"/>
-      <c r="D99" s="23"/>
+      <c r="B99" s="33"/>
+      <c r="D99" s="33"/>
       <c r="E99">
         <v>132</v>
       </c>
@@ -2075,8 +2076,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="B100" s="33"/>
+      <c r="D100" s="33"/>
       <c r="E100">
         <v>133</v>
       </c>
@@ -2086,8 +2087,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B101" s="23"/>
-      <c r="D101" s="23"/>
+      <c r="B101" s="33"/>
+      <c r="D101" s="33"/>
       <c r="E101">
         <v>134</v>
       </c>
@@ -2097,8 +2098,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B102" s="23"/>
-      <c r="D102" s="23"/>
+      <c r="B102" s="33"/>
+      <c r="D102" s="33"/>
       <c r="E102">
         <v>135</v>
       </c>
@@ -2108,8 +2109,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B103" s="23"/>
-      <c r="D103" s="23"/>
+      <c r="B103" s="33"/>
+      <c r="D103" s="33"/>
       <c r="E103">
         <v>136</v>
       </c>
@@ -2122,8 +2123,8 @@
       <c r="A104" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="D104" s="23"/>
+      <c r="B104" s="33"/>
+      <c r="D104" s="33"/>
       <c r="E104">
         <v>137</v>
       </c>
@@ -2133,8 +2134,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B105" s="23"/>
-      <c r="D105" s="23"/>
+      <c r="B105" s="33"/>
+      <c r="D105" s="33"/>
       <c r="E105">
         <v>138</v>
       </c>
@@ -2144,8 +2145,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B106" s="23"/>
-      <c r="D106" s="23"/>
+      <c r="B106" s="33"/>
+      <c r="D106" s="33"/>
       <c r="E106">
         <v>139</v>
       </c>
@@ -2155,8 +2156,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B107" s="23"/>
-      <c r="D107" s="23"/>
+      <c r="B107" s="33"/>
+      <c r="D107" s="33"/>
       <c r="E107">
         <v>140</v>
       </c>
@@ -2166,8 +2167,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="23"/>
-      <c r="D108" s="23"/>
+      <c r="B108" s="33"/>
+      <c r="D108" s="33"/>
       <c r="E108">
         <v>141</v>
       </c>
@@ -2177,8 +2178,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B109" s="23"/>
-      <c r="D109" s="23"/>
+      <c r="B109" s="33"/>
+      <c r="D109" s="33"/>
       <c r="E109">
         <v>142</v>
       </c>
@@ -2188,8 +2189,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B110" s="23"/>
-      <c r="D110" s="23"/>
+      <c r="B110" s="33"/>
+      <c r="D110" s="33"/>
       <c r="E110">
         <v>143</v>
       </c>
@@ -2199,8 +2200,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B111" s="23"/>
-      <c r="D111" s="23"/>
+      <c r="B111" s="33"/>
+      <c r="D111" s="33"/>
       <c r="E111">
         <v>144</v>
       </c>
@@ -2210,8 +2211,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B112" s="23"/>
-      <c r="D112" s="23"/>
+      <c r="B112" s="33"/>
+      <c r="D112" s="33"/>
       <c r="E112">
         <v>145</v>
       </c>
@@ -2221,8 +2222,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B113" s="23"/>
-      <c r="D113" s="23"/>
+      <c r="B113" s="33"/>
+      <c r="D113" s="33"/>
       <c r="E113">
         <v>146</v>
       </c>
@@ -2232,11 +2233,11 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B114" s="24"/>
+      <c r="B114" s="34"/>
       <c r="C114" s="7">
         <v>16</v>
       </c>
-      <c r="D114" s="24"/>
+      <c r="D114" s="34"/>
       <c r="E114" s="7">
         <v>147</v>
       </c>
@@ -2246,13 +2247,13 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="29" t="s">
         <v>38</v>
       </c>
       <c r="C115" s="2">
         <v>18</v>
       </c>
-      <c r="D115" s="19" t="s">
+      <c r="D115" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E115" s="2">
@@ -2264,8 +2265,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B116" s="20"/>
-      <c r="D116" s="20"/>
+      <c r="B116" s="30"/>
+      <c r="D116" s="30"/>
       <c r="E116">
         <v>149</v>
       </c>
@@ -2275,8 +2276,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B117" s="20"/>
-      <c r="D117" s="20"/>
+      <c r="B117" s="30"/>
+      <c r="D117" s="30"/>
       <c r="E117">
         <v>150</v>
       </c>
@@ -2286,8 +2287,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B118" s="20"/>
-      <c r="D118" s="20"/>
+      <c r="B118" s="30"/>
+      <c r="D118" s="30"/>
       <c r="E118">
         <v>151</v>
       </c>
@@ -2297,8 +2298,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B119" s="20"/>
-      <c r="D119" s="20"/>
+      <c r="B119" s="30"/>
+      <c r="D119" s="30"/>
       <c r="E119">
         <v>152</v>
       </c>
@@ -2308,8 +2309,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B120" s="20"/>
-      <c r="D120" s="20"/>
+      <c r="B120" s="30"/>
+      <c r="D120" s="30"/>
       <c r="E120">
         <v>153</v>
       </c>
@@ -2319,8 +2320,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B121" s="20"/>
-      <c r="D121" s="20"/>
+      <c r="B121" s="30"/>
+      <c r="D121" s="30"/>
       <c r="E121">
         <v>154</v>
       </c>
@@ -2333,8 +2334,8 @@
       <c r="A122" t="s">
         <v>37</v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="D122" s="20"/>
+      <c r="B122" s="30"/>
+      <c r="D122" s="30"/>
       <c r="E122">
         <v>155</v>
       </c>
@@ -2344,8 +2345,8 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B123" s="20"/>
-      <c r="D123" s="20"/>
+      <c r="B123" s="30"/>
+      <c r="D123" s="30"/>
       <c r="E123">
         <v>156</v>
       </c>
@@ -2355,8 +2356,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B124" s="20"/>
-      <c r="D124" s="20"/>
+      <c r="B124" s="30"/>
+      <c r="D124" s="30"/>
       <c r="E124">
         <v>157</v>
       </c>
@@ -2366,8 +2367,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B125" s="20"/>
-      <c r="D125" s="20"/>
+      <c r="B125" s="30"/>
+      <c r="D125" s="30"/>
       <c r="E125">
         <v>158</v>
       </c>
@@ -2377,8 +2378,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B126" s="20"/>
-      <c r="D126" s="20"/>
+      <c r="B126" s="30"/>
+      <c r="D126" s="30"/>
       <c r="E126">
         <v>159</v>
       </c>
@@ -2388,8 +2389,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B127" s="20"/>
-      <c r="D127" s="20"/>
+      <c r="B127" s="30"/>
+      <c r="D127" s="30"/>
       <c r="E127">
         <v>160</v>
       </c>
@@ -2399,8 +2400,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B128" s="20"/>
-      <c r="D128" s="20"/>
+      <c r="B128" s="30"/>
+      <c r="D128" s="30"/>
       <c r="E128">
         <v>161</v>
       </c>
@@ -2410,11 +2411,11 @@
       </c>
     </row>
     <row r="129" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B129" s="21"/>
+      <c r="B129" s="31"/>
       <c r="C129" s="7">
         <v>30</v>
       </c>
-      <c r="D129" s="21"/>
+      <c r="D129" s="31"/>
       <c r="E129" s="7">
         <v>162</v>
       </c>
@@ -2426,7 +2427,7 @@
     <row r="130" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="19" t="s">
+      <c r="D130" s="29" t="s">
         <v>42</v>
       </c>
       <c r="E130" s="2">
@@ -2439,7 +2440,7 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B131" s="4"/>
-      <c r="D131" s="20"/>
+      <c r="D131" s="30"/>
       <c r="E131">
         <v>164</v>
       </c>
@@ -2450,7 +2451,7 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B132" s="4"/>
-      <c r="D132" s="20"/>
+      <c r="D132" s="30"/>
       <c r="E132">
         <v>165</v>
       </c>
@@ -2461,7 +2462,7 @@
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B133" s="4"/>
-      <c r="D133" s="20"/>
+      <c r="D133" s="30"/>
       <c r="E133">
         <v>166</v>
       </c>
@@ -2472,7 +2473,7 @@
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B134" s="4"/>
-      <c r="D134" s="20"/>
+      <c r="D134" s="30"/>
       <c r="E134">
         <v>167</v>
       </c>
@@ -2483,7 +2484,7 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B135" s="4"/>
-      <c r="D135" s="20"/>
+      <c r="D135" s="30"/>
       <c r="E135">
         <v>168</v>
       </c>
@@ -2494,7 +2495,7 @@
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B136" s="4"/>
-      <c r="D136" s="20"/>
+      <c r="D136" s="30"/>
       <c r="E136">
         <v>169</v>
       </c>
@@ -2505,7 +2506,7 @@
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B137" s="4"/>
-      <c r="D137" s="20"/>
+      <c r="D137" s="30"/>
       <c r="E137">
         <v>170</v>
       </c>
@@ -2516,7 +2517,7 @@
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B138" s="4"/>
-      <c r="D138" s="20"/>
+      <c r="D138" s="30"/>
       <c r="E138">
         <v>171</v>
       </c>
@@ -2527,7 +2528,7 @@
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B139" s="4"/>
-      <c r="D139" s="20"/>
+      <c r="D139" s="30"/>
       <c r="E139">
         <v>172</v>
       </c>
@@ -2538,7 +2539,7 @@
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B140" s="4"/>
-      <c r="D140" s="20"/>
+      <c r="D140" s="30"/>
       <c r="E140">
         <v>173</v>
       </c>
@@ -2550,7 +2551,7 @@
     <row r="141" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
-      <c r="D141" s="21"/>
+      <c r="D141" s="31"/>
       <c r="E141" s="7">
         <v>174</v>
       </c>
@@ -2562,7 +2563,7 @@
     <row r="142" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="37" t="s">
+      <c r="D142" s="35" t="s">
         <v>43</v>
       </c>
       <c r="E142" s="2">
@@ -2575,7 +2576,7 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B143" s="4"/>
-      <c r="D143" s="38"/>
+      <c r="D143" s="36"/>
       <c r="E143">
         <v>176</v>
       </c>
@@ -2586,7 +2587,7 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B144" s="4"/>
-      <c r="D144" s="38"/>
+      <c r="D144" s="36"/>
       <c r="E144">
         <v>177</v>
       </c>
@@ -2597,7 +2598,7 @@
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B145" s="4"/>
-      <c r="D145" s="38"/>
+      <c r="D145" s="36"/>
       <c r="E145">
         <v>178</v>
       </c>
@@ -2608,7 +2609,7 @@
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B146" s="4"/>
-      <c r="D146" s="38"/>
+      <c r="D146" s="36"/>
       <c r="E146">
         <v>179</v>
       </c>
@@ -2619,7 +2620,7 @@
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B147" s="4"/>
-      <c r="D147" s="38"/>
+      <c r="D147" s="36"/>
       <c r="E147">
         <v>180</v>
       </c>
@@ -2630,7 +2631,7 @@
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B148" s="4"/>
-      <c r="D148" s="38"/>
+      <c r="D148" s="36"/>
       <c r="E148">
         <v>181</v>
       </c>
@@ -2642,7 +2643,7 @@
     <row r="149" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
-      <c r="D149" s="39"/>
+      <c r="D149" s="37"/>
       <c r="E149" s="7">
         <v>182</v>
       </c>
@@ -2654,7 +2655,7 @@
     <row r="150" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="28" t="s">
+      <c r="D150" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E150" s="2">
@@ -2667,7 +2668,7 @@
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B151" s="4"/>
-      <c r="D151" s="29"/>
+      <c r="D151" s="27"/>
       <c r="E151">
         <v>184</v>
       </c>
@@ -2678,7 +2679,7 @@
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B152" s="4"/>
-      <c r="D152" s="29"/>
+      <c r="D152" s="27"/>
       <c r="E152">
         <v>185</v>
       </c>
@@ -2689,7 +2690,7 @@
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B153" s="4"/>
-      <c r="D153" s="29"/>
+      <c r="D153" s="27"/>
       <c r="E153">
         <v>186</v>
       </c>
@@ -2700,7 +2701,7 @@
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B154" s="4"/>
-      <c r="D154" s="29"/>
+      <c r="D154" s="27"/>
       <c r="E154">
         <v>187</v>
       </c>
@@ -2711,7 +2712,7 @@
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B155" s="4"/>
-      <c r="D155" s="29"/>
+      <c r="D155" s="27"/>
       <c r="E155">
         <v>188</v>
       </c>
@@ -2722,7 +2723,7 @@
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B156" s="4"/>
-      <c r="D156" s="29"/>
+      <c r="D156" s="27"/>
       <c r="E156">
         <v>189</v>
       </c>
@@ -2733,7 +2734,7 @@
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B157" s="4"/>
-      <c r="D157" s="29"/>
+      <c r="D157" s="27"/>
       <c r="E157">
         <v>190</v>
       </c>
@@ -2744,7 +2745,7 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B158" s="4"/>
-      <c r="D158" s="29"/>
+      <c r="D158" s="27"/>
       <c r="E158">
         <v>191</v>
       </c>
@@ -2755,7 +2756,7 @@
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B159" s="4"/>
-      <c r="D159" s="29"/>
+      <c r="D159" s="27"/>
       <c r="E159">
         <v>192</v>
       </c>
@@ -2766,7 +2767,7 @@
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B160" s="4"/>
-      <c r="D160" s="29"/>
+      <c r="D160" s="27"/>
       <c r="E160">
         <v>193</v>
       </c>
@@ -2777,7 +2778,7 @@
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B161" s="4"/>
-      <c r="D161" s="29"/>
+      <c r="D161" s="27"/>
       <c r="E161">
         <v>194</v>
       </c>
@@ -2789,7 +2790,7 @@
     <row r="162" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
-      <c r="D162" s="30"/>
+      <c r="D162" s="28"/>
       <c r="E162" s="7">
         <v>195</v>
       </c>
@@ -2801,7 +2802,7 @@
     <row r="163" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B163" s="1"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="19" t="s">
+      <c r="D163" s="29" t="s">
         <v>45</v>
       </c>
       <c r="E163" s="2">
@@ -2814,7 +2815,7 @@
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B164" s="4"/>
-      <c r="D164" s="20"/>
+      <c r="D164" s="30"/>
       <c r="E164">
         <v>197</v>
       </c>
@@ -2825,7 +2826,7 @@
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B165" s="4"/>
-      <c r="D165" s="20"/>
+      <c r="D165" s="30"/>
       <c r="E165">
         <v>198</v>
       </c>
@@ -2836,7 +2837,7 @@
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B166" s="4"/>
-      <c r="D166" s="20"/>
+      <c r="D166" s="30"/>
       <c r="E166">
         <v>199</v>
       </c>
@@ -2847,7 +2848,7 @@
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B167" s="4"/>
-      <c r="D167" s="20"/>
+      <c r="D167" s="30"/>
       <c r="E167">
         <v>200</v>
       </c>
@@ -2858,7 +2859,7 @@
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B168" s="4"/>
-      <c r="D168" s="20"/>
+      <c r="D168" s="30"/>
       <c r="E168">
         <v>201</v>
       </c>
@@ -2869,7 +2870,7 @@
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B169" s="4"/>
-      <c r="D169" s="20"/>
+      <c r="D169" s="30"/>
       <c r="E169">
         <v>202</v>
       </c>
@@ -2880,7 +2881,7 @@
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B170" s="4"/>
-      <c r="D170" s="20"/>
+      <c r="D170" s="30"/>
       <c r="E170">
         <v>203</v>
       </c>
@@ -2891,7 +2892,7 @@
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B171" s="4"/>
-      <c r="D171" s="20"/>
+      <c r="D171" s="30"/>
       <c r="E171">
         <v>204</v>
       </c>
@@ -2902,7 +2903,7 @@
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B172" s="4"/>
-      <c r="D172" s="20"/>
+      <c r="D172" s="30"/>
       <c r="E172">
         <v>205</v>
       </c>
@@ -2913,7 +2914,7 @@
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B173" s="4"/>
-      <c r="D173" s="20"/>
+      <c r="D173" s="30"/>
       <c r="E173">
         <v>206</v>
       </c>
@@ -2924,7 +2925,7 @@
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B174" s="4"/>
-      <c r="D174" s="20"/>
+      <c r="D174" s="30"/>
       <c r="E174">
         <v>207</v>
       </c>
@@ -2935,7 +2936,7 @@
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B175" s="4"/>
-      <c r="D175" s="20"/>
+      <c r="D175" s="30"/>
       <c r="E175">
         <v>208</v>
       </c>
@@ -2946,7 +2947,7 @@
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B176" s="4"/>
-      <c r="D176" s="20"/>
+      <c r="D176" s="30"/>
       <c r="E176">
         <v>209</v>
       </c>
@@ -2957,7 +2958,7 @@
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B177" s="4"/>
-      <c r="D177" s="20"/>
+      <c r="D177" s="30"/>
       <c r="E177">
         <v>210</v>
       </c>
@@ -2968,7 +2969,7 @@
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B178" s="4"/>
-      <c r="D178" s="20"/>
+      <c r="D178" s="30"/>
       <c r="E178">
         <v>211</v>
       </c>
@@ -2979,7 +2980,7 @@
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B179" s="4"/>
-      <c r="D179" s="20"/>
+      <c r="D179" s="30"/>
       <c r="E179">
         <v>212</v>
       </c>
@@ -2990,7 +2991,7 @@
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B180" s="4"/>
-      <c r="D180" s="20"/>
+      <c r="D180" s="30"/>
       <c r="E180">
         <v>213</v>
       </c>
@@ -3001,7 +3002,7 @@
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B181" s="4"/>
-      <c r="D181" s="20"/>
+      <c r="D181" s="30"/>
       <c r="E181">
         <v>214</v>
       </c>
@@ -3012,7 +3013,7 @@
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B182" s="4"/>
-      <c r="D182" s="20"/>
+      <c r="D182" s="30"/>
       <c r="E182">
         <v>215</v>
       </c>
@@ -3023,7 +3024,7 @@
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B183" s="4"/>
-      <c r="D183" s="20"/>
+      <c r="D183" s="30"/>
       <c r="E183">
         <v>216</v>
       </c>
@@ -3034,7 +3035,7 @@
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B184" s="4"/>
-      <c r="D184" s="20"/>
+      <c r="D184" s="30"/>
       <c r="E184">
         <v>217</v>
       </c>
@@ -3045,7 +3046,7 @@
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B185" s="4"/>
-      <c r="D185" s="20"/>
+      <c r="D185" s="30"/>
       <c r="E185">
         <v>218</v>
       </c>
@@ -3056,7 +3057,7 @@
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B186" s="4"/>
-      <c r="D186" s="20"/>
+      <c r="D186" s="30"/>
       <c r="E186">
         <v>219</v>
       </c>
@@ -3067,7 +3068,7 @@
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B187" s="4"/>
-      <c r="D187" s="20"/>
+      <c r="D187" s="30"/>
       <c r="E187">
         <v>220</v>
       </c>
@@ -3078,7 +3079,7 @@
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B188" s="4"/>
-      <c r="D188" s="20"/>
+      <c r="D188" s="30"/>
       <c r="E188">
         <v>221</v>
       </c>
@@ -3089,7 +3090,7 @@
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B189" s="4"/>
-      <c r="D189" s="20"/>
+      <c r="D189" s="30"/>
       <c r="E189">
         <v>222</v>
       </c>
@@ -3100,7 +3101,7 @@
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B190" s="4"/>
-      <c r="D190" s="20"/>
+      <c r="D190" s="30"/>
       <c r="E190">
         <v>223</v>
       </c>
@@ -3112,7 +3113,7 @@
     <row r="191" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
-      <c r="D191" s="21"/>
+      <c r="D191" s="31"/>
       <c r="E191" s="7">
         <v>224</v>
       </c>
@@ -3124,7 +3125,7 @@
     <row r="192" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B192" s="1"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="19" t="s">
+      <c r="D192" s="29" t="s">
         <v>46</v>
       </c>
       <c r="E192" s="2">
@@ -3137,7 +3138,7 @@
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B193" s="4"/>
-      <c r="D193" s="20"/>
+      <c r="D193" s="30"/>
       <c r="E193">
         <v>226</v>
       </c>
@@ -3148,7 +3149,7 @@
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B194" s="4"/>
-      <c r="D194" s="20"/>
+      <c r="D194" s="30"/>
       <c r="E194">
         <v>227</v>
       </c>
@@ -3159,7 +3160,7 @@
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B195" s="4"/>
-      <c r="D195" s="20"/>
+      <c r="D195" s="30"/>
       <c r="E195">
         <v>228</v>
       </c>
@@ -3170,7 +3171,7 @@
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B196" s="4"/>
-      <c r="D196" s="20"/>
+      <c r="D196" s="30"/>
       <c r="E196">
         <v>229</v>
       </c>
@@ -3181,7 +3182,7 @@
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B197" s="4"/>
-      <c r="D197" s="20"/>
+      <c r="D197" s="30"/>
       <c r="E197">
         <v>230</v>
       </c>
@@ -3192,7 +3193,7 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B198" s="4"/>
-      <c r="D198" s="20"/>
+      <c r="D198" s="30"/>
       <c r="E198">
         <v>231</v>
       </c>
@@ -3203,7 +3204,7 @@
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B199" s="4"/>
-      <c r="D199" s="20"/>
+      <c r="D199" s="30"/>
       <c r="E199">
         <v>232</v>
       </c>
@@ -3214,7 +3215,7 @@
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B200" s="4"/>
-      <c r="D200" s="20"/>
+      <c r="D200" s="30"/>
       <c r="E200">
         <v>233</v>
       </c>
@@ -3225,7 +3226,7 @@
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B201" s="4"/>
-      <c r="D201" s="20"/>
+      <c r="D201" s="30"/>
       <c r="E201">
         <v>234</v>
       </c>
@@ -3236,7 +3237,7 @@
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B202" s="4"/>
-      <c r="D202" s="20"/>
+      <c r="D202" s="30"/>
       <c r="E202">
         <v>235</v>
       </c>
@@ -3247,7 +3248,7 @@
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B203" s="4"/>
-      <c r="D203" s="20"/>
+      <c r="D203" s="30"/>
       <c r="E203">
         <v>236</v>
       </c>
@@ -3258,7 +3259,7 @@
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B204" s="4"/>
-      <c r="D204" s="20"/>
+      <c r="D204" s="30"/>
       <c r="E204">
         <v>237</v>
       </c>
@@ -3269,7 +3270,7 @@
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B205" s="4"/>
-      <c r="D205" s="20"/>
+      <c r="D205" s="30"/>
       <c r="E205">
         <v>238</v>
       </c>
@@ -3280,7 +3281,7 @@
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B206" s="4"/>
-      <c r="D206" s="20"/>
+      <c r="D206" s="30"/>
       <c r="E206">
         <v>239</v>
       </c>
@@ -3291,7 +3292,7 @@
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B207" s="4"/>
-      <c r="D207" s="20"/>
+      <c r="D207" s="30"/>
       <c r="E207">
         <v>240</v>
       </c>
@@ -3302,7 +3303,7 @@
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B208" s="4"/>
-      <c r="D208" s="20"/>
+      <c r="D208" s="30"/>
       <c r="E208">
         <v>241</v>
       </c>
@@ -3313,7 +3314,7 @@
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B209" s="4"/>
-      <c r="D209" s="20"/>
+      <c r="D209" s="30"/>
       <c r="E209">
         <v>242</v>
       </c>
@@ -3324,7 +3325,7 @@
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B210" s="4"/>
-      <c r="D210" s="20"/>
+      <c r="D210" s="30"/>
       <c r="E210">
         <v>243</v>
       </c>
@@ -3335,7 +3336,7 @@
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B211" s="4"/>
-      <c r="D211" s="20"/>
+      <c r="D211" s="30"/>
       <c r="E211">
         <v>244</v>
       </c>
@@ -3346,7 +3347,7 @@
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B212" s="4"/>
-      <c r="D212" s="20"/>
+      <c r="D212" s="30"/>
       <c r="E212">
         <v>245</v>
       </c>
@@ -3358,7 +3359,7 @@
     <row r="213" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B213" s="6"/>
       <c r="C213" s="7"/>
-      <c r="D213" s="21"/>
+      <c r="D213" s="31"/>
       <c r="E213" s="7">
         <v>246</v>
       </c>
@@ -3370,7 +3371,7 @@
     <row r="214" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B214" s="1"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="19" t="s">
+      <c r="D214" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E214" s="2">
@@ -3383,7 +3384,7 @@
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B215" s="4"/>
-      <c r="D215" s="20"/>
+      <c r="D215" s="30"/>
       <c r="E215">
         <v>248</v>
       </c>
@@ -3394,7 +3395,7 @@
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B216" s="4"/>
-      <c r="D216" s="20"/>
+      <c r="D216" s="30"/>
       <c r="E216">
         <v>249</v>
       </c>
@@ -3405,7 +3406,7 @@
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B217" s="4"/>
-      <c r="D217" s="20"/>
+      <c r="D217" s="30"/>
       <c r="E217">
         <v>250</v>
       </c>
@@ -3416,7 +3417,7 @@
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B218" s="4"/>
-      <c r="D218" s="20"/>
+      <c r="D218" s="30"/>
       <c r="E218">
         <v>251</v>
       </c>
@@ -3427,7 +3428,7 @@
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B219" s="4"/>
-      <c r="D219" s="20"/>
+      <c r="D219" s="30"/>
       <c r="E219">
         <v>252</v>
       </c>
@@ -3438,7 +3439,7 @@
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B220" s="4"/>
-      <c r="D220" s="20"/>
+      <c r="D220" s="30"/>
       <c r="E220">
         <v>253</v>
       </c>
@@ -3449,7 +3450,7 @@
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B221" s="4"/>
-      <c r="D221" s="20"/>
+      <c r="D221" s="30"/>
       <c r="E221">
         <v>254</v>
       </c>
@@ -3460,7 +3461,7 @@
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B222" s="4"/>
-      <c r="D222" s="20"/>
+      <c r="D222" s="30"/>
       <c r="E222">
         <v>255</v>
       </c>
@@ -3471,7 +3472,7 @@
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B223" s="4"/>
-      <c r="D223" s="20"/>
+      <c r="D223" s="30"/>
       <c r="E223">
         <v>256</v>
       </c>
@@ -3482,7 +3483,7 @@
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B224" s="4"/>
-      <c r="D224" s="20"/>
+      <c r="D224" s="30"/>
       <c r="E224">
         <v>257</v>
       </c>
@@ -3493,7 +3494,7 @@
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B225" s="4"/>
-      <c r="D225" s="20"/>
+      <c r="D225" s="30"/>
       <c r="E225">
         <v>258</v>
       </c>
@@ -3504,7 +3505,7 @@
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B226" s="4"/>
-      <c r="D226" s="20"/>
+      <c r="D226" s="30"/>
       <c r="E226">
         <v>259</v>
       </c>
@@ -3515,7 +3516,7 @@
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B227" s="4"/>
-      <c r="D227" s="20"/>
+      <c r="D227" s="30"/>
       <c r="E227">
         <v>260</v>
       </c>
@@ -3526,7 +3527,7 @@
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B228" s="4"/>
-      <c r="D228" s="20"/>
+      <c r="D228" s="30"/>
       <c r="E228">
         <v>261</v>
       </c>
@@ -3537,7 +3538,7 @@
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B229" s="4"/>
-      <c r="D229" s="20"/>
+      <c r="D229" s="30"/>
       <c r="E229">
         <v>262</v>
       </c>
@@ -3548,7 +3549,7 @@
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B230" s="4"/>
-      <c r="D230" s="20"/>
+      <c r="D230" s="30"/>
       <c r="E230">
         <v>263</v>
       </c>
@@ -3559,7 +3560,7 @@
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B231" s="4"/>
-      <c r="D231" s="20"/>
+      <c r="D231" s="30"/>
       <c r="E231">
         <v>264</v>
       </c>
@@ -3570,7 +3571,7 @@
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B232" s="4"/>
-      <c r="D232" s="20"/>
+      <c r="D232" s="30"/>
       <c r="E232">
         <v>265</v>
       </c>
@@ -3582,7 +3583,7 @@
     <row r="233" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B233" s="6"/>
       <c r="C233" s="7"/>
-      <c r="D233" s="21"/>
+      <c r="D233" s="31"/>
       <c r="E233" s="7">
         <v>266</v>
       </c>
@@ -3594,7 +3595,7 @@
     <row r="234" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B234" s="1"/>
       <c r="C234" s="2"/>
-      <c r="D234" s="25" t="s">
+      <c r="D234" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E234" s="2">
@@ -3607,7 +3608,7 @@
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B235" s="4"/>
-      <c r="D235" s="26"/>
+      <c r="D235" s="24"/>
       <c r="E235">
         <v>268</v>
       </c>
@@ -3618,7 +3619,7 @@
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B236" s="4"/>
-      <c r="D236" s="26"/>
+      <c r="D236" s="24"/>
       <c r="E236">
         <v>269</v>
       </c>
@@ -3629,7 +3630,7 @@
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B237" s="4"/>
-      <c r="D237" s="26"/>
+      <c r="D237" s="24"/>
       <c r="E237">
         <v>270</v>
       </c>
@@ -3640,7 +3641,7 @@
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B238" s="4"/>
-      <c r="D238" s="26"/>
+      <c r="D238" s="24"/>
       <c r="E238">
         <v>271</v>
       </c>
@@ -3651,7 +3652,7 @@
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B239" s="4"/>
-      <c r="D239" s="26"/>
+      <c r="D239" s="24"/>
       <c r="E239">
         <v>272</v>
       </c>
@@ -3662,7 +3663,7 @@
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B240" s="4"/>
-      <c r="D240" s="26"/>
+      <c r="D240" s="24"/>
       <c r="E240">
         <v>273</v>
       </c>
@@ -3673,7 +3674,7 @@
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B241" s="4"/>
-      <c r="D241" s="26"/>
+      <c r="D241" s="24"/>
       <c r="E241">
         <v>274</v>
       </c>
@@ -3684,7 +3685,7 @@
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B242" s="4"/>
-      <c r="D242" s="26"/>
+      <c r="D242" s="24"/>
       <c r="E242">
         <v>275</v>
       </c>
@@ -3695,7 +3696,7 @@
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B243" s="4"/>
-      <c r="D243" s="26"/>
+      <c r="D243" s="24"/>
       <c r="E243">
         <v>276</v>
       </c>
@@ -3706,7 +3707,7 @@
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B244" s="4"/>
-      <c r="D244" s="26"/>
+      <c r="D244" s="24"/>
       <c r="E244">
         <v>277</v>
       </c>
@@ -3717,7 +3718,7 @@
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B245" s="4"/>
-      <c r="D245" s="26"/>
+      <c r="D245" s="24"/>
       <c r="E245">
         <v>278</v>
       </c>
@@ -3728,7 +3729,7 @@
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B246" s="4"/>
-      <c r="D246" s="26"/>
+      <c r="D246" s="24"/>
       <c r="E246">
         <v>279</v>
       </c>
@@ -3739,7 +3740,7 @@
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B247" s="4"/>
-      <c r="D247" s="26"/>
+      <c r="D247" s="24"/>
       <c r="E247">
         <v>280</v>
       </c>
@@ -3750,7 +3751,7 @@
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B248" s="4"/>
-      <c r="D248" s="26"/>
+      <c r="D248" s="24"/>
       <c r="E248">
         <v>281</v>
       </c>
@@ -3761,7 +3762,7 @@
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B249" s="4"/>
-      <c r="D249" s="26"/>
+      <c r="D249" s="24"/>
       <c r="E249">
         <v>282</v>
       </c>
@@ -3772,7 +3773,7 @@
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B250" s="4"/>
-      <c r="D250" s="26"/>
+      <c r="D250" s="24"/>
       <c r="E250">
         <v>283</v>
       </c>
@@ -3784,7 +3785,7 @@
     <row r="251" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B251" s="6"/>
       <c r="C251" s="7"/>
-      <c r="D251" s="27"/>
+      <c r="D251" s="25"/>
       <c r="E251" s="7">
         <v>284</v>
       </c>
@@ -3796,7 +3797,7 @@
     <row r="252" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B252" s="1"/>
       <c r="C252" s="2"/>
-      <c r="D252" s="28" t="s">
+      <c r="D252" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E252" s="2">
@@ -3809,7 +3810,7 @@
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B253" s="4"/>
-      <c r="D253" s="29"/>
+      <c r="D253" s="27"/>
       <c r="E253">
         <v>286</v>
       </c>
@@ -3820,7 +3821,7 @@
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B254" s="4"/>
-      <c r="D254" s="29"/>
+      <c r="D254" s="27"/>
       <c r="E254">
         <v>287</v>
       </c>
@@ -3831,7 +3832,7 @@
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B255" s="4"/>
-      <c r="D255" s="29"/>
+      <c r="D255" s="27"/>
       <c r="E255">
         <v>288</v>
       </c>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B256" s="4"/>
-      <c r="D256" s="29"/>
+      <c r="D256" s="27"/>
       <c r="E256">
         <v>289</v>
       </c>
@@ -3853,7 +3854,7 @@
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B257" s="4"/>
-      <c r="D257" s="29"/>
+      <c r="D257" s="27"/>
       <c r="E257">
         <v>290</v>
       </c>
@@ -3864,7 +3865,7 @@
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B258" s="4"/>
-      <c r="D258" s="29"/>
+      <c r="D258" s="27"/>
       <c r="E258">
         <v>291</v>
       </c>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B259" s="4"/>
-      <c r="D259" s="29"/>
+      <c r="D259" s="27"/>
       <c r="E259">
         <v>292</v>
       </c>
@@ -3886,7 +3887,7 @@
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B260" s="4"/>
-      <c r="D260" s="29"/>
+      <c r="D260" s="27"/>
       <c r="E260">
         <v>293</v>
       </c>
@@ -3898,7 +3899,7 @@
     <row r="261" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B261" s="6"/>
       <c r="C261" s="7"/>
-      <c r="D261" s="30"/>
+      <c r="D261" s="28"/>
       <c r="E261" s="7">
         <v>294</v>
       </c>
@@ -3910,7 +3911,7 @@
     <row r="262" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B262" s="1"/>
       <c r="C262" s="2"/>
-      <c r="D262" s="19" t="s">
+      <c r="D262" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E262" s="2">
@@ -3923,7 +3924,7 @@
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B263" s="4"/>
-      <c r="D263" s="20"/>
+      <c r="D263" s="30"/>
       <c r="E263">
         <v>296</v>
       </c>
@@ -3934,7 +3935,7 @@
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B264" s="4"/>
-      <c r="D264" s="20"/>
+      <c r="D264" s="30"/>
       <c r="E264">
         <v>297</v>
       </c>
@@ -3945,7 +3946,7 @@
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B265" s="4"/>
-      <c r="D265" s="20"/>
+      <c r="D265" s="30"/>
       <c r="E265">
         <v>298</v>
       </c>
@@ -3956,7 +3957,7 @@
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B266" s="4"/>
-      <c r="D266" s="20"/>
+      <c r="D266" s="30"/>
       <c r="E266">
         <v>299</v>
       </c>
@@ -3967,7 +3968,7 @@
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B267" s="4"/>
-      <c r="D267" s="20"/>
+      <c r="D267" s="30"/>
       <c r="E267">
         <v>300</v>
       </c>
@@ -3978,7 +3979,7 @@
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B268" s="4"/>
-      <c r="D268" s="20"/>
+      <c r="D268" s="30"/>
       <c r="E268">
         <v>301</v>
       </c>
@@ -3989,7 +3990,7 @@
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B269" s="4"/>
-      <c r="D269" s="20"/>
+      <c r="D269" s="30"/>
       <c r="E269">
         <v>302</v>
       </c>
@@ -4000,7 +4001,7 @@
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B270" s="4"/>
-      <c r="D270" s="20"/>
+      <c r="D270" s="30"/>
       <c r="E270">
         <v>303</v>
       </c>
@@ -4011,7 +4012,7 @@
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B271" s="4"/>
-      <c r="D271" s="20"/>
+      <c r="D271" s="30"/>
       <c r="E271">
         <v>304</v>
       </c>
@@ -4022,7 +4023,7 @@
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B272" s="4"/>
-      <c r="D272" s="20"/>
+      <c r="D272" s="30"/>
       <c r="E272">
         <v>305</v>
       </c>
@@ -4033,7 +4034,7 @@
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B273" s="4"/>
-      <c r="D273" s="20"/>
+      <c r="D273" s="30"/>
       <c r="E273">
         <v>306</v>
       </c>
@@ -4044,7 +4045,7 @@
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B274" s="4"/>
-      <c r="D274" s="20"/>
+      <c r="D274" s="30"/>
       <c r="E274">
         <v>307</v>
       </c>
@@ -4055,7 +4056,7 @@
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B275" s="4"/>
-      <c r="D275" s="20"/>
+      <c r="D275" s="30"/>
       <c r="E275">
         <v>308</v>
       </c>
@@ -4066,7 +4067,7 @@
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B276" s="4"/>
-      <c r="D276" s="20"/>
+      <c r="D276" s="30"/>
       <c r="E276">
         <v>309</v>
       </c>
@@ -4077,7 +4078,7 @@
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B277" s="4"/>
-      <c r="D277" s="20"/>
+      <c r="D277" s="30"/>
       <c r="E277">
         <v>310</v>
       </c>
@@ -4088,7 +4089,7 @@
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B278" s="4"/>
-      <c r="D278" s="20"/>
+      <c r="D278" s="30"/>
       <c r="E278">
         <v>311</v>
       </c>
@@ -4099,7 +4100,7 @@
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B279" s="4"/>
-      <c r="D279" s="20"/>
+      <c r="D279" s="30"/>
       <c r="E279">
         <v>312</v>
       </c>
@@ -4110,7 +4111,7 @@
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B280" s="4"/>
-      <c r="D280" s="20"/>
+      <c r="D280" s="30"/>
       <c r="E280">
         <v>313</v>
       </c>
@@ -4121,7 +4122,7 @@
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B281" s="4"/>
-      <c r="D281" s="20"/>
+      <c r="D281" s="30"/>
       <c r="E281">
         <v>314</v>
       </c>
@@ -4132,7 +4133,7 @@
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B282" s="4"/>
-      <c r="D282" s="20"/>
+      <c r="D282" s="30"/>
       <c r="E282">
         <v>315</v>
       </c>
@@ -4143,7 +4144,7 @@
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B283" s="4"/>
-      <c r="D283" s="20"/>
+      <c r="D283" s="30"/>
       <c r="E283">
         <v>316</v>
       </c>
@@ -4154,7 +4155,7 @@
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B284" s="4"/>
-      <c r="D284" s="20"/>
+      <c r="D284" s="30"/>
       <c r="E284">
         <v>317</v>
       </c>
@@ -4165,7 +4166,7 @@
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B285" s="4"/>
-      <c r="D285" s="20"/>
+      <c r="D285" s="30"/>
       <c r="E285">
         <v>318</v>
       </c>
@@ -4177,7 +4178,7 @@
     <row r="286" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B286" s="6"/>
       <c r="C286" s="7"/>
-      <c r="D286" s="21"/>
+      <c r="D286" s="31"/>
       <c r="E286" s="7">
         <v>319</v>
       </c>
@@ -4189,7 +4190,7 @@
     <row r="287" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B287" s="1"/>
       <c r="C287" s="2"/>
-      <c r="D287" s="19" t="s">
+      <c r="D287" s="29" t="s">
         <v>51</v>
       </c>
       <c r="E287" s="2">
@@ -4202,7 +4203,7 @@
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B288" s="4"/>
-      <c r="D288" s="20"/>
+      <c r="D288" s="30"/>
       <c r="E288">
         <v>321</v>
       </c>
@@ -4213,7 +4214,7 @@
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B289" s="4"/>
-      <c r="D289" s="20"/>
+      <c r="D289" s="30"/>
       <c r="E289">
         <v>322</v>
       </c>
@@ -4224,7 +4225,7 @@
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B290" s="4"/>
-      <c r="D290" s="20"/>
+      <c r="D290" s="30"/>
       <c r="E290">
         <v>323</v>
       </c>
@@ -4235,7 +4236,7 @@
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B291" s="4"/>
-      <c r="D291" s="20"/>
+      <c r="D291" s="30"/>
       <c r="E291">
         <v>324</v>
       </c>
@@ -4246,7 +4247,7 @@
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B292" s="4"/>
-      <c r="D292" s="20"/>
+      <c r="D292" s="30"/>
       <c r="E292">
         <v>325</v>
       </c>
@@ -4257,7 +4258,7 @@
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B293" s="4"/>
-      <c r="D293" s="20"/>
+      <c r="D293" s="30"/>
       <c r="E293">
         <v>326</v>
       </c>
@@ -4268,7 +4269,7 @@
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B294" s="4"/>
-      <c r="D294" s="20"/>
+      <c r="D294" s="30"/>
       <c r="E294">
         <v>327</v>
       </c>
@@ -4279,7 +4280,7 @@
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B295" s="4"/>
-      <c r="D295" s="20"/>
+      <c r="D295" s="30"/>
       <c r="E295">
         <v>328</v>
       </c>
@@ -4290,7 +4291,7 @@
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B296" s="4"/>
-      <c r="D296" s="20"/>
+      <c r="D296" s="30"/>
       <c r="E296">
         <v>329</v>
       </c>
@@ -4301,7 +4302,7 @@
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B297" s="4"/>
-      <c r="D297" s="20"/>
+      <c r="D297" s="30"/>
       <c r="E297">
         <v>330</v>
       </c>
@@ -4312,7 +4313,7 @@
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B298" s="4"/>
-      <c r="D298" s="20"/>
+      <c r="D298" s="30"/>
       <c r="E298">
         <v>331</v>
       </c>
@@ -4323,7 +4324,7 @@
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B299" s="4"/>
-      <c r="D299" s="20"/>
+      <c r="D299" s="30"/>
       <c r="E299">
         <v>332</v>
       </c>
@@ -4334,7 +4335,7 @@
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B300" s="4"/>
-      <c r="D300" s="20"/>
+      <c r="D300" s="30"/>
       <c r="E300">
         <v>333</v>
       </c>
@@ -4345,7 +4346,7 @@
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B301" s="4"/>
-      <c r="D301" s="20"/>
+      <c r="D301" s="30"/>
       <c r="E301">
         <v>334</v>
       </c>
@@ -4356,7 +4357,7 @@
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B302" s="4"/>
-      <c r="D302" s="20"/>
+      <c r="D302" s="30"/>
       <c r="E302">
         <v>335</v>
       </c>
@@ -4367,7 +4368,7 @@
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B303" s="4"/>
-      <c r="D303" s="20"/>
+      <c r="D303" s="30"/>
       <c r="E303">
         <v>336</v>
       </c>
@@ -4378,7 +4379,7 @@
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B304" s="4"/>
-      <c r="D304" s="20"/>
+      <c r="D304" s="30"/>
       <c r="E304">
         <v>337</v>
       </c>
@@ -4389,7 +4390,7 @@
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B305" s="4"/>
-      <c r="D305" s="20"/>
+      <c r="D305" s="30"/>
       <c r="E305">
         <v>338</v>
       </c>
@@ -4400,7 +4401,7 @@
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B306" s="4"/>
-      <c r="D306" s="20"/>
+      <c r="D306" s="30"/>
       <c r="E306">
         <v>339</v>
       </c>
@@ -4411,7 +4412,7 @@
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B307" s="4"/>
-      <c r="D307" s="20"/>
+      <c r="D307" s="30"/>
       <c r="E307">
         <v>340</v>
       </c>
@@ -4422,7 +4423,7 @@
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B308" s="4"/>
-      <c r="D308" s="20"/>
+      <c r="D308" s="30"/>
       <c r="E308">
         <v>341</v>
       </c>
@@ -4433,7 +4434,7 @@
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B309" s="4"/>
-      <c r="D309" s="20"/>
+      <c r="D309" s="30"/>
       <c r="E309">
         <v>342</v>
       </c>
@@ -4444,7 +4445,7 @@
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B310" s="4"/>
-      <c r="D310" s="20"/>
+      <c r="D310" s="30"/>
       <c r="E310">
         <v>343</v>
       </c>
@@ -4455,7 +4456,7 @@
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B311" s="4"/>
-      <c r="D311" s="20"/>
+      <c r="D311" s="30"/>
       <c r="E311">
         <v>344</v>
       </c>
@@ -4466,7 +4467,7 @@
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B312" s="4"/>
-      <c r="D312" s="20"/>
+      <c r="D312" s="30"/>
       <c r="E312">
         <v>345</v>
       </c>
@@ -4477,7 +4478,7 @@
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B313" s="4"/>
-      <c r="D313" s="20"/>
+      <c r="D313" s="30"/>
       <c r="E313">
         <v>346</v>
       </c>
@@ -4488,7 +4489,7 @@
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B314" s="4"/>
-      <c r="D314" s="20"/>
+      <c r="D314" s="30"/>
       <c r="E314">
         <v>347</v>
       </c>
@@ -4499,7 +4500,7 @@
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B315" s="4"/>
-      <c r="D315" s="20"/>
+      <c r="D315" s="30"/>
       <c r="E315">
         <v>348</v>
       </c>
@@ -4511,7 +4512,7 @@
     <row r="316" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B316" s="6"/>
       <c r="C316" s="7"/>
-      <c r="D316" s="21"/>
+      <c r="D316" s="31"/>
       <c r="E316" s="7">
         <v>349</v>
       </c>
@@ -4523,7 +4524,7 @@
     <row r="317" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B317" s="1"/>
       <c r="C317" s="2"/>
-      <c r="D317" s="28" t="s">
+      <c r="D317" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E317" s="2">
@@ -4536,7 +4537,7 @@
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B318" s="4"/>
-      <c r="D318" s="29"/>
+      <c r="D318" s="27"/>
       <c r="E318">
         <v>351</v>
       </c>
@@ -4547,7 +4548,7 @@
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B319" s="4"/>
-      <c r="D319" s="29"/>
+      <c r="D319" s="27"/>
       <c r="E319">
         <v>352</v>
       </c>
@@ -4558,7 +4559,7 @@
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B320" s="4"/>
-      <c r="D320" s="29"/>
+      <c r="D320" s="27"/>
       <c r="E320">
         <v>353</v>
       </c>
@@ -4569,7 +4570,7 @@
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B321" s="4"/>
-      <c r="D321" s="29"/>
+      <c r="D321" s="27"/>
       <c r="E321">
         <v>354</v>
       </c>
@@ -4580,7 +4581,7 @@
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B322" s="4"/>
-      <c r="D322" s="29"/>
+      <c r="D322" s="27"/>
       <c r="E322">
         <v>355</v>
       </c>
@@ -4591,7 +4592,7 @@
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B323" s="4"/>
-      <c r="D323" s="29"/>
+      <c r="D323" s="27"/>
       <c r="E323">
         <v>356</v>
       </c>
@@ -4602,7 +4603,7 @@
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B324" s="4"/>
-      <c r="D324" s="29"/>
+      <c r="D324" s="27"/>
       <c r="E324">
         <v>357</v>
       </c>
@@ -4613,7 +4614,7 @@
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B325" s="4"/>
-      <c r="D325" s="29"/>
+      <c r="D325" s="27"/>
       <c r="E325">
         <v>358</v>
       </c>
@@ -4624,7 +4625,7 @@
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B326" s="4"/>
-      <c r="D326" s="29"/>
+      <c r="D326" s="27"/>
       <c r="E326">
         <v>359</v>
       </c>
@@ -4635,7 +4636,7 @@
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B327" s="4"/>
-      <c r="D327" s="29"/>
+      <c r="D327" s="27"/>
       <c r="E327">
         <v>360</v>
       </c>
@@ -4647,7 +4648,7 @@
     <row r="328" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B328" s="6"/>
       <c r="C328" s="7"/>
-      <c r="D328" s="30"/>
+      <c r="D328" s="28"/>
       <c r="E328" s="7">
         <v>361</v>
       </c>
@@ -4659,7 +4660,7 @@
     <row r="329" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B329" s="1"/>
       <c r="C329" s="2"/>
-      <c r="D329" s="19" t="s">
+      <c r="D329" s="29" t="s">
         <v>53</v>
       </c>
       <c r="E329" s="2">
@@ -4672,7 +4673,7 @@
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B330" s="4"/>
-      <c r="D330" s="20"/>
+      <c r="D330" s="30"/>
       <c r="E330">
         <v>363</v>
       </c>
@@ -4683,7 +4684,7 @@
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B331" s="4"/>
-      <c r="D331" s="20"/>
+      <c r="D331" s="30"/>
       <c r="E331">
         <v>364</v>
       </c>
@@ -4694,7 +4695,7 @@
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B332" s="4"/>
-      <c r="D332" s="20"/>
+      <c r="D332" s="30"/>
       <c r="E332">
         <v>365</v>
       </c>
@@ -4705,7 +4706,7 @@
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B333" s="4"/>
-      <c r="D333" s="20"/>
+      <c r="D333" s="30"/>
       <c r="E333">
         <v>366</v>
       </c>
@@ -4716,7 +4717,7 @@
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B334" s="4"/>
-      <c r="D334" s="20"/>
+      <c r="D334" s="30"/>
       <c r="E334">
         <v>367</v>
       </c>
@@ -4727,7 +4728,7 @@
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B335" s="4"/>
-      <c r="D335" s="20"/>
+      <c r="D335" s="30"/>
       <c r="E335">
         <v>368</v>
       </c>
@@ -4738,7 +4739,7 @@
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B336" s="4"/>
-      <c r="D336" s="20"/>
+      <c r="D336" s="30"/>
       <c r="E336">
         <v>369</v>
       </c>
@@ -4749,7 +4750,7 @@
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B337" s="4"/>
-      <c r="D337" s="20"/>
+      <c r="D337" s="30"/>
       <c r="E337">
         <v>370</v>
       </c>
@@ -4760,7 +4761,7 @@
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B338" s="4"/>
-      <c r="D338" s="20"/>
+      <c r="D338" s="30"/>
       <c r="E338">
         <v>371</v>
       </c>
@@ -4771,7 +4772,7 @@
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B339" s="4"/>
-      <c r="D339" s="20"/>
+      <c r="D339" s="30"/>
       <c r="E339">
         <v>372</v>
       </c>
@@ -4782,7 +4783,7 @@
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B340" s="4"/>
-      <c r="D340" s="20"/>
+      <c r="D340" s="30"/>
       <c r="E340">
         <v>373</v>
       </c>
@@ -4793,7 +4794,7 @@
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B341" s="4"/>
-      <c r="D341" s="20"/>
+      <c r="D341" s="30"/>
       <c r="E341">
         <v>374</v>
       </c>
@@ -4804,7 +4805,7 @@
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B342" s="4"/>
-      <c r="D342" s="20"/>
+      <c r="D342" s="30"/>
       <c r="E342">
         <v>375</v>
       </c>
@@ -4815,7 +4816,7 @@
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B343" s="4"/>
-      <c r="D343" s="20"/>
+      <c r="D343" s="30"/>
       <c r="E343">
         <v>376</v>
       </c>
@@ -4826,7 +4827,7 @@
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B344" s="4"/>
-      <c r="D344" s="20"/>
+      <c r="D344" s="30"/>
       <c r="E344">
         <v>377</v>
       </c>
@@ -4837,7 +4838,7 @@
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B345" s="4"/>
-      <c r="D345" s="20"/>
+      <c r="D345" s="30"/>
       <c r="E345">
         <v>378</v>
       </c>
@@ -4848,7 +4849,7 @@
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B346" s="4"/>
-      <c r="D346" s="20"/>
+      <c r="D346" s="30"/>
       <c r="E346">
         <v>379</v>
       </c>
@@ -4859,7 +4860,7 @@
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B347" s="4"/>
-      <c r="D347" s="20"/>
+      <c r="D347" s="30"/>
       <c r="E347">
         <v>380</v>
       </c>
@@ -4870,7 +4871,7 @@
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B348" s="4"/>
-      <c r="D348" s="20"/>
+      <c r="D348" s="30"/>
       <c r="E348">
         <v>381</v>
       </c>
@@ -4881,7 +4882,7 @@
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B349" s="4"/>
-      <c r="D349" s="20"/>
+      <c r="D349" s="30"/>
       <c r="E349">
         <v>382</v>
       </c>
@@ -4892,7 +4893,7 @@
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B350" s="4"/>
-      <c r="D350" s="20"/>
+      <c r="D350" s="30"/>
       <c r="E350">
         <v>383</v>
       </c>
@@ -4903,7 +4904,7 @@
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B351" s="4"/>
-      <c r="D351" s="20"/>
+      <c r="D351" s="30"/>
       <c r="E351">
         <v>384</v>
       </c>
@@ -4914,7 +4915,7 @@
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B352" s="4"/>
-      <c r="D352" s="20"/>
+      <c r="D352" s="30"/>
       <c r="E352">
         <v>385</v>
       </c>
@@ -4925,7 +4926,7 @@
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B353" s="4"/>
-      <c r="D353" s="20"/>
+      <c r="D353" s="30"/>
       <c r="E353">
         <v>386</v>
       </c>
@@ -4936,7 +4937,7 @@
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B354" s="4"/>
-      <c r="D354" s="20"/>
+      <c r="D354" s="30"/>
       <c r="E354">
         <v>387</v>
       </c>
@@ -4947,7 +4948,7 @@
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B355" s="4"/>
-      <c r="D355" s="20"/>
+      <c r="D355" s="30"/>
       <c r="E355">
         <v>388</v>
       </c>
@@ -4958,7 +4959,7 @@
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B356" s="4"/>
-      <c r="D356" s="20"/>
+      <c r="D356" s="30"/>
       <c r="E356">
         <v>389</v>
       </c>
@@ -4969,7 +4970,7 @@
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B357" s="4"/>
-      <c r="D357" s="20"/>
+      <c r="D357" s="30"/>
       <c r="E357">
         <v>390</v>
       </c>
@@ -4980,7 +4981,7 @@
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B358" s="4"/>
-      <c r="D358" s="20"/>
+      <c r="D358" s="30"/>
       <c r="E358">
         <v>391</v>
       </c>
@@ -4991,7 +4992,7 @@
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B359" s="4"/>
-      <c r="D359" s="20"/>
+      <c r="D359" s="30"/>
       <c r="E359">
         <v>392</v>
       </c>
@@ -5002,7 +5003,7 @@
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B360" s="4"/>
-      <c r="D360" s="20"/>
+      <c r="D360" s="30"/>
       <c r="E360">
         <v>393</v>
       </c>
@@ -5013,7 +5014,7 @@
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B361" s="4"/>
-      <c r="D361" s="20"/>
+      <c r="D361" s="30"/>
       <c r="E361">
         <v>394</v>
       </c>
@@ -5024,7 +5025,7 @@
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B362" s="4"/>
-      <c r="D362" s="20"/>
+      <c r="D362" s="30"/>
       <c r="E362">
         <v>395</v>
       </c>
@@ -5035,7 +5036,7 @@
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B363" s="4"/>
-      <c r="D363" s="20"/>
+      <c r="D363" s="30"/>
       <c r="E363">
         <v>396</v>
       </c>
@@ -5046,7 +5047,7 @@
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B364" s="4"/>
-      <c r="D364" s="20"/>
+      <c r="D364" s="30"/>
       <c r="E364">
         <v>397</v>
       </c>
@@ -5057,7 +5058,7 @@
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B365" s="4"/>
-      <c r="D365" s="20"/>
+      <c r="D365" s="30"/>
       <c r="E365">
         <v>398</v>
       </c>
@@ -5068,7 +5069,7 @@
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B366" s="4"/>
-      <c r="D366" s="20"/>
+      <c r="D366" s="30"/>
       <c r="E366">
         <v>399</v>
       </c>
@@ -5079,7 +5080,7 @@
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B367" s="4"/>
-      <c r="D367" s="20"/>
+      <c r="D367" s="30"/>
       <c r="E367">
         <v>400</v>
       </c>
@@ -5090,7 +5091,7 @@
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B368" s="4"/>
-      <c r="D368" s="20"/>
+      <c r="D368" s="30"/>
       <c r="E368">
         <v>401</v>
       </c>
@@ -5101,7 +5102,7 @@
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B369" s="4"/>
-      <c r="D369" s="20"/>
+      <c r="D369" s="30"/>
       <c r="E369">
         <v>402</v>
       </c>
@@ -5112,7 +5113,7 @@
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B370" s="4"/>
-      <c r="D370" s="20"/>
+      <c r="D370" s="30"/>
       <c r="E370">
         <v>403</v>
       </c>
@@ -5123,7 +5124,7 @@
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B371" s="4"/>
-      <c r="D371" s="20"/>
+      <c r="D371" s="30"/>
       <c r="E371">
         <v>404</v>
       </c>
@@ -5134,7 +5135,7 @@
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B372" s="4"/>
-      <c r="D372" s="20"/>
+      <c r="D372" s="30"/>
       <c r="E372">
         <v>405</v>
       </c>
@@ -5145,7 +5146,7 @@
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B373" s="4"/>
-      <c r="D373" s="20"/>
+      <c r="D373" s="30"/>
       <c r="E373">
         <v>406</v>
       </c>
@@ -5157,7 +5158,7 @@
     <row r="374" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B374" s="6"/>
       <c r="C374" s="7"/>
-      <c r="D374" s="21"/>
+      <c r="D374" s="31"/>
       <c r="E374" s="7">
         <v>407</v>
       </c>
@@ -5169,7 +5170,7 @@
     <row r="375" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B375" s="1"/>
       <c r="C375" s="2"/>
-      <c r="D375" s="22" t="s">
+      <c r="D375" s="32" t="s">
         <v>54</v>
       </c>
       <c r="E375" s="2">
@@ -5182,7 +5183,7 @@
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B376" s="4"/>
-      <c r="D376" s="23"/>
+      <c r="D376" s="33"/>
       <c r="E376">
         <v>409</v>
       </c>
@@ -5193,7 +5194,7 @@
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B377" s="4"/>
-      <c r="D377" s="23"/>
+      <c r="D377" s="33"/>
       <c r="E377">
         <v>410</v>
       </c>
@@ -5204,7 +5205,7 @@
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B378" s="4"/>
-      <c r="D378" s="23"/>
+      <c r="D378" s="33"/>
       <c r="E378">
         <v>411</v>
       </c>
@@ -5215,7 +5216,7 @@
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B379" s="4"/>
-      <c r="D379" s="23"/>
+      <c r="D379" s="33"/>
       <c r="E379">
         <v>412</v>
       </c>
@@ -5226,7 +5227,7 @@
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B380" s="4"/>
-      <c r="D380" s="23"/>
+      <c r="D380" s="33"/>
       <c r="E380">
         <v>413</v>
       </c>
@@ -5237,7 +5238,7 @@
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B381" s="4"/>
-      <c r="D381" s="23"/>
+      <c r="D381" s="33"/>
       <c r="E381">
         <v>414</v>
       </c>
@@ -5248,7 +5249,7 @@
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B382" s="4"/>
-      <c r="D382" s="23"/>
+      <c r="D382" s="33"/>
       <c r="E382">
         <v>415</v>
       </c>
@@ -5259,7 +5260,7 @@
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B383" s="4"/>
-      <c r="D383" s="23"/>
+      <c r="D383" s="33"/>
       <c r="E383">
         <v>416</v>
       </c>
@@ -5270,7 +5271,7 @@
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B384" s="4"/>
-      <c r="D384" s="23"/>
+      <c r="D384" s="33"/>
       <c r="E384">
         <v>417</v>
       </c>
@@ -5282,7 +5283,7 @@
     <row r="385" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B385" s="6"/>
       <c r="C385" s="7"/>
-      <c r="D385" s="24"/>
+      <c r="D385" s="34"/>
       <c r="E385" s="7">
         <v>418</v>
       </c>
@@ -5294,7 +5295,7 @@
     <row r="386" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B386" s="1"/>
       <c r="C386" s="2"/>
-      <c r="D386" s="19" t="s">
+      <c r="D386" s="29" t="s">
         <v>55</v>
       </c>
       <c r="E386" s="2">
@@ -5307,7 +5308,7 @@
     </row>
     <row r="387" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B387" s="4"/>
-      <c r="D387" s="20"/>
+      <c r="D387" s="30"/>
       <c r="E387">
         <v>420</v>
       </c>
@@ -5318,7 +5319,7 @@
     </row>
     <row r="388" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B388" s="4"/>
-      <c r="D388" s="20"/>
+      <c r="D388" s="30"/>
       <c r="E388">
         <v>421</v>
       </c>
@@ -5329,7 +5330,7 @@
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B389" s="4"/>
-      <c r="D389" s="20"/>
+      <c r="D389" s="30"/>
       <c r="E389">
         <v>422</v>
       </c>
@@ -5340,7 +5341,7 @@
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B390" s="4"/>
-      <c r="D390" s="20"/>
+      <c r="D390" s="30"/>
       <c r="E390">
         <v>423</v>
       </c>
@@ -5351,7 +5352,7 @@
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B391" s="4"/>
-      <c r="D391" s="20"/>
+      <c r="D391" s="30"/>
       <c r="E391">
         <v>424</v>
       </c>
@@ -5362,7 +5363,7 @@
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B392" s="4"/>
-      <c r="D392" s="20"/>
+      <c r="D392" s="30"/>
       <c r="E392">
         <v>425</v>
       </c>
@@ -5373,7 +5374,7 @@
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B393" s="4"/>
-      <c r="D393" s="20"/>
+      <c r="D393" s="30"/>
       <c r="E393">
         <v>426</v>
       </c>
@@ -5384,7 +5385,7 @@
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B394" s="4"/>
-      <c r="D394" s="20"/>
+      <c r="D394" s="30"/>
       <c r="E394">
         <v>427</v>
       </c>
@@ -5395,7 +5396,7 @@
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B395" s="4"/>
-      <c r="D395" s="20"/>
+      <c r="D395" s="30"/>
       <c r="E395">
         <v>428</v>
       </c>
@@ -5406,7 +5407,7 @@
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B396" s="4"/>
-      <c r="D396" s="20"/>
+      <c r="D396" s="30"/>
       <c r="E396">
         <v>429</v>
       </c>
@@ -5417,7 +5418,7 @@
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B397" s="4"/>
-      <c r="D397" s="20"/>
+      <c r="D397" s="30"/>
       <c r="E397">
         <v>430</v>
       </c>
@@ -5428,7 +5429,7 @@
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B398" s="4"/>
-      <c r="D398" s="20"/>
+      <c r="D398" s="30"/>
       <c r="E398">
         <v>431</v>
       </c>
@@ -5439,7 +5440,7 @@
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B399" s="4"/>
-      <c r="D399" s="20"/>
+      <c r="D399" s="30"/>
       <c r="E399">
         <v>432</v>
       </c>
@@ -5450,7 +5451,7 @@
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B400" s="4"/>
-      <c r="D400" s="20"/>
+      <c r="D400" s="30"/>
       <c r="E400">
         <v>433</v>
       </c>
@@ -5461,7 +5462,7 @@
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B401" s="4"/>
-      <c r="D401" s="20"/>
+      <c r="D401" s="30"/>
       <c r="E401">
         <v>434</v>
       </c>
@@ -5472,7 +5473,7 @@
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B402" s="4"/>
-      <c r="D402" s="20"/>
+      <c r="D402" s="30"/>
       <c r="E402">
         <v>435</v>
       </c>
@@ -5483,7 +5484,7 @@
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B403" s="4"/>
-      <c r="D403" s="20"/>
+      <c r="D403" s="30"/>
       <c r="E403">
         <v>436</v>
       </c>
@@ -5494,7 +5495,7 @@
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B404" s="4"/>
-      <c r="D404" s="20"/>
+      <c r="D404" s="30"/>
       <c r="E404">
         <v>437</v>
       </c>
@@ -5505,7 +5506,7 @@
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B405" s="4"/>
-      <c r="D405" s="20"/>
+      <c r="D405" s="30"/>
       <c r="E405">
         <v>438</v>
       </c>
@@ -5516,7 +5517,7 @@
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B406" s="4"/>
-      <c r="D406" s="20"/>
+      <c r="D406" s="30"/>
       <c r="E406">
         <v>439</v>
       </c>
@@ -5527,7 +5528,7 @@
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B407" s="4"/>
-      <c r="D407" s="20"/>
+      <c r="D407" s="30"/>
       <c r="E407">
         <v>440</v>
       </c>
@@ -5538,7 +5539,7 @@
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B408" s="4"/>
-      <c r="D408" s="20"/>
+      <c r="D408" s="30"/>
       <c r="E408">
         <v>441</v>
       </c>
@@ -5549,7 +5550,7 @@
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B409" s="4"/>
-      <c r="D409" s="20"/>
+      <c r="D409" s="30"/>
       <c r="E409">
         <v>442</v>
       </c>
@@ -5560,7 +5561,7 @@
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B410" s="4"/>
-      <c r="D410" s="20"/>
+      <c r="D410" s="30"/>
       <c r="E410">
         <v>443</v>
       </c>
@@ -5571,7 +5572,7 @@
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B411" s="4"/>
-      <c r="D411" s="20"/>
+      <c r="D411" s="30"/>
       <c r="E411">
         <v>444</v>
       </c>
@@ -5582,7 +5583,7 @@
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B412" s="4"/>
-      <c r="D412" s="20"/>
+      <c r="D412" s="30"/>
       <c r="E412">
         <v>445</v>
       </c>
@@ -5593,7 +5594,7 @@
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B413" s="4"/>
-      <c r="D413" s="20"/>
+      <c r="D413" s="30"/>
       <c r="E413">
         <v>446</v>
       </c>
@@ -5604,7 +5605,7 @@
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B414" s="4"/>
-      <c r="D414" s="20"/>
+      <c r="D414" s="30"/>
       <c r="E414">
         <v>447</v>
       </c>
@@ -5615,7 +5616,7 @@
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B415" s="4"/>
-      <c r="D415" s="20"/>
+      <c r="D415" s="30"/>
       <c r="E415">
         <v>448</v>
       </c>
@@ -5626,7 +5627,7 @@
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B416" s="4"/>
-      <c r="D416" s="20"/>
+      <c r="D416" s="30"/>
       <c r="E416">
         <v>449</v>
       </c>
@@ -5637,7 +5638,7 @@
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B417" s="4"/>
-      <c r="D417" s="20"/>
+      <c r="D417" s="30"/>
       <c r="E417">
         <v>450</v>
       </c>
@@ -5648,7 +5649,7 @@
     </row>
     <row r="418" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B418" s="4"/>
-      <c r="D418" s="20"/>
+      <c r="D418" s="30"/>
       <c r="E418">
         <v>451</v>
       </c>
@@ -5659,7 +5660,7 @@
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B419" s="4"/>
-      <c r="D419" s="20"/>
+      <c r="D419" s="30"/>
       <c r="E419">
         <v>452</v>
       </c>
@@ -5671,7 +5672,7 @@
     <row r="420" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B420" s="6"/>
       <c r="C420" s="7"/>
-      <c r="D420" s="21"/>
+      <c r="D420" s="31"/>
       <c r="E420" s="7">
         <v>453</v>
       </c>
@@ -5683,7 +5684,7 @@
     <row r="421" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B421" s="1"/>
       <c r="C421" s="2"/>
-      <c r="D421" s="37" t="s">
+      <c r="D421" s="35" t="s">
         <v>56</v>
       </c>
       <c r="E421" s="2">
@@ -5696,7 +5697,7 @@
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B422" s="4"/>
-      <c r="D422" s="38"/>
+      <c r="D422" s="36"/>
       <c r="E422">
         <v>455</v>
       </c>
@@ -5707,7 +5708,7 @@
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B423" s="4"/>
-      <c r="D423" s="38"/>
+      <c r="D423" s="36"/>
       <c r="E423">
         <v>456</v>
       </c>
@@ -5718,7 +5719,7 @@
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B424" s="4"/>
-      <c r="D424" s="38"/>
+      <c r="D424" s="36"/>
       <c r="E424">
         <v>457</v>
       </c>
@@ -5729,7 +5730,7 @@
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B425" s="4"/>
-      <c r="D425" s="38"/>
+      <c r="D425" s="36"/>
       <c r="E425">
         <v>458</v>
       </c>
@@ -5740,7 +5741,7 @@
     </row>
     <row r="426" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B426" s="4"/>
-      <c r="D426" s="38"/>
+      <c r="D426" s="36"/>
       <c r="E426">
         <v>459</v>
       </c>
@@ -5751,7 +5752,7 @@
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B427" s="4"/>
-      <c r="D427" s="38"/>
+      <c r="D427" s="36"/>
       <c r="E427">
         <v>460</v>
       </c>
@@ -5762,7 +5763,7 @@
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B428" s="4"/>
-      <c r="D428" s="38"/>
+      <c r="D428" s="36"/>
       <c r="E428">
         <v>461</v>
       </c>
@@ -5774,7 +5775,7 @@
     <row r="429" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B429" s="6"/>
       <c r="C429" s="7"/>
-      <c r="D429" s="39"/>
+      <c r="D429" s="37"/>
       <c r="E429" s="7">
         <v>462</v>
       </c>
@@ -5786,7 +5787,7 @@
     <row r="430" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B430" s="1"/>
       <c r="C430" s="2"/>
-      <c r="D430" s="43" t="s">
+      <c r="D430" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E430" s="2">
@@ -5799,7 +5800,7 @@
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B431" s="4"/>
-      <c r="D431" s="44"/>
+      <c r="D431" s="39"/>
       <c r="E431">
         <v>464</v>
       </c>
@@ -5811,7 +5812,7 @@
     <row r="432" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B432" s="6"/>
       <c r="C432" s="7"/>
-      <c r="D432" s="45"/>
+      <c r="D432" s="40"/>
       <c r="E432" s="7">
         <v>465</v>
       </c>
@@ -5823,7 +5824,7 @@
     <row r="433" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B433" s="1"/>
       <c r="C433" s="2"/>
-      <c r="D433" s="40" t="s">
+      <c r="D433" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E433" s="2">
@@ -5836,7 +5837,7 @@
     </row>
     <row r="434" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B434" s="4"/>
-      <c r="D434" s="41"/>
+      <c r="D434" s="21"/>
       <c r="E434">
         <v>467</v>
       </c>
@@ -5847,7 +5848,7 @@
     </row>
     <row r="435" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B435" s="4"/>
-      <c r="D435" s="41"/>
+      <c r="D435" s="21"/>
       <c r="E435">
         <v>468</v>
       </c>
@@ -5858,7 +5859,7 @@
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B436" s="4"/>
-      <c r="D436" s="41"/>
+      <c r="D436" s="21"/>
       <c r="E436">
         <v>469</v>
       </c>
@@ -5869,7 +5870,7 @@
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B437" s="4"/>
-      <c r="D437" s="41"/>
+      <c r="D437" s="21"/>
       <c r="E437">
         <v>470</v>
       </c>
@@ -5880,7 +5881,7 @@
     </row>
     <row r="438" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B438" s="4"/>
-      <c r="D438" s="41"/>
+      <c r="D438" s="21"/>
       <c r="E438">
         <v>471</v>
       </c>
@@ -5892,7 +5893,7 @@
     <row r="439" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B439" s="6"/>
       <c r="C439" s="7"/>
-      <c r="D439" s="42"/>
+      <c r="D439" s="22"/>
       <c r="E439" s="7">
         <v>472</v>
       </c>
@@ -5904,7 +5905,7 @@
     <row r="440" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B440" s="1"/>
       <c r="C440" s="2"/>
-      <c r="D440" s="25" t="s">
+      <c r="D440" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E440" s="2">
@@ -5917,7 +5918,7 @@
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B441" s="4"/>
-      <c r="D441" s="26"/>
+      <c r="D441" s="24"/>
       <c r="E441">
         <v>474</v>
       </c>
@@ -5928,7 +5929,7 @@
     </row>
     <row r="442" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B442" s="4"/>
-      <c r="D442" s="26"/>
+      <c r="D442" s="24"/>
       <c r="E442">
         <v>475</v>
       </c>
@@ -5939,7 +5940,7 @@
     </row>
     <row r="443" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B443" s="4"/>
-      <c r="D443" s="26"/>
+      <c r="D443" s="24"/>
       <c r="E443">
         <v>476</v>
       </c>
@@ -5950,7 +5951,7 @@
     </row>
     <row r="444" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B444" s="4"/>
-      <c r="D444" s="26"/>
+      <c r="D444" s="24"/>
       <c r="E444">
         <v>477</v>
       </c>
@@ -5961,7 +5962,7 @@
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B445" s="4"/>
-      <c r="D445" s="26"/>
+      <c r="D445" s="24"/>
       <c r="E445">
         <v>478</v>
       </c>
@@ -5972,7 +5973,7 @@
     </row>
     <row r="446" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B446" s="4"/>
-      <c r="D446" s="26"/>
+      <c r="D446" s="24"/>
       <c r="E446">
         <v>479</v>
       </c>
@@ -5983,7 +5984,7 @@
     </row>
     <row r="447" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B447" s="4"/>
-      <c r="D447" s="26"/>
+      <c r="D447" s="24"/>
       <c r="E447">
         <v>480</v>
       </c>
@@ -5994,7 +5995,7 @@
     </row>
     <row r="448" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B448" s="4"/>
-      <c r="D448" s="26"/>
+      <c r="D448" s="24"/>
       <c r="E448">
         <v>481</v>
       </c>
@@ -6005,7 +6006,7 @@
     </row>
     <row r="449" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B449" s="4"/>
-      <c r="D449" s="26"/>
+      <c r="D449" s="24"/>
       <c r="E449">
         <v>482</v>
       </c>
@@ -6016,7 +6017,7 @@
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B450" s="4"/>
-      <c r="D450" s="26"/>
+      <c r="D450" s="24"/>
       <c r="E450">
         <v>483</v>
       </c>
@@ -6027,7 +6028,7 @@
     </row>
     <row r="451" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B451" s="4"/>
-      <c r="D451" s="26"/>
+      <c r="D451" s="24"/>
       <c r="E451">
         <v>484</v>
       </c>
@@ -6038,7 +6039,7 @@
     </row>
     <row r="452" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B452" s="4"/>
-      <c r="D452" s="26"/>
+      <c r="D452" s="24"/>
       <c r="E452">
         <v>485</v>
       </c>
@@ -6049,7 +6050,7 @@
     </row>
     <row r="453" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B453" s="4"/>
-      <c r="D453" s="26"/>
+      <c r="D453" s="24"/>
       <c r="E453">
         <v>486</v>
       </c>
@@ -6060,7 +6061,7 @@
     </row>
     <row r="454" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B454" s="4"/>
-      <c r="D454" s="26"/>
+      <c r="D454" s="24"/>
       <c r="E454">
         <v>487</v>
       </c>
@@ -6071,7 +6072,7 @@
     </row>
     <row r="455" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B455" s="4"/>
-      <c r="D455" s="26"/>
+      <c r="D455" s="24"/>
       <c r="E455">
         <v>488</v>
       </c>
@@ -6082,7 +6083,7 @@
     </row>
     <row r="456" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B456" s="4"/>
-      <c r="D456" s="26"/>
+      <c r="D456" s="24"/>
       <c r="E456">
         <v>489</v>
       </c>
@@ -6093,7 +6094,7 @@
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B457" s="4"/>
-      <c r="D457" s="26"/>
+      <c r="D457" s="24"/>
       <c r="E457">
         <v>490</v>
       </c>
@@ -6104,7 +6105,7 @@
     </row>
     <row r="458" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B458" s="4"/>
-      <c r="D458" s="26"/>
+      <c r="D458" s="24"/>
       <c r="E458">
         <v>491</v>
       </c>
@@ -6115,7 +6116,7 @@
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B459" s="4"/>
-      <c r="D459" s="26"/>
+      <c r="D459" s="24"/>
       <c r="E459">
         <v>492</v>
       </c>
@@ -6127,7 +6128,7 @@
     <row r="460" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B460" s="6"/>
       <c r="C460" s="7"/>
-      <c r="D460" s="27"/>
+      <c r="D460" s="25"/>
       <c r="E460" s="7">
         <v>493</v>
       </c>
@@ -6138,14 +6139,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D433:D439"/>
-    <mergeCell ref="D440:D460"/>
-    <mergeCell ref="D317:D328"/>
-    <mergeCell ref="D329:D374"/>
-    <mergeCell ref="D375:D385"/>
-    <mergeCell ref="D386:D420"/>
-    <mergeCell ref="D421:D429"/>
-    <mergeCell ref="D430:D432"/>
+    <mergeCell ref="D84:D96"/>
+    <mergeCell ref="D97:D114"/>
+    <mergeCell ref="D287:D316"/>
+    <mergeCell ref="D163:D191"/>
+    <mergeCell ref="D192:D213"/>
+    <mergeCell ref="D214:D233"/>
+    <mergeCell ref="D234:D251"/>
+    <mergeCell ref="D252:D261"/>
+    <mergeCell ref="D262:D286"/>
     <mergeCell ref="B20:B41"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="D130:D141"/>
@@ -6162,15 +6164,14 @@
     <mergeCell ref="D2:D19"/>
     <mergeCell ref="D42:D66"/>
     <mergeCell ref="D67:D83"/>
-    <mergeCell ref="D84:D96"/>
-    <mergeCell ref="D97:D114"/>
-    <mergeCell ref="D287:D316"/>
-    <mergeCell ref="D163:D191"/>
-    <mergeCell ref="D192:D213"/>
-    <mergeCell ref="D214:D233"/>
-    <mergeCell ref="D234:D251"/>
-    <mergeCell ref="D252:D261"/>
-    <mergeCell ref="D262:D286"/>
+    <mergeCell ref="D433:D439"/>
+    <mergeCell ref="D440:D460"/>
+    <mergeCell ref="D317:D328"/>
+    <mergeCell ref="D329:D374"/>
+    <mergeCell ref="D375:D385"/>
+    <mergeCell ref="D386:D420"/>
+    <mergeCell ref="D421:D429"/>
+    <mergeCell ref="D430:D432"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6195,76 +6196,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="46" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="46" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="46" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="46" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="46" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="46" t="s">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="46" t="s">
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="46" t="s">
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="49"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C2" s="4">

--- a/JavaMasterclassTin_timeSchedulle.xlsx
+++ b/JavaMasterclassTin_timeSchedulle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning\JavaTimBuchalkaClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0761AAD8-F7EE-430E-9E1F-ACB3F75C5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDC9C0A-914C-4B0C-BFF3-0FCD1B2CF24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5060" yWindow="-16310" windowWidth="38620" windowHeight="15820" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
+    <workbookView xWindow="-4920" yWindow="-16090" windowWidth="18470" windowHeight="14760" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
   <si>
     <t>dia</t>
   </si>
@@ -272,13 +272,91 @@
   </si>
   <si>
     <t>The while and do while statements</t>
+  </si>
+  <si>
+    <t>The while and do while statements recap</t>
+  </si>
+  <si>
+    <t>Local variables and scope</t>
+  </si>
+  <si>
+    <t>The class, the object, static and instance fields</t>
+  </si>
+  <si>
+    <t>Is Even number challeng</t>
+  </si>
+  <si>
+    <t>Digit sum challenge</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 16</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 17</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 18</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 19</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 20</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 21</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 22</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 23</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 24</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 25</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 26</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 27</t>
+  </si>
+  <si>
+    <t>The for statement</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Switch statement</t>
+  </si>
+  <si>
+    <t>more switch statement</t>
+  </si>
+  <si>
+    <t>Traditional switch challenge</t>
+  </si>
+  <si>
+    <t>A switch expression challenge</t>
+  </si>
+  <si>
+    <t>The for statement challenge</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 13</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +414,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,6 +601,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -605,7 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC85575E-DCEB-43FC-A93E-D47C9095EFB1}">
-  <dimension ref="A1:G460"/>
+  <dimension ref="A1:H474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,13 +1040,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="44">
+      <c r="B2" s="45">
         <v>45323</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2">
@@ -971,8 +1057,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="45"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="46"/>
+      <c r="D3" s="31"/>
       <c r="E3">
         <v>50</v>
       </c>
@@ -981,8 +1067,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="45"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="46"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
@@ -991,8 +1077,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="45"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="46"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1001,8 +1087,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="45"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="46"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1011,8 +1097,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="45"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="46"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1021,8 +1107,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="45"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="46"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1034,8 +1120,8 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="46"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1044,8 +1130,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="45"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="46"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
@@ -1057,8 +1143,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="45"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="46"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1070,8 +1156,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="45"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="46"/>
+      <c r="D12" s="31"/>
       <c r="E12">
         <v>51</v>
       </c>
@@ -1083,8 +1169,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="45"/>
-      <c r="D13" s="30"/>
+      <c r="B13" s="46"/>
+      <c r="D13" s="31"/>
       <c r="E13">
         <v>52</v>
       </c>
@@ -1096,5082 +1182,5258 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="45"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="46"/>
+      <c r="D14" s="31"/>
       <c r="E14">
         <v>53</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="45"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="46"/>
+      <c r="D15" s="31"/>
       <c r="E15">
         <v>54</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="45"/>
-      <c r="D16" s="30"/>
+      <c r="B16" s="46"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="45"/>
-      <c r="D17" s="30"/>
+      <c r="B17" s="46"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="45"/>
-      <c r="D18" s="30"/>
+      <c r="B18" s="46"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="42"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="43"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="4">
         <v>55</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="15">
+        <v>45379</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="42"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="43"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="4">
         <v>56</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="15">
+        <v>45379</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="42"/>
-      <c r="D23" s="30"/>
+      <c r="B23" s="43"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="4">
         <v>57</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="15">
+        <v>45384</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="42"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="43"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="4">
         <v>58</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="15">
+        <v>45392</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="42"/>
-      <c r="D25" s="30"/>
+      <c r="B25" s="43"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="4">
         <v>59</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="15">
+        <v>45392</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="42"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="4">
+      <c r="B26" s="43"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="15">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="43"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="15">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="43"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="4">
         <v>60</v>
       </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="42"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="4">
+      <c r="F28" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="15">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="43"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="4">
         <v>61</v>
       </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="42"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="4">
+      <c r="F29" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="15">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="43"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="4">
         <v>62</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G30" s="15">
         <v>45405</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="4">
+      <c r="B31" s="43"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="4">
         <v>63</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="G29" s="15">
-        <v>45406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="42"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="15">
-        <v>45406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="42"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="4">
-        <v>64</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="G31" s="15">
         <v>45406</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="42"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="4">
+      <c r="B32" s="43"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="15">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="43"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="4">
+        <v>64</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="15">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="43"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="4">
         <v>65</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="50">
+      <c r="F34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="15">
         <v>45408</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="42"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="43"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="4">
         <v>66</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="50">
+      <c r="F35" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="15">
         <v>45412</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="42"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="43"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="4">
         <v>67</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18">
-        <v>45410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="42"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="4">
+      <c r="F36" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="18">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="43"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="4">
         <v>68</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="18">
-        <v>45411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="42"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="4">
-        <v>69</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="42"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="4">
-        <v>70</v>
-      </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="G37" s="18">
         <v>45413</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="42"/>
-      <c r="D38" s="30"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="43"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="4">
+        <v>69</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="18">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="43"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="43"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="43"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="43"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="43"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="43"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="43"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="43"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="43"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="43"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="43"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="43"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="43"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="4">
+        <v>70</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="18">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="43"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="4">
         <v>71</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18">
+      <c r="F52" s="16"/>
+      <c r="G52" s="18">
         <v>45414</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="42"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="43"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="4">
         <v>72</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="18">
+      <c r="F53" s="16"/>
+      <c r="G53" s="18">
         <v>45415</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="42"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="43"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="4">
         <v>73</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18">
+      <c r="F54" s="16"/>
+      <c r="G54" s="18">
         <v>45416</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="43"/>
-      <c r="C41" s="7">
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="44"/>
+      <c r="C55" s="7">
         <v>24</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="6">
+      <c r="D55" s="32"/>
+      <c r="E55" s="6">
         <v>74</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18">
+      <c r="F55" s="17"/>
+      <c r="G55" s="18">
         <v>45417</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="29" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C56" s="2">
         <v>25</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D56" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E56" s="2">
         <v>75</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="18">
+      <c r="F56" s="3"/>
+      <c r="G56" s="18">
         <v>45418</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57">
         <v>76</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="18">
-        <v>45419</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44">
-        <v>77</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="18">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45">
-        <v>78</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="18">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46">
-        <v>79</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="18">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47">
-        <v>80</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="18">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48">
-        <v>81</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="18">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49">
-        <v>82</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="18">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50">
-        <v>83</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="18">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="31"/>
-      <c r="C51">
-        <v>29</v>
-      </c>
-      <c r="D51" s="30"/>
-      <c r="E51">
-        <v>84</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="18">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="30"/>
-      <c r="E52">
-        <v>85</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="18">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="42"/>
-      <c r="D53" s="30"/>
-      <c r="E53">
-        <v>86</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="18">
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="42"/>
-      <c r="D54" s="30"/>
-      <c r="E54">
-        <v>87</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="18">
-        <v>45430</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="42"/>
-      <c r="D55" s="30"/>
-      <c r="E55">
-        <v>88</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="18">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="42"/>
-      <c r="D56" s="30"/>
-      <c r="E56">
-        <v>89</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="18">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="42"/>
-      <c r="D57" s="30"/>
-      <c r="E57">
-        <v>90</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="18">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="42"/>
-      <c r="D58" s="30"/>
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="31"/>
+      <c r="D58" s="31"/>
       <c r="E58">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="18">
-        <v>45434</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="42"/>
-      <c r="D59" s="30"/>
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="31"/>
+      <c r="D59" s="31"/>
       <c r="E59">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="18">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="42"/>
-      <c r="D60" s="30"/>
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="31"/>
+      <c r="D60" s="31"/>
       <c r="E60">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="18">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="42"/>
-      <c r="D61" s="30"/>
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="31"/>
+      <c r="D61" s="31"/>
       <c r="E61">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="18">
-        <v>45437</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="42"/>
-      <c r="D62" s="30"/>
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="D62" s="31"/>
       <c r="E62">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="18">
-        <v>45438</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="42"/>
-      <c r="D63" s="30"/>
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="31"/>
+      <c r="D63" s="31"/>
       <c r="E63">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="18">
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="42"/>
-      <c r="D64" s="30"/>
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="31"/>
+      <c r="D64" s="31"/>
       <c r="E64">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="18">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="42"/>
-      <c r="D65" s="30"/>
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="32"/>
+      <c r="C65">
+        <v>29</v>
+      </c>
+      <c r="D65" s="31"/>
       <c r="E65">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="18">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="43"/>
-      <c r="C66" s="7">
-        <v>9</v>
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
       </c>
       <c r="D66" s="31"/>
-      <c r="E66" s="7">
-        <v>99</v>
-      </c>
-      <c r="F66" s="8"/>
+      <c r="E66">
+        <v>85</v>
+      </c>
+      <c r="F66" s="5"/>
       <c r="G66" s="18">
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="2">
-        <v>10</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="2">
-        <v>100</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="43"/>
+      <c r="D67" s="31"/>
+      <c r="E67">
+        <v>86</v>
+      </c>
+      <c r="F67" s="5"/>
       <c r="G67" s="18">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="30"/>
-      <c r="D68" s="30"/>
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="43"/>
+      <c r="D68" s="31"/>
       <c r="E68">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="18">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B69" s="30"/>
-      <c r="D69" s="30"/>
+        <v>45430</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="43"/>
+      <c r="D69" s="31"/>
       <c r="E69">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="18">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="30"/>
-      <c r="D70" s="30"/>
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="43"/>
+      <c r="D70" s="31"/>
       <c r="E70">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="18">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="30"/>
-      <c r="D71" s="30"/>
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="43"/>
+      <c r="D71" s="31"/>
       <c r="E71">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="18">
-        <v>45447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B72" s="30"/>
-      <c r="D72" s="30"/>
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="43"/>
+      <c r="D72" s="31"/>
       <c r="E72">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="18">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="30"/>
-      <c r="D73" s="30"/>
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="43"/>
+      <c r="D73" s="31"/>
       <c r="E73">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="18">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="30"/>
-      <c r="D74" s="30"/>
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="43"/>
+      <c r="D74" s="31"/>
       <c r="E74">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="18">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="30"/>
-      <c r="D75" s="30"/>
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="43"/>
+      <c r="D75" s="31"/>
       <c r="E75">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="18">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B76" s="30"/>
-      <c r="D76" s="30"/>
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="43"/>
+      <c r="D76" s="31"/>
       <c r="E76">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="18">
-        <v>45452</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B77" s="30"/>
-      <c r="D77" s="30"/>
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="43"/>
+      <c r="D77" s="31"/>
       <c r="E77">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="18">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B78" s="30"/>
-      <c r="D78" s="30"/>
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="43"/>
+      <c r="D78" s="31"/>
       <c r="E78">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="18">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="30"/>
-      <c r="D79" s="30"/>
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="43"/>
+      <c r="D79" s="31"/>
       <c r="E79">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="18">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80">
-        <v>113</v>
-      </c>
-      <c r="F80" s="5"/>
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="44"/>
+      <c r="C80" s="7">
+        <v>9</v>
+      </c>
+      <c r="D80" s="32"/>
+      <c r="E80" s="7">
+        <v>99</v>
+      </c>
+      <c r="F80" s="8"/>
       <c r="G80" s="18">
-        <v>45456</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81">
-        <v>114</v>
-      </c>
-      <c r="F81" s="5"/>
+      <c r="B81" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="2">
+        <v>10</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="2">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="18">
-        <v>45457</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="30"/>
-      <c r="D82" s="30"/>
+      <c r="B82" s="31"/>
+      <c r="D82" s="31"/>
       <c r="E82">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="18">
-        <v>45458</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="31"/>
-      <c r="C83" s="7">
-        <v>23</v>
-      </c>
       <c r="D83" s="31"/>
-      <c r="E83" s="7">
-        <v>116</v>
-      </c>
-      <c r="F83" s="8"/>
+      <c r="E83">
+        <v>102</v>
+      </c>
+      <c r="F83" s="5"/>
       <c r="G83" s="18">
-        <v>45459</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B84" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="2">
-        <v>24</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="2">
-        <v>117</v>
-      </c>
-      <c r="F84" s="3"/>
+      <c r="B84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84">
+        <v>103</v>
+      </c>
+      <c r="F84" s="5"/>
       <c r="G84" s="18">
-        <v>45460</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B85" s="30"/>
-      <c r="D85" s="30"/>
+      <c r="B85" s="31"/>
+      <c r="D85" s="31"/>
       <c r="E85">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="18">
-        <v>45461</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B86" s="30"/>
-      <c r="D86" s="30"/>
+      <c r="B86" s="31"/>
+      <c r="D86" s="31"/>
       <c r="E86">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="18">
-        <v>45462</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B87" s="30"/>
-      <c r="D87" s="30"/>
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="31"/>
+      <c r="D87" s="31"/>
       <c r="E87">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="18">
-        <v>45463</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="B88" s="31"/>
+      <c r="D88" s="31"/>
       <c r="E88">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="18">
-        <v>45464</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="B89" s="31"/>
+      <c r="D89" s="31"/>
       <c r="E89">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="18">
-        <v>45465</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B90" s="30"/>
-      <c r="D90" s="30"/>
+      <c r="B90" s="31"/>
+      <c r="D90" s="31"/>
       <c r="E90">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="18">
-        <v>45466</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="31"/>
+      <c r="D91" s="31"/>
       <c r="E91">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="18">
-        <v>45467</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B92" s="30"/>
-      <c r="D92" s="30"/>
+      <c r="B92" s="31"/>
+      <c r="D92" s="31"/>
       <c r="E92">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="18">
-        <v>45468</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="30"/>
-      <c r="D93" s="30"/>
+      <c r="B93" s="31"/>
+      <c r="D93" s="31"/>
       <c r="E93">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="18">
-        <v>45469</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="30"/>
-      <c r="D94" s="30"/>
+      <c r="B94" s="31"/>
+      <c r="D94" s="31"/>
       <c r="E94">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="18">
-        <v>45470</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="30"/>
-      <c r="D95" s="30"/>
+      <c r="B95" s="31"/>
+      <c r="D95" s="31"/>
       <c r="E95">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="18">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B96" s="31"/>
-      <c r="C96" s="7">
-        <v>2</v>
-      </c>
       <c r="D96" s="31"/>
-      <c r="E96" s="7">
-        <v>129</v>
-      </c>
-      <c r="F96" s="8"/>
+      <c r="E96">
+        <v>115</v>
+      </c>
+      <c r="F96" s="5"/>
       <c r="G96" s="18">
-        <v>45472</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B97" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="2">
-        <v>3</v>
-      </c>
-      <c r="D97" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" s="2">
-        <v>130</v>
-      </c>
-      <c r="F97" s="3"/>
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="32"/>
+      <c r="C97" s="7">
+        <v>23</v>
+      </c>
+      <c r="D97" s="32"/>
+      <c r="E97" s="7">
+        <v>116</v>
+      </c>
+      <c r="F97" s="8"/>
       <c r="G97" s="18">
-        <v>45473</v>
+        <v>45459</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98">
-        <v>131</v>
-      </c>
-      <c r="F98" s="5"/>
+      <c r="B98" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="2">
+        <v>24</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="2">
+        <v>117</v>
+      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="18">
-        <v>45474</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B99" s="33"/>
-      <c r="D99" s="33"/>
+      <c r="B99" s="31"/>
+      <c r="D99" s="31"/>
       <c r="E99">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="18">
-        <v>45475</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B100" s="33"/>
-      <c r="D100" s="33"/>
+      <c r="B100" s="31"/>
+      <c r="D100" s="31"/>
       <c r="E100">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="18">
-        <v>45476</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B101" s="33"/>
-      <c r="D101" s="33"/>
+      <c r="B101" s="31"/>
+      <c r="D101" s="31"/>
       <c r="E101">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="18">
-        <v>45477</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="31"/>
+      <c r="D102" s="31"/>
       <c r="E102">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="18">
-        <v>45478</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="B103" s="31"/>
+      <c r="D103" s="31"/>
       <c r="E103">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="18">
-        <v>45479</v>
+        <v>45465</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="B104" s="31"/>
+      <c r="D104" s="31"/>
       <c r="E104">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="18">
-        <v>45480</v>
+        <v>45466</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="B105" s="31"/>
+      <c r="D105" s="31"/>
       <c r="E105">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="18">
-        <v>45481</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="B106" s="31"/>
+      <c r="D106" s="31"/>
       <c r="E106">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="18">
-        <v>45482</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="B107" s="31"/>
+      <c r="D107" s="31"/>
       <c r="E107">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="18">
-        <v>45483</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="33"/>
-      <c r="D108" s="33"/>
+      <c r="B108" s="31"/>
+      <c r="D108" s="31"/>
       <c r="E108">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="18">
-        <v>45484</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B109" s="33"/>
-      <c r="D109" s="33"/>
+      <c r="B109" s="31"/>
+      <c r="D109" s="31"/>
       <c r="E109">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="18">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110">
-        <v>143</v>
-      </c>
-      <c r="F110" s="5"/>
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="32"/>
+      <c r="C110" s="7">
+        <v>2</v>
+      </c>
+      <c r="D110" s="32"/>
+      <c r="E110" s="7">
+        <v>129</v>
+      </c>
+      <c r="F110" s="8"/>
       <c r="G110" s="18">
-        <v>45486</v>
+        <v>45472</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111">
-        <v>144</v>
-      </c>
-      <c r="F111" s="5"/>
+      <c r="B111" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="2">
+        <v>3</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" s="2">
+        <v>130</v>
+      </c>
+      <c r="F111" s="3"/>
       <c r="G111" s="18">
-        <v>45487</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B112" s="33"/>
-      <c r="D112" s="33"/>
+      <c r="B112" s="34"/>
+      <c r="D112" s="34"/>
       <c r="E112">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="18">
-        <v>45488</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B113" s="33"/>
-      <c r="D113" s="33"/>
+      <c r="B113" s="34"/>
+      <c r="D113" s="34"/>
       <c r="E113">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="18">
-        <v>45489</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B114" s="34"/>
-      <c r="C114" s="7">
-        <v>16</v>
-      </c>
       <c r="D114" s="34"/>
-      <c r="E114" s="7">
-        <v>147</v>
-      </c>
-      <c r="F114" s="8"/>
+      <c r="E114">
+        <v>133</v>
+      </c>
+      <c r="F114" s="5"/>
       <c r="G114" s="18">
-        <v>45490</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B115" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C115" s="2">
-        <v>18</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115" s="2">
-        <v>148</v>
-      </c>
-      <c r="F115" s="3"/>
+      <c r="B115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115">
+        <v>134</v>
+      </c>
+      <c r="F115" s="5"/>
       <c r="G115" s="18">
-        <v>45491</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B116" s="30"/>
-      <c r="D116" s="30"/>
+      <c r="B116" s="34"/>
+      <c r="D116" s="34"/>
       <c r="E116">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="18">
-        <v>45492</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B117" s="30"/>
-      <c r="D117" s="30"/>
+      <c r="B117" s="34"/>
+      <c r="D117" s="34"/>
       <c r="E117">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="18">
-        <v>45493</v>
+        <v>45479</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B118" s="30"/>
-      <c r="D118" s="30"/>
+      <c r="A118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118" s="34"/>
+      <c r="D118" s="34"/>
       <c r="E118">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="18">
-        <v>45494</v>
+        <v>45480</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B119" s="30"/>
-      <c r="D119" s="30"/>
+      <c r="B119" s="34"/>
+      <c r="D119" s="34"/>
       <c r="E119">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="18">
-        <v>45495</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B120" s="30"/>
-      <c r="D120" s="30"/>
+      <c r="B120" s="34"/>
+      <c r="D120" s="34"/>
       <c r="E120">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="18">
-        <v>45496</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B121" s="30"/>
-      <c r="D121" s="30"/>
+      <c r="B121" s="34"/>
+      <c r="D121" s="34"/>
       <c r="E121">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="18">
-        <v>45497</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>37</v>
-      </c>
-      <c r="B122" s="30"/>
-      <c r="D122" s="30"/>
+      <c r="B122" s="34"/>
+      <c r="D122" s="34"/>
       <c r="E122">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="18">
-        <v>45498</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B123" s="30"/>
-      <c r="D123" s="30"/>
+      <c r="B123" s="34"/>
+      <c r="D123" s="34"/>
       <c r="E123">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="18">
-        <v>45499</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B124" s="30"/>
-      <c r="D124" s="30"/>
+      <c r="B124" s="34"/>
+      <c r="D124" s="34"/>
       <c r="E124">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="18">
-        <v>45500</v>
+        <v>45486</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B125" s="30"/>
-      <c r="D125" s="30"/>
+      <c r="B125" s="34"/>
+      <c r="D125" s="34"/>
       <c r="E125">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="18">
-        <v>45501</v>
+        <v>45487</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B126" s="30"/>
-      <c r="D126" s="30"/>
+      <c r="B126" s="34"/>
+      <c r="D126" s="34"/>
       <c r="E126">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="18">
-        <v>45502</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B127" s="30"/>
-      <c r="D127" s="30"/>
+      <c r="B127" s="34"/>
+      <c r="D127" s="34"/>
       <c r="E127">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="18">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128">
-        <v>161</v>
-      </c>
-      <c r="F128" s="5"/>
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B128" s="35"/>
+      <c r="C128" s="7">
+        <v>16</v>
+      </c>
+      <c r="D128" s="35"/>
+      <c r="E128" s="7">
+        <v>147</v>
+      </c>
+      <c r="F128" s="8"/>
       <c r="G128" s="18">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B129" s="31"/>
-      <c r="C129" s="7">
-        <v>30</v>
-      </c>
-      <c r="D129" s="31"/>
-      <c r="E129" s="7">
-        <v>162</v>
-      </c>
-      <c r="F129" s="8"/>
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B129" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="2">
+        <v>18</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="2">
+        <v>148</v>
+      </c>
+      <c r="F129" s="3"/>
       <c r="G129" s="18">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B130" s="1"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E130" s="2">
-        <v>163</v>
-      </c>
-      <c r="F130" s="3"/>
+        <v>45491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130">
+        <v>149</v>
+      </c>
+      <c r="F130" s="5"/>
       <c r="G130" s="18">
-        <v>45506</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B131" s="4"/>
-      <c r="D131" s="30"/>
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B131" s="31"/>
+      <c r="D131" s="31"/>
       <c r="E131">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="18">
-        <v>45507</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B132" s="4"/>
-      <c r="D132" s="30"/>
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B132" s="31"/>
+      <c r="D132" s="31"/>
       <c r="E132">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="18">
-        <v>45508</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B133" s="4"/>
-      <c r="D133" s="30"/>
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B133" s="31"/>
+      <c r="D133" s="31"/>
       <c r="E133">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="18">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B134" s="4"/>
-      <c r="D134" s="30"/>
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B134" s="31"/>
+      <c r="D134" s="31"/>
       <c r="E134">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="18">
-        <v>45510</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B135" s="4"/>
-      <c r="D135" s="30"/>
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B135" s="31"/>
+      <c r="D135" s="31"/>
       <c r="E135">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="18">
-        <v>45511</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B136" s="4"/>
-      <c r="D136" s="30"/>
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" s="31"/>
+      <c r="D136" s="31"/>
       <c r="E136">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="18">
-        <v>45512</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B137" s="4"/>
-      <c r="D137" s="30"/>
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B137" s="31"/>
+      <c r="D137" s="31"/>
       <c r="E137">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="18">
-        <v>45513</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B138" s="4"/>
-      <c r="D138" s="30"/>
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B138" s="31"/>
+      <c r="D138" s="31"/>
       <c r="E138">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="18">
-        <v>45514</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B139" s="4"/>
-      <c r="D139" s="30"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B139" s="31"/>
+      <c r="D139" s="31"/>
       <c r="E139">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="18">
-        <v>45515</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B140" s="4"/>
-      <c r="D140" s="30"/>
+        <v>45501</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B140" s="31"/>
+      <c r="D140" s="31"/>
       <c r="E140">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="18">
-        <v>45516</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B141" s="31"/>
       <c r="D141" s="31"/>
-      <c r="E141" s="7">
-        <v>174</v>
-      </c>
-      <c r="F141" s="8"/>
+      <c r="E141">
+        <v>160</v>
+      </c>
+      <c r="F141" s="5"/>
       <c r="G141" s="18">
-        <v>45517</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B142" s="1"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E142" s="2">
-        <v>175</v>
-      </c>
-      <c r="F142" s="3"/>
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142">
+        <v>161</v>
+      </c>
+      <c r="F142" s="5"/>
       <c r="G142" s="18">
-        <v>45518</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B143" s="4"/>
-      <c r="D143" s="36"/>
-      <c r="E143">
-        <v>176</v>
-      </c>
-      <c r="F143" s="5"/>
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B143" s="32"/>
+      <c r="C143" s="7">
+        <v>30</v>
+      </c>
+      <c r="D143" s="32"/>
+      <c r="E143" s="7">
+        <v>162</v>
+      </c>
+      <c r="F143" s="8"/>
       <c r="G143" s="18">
-        <v>45519</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B144" s="4"/>
-      <c r="D144" s="36"/>
-      <c r="E144">
-        <v>177</v>
-      </c>
-      <c r="F144" s="5"/>
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B144" s="1"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" s="2">
+        <v>163</v>
+      </c>
+      <c r="F144" s="3"/>
       <c r="G144" s="18">
-        <v>45520</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B145" s="4"/>
-      <c r="D145" s="36"/>
+      <c r="D145" s="31"/>
       <c r="E145">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="18">
-        <v>45521</v>
+        <v>45507</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B146" s="4"/>
-      <c r="D146" s="36"/>
+      <c r="D146" s="31"/>
       <c r="E146">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="18">
-        <v>45522</v>
+        <v>45508</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B147" s="4"/>
-      <c r="D147" s="36"/>
+      <c r="D147" s="31"/>
       <c r="E147">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="18">
-        <v>45523</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B148" s="4"/>
-      <c r="D148" s="36"/>
+      <c r="D148" s="31"/>
       <c r="E148">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="18">
-        <v>45524</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="7">
-        <v>182</v>
-      </c>
-      <c r="F149" s="8"/>
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B149" s="4"/>
+      <c r="D149" s="31"/>
+      <c r="E149">
+        <v>168</v>
+      </c>
+      <c r="F149" s="5"/>
       <c r="G149" s="18">
-        <v>45525</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B150" s="1"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E150" s="2">
-        <v>183</v>
-      </c>
-      <c r="F150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="D150" s="31"/>
+      <c r="E150">
+        <v>169</v>
+      </c>
+      <c r="F150" s="5"/>
       <c r="G150" s="18">
-        <v>45526</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B151" s="4"/>
-      <c r="D151" s="27"/>
+      <c r="D151" s="31"/>
       <c r="E151">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="18">
-        <v>45527</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B152" s="4"/>
-      <c r="D152" s="27"/>
+      <c r="D152" s="31"/>
       <c r="E152">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="18">
-        <v>45528</v>
+        <v>45514</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B153" s="4"/>
-      <c r="D153" s="27"/>
+      <c r="D153" s="31"/>
       <c r="E153">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="18">
-        <v>45529</v>
+        <v>45515</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B154" s="4"/>
-      <c r="D154" s="27"/>
+      <c r="D154" s="31"/>
       <c r="E154">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="18">
-        <v>45530</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B155" s="4"/>
-      <c r="D155" s="27"/>
-      <c r="E155">
-        <v>188</v>
-      </c>
-      <c r="F155" s="5"/>
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B155" s="6"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="7">
+        <v>174</v>
+      </c>
+      <c r="F155" s="8"/>
       <c r="G155" s="18">
-        <v>45531</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B156" s="4"/>
-      <c r="D156" s="27"/>
-      <c r="E156">
-        <v>189</v>
-      </c>
-      <c r="F156" s="5"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E156" s="2">
+        <v>175</v>
+      </c>
+      <c r="F156" s="3"/>
       <c r="G156" s="18">
-        <v>45532</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B157" s="4"/>
-      <c r="D157" s="27"/>
+      <c r="D157" s="37"/>
       <c r="E157">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="18">
-        <v>45533</v>
+        <v>45519</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B158" s="4"/>
-      <c r="D158" s="27"/>
+      <c r="D158" s="37"/>
       <c r="E158">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="18">
-        <v>45534</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B159" s="4"/>
-      <c r="D159" s="27"/>
+      <c r="D159" s="37"/>
       <c r="E159">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="18">
-        <v>45535</v>
+        <v>45521</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B160" s="4"/>
-      <c r="D160" s="27"/>
+      <c r="D160" s="37"/>
       <c r="E160">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="18">
-        <v>45536</v>
+        <v>45522</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B161" s="4"/>
-      <c r="D161" s="27"/>
+      <c r="D161" s="37"/>
       <c r="E161">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="18">
-        <v>45537</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B162" s="6"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="7">
-        <v>195</v>
-      </c>
-      <c r="F162" s="8"/>
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B162" s="4"/>
+      <c r="D162" s="37"/>
+      <c r="E162">
+        <v>181</v>
+      </c>
+      <c r="F162" s="5"/>
       <c r="G162" s="18">
-        <v>45538</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B163" s="1"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E163" s="2">
-        <v>196</v>
-      </c>
-      <c r="F163" s="3"/>
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B163" s="6"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="38"/>
+      <c r="E163" s="7">
+        <v>182</v>
+      </c>
+      <c r="F163" s="8"/>
       <c r="G163" s="18">
-        <v>45539</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B164" s="4"/>
-      <c r="D164" s="30"/>
-      <c r="E164">
-        <v>197</v>
-      </c>
-      <c r="F164" s="5"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E164" s="2">
+        <v>183</v>
+      </c>
+      <c r="F164" s="3"/>
       <c r="G164" s="18">
-        <v>45540</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B165" s="4"/>
-      <c r="D165" s="30"/>
+      <c r="D165" s="28"/>
       <c r="E165">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="18">
-        <v>45541</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B166" s="4"/>
-      <c r="D166" s="30"/>
+      <c r="D166" s="28"/>
       <c r="E166">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="18">
-        <v>45542</v>
+        <v>45528</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B167" s="4"/>
-      <c r="D167" s="30"/>
+      <c r="D167" s="28"/>
       <c r="E167">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="18">
-        <v>45543</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B168" s="4"/>
-      <c r="D168" s="30"/>
+      <c r="D168" s="28"/>
       <c r="E168">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="18">
-        <v>45544</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B169" s="4"/>
-      <c r="D169" s="30"/>
+      <c r="D169" s="28"/>
       <c r="E169">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="18">
-        <v>45545</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B170" s="4"/>
-      <c r="D170" s="30"/>
+      <c r="D170" s="28"/>
       <c r="E170">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="18">
-        <v>45546</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B171" s="4"/>
-      <c r="D171" s="30"/>
+      <c r="D171" s="28"/>
       <c r="E171">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="18">
-        <v>45547</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B172" s="4"/>
-      <c r="D172" s="30"/>
+      <c r="D172" s="28"/>
       <c r="E172">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="18">
-        <v>45548</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B173" s="4"/>
-      <c r="D173" s="30"/>
+      <c r="D173" s="28"/>
       <c r="E173">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="18">
-        <v>45549</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B174" s="4"/>
-      <c r="D174" s="30"/>
+      <c r="D174" s="28"/>
       <c r="E174">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="18">
-        <v>45550</v>
+        <v>45536</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B175" s="4"/>
-      <c r="D175" s="30"/>
+      <c r="D175" s="28"/>
       <c r="E175">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="18">
-        <v>45551</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B176" s="4"/>
-      <c r="D176" s="30"/>
-      <c r="E176">
-        <v>209</v>
-      </c>
-      <c r="F176" s="5"/>
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B176" s="6"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="7">
+        <v>195</v>
+      </c>
+      <c r="F176" s="8"/>
       <c r="G176" s="18">
-        <v>45552</v>
+        <v>45538</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B177" s="4"/>
-      <c r="D177" s="30"/>
-      <c r="E177">
-        <v>210</v>
-      </c>
-      <c r="F177" s="5"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E177" s="2">
+        <v>196</v>
+      </c>
+      <c r="F177" s="3"/>
       <c r="G177" s="18">
-        <v>45553</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B178" s="4"/>
-      <c r="D178" s="30"/>
+      <c r="D178" s="31"/>
       <c r="E178">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="18">
-        <v>45554</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B179" s="4"/>
-      <c r="D179" s="30"/>
+      <c r="D179" s="31"/>
       <c r="E179">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="18">
-        <v>45555</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B180" s="4"/>
-      <c r="D180" s="30"/>
+      <c r="D180" s="31"/>
       <c r="E180">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="18">
-        <v>45556</v>
+        <v>45542</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B181" s="4"/>
-      <c r="D181" s="30"/>
+      <c r="D181" s="31"/>
       <c r="E181">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="18">
-        <v>45557</v>
+        <v>45543</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B182" s="4"/>
-      <c r="D182" s="30"/>
+      <c r="D182" s="31"/>
       <c r="E182">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="18">
-        <v>45558</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B183" s="4"/>
-      <c r="D183" s="30"/>
+      <c r="D183" s="31"/>
       <c r="E183">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="18">
-        <v>45559</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B184" s="4"/>
-      <c r="D184" s="30"/>
+      <c r="D184" s="31"/>
       <c r="E184">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="18">
-        <v>45560</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B185" s="4"/>
-      <c r="D185" s="30"/>
+      <c r="D185" s="31"/>
       <c r="E185">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="18">
-        <v>45561</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B186" s="4"/>
-      <c r="D186" s="30"/>
+      <c r="D186" s="31"/>
       <c r="E186">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="18">
-        <v>45562</v>
+        <v>45548</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B187" s="4"/>
-      <c r="D187" s="30"/>
+      <c r="D187" s="31"/>
       <c r="E187">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="18">
-        <v>45563</v>
+        <v>45549</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B188" s="4"/>
-      <c r="D188" s="30"/>
+      <c r="D188" s="31"/>
       <c r="E188">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="18">
-        <v>45564</v>
+        <v>45550</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B189" s="4"/>
-      <c r="D189" s="30"/>
+      <c r="D189" s="31"/>
       <c r="E189">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="18">
-        <v>45565</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B190" s="4"/>
-      <c r="D190" s="30"/>
+      <c r="D190" s="31"/>
       <c r="E190">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="18">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="191" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B191" s="6"/>
-      <c r="C191" s="7"/>
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B191" s="4"/>
       <c r="D191" s="31"/>
-      <c r="E191" s="7">
-        <v>224</v>
-      </c>
-      <c r="F191" s="8"/>
+      <c r="E191">
+        <v>210</v>
+      </c>
+      <c r="F191" s="5"/>
       <c r="G191" s="18">
-        <v>45567</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B192" s="1"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E192" s="2">
-        <v>225</v>
-      </c>
-      <c r="F192" s="3"/>
+      <c r="B192" s="4"/>
+      <c r="D192" s="31"/>
+      <c r="E192">
+        <v>211</v>
+      </c>
+      <c r="F192" s="5"/>
       <c r="G192" s="18">
-        <v>45568</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B193" s="4"/>
-      <c r="D193" s="30"/>
+      <c r="D193" s="31"/>
       <c r="E193">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="18">
-        <v>45569</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B194" s="4"/>
-      <c r="D194" s="30"/>
+      <c r="D194" s="31"/>
       <c r="E194">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="18">
-        <v>45570</v>
+        <v>45556</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B195" s="4"/>
-      <c r="D195" s="30"/>
+      <c r="D195" s="31"/>
       <c r="E195">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="18">
-        <v>45571</v>
+        <v>45557</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B196" s="4"/>
-      <c r="D196" s="30"/>
+      <c r="D196" s="31"/>
       <c r="E196">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="18">
-        <v>45572</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B197" s="4"/>
-      <c r="D197" s="30"/>
+      <c r="D197" s="31"/>
       <c r="E197">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="18">
-        <v>45573</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B198" s="4"/>
-      <c r="D198" s="30"/>
+      <c r="D198" s="31"/>
       <c r="E198">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="18">
-        <v>45574</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B199" s="4"/>
-      <c r="D199" s="30"/>
+      <c r="D199" s="31"/>
       <c r="E199">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F199" s="5"/>
       <c r="G199" s="18">
-        <v>45575</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B200" s="4"/>
-      <c r="D200" s="30"/>
+      <c r="D200" s="31"/>
       <c r="E200">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="18">
-        <v>45576</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B201" s="4"/>
-      <c r="D201" s="30"/>
+      <c r="D201" s="31"/>
       <c r="E201">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F201" s="5"/>
       <c r="G201" s="18">
-        <v>45577</v>
+        <v>45563</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B202" s="4"/>
-      <c r="D202" s="30"/>
+      <c r="D202" s="31"/>
       <c r="E202">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="18">
-        <v>45578</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B203" s="4"/>
-      <c r="D203" s="30"/>
+      <c r="D203" s="31"/>
       <c r="E203">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="18">
-        <v>45579</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B204" s="4"/>
-      <c r="D204" s="30"/>
+      <c r="D204" s="31"/>
       <c r="E204">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="18">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B205" s="4"/>
-      <c r="D205" s="30"/>
-      <c r="E205">
-        <v>238</v>
-      </c>
-      <c r="F205" s="5"/>
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B205" s="6"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="7">
+        <v>224</v>
+      </c>
+      <c r="F205" s="8"/>
       <c r="G205" s="18">
-        <v>45581</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B206" s="4"/>
-      <c r="D206" s="30"/>
-      <c r="E206">
-        <v>239</v>
-      </c>
-      <c r="F206" s="5"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E206" s="2">
+        <v>225</v>
+      </c>
+      <c r="F206" s="3"/>
       <c r="G206" s="18">
-        <v>45582</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B207" s="4"/>
-      <c r="D207" s="30"/>
+      <c r="D207" s="31"/>
       <c r="E207">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="18">
-        <v>45583</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B208" s="4"/>
-      <c r="D208" s="30"/>
+      <c r="D208" s="31"/>
       <c r="E208">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="18">
-        <v>45584</v>
+        <v>45570</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B209" s="4"/>
-      <c r="D209" s="30"/>
+      <c r="D209" s="31"/>
       <c r="E209">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="18">
-        <v>45585</v>
+        <v>45571</v>
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B210" s="4"/>
-      <c r="D210" s="30"/>
+      <c r="D210" s="31"/>
       <c r="E210">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="18">
-        <v>45586</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B211" s="4"/>
-      <c r="D211" s="30"/>
+      <c r="D211" s="31"/>
       <c r="E211">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="18">
-        <v>45587</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B212" s="4"/>
-      <c r="D212" s="30"/>
+      <c r="D212" s="31"/>
       <c r="E212">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="18">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B213" s="6"/>
-      <c r="C213" s="7"/>
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B213" s="4"/>
       <c r="D213" s="31"/>
-      <c r="E213" s="7">
-        <v>246</v>
-      </c>
-      <c r="F213" s="8"/>
+      <c r="E213">
+        <v>232</v>
+      </c>
+      <c r="F213" s="5"/>
       <c r="G213" s="18">
-        <v>45589</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B214" s="1"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E214" s="2">
-        <v>247</v>
-      </c>
-      <c r="F214" s="3"/>
+      <c r="B214" s="4"/>
+      <c r="D214" s="31"/>
+      <c r="E214">
+        <v>233</v>
+      </c>
+      <c r="F214" s="5"/>
       <c r="G214" s="18">
-        <v>45590</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B215" s="4"/>
-      <c r="D215" s="30"/>
+      <c r="D215" s="31"/>
       <c r="E215">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F215" s="5"/>
       <c r="G215" s="18">
-        <v>45591</v>
+        <v>45577</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B216" s="4"/>
-      <c r="D216" s="30"/>
+      <c r="D216" s="31"/>
       <c r="E216">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="18">
-        <v>45592</v>
+        <v>45578</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B217" s="4"/>
-      <c r="D217" s="30"/>
+      <c r="D217" s="31"/>
       <c r="E217">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="18">
-        <v>45593</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B218" s="4"/>
-      <c r="D218" s="30"/>
+      <c r="D218" s="31"/>
       <c r="E218">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="18">
-        <v>45594</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B219" s="4"/>
-      <c r="D219" s="30"/>
+      <c r="D219" s="31"/>
       <c r="E219">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="18">
-        <v>45595</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B220" s="4"/>
-      <c r="D220" s="30"/>
+      <c r="D220" s="31"/>
       <c r="E220">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="18">
-        <v>45596</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B221" s="4"/>
-      <c r="D221" s="30"/>
+      <c r="D221" s="31"/>
       <c r="E221">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="18">
-        <v>45597</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B222" s="4"/>
-      <c r="D222" s="30"/>
+      <c r="D222" s="31"/>
       <c r="E222">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="18">
-        <v>45598</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B223" s="4"/>
-      <c r="D223" s="30"/>
+      <c r="D223" s="31"/>
       <c r="E223">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="18">
-        <v>45599</v>
+        <v>45585</v>
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B224" s="4"/>
-      <c r="D224" s="30"/>
+      <c r="D224" s="31"/>
       <c r="E224">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="18">
-        <v>45600</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B225" s="4"/>
-      <c r="D225" s="30"/>
+      <c r="D225" s="31"/>
       <c r="E225">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="18">
-        <v>45601</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B226" s="4"/>
-      <c r="D226" s="30"/>
+      <c r="D226" s="31"/>
       <c r="E226">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="18">
-        <v>45602</v>
-      </c>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B227" s="4"/>
-      <c r="D227" s="30"/>
-      <c r="E227">
-        <v>260</v>
-      </c>
-      <c r="F227" s="5"/>
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B227" s="6"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="32"/>
+      <c r="E227" s="7">
+        <v>246</v>
+      </c>
+      <c r="F227" s="8"/>
       <c r="G227" s="18">
-        <v>45603</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B228" s="4"/>
-      <c r="D228" s="30"/>
-      <c r="E228">
-        <v>261</v>
-      </c>
-      <c r="F228" s="5"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E228" s="2">
+        <v>247</v>
+      </c>
+      <c r="F228" s="3"/>
       <c r="G228" s="18">
-        <v>45604</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B229" s="4"/>
-      <c r="D229" s="30"/>
+      <c r="D229" s="31"/>
       <c r="E229">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F229" s="5"/>
       <c r="G229" s="18">
-        <v>45605</v>
+        <v>45591</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B230" s="4"/>
-      <c r="D230" s="30"/>
+      <c r="D230" s="31"/>
       <c r="E230">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="18">
-        <v>45606</v>
+        <v>45592</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B231" s="4"/>
-      <c r="D231" s="30"/>
+      <c r="D231" s="31"/>
       <c r="E231">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="18">
-        <v>45607</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B232" s="4"/>
-      <c r="D232" s="30"/>
+      <c r="D232" s="31"/>
       <c r="E232">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="18">
-        <v>45608</v>
-      </c>
-    </row>
-    <row r="233" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B233" s="6"/>
-      <c r="C233" s="7"/>
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B233" s="4"/>
       <c r="D233" s="31"/>
-      <c r="E233" s="7">
-        <v>266</v>
-      </c>
-      <c r="F233" s="8"/>
+      <c r="E233">
+        <v>252</v>
+      </c>
+      <c r="F233" s="5"/>
       <c r="G233" s="18">
-        <v>45609</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B234" s="1"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E234" s="2">
-        <v>267</v>
-      </c>
-      <c r="F234" s="3"/>
+      <c r="B234" s="4"/>
+      <c r="D234" s="31"/>
+      <c r="E234">
+        <v>253</v>
+      </c>
+      <c r="F234" s="5"/>
       <c r="G234" s="18">
-        <v>45610</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B235" s="4"/>
-      <c r="D235" s="24"/>
+      <c r="D235" s="31"/>
       <c r="E235">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="18">
-        <v>45611</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B236" s="4"/>
-      <c r="D236" s="24"/>
+      <c r="D236" s="31"/>
       <c r="E236">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="18">
-        <v>45612</v>
+        <v>45598</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B237" s="4"/>
-      <c r="D237" s="24"/>
+      <c r="D237" s="31"/>
       <c r="E237">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="18">
-        <v>45613</v>
+        <v>45599</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B238" s="4"/>
-      <c r="D238" s="24"/>
+      <c r="D238" s="31"/>
       <c r="E238">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="18">
-        <v>45614</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B239" s="4"/>
-      <c r="D239" s="24"/>
+      <c r="D239" s="31"/>
       <c r="E239">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="18">
-        <v>45615</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B240" s="4"/>
-      <c r="D240" s="24"/>
+      <c r="D240" s="31"/>
       <c r="E240">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="18">
-        <v>45616</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B241" s="4"/>
-      <c r="D241" s="24"/>
+      <c r="D241" s="31"/>
       <c r="E241">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="18">
-        <v>45617</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B242" s="4"/>
-      <c r="D242" s="24"/>
+      <c r="D242" s="31"/>
       <c r="E242">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="18">
-        <v>45618</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B243" s="4"/>
-      <c r="D243" s="24"/>
+      <c r="D243" s="31"/>
       <c r="E243">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="18">
-        <v>45619</v>
+        <v>45605</v>
       </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B244" s="4"/>
-      <c r="D244" s="24"/>
+      <c r="D244" s="31"/>
       <c r="E244">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="18">
-        <v>45620</v>
+        <v>45606</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B245" s="4"/>
-      <c r="D245" s="24"/>
+      <c r="D245" s="31"/>
       <c r="E245">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="18">
-        <v>45621</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B246" s="4"/>
-      <c r="D246" s="24"/>
+      <c r="D246" s="31"/>
       <c r="E246">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="18">
-        <v>45622</v>
-      </c>
-    </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B247" s="4"/>
-      <c r="D247" s="24"/>
-      <c r="E247">
-        <v>280</v>
-      </c>
-      <c r="F247" s="5"/>
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B247" s="6"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="32"/>
+      <c r="E247" s="7">
+        <v>266</v>
+      </c>
+      <c r="F247" s="8"/>
       <c r="G247" s="18">
-        <v>45623</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B248" s="4"/>
-      <c r="D248" s="24"/>
-      <c r="E248">
-        <v>281</v>
-      </c>
-      <c r="F248" s="5"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E248" s="2">
+        <v>267</v>
+      </c>
+      <c r="F248" s="3"/>
       <c r="G248" s="18">
-        <v>45624</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B249" s="4"/>
-      <c r="D249" s="24"/>
+      <c r="D249" s="25"/>
       <c r="E249">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="18">
-        <v>45625</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B250" s="4"/>
-      <c r="D250" s="24"/>
+      <c r="D250" s="25"/>
       <c r="E250">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F250" s="5"/>
       <c r="G250" s="18">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="251" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B251" s="6"/>
-      <c r="C251" s="7"/>
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B251" s="4"/>
       <c r="D251" s="25"/>
-      <c r="E251" s="7">
-        <v>284</v>
-      </c>
-      <c r="F251" s="8"/>
+      <c r="E251">
+        <v>270</v>
+      </c>
+      <c r="F251" s="5"/>
       <c r="G251" s="18">
-        <v>45627</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B252" s="1"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E252" s="2">
-        <v>285</v>
-      </c>
-      <c r="F252" s="3"/>
+      <c r="B252" s="4"/>
+      <c r="D252" s="25"/>
+      <c r="E252">
+        <v>271</v>
+      </c>
+      <c r="F252" s="5"/>
       <c r="G252" s="18">
-        <v>45628</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B253" s="4"/>
-      <c r="D253" s="27"/>
+      <c r="D253" s="25"/>
       <c r="E253">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F253" s="5"/>
       <c r="G253" s="18">
-        <v>45629</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B254" s="4"/>
-      <c r="D254" s="27"/>
+      <c r="D254" s="25"/>
       <c r="E254">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F254" s="5"/>
       <c r="G254" s="18">
-        <v>45630</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B255" s="4"/>
-      <c r="D255" s="27"/>
+      <c r="D255" s="25"/>
       <c r="E255">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F255" s="5"/>
       <c r="G255" s="18">
-        <v>45631</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B256" s="4"/>
-      <c r="D256" s="27"/>
+      <c r="D256" s="25"/>
       <c r="E256">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F256" s="5"/>
       <c r="G256" s="18">
-        <v>45632</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B257" s="4"/>
-      <c r="D257" s="27"/>
+      <c r="D257" s="25"/>
       <c r="E257">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F257" s="5"/>
       <c r="G257" s="18">
-        <v>45633</v>
+        <v>45619</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B258" s="4"/>
-      <c r="D258" s="27"/>
+      <c r="D258" s="25"/>
       <c r="E258">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F258" s="5"/>
       <c r="G258" s="18">
-        <v>45634</v>
+        <v>45620</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B259" s="4"/>
-      <c r="D259" s="27"/>
+      <c r="D259" s="25"/>
       <c r="E259">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F259" s="5"/>
       <c r="G259" s="18">
-        <v>45635</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B260" s="4"/>
-      <c r="D260" s="27"/>
+      <c r="D260" s="25"/>
       <c r="E260">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F260" s="5"/>
       <c r="G260" s="18">
-        <v>45636</v>
-      </c>
-    </row>
-    <row r="261" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B261" s="6"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="28"/>
-      <c r="E261" s="7">
-        <v>294</v>
-      </c>
-      <c r="F261" s="8"/>
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B261" s="4"/>
+      <c r="D261" s="25"/>
+      <c r="E261">
+        <v>280</v>
+      </c>
+      <c r="F261" s="5"/>
       <c r="G261" s="18">
-        <v>45637</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B262" s="1"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E262" s="2">
-        <v>295</v>
-      </c>
-      <c r="F262" s="3"/>
+      <c r="B262" s="4"/>
+      <c r="D262" s="25"/>
+      <c r="E262">
+        <v>281</v>
+      </c>
+      <c r="F262" s="5"/>
       <c r="G262" s="18">
-        <v>45638</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B263" s="4"/>
-      <c r="D263" s="30"/>
+      <c r="D263" s="25"/>
       <c r="E263">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F263" s="5"/>
       <c r="G263" s="18">
-        <v>45639</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B264" s="4"/>
-      <c r="D264" s="30"/>
+      <c r="D264" s="25"/>
       <c r="E264">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="18">
-        <v>45640</v>
-      </c>
-    </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B265" s="4"/>
-      <c r="D265" s="30"/>
-      <c r="E265">
-        <v>298</v>
-      </c>
-      <c r="F265" s="5"/>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B265" s="6"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="7">
+        <v>284</v>
+      </c>
+      <c r="F265" s="8"/>
       <c r="G265" s="18">
-        <v>45641</v>
+        <v>45627</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B266" s="4"/>
-      <c r="D266" s="30"/>
-      <c r="E266">
-        <v>299</v>
-      </c>
-      <c r="F266" s="5"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E266" s="2">
+        <v>285</v>
+      </c>
+      <c r="F266" s="3"/>
       <c r="G266" s="18">
-        <v>45642</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B267" s="4"/>
-      <c r="D267" s="30"/>
+      <c r="D267" s="28"/>
       <c r="E267">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F267" s="5"/>
       <c r="G267" s="18">
-        <v>45643</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B268" s="4"/>
-      <c r="D268" s="30"/>
+      <c r="D268" s="28"/>
       <c r="E268">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F268" s="5"/>
       <c r="G268" s="18">
-        <v>45644</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B269" s="4"/>
-      <c r="D269" s="30"/>
+      <c r="D269" s="28"/>
       <c r="E269">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F269" s="5"/>
       <c r="G269" s="18">
-        <v>45645</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B270" s="4"/>
-      <c r="D270" s="30"/>
+      <c r="D270" s="28"/>
       <c r="E270">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F270" s="5"/>
       <c r="G270" s="18">
-        <v>45646</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B271" s="4"/>
-      <c r="D271" s="30"/>
+      <c r="D271" s="28"/>
       <c r="E271">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F271" s="5"/>
       <c r="G271" s="18">
-        <v>45647</v>
+        <v>45633</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B272" s="4"/>
-      <c r="D272" s="30"/>
+      <c r="D272" s="28"/>
       <c r="E272">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F272" s="5"/>
       <c r="G272" s="18">
-        <v>45648</v>
+        <v>45634</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B273" s="4"/>
-      <c r="D273" s="30"/>
+      <c r="D273" s="28"/>
       <c r="E273">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="18">
-        <v>45649</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B274" s="4"/>
-      <c r="D274" s="30"/>
+      <c r="D274" s="28"/>
       <c r="E274">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="18">
-        <v>45650</v>
-      </c>
-    </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B275" s="4"/>
-      <c r="D275" s="30"/>
-      <c r="E275">
-        <v>308</v>
-      </c>
-      <c r="F275" s="5"/>
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B275" s="6"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="29"/>
+      <c r="E275" s="7">
+        <v>294</v>
+      </c>
+      <c r="F275" s="8"/>
       <c r="G275" s="18">
-        <v>45651</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B276" s="4"/>
-      <c r="D276" s="30"/>
-      <c r="E276">
-        <v>309</v>
-      </c>
-      <c r="F276" s="5"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E276" s="2">
+        <v>295</v>
+      </c>
+      <c r="F276" s="3"/>
       <c r="G276" s="18">
-        <v>45652</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B277" s="4"/>
-      <c r="D277" s="30"/>
+      <c r="D277" s="31"/>
       <c r="E277">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F277" s="5"/>
       <c r="G277" s="18">
-        <v>45653</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B278" s="4"/>
-      <c r="D278" s="30"/>
+      <c r="D278" s="31"/>
       <c r="E278">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F278" s="5"/>
       <c r="G278" s="18">
-        <v>45654</v>
+        <v>45640</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B279" s="4"/>
-      <c r="D279" s="30"/>
+      <c r="D279" s="31"/>
       <c r="E279">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="F279" s="5"/>
       <c r="G279" s="18">
-        <v>45655</v>
+        <v>45641</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B280" s="4"/>
-      <c r="D280" s="30"/>
+      <c r="D280" s="31"/>
       <c r="E280">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F280" s="5"/>
       <c r="G280" s="18">
-        <v>45656</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B281" s="4"/>
-      <c r="D281" s="30"/>
+      <c r="D281" s="31"/>
       <c r="E281">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F281" s="5"/>
       <c r="G281" s="18">
-        <v>45657</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B282" s="4"/>
-      <c r="D282" s="30"/>
+      <c r="D282" s="31"/>
       <c r="E282">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F282" s="5"/>
       <c r="G282" s="18">
-        <v>45658</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B283" s="4"/>
-      <c r="D283" s="30"/>
+      <c r="D283" s="31"/>
       <c r="E283">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="F283" s="5"/>
       <c r="G283" s="18">
-        <v>45659</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B284" s="4"/>
-      <c r="D284" s="30"/>
+      <c r="D284" s="31"/>
       <c r="E284">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F284" s="5"/>
       <c r="G284" s="18">
-        <v>45660</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B285" s="4"/>
-      <c r="D285" s="30"/>
+      <c r="D285" s="31"/>
       <c r="E285">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="18">
-        <v>45661</v>
-      </c>
-    </row>
-    <row r="286" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B286" s="6"/>
-      <c r="C286" s="7"/>
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B286" s="4"/>
       <c r="D286" s="31"/>
-      <c r="E286" s="7">
-        <v>319</v>
-      </c>
-      <c r="F286" s="8"/>
+      <c r="E286">
+        <v>305</v>
+      </c>
+      <c r="F286" s="5"/>
       <c r="G286" s="18">
-        <v>45662</v>
+        <v>45648</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B287" s="1"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E287" s="2">
-        <v>320</v>
-      </c>
-      <c r="F287" s="3"/>
+      <c r="B287" s="4"/>
+      <c r="D287" s="31"/>
+      <c r="E287">
+        <v>306</v>
+      </c>
+      <c r="F287" s="5"/>
       <c r="G287" s="18">
-        <v>45663</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B288" s="4"/>
-      <c r="D288" s="30"/>
+      <c r="D288" s="31"/>
       <c r="E288">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F288" s="5"/>
       <c r="G288" s="18">
-        <v>45664</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B289" s="4"/>
-      <c r="D289" s="30"/>
+      <c r="D289" s="31"/>
       <c r="E289">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F289" s="5"/>
       <c r="G289" s="18">
-        <v>45665</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B290" s="4"/>
-      <c r="D290" s="30"/>
+      <c r="D290" s="31"/>
       <c r="E290">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F290" s="5"/>
       <c r="G290" s="18">
-        <v>45666</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B291" s="4"/>
-      <c r="D291" s="30"/>
+      <c r="D291" s="31"/>
       <c r="E291">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="F291" s="5"/>
       <c r="G291" s="18">
-        <v>45667</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B292" s="4"/>
-      <c r="D292" s="30"/>
+      <c r="D292" s="31"/>
       <c r="E292">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F292" s="5"/>
       <c r="G292" s="18">
-        <v>45668</v>
+        <v>45654</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B293" s="4"/>
-      <c r="D293" s="30"/>
+      <c r="D293" s="31"/>
       <c r="E293">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F293" s="5"/>
       <c r="G293" s="18">
-        <v>45669</v>
+        <v>45655</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B294" s="4"/>
-      <c r="D294" s="30"/>
+      <c r="D294" s="31"/>
       <c r="E294">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F294" s="5"/>
       <c r="G294" s="18">
-        <v>45670</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B295" s="4"/>
-      <c r="D295" s="30"/>
+      <c r="D295" s="31"/>
       <c r="E295">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="18">
-        <v>45671</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B296" s="4"/>
-      <c r="D296" s="30"/>
+      <c r="D296" s="31"/>
       <c r="E296">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="18">
-        <v>45672</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B297" s="4"/>
-      <c r="D297" s="30"/>
+      <c r="D297" s="31"/>
       <c r="E297">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F297" s="5"/>
       <c r="G297" s="18">
-        <v>45673</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B298" s="4"/>
-      <c r="D298" s="30"/>
+      <c r="D298" s="31"/>
       <c r="E298">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F298" s="5"/>
       <c r="G298" s="18">
-        <v>45674</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B299" s="4"/>
-      <c r="D299" s="30"/>
+      <c r="D299" s="31"/>
       <c r="E299">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="F299" s="5"/>
       <c r="G299" s="18">
-        <v>45675</v>
-      </c>
-    </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B300" s="4"/>
-      <c r="D300" s="30"/>
-      <c r="E300">
-        <v>333</v>
-      </c>
-      <c r="F300" s="5"/>
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B300" s="6"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="32"/>
+      <c r="E300" s="7">
+        <v>319</v>
+      </c>
+      <c r="F300" s="8"/>
       <c r="G300" s="18">
-        <v>45676</v>
+        <v>45662</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B301" s="4"/>
-      <c r="D301" s="30"/>
-      <c r="E301">
-        <v>334</v>
-      </c>
-      <c r="F301" s="5"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E301" s="2">
+        <v>320</v>
+      </c>
+      <c r="F301" s="3"/>
       <c r="G301" s="18">
-        <v>45677</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B302" s="4"/>
-      <c r="D302" s="30"/>
+      <c r="D302" s="31"/>
       <c r="E302">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F302" s="5"/>
       <c r="G302" s="18">
-        <v>45678</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B303" s="4"/>
-      <c r="D303" s="30"/>
+      <c r="D303" s="31"/>
       <c r="E303">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F303" s="5"/>
       <c r="G303" s="18">
-        <v>45679</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B304" s="4"/>
-      <c r="D304" s="30"/>
+      <c r="D304" s="31"/>
       <c r="E304">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F304" s="5"/>
       <c r="G304" s="18">
-        <v>45680</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B305" s="4"/>
-      <c r="D305" s="30"/>
+      <c r="D305" s="31"/>
       <c r="E305">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F305" s="5"/>
       <c r="G305" s="18">
-        <v>45681</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B306" s="4"/>
-      <c r="D306" s="30"/>
+      <c r="D306" s="31"/>
       <c r="E306">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F306" s="5"/>
       <c r="G306" s="18">
-        <v>45682</v>
+        <v>45668</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B307" s="4"/>
-      <c r="D307" s="30"/>
+      <c r="D307" s="31"/>
       <c r="E307">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F307" s="5"/>
       <c r="G307" s="18">
-        <v>45683</v>
+        <v>45669</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B308" s="4"/>
-      <c r="D308" s="30"/>
+      <c r="D308" s="31"/>
       <c r="E308">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F308" s="5"/>
       <c r="G308" s="18">
-        <v>45684</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B309" s="4"/>
-      <c r="D309" s="30"/>
+      <c r="D309" s="31"/>
       <c r="E309">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F309" s="5"/>
       <c r="G309" s="18">
-        <v>45685</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B310" s="4"/>
-      <c r="D310" s="30"/>
+      <c r="D310" s="31"/>
       <c r="E310">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F310" s="5"/>
       <c r="G310" s="18">
-        <v>45686</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B311" s="4"/>
-      <c r="D311" s="30"/>
+      <c r="D311" s="31"/>
       <c r="E311">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F311" s="5"/>
       <c r="G311" s="18">
-        <v>45687</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B312" s="4"/>
-      <c r="D312" s="30"/>
+      <c r="D312" s="31"/>
       <c r="E312">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F312" s="5"/>
       <c r="G312" s="18">
-        <v>45688</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B313" s="4"/>
-      <c r="D313" s="30"/>
+      <c r="D313" s="31"/>
       <c r="E313">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F313" s="5"/>
       <c r="G313" s="18">
-        <v>45689</v>
+        <v>45675</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B314" s="4"/>
-      <c r="D314" s="30"/>
+      <c r="D314" s="31"/>
       <c r="E314">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="18">
-        <v>45690</v>
+        <v>45676</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B315" s="4"/>
-      <c r="D315" s="30"/>
+      <c r="D315" s="31"/>
       <c r="E315">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F315" s="5"/>
       <c r="G315" s="18">
-        <v>45691</v>
-      </c>
-    </row>
-    <row r="316" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B316" s="6"/>
-      <c r="C316" s="7"/>
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B316" s="4"/>
       <c r="D316" s="31"/>
-      <c r="E316" s="7">
-        <v>349</v>
-      </c>
-      <c r="F316" s="8"/>
+      <c r="E316">
+        <v>335</v>
+      </c>
+      <c r="F316" s="5"/>
       <c r="G316" s="18">
-        <v>45692</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B317" s="1"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E317" s="2">
-        <v>350</v>
-      </c>
-      <c r="F317" s="3"/>
+      <c r="B317" s="4"/>
+      <c r="D317" s="31"/>
+      <c r="E317">
+        <v>336</v>
+      </c>
+      <c r="F317" s="5"/>
       <c r="G317" s="18">
-        <v>45693</v>
+        <v>45679</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B318" s="4"/>
-      <c r="D318" s="27"/>
+      <c r="D318" s="31"/>
       <c r="E318">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F318" s="5"/>
       <c r="G318" s="18">
-        <v>45694</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B319" s="4"/>
-      <c r="D319" s="27"/>
+      <c r="D319" s="31"/>
       <c r="E319">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F319" s="5"/>
       <c r="G319" s="18">
-        <v>45695</v>
+        <v>45681</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B320" s="4"/>
-      <c r="D320" s="27"/>
+      <c r="D320" s="31"/>
       <c r="E320">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F320" s="5"/>
       <c r="G320" s="18">
-        <v>45696</v>
+        <v>45682</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B321" s="4"/>
-      <c r="D321" s="27"/>
+      <c r="D321" s="31"/>
       <c r="E321">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F321" s="5"/>
       <c r="G321" s="18">
-        <v>45697</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B322" s="4"/>
-      <c r="D322" s="27"/>
+      <c r="D322" s="31"/>
       <c r="E322">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="18">
-        <v>45698</v>
+        <v>45684</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B323" s="4"/>
-      <c r="D323" s="27"/>
+      <c r="D323" s="31"/>
       <c r="E323">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="18">
-        <v>45699</v>
+        <v>45685</v>
       </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B324" s="4"/>
-      <c r="D324" s="27"/>
+      <c r="D324" s="31"/>
       <c r="E324">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F324" s="5"/>
       <c r="G324" s="18">
-        <v>45700</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B325" s="4"/>
-      <c r="D325" s="27"/>
+      <c r="D325" s="31"/>
       <c r="E325">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="18">
-        <v>45701</v>
+        <v>45687</v>
       </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B326" s="4"/>
-      <c r="D326" s="27"/>
+      <c r="D326" s="31"/>
       <c r="E326">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="18">
-        <v>45702</v>
+        <v>45688</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B327" s="4"/>
-      <c r="D327" s="27"/>
+      <c r="D327" s="31"/>
       <c r="E327">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="F327" s="5"/>
       <c r="G327" s="18">
-        <v>45703</v>
-      </c>
-    </row>
-    <row r="328" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B328" s="6"/>
-      <c r="C328" s="7"/>
-      <c r="D328" s="28"/>
-      <c r="E328" s="7">
-        <v>361</v>
-      </c>
-      <c r="F328" s="8"/>
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B328" s="4"/>
+      <c r="D328" s="31"/>
+      <c r="E328">
+        <v>347</v>
+      </c>
+      <c r="F328" s="5"/>
       <c r="G328" s="18">
-        <v>45704</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B329" s="1"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E329" s="2">
-        <v>362</v>
-      </c>
-      <c r="F329" s="3"/>
+      <c r="B329" s="4"/>
+      <c r="D329" s="31"/>
+      <c r="E329">
+        <v>348</v>
+      </c>
+      <c r="F329" s="5"/>
       <c r="G329" s="18">
-        <v>45705</v>
-      </c>
-    </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B330" s="4"/>
-      <c r="D330" s="30"/>
-      <c r="E330">
-        <v>363</v>
-      </c>
-      <c r="F330" s="5"/>
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B330" s="6"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="32"/>
+      <c r="E330" s="7">
+        <v>349</v>
+      </c>
+      <c r="F330" s="8"/>
       <c r="G330" s="18">
-        <v>45706</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B331" s="4"/>
-      <c r="D331" s="30"/>
-      <c r="E331">
-        <v>364</v>
-      </c>
-      <c r="F331" s="5"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E331" s="2">
+        <v>350</v>
+      </c>
+      <c r="F331" s="3"/>
       <c r="G331" s="18">
-        <v>45707</v>
+        <v>45693</v>
       </c>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B332" s="4"/>
-      <c r="D332" s="30"/>
+      <c r="D332" s="28"/>
       <c r="E332">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F332" s="5"/>
       <c r="G332" s="18">
-        <v>45708</v>
+        <v>45694</v>
       </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B333" s="4"/>
-      <c r="D333" s="30"/>
+      <c r="D333" s="28"/>
       <c r="E333">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="18">
-        <v>45709</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B334" s="4"/>
-      <c r="D334" s="30"/>
+      <c r="D334" s="28"/>
       <c r="E334">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F334" s="5"/>
       <c r="G334" s="18">
-        <v>45710</v>
+        <v>45696</v>
       </c>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B335" s="4"/>
-      <c r="D335" s="30"/>
+      <c r="D335" s="28"/>
       <c r="E335">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F335" s="5"/>
       <c r="G335" s="18">
-        <v>45711</v>
+        <v>45697</v>
       </c>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B336" s="4"/>
-      <c r="D336" s="30"/>
+      <c r="D336" s="28"/>
       <c r="E336">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="18">
-        <v>45712</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B337" s="4"/>
-      <c r="D337" s="30"/>
+      <c r="D337" s="28"/>
       <c r="E337">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F337" s="5"/>
       <c r="G337" s="18">
-        <v>45713</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B338" s="4"/>
-      <c r="D338" s="30"/>
+      <c r="D338" s="28"/>
       <c r="E338">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="18">
-        <v>45714</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B339" s="4"/>
-      <c r="D339" s="30"/>
+      <c r="D339" s="28"/>
       <c r="E339">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="F339" s="5"/>
       <c r="G339" s="18">
-        <v>45715</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B340" s="4"/>
-      <c r="D340" s="30"/>
+      <c r="D340" s="28"/>
       <c r="E340">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F340" s="5"/>
       <c r="G340" s="18">
-        <v>45716</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B341" s="4"/>
-      <c r="D341" s="30"/>
+      <c r="D341" s="28"/>
       <c r="E341">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F341" s="5"/>
       <c r="G341" s="18">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B342" s="4"/>
-      <c r="D342" s="30"/>
-      <c r="E342">
-        <v>375</v>
-      </c>
-      <c r="F342" s="5"/>
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B342" s="6"/>
+      <c r="C342" s="7"/>
+      <c r="D342" s="29"/>
+      <c r="E342" s="7">
+        <v>361</v>
+      </c>
+      <c r="F342" s="8"/>
       <c r="G342" s="18">
-        <v>45718</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B343" s="4"/>
-      <c r="D343" s="30"/>
-      <c r="E343">
-        <v>376</v>
-      </c>
-      <c r="F343" s="5"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E343" s="2">
+        <v>362</v>
+      </c>
+      <c r="F343" s="3"/>
       <c r="G343" s="18">
-        <v>45719</v>
+        <v>45705</v>
       </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B344" s="4"/>
-      <c r="D344" s="30"/>
+      <c r="D344" s="31"/>
       <c r="E344">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="18">
-        <v>45720</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B345" s="4"/>
-      <c r="D345" s="30"/>
+      <c r="D345" s="31"/>
       <c r="E345">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F345" s="5"/>
       <c r="G345" s="18">
-        <v>45721</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B346" s="4"/>
-      <c r="D346" s="30"/>
+      <c r="D346" s="31"/>
       <c r="E346">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="18">
-        <v>45722</v>
+        <v>45708</v>
       </c>
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B347" s="4"/>
-      <c r="D347" s="30"/>
+      <c r="D347" s="31"/>
       <c r="E347">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F347" s="5"/>
       <c r="G347" s="18">
-        <v>45723</v>
+        <v>45709</v>
       </c>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B348" s="4"/>
-      <c r="D348" s="30"/>
+      <c r="D348" s="31"/>
       <c r="E348">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F348" s="5"/>
       <c r="G348" s="18">
-        <v>45724</v>
+        <v>45710</v>
       </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B349" s="4"/>
-      <c r="D349" s="30"/>
+      <c r="D349" s="31"/>
       <c r="E349">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F349" s="5"/>
       <c r="G349" s="18">
-        <v>45725</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B350" s="4"/>
-      <c r="D350" s="30"/>
+      <c r="D350" s="31"/>
       <c r="E350">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F350" s="5"/>
       <c r="G350" s="18">
-        <v>45726</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B351" s="4"/>
-      <c r="D351" s="30"/>
+      <c r="D351" s="31"/>
       <c r="E351">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F351" s="5"/>
       <c r="G351" s="18">
-        <v>45727</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B352" s="4"/>
-      <c r="D352" s="30"/>
+      <c r="D352" s="31"/>
       <c r="E352">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F352" s="5"/>
       <c r="G352" s="18">
-        <v>45728</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B353" s="4"/>
-      <c r="D353" s="30"/>
+      <c r="D353" s="31"/>
       <c r="E353">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F353" s="5"/>
       <c r="G353" s="18">
-        <v>45729</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B354" s="4"/>
-      <c r="D354" s="30"/>
+      <c r="D354" s="31"/>
       <c r="E354">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F354" s="5"/>
       <c r="G354" s="18">
-        <v>45730</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B355" s="4"/>
-      <c r="D355" s="30"/>
+      <c r="D355" s="31"/>
       <c r="E355">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F355" s="5"/>
       <c r="G355" s="18">
-        <v>45731</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B356" s="4"/>
-      <c r="D356" s="30"/>
+      <c r="D356" s="31"/>
       <c r="E356">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F356" s="5"/>
       <c r="G356" s="18">
-        <v>45732</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B357" s="4"/>
-      <c r="D357" s="30"/>
+      <c r="D357" s="31"/>
       <c r="E357">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="F357" s="5"/>
       <c r="G357" s="18">
-        <v>45733</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B358" s="4"/>
-      <c r="D358" s="30"/>
+      <c r="D358" s="31"/>
       <c r="E358">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F358" s="5"/>
       <c r="G358" s="18">
-        <v>45734</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B359" s="4"/>
-      <c r="D359" s="30"/>
+      <c r="D359" s="31"/>
       <c r="E359">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="F359" s="5"/>
       <c r="G359" s="18">
-        <v>45735</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B360" s="4"/>
-      <c r="D360" s="30"/>
+      <c r="D360" s="31"/>
       <c r="E360">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F360" s="5"/>
       <c r="G360" s="18">
-        <v>45736</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B361" s="4"/>
-      <c r="D361" s="30"/>
+      <c r="D361" s="31"/>
       <c r="E361">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F361" s="5"/>
       <c r="G361" s="18">
-        <v>45737</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B362" s="4"/>
-      <c r="D362" s="30"/>
+      <c r="D362" s="31"/>
       <c r="E362">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F362" s="5"/>
       <c r="G362" s="18">
-        <v>45738</v>
+        <v>45724</v>
       </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B363" s="4"/>
-      <c r="D363" s="30"/>
+      <c r="D363" s="31"/>
       <c r="E363">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F363" s="5"/>
       <c r="G363" s="18">
-        <v>45739</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B364" s="4"/>
-      <c r="D364" s="30"/>
+      <c r="D364" s="31"/>
       <c r="E364">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F364" s="5"/>
       <c r="G364" s="18">
-        <v>45740</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B365" s="4"/>
-      <c r="D365" s="30"/>
+      <c r="D365" s="31"/>
       <c r="E365">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="F365" s="5"/>
       <c r="G365" s="18">
-        <v>45741</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B366" s="4"/>
-      <c r="D366" s="30"/>
+      <c r="D366" s="31"/>
       <c r="E366">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="F366" s="5"/>
       <c r="G366" s="18">
-        <v>45742</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B367" s="4"/>
-      <c r="D367" s="30"/>
+      <c r="D367" s="31"/>
       <c r="E367">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F367" s="5"/>
       <c r="G367" s="18">
-        <v>45743</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B368" s="4"/>
-      <c r="D368" s="30"/>
+      <c r="D368" s="31"/>
       <c r="E368">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="F368" s="5"/>
       <c r="G368" s="18">
-        <v>45744</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B369" s="4"/>
-      <c r="D369" s="30"/>
+      <c r="D369" s="31"/>
       <c r="E369">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="F369" s="5"/>
       <c r="G369" s="18">
-        <v>45745</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B370" s="4"/>
-      <c r="D370" s="30"/>
+      <c r="D370" s="31"/>
       <c r="E370">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F370" s="5"/>
       <c r="G370" s="18">
-        <v>45746</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B371" s="4"/>
-      <c r="D371" s="30"/>
+      <c r="D371" s="31"/>
       <c r="E371">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F371" s="5"/>
       <c r="G371" s="18">
-        <v>45747</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B372" s="4"/>
-      <c r="D372" s="30"/>
+      <c r="D372" s="31"/>
       <c r="E372">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F372" s="5"/>
       <c r="G372" s="18">
-        <v>45748</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B373" s="4"/>
-      <c r="D373" s="30"/>
+      <c r="D373" s="31"/>
       <c r="E373">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="F373" s="5"/>
       <c r="G373" s="18">
-        <v>45749</v>
-      </c>
-    </row>
-    <row r="374" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B374" s="6"/>
-      <c r="C374" s="7"/>
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="374" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B374" s="4"/>
       <c r="D374" s="31"/>
-      <c r="E374" s="7">
-        <v>407</v>
-      </c>
-      <c r="F374" s="8"/>
+      <c r="E374">
+        <v>393</v>
+      </c>
+      <c r="F374" s="5"/>
       <c r="G374" s="18">
-        <v>45750</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B375" s="1"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E375" s="2">
-        <v>408</v>
-      </c>
-      <c r="F375" s="3"/>
+      <c r="B375" s="4"/>
+      <c r="D375" s="31"/>
+      <c r="E375">
+        <v>394</v>
+      </c>
+      <c r="F375" s="5"/>
       <c r="G375" s="18">
-        <v>45751</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B376" s="4"/>
-      <c r="D376" s="33"/>
+      <c r="D376" s="31"/>
       <c r="E376">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="18">
-        <v>45752</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B377" s="4"/>
-      <c r="D377" s="33"/>
+      <c r="D377" s="31"/>
       <c r="E377">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F377" s="5"/>
       <c r="G377" s="18">
-        <v>45753</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B378" s="4"/>
-      <c r="D378" s="33"/>
+      <c r="D378" s="31"/>
       <c r="E378">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F378" s="5"/>
       <c r="G378" s="18">
-        <v>45754</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B379" s="4"/>
-      <c r="D379" s="33"/>
+      <c r="D379" s="31"/>
       <c r="E379">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="F379" s="5"/>
       <c r="G379" s="18">
-        <v>45755</v>
+        <v>45741</v>
       </c>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B380" s="4"/>
-      <c r="D380" s="33"/>
+      <c r="D380" s="31"/>
       <c r="E380">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F380" s="5"/>
       <c r="G380" s="18">
-        <v>45756</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B381" s="4"/>
-      <c r="D381" s="33"/>
+      <c r="D381" s="31"/>
       <c r="E381">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F381" s="5"/>
       <c r="G381" s="18">
-        <v>45757</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B382" s="4"/>
-      <c r="D382" s="33"/>
+      <c r="D382" s="31"/>
       <c r="E382">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="F382" s="5"/>
       <c r="G382" s="18">
-        <v>45758</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B383" s="4"/>
-      <c r="D383" s="33"/>
+      <c r="D383" s="31"/>
       <c r="E383">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="F383" s="5"/>
       <c r="G383" s="18">
-        <v>45759</v>
+        <v>45745</v>
       </c>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B384" s="4"/>
-      <c r="D384" s="33"/>
+      <c r="D384" s="31"/>
       <c r="E384">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F384" s="5"/>
       <c r="G384" s="18">
-        <v>45760</v>
-      </c>
-    </row>
-    <row r="385" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B385" s="6"/>
-      <c r="C385" s="7"/>
-      <c r="D385" s="34"/>
-      <c r="E385" s="7">
-        <v>418</v>
-      </c>
-      <c r="F385" s="8"/>
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="385" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B385" s="4"/>
+      <c r="D385" s="31"/>
+      <c r="E385">
+        <v>404</v>
+      </c>
+      <c r="F385" s="5"/>
       <c r="G385" s="18">
-        <v>45761</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B386" s="1"/>
-      <c r="C386" s="2"/>
-      <c r="D386" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E386" s="2">
-        <v>419</v>
-      </c>
-      <c r="F386" s="3"/>
+      <c r="B386" s="4"/>
+      <c r="D386" s="31"/>
+      <c r="E386">
+        <v>405</v>
+      </c>
+      <c r="F386" s="5"/>
       <c r="G386" s="18">
-        <v>45762</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="387" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B387" s="4"/>
-      <c r="D387" s="30"/>
+      <c r="D387" s="31"/>
       <c r="E387">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="F387" s="5"/>
       <c r="G387" s="18">
-        <v>45763</v>
-      </c>
-    </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B388" s="4"/>
-      <c r="D388" s="30"/>
-      <c r="E388">
-        <v>421</v>
-      </c>
-      <c r="F388" s="5"/>
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="388" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B388" s="6"/>
+      <c r="C388" s="7"/>
+      <c r="D388" s="32"/>
+      <c r="E388" s="7">
+        <v>407</v>
+      </c>
+      <c r="F388" s="8"/>
       <c r="G388" s="18">
-        <v>45764</v>
+        <v>45750</v>
       </c>
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B389" s="4"/>
-      <c r="D389" s="30"/>
-      <c r="E389">
-        <v>422</v>
-      </c>
-      <c r="F389" s="5"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E389" s="2">
+        <v>408</v>
+      </c>
+      <c r="F389" s="3"/>
       <c r="G389" s="18">
-        <v>45765</v>
+        <v>45751</v>
       </c>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B390" s="4"/>
-      <c r="D390" s="30"/>
+      <c r="D390" s="34"/>
       <c r="E390">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F390" s="5"/>
       <c r="G390" s="18">
-        <v>45766</v>
+        <v>45752</v>
       </c>
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B391" s="4"/>
-      <c r="D391" s="30"/>
+      <c r="D391" s="34"/>
       <c r="E391">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="F391" s="5"/>
       <c r="G391" s="18">
-        <v>45767</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B392" s="4"/>
-      <c r="D392" s="30"/>
+      <c r="D392" s="34"/>
       <c r="E392">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F392" s="5"/>
       <c r="G392" s="18">
-        <v>45768</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B393" s="4"/>
-      <c r="D393" s="30"/>
+      <c r="D393" s="34"/>
       <c r="E393">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="F393" s="5"/>
       <c r="G393" s="18">
-        <v>45769</v>
+        <v>45755</v>
       </c>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B394" s="4"/>
-      <c r="D394" s="30"/>
+      <c r="D394" s="34"/>
       <c r="E394">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F394" s="5"/>
       <c r="G394" s="18">
-        <v>45770</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B395" s="4"/>
-      <c r="D395" s="30"/>
+      <c r="D395" s="34"/>
       <c r="E395">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="F395" s="5"/>
       <c r="G395" s="18">
-        <v>45771</v>
+        <v>45757</v>
       </c>
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B396" s="4"/>
-      <c r="D396" s="30"/>
+      <c r="D396" s="34"/>
       <c r="E396">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F396" s="5"/>
       <c r="G396" s="18">
-        <v>45772</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B397" s="4"/>
-      <c r="D397" s="30"/>
+      <c r="D397" s="34"/>
       <c r="E397">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="F397" s="5"/>
       <c r="G397" s="18">
-        <v>45773</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B398" s="4"/>
-      <c r="D398" s="30"/>
+      <c r="D398" s="34"/>
       <c r="E398">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="F398" s="5"/>
       <c r="G398" s="18">
-        <v>45774</v>
-      </c>
-    </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B399" s="4"/>
-      <c r="D399" s="30"/>
-      <c r="E399">
-        <v>432</v>
-      </c>
-      <c r="F399" s="5"/>
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="399" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B399" s="6"/>
+      <c r="C399" s="7"/>
+      <c r="D399" s="35"/>
+      <c r="E399" s="7">
+        <v>418</v>
+      </c>
+      <c r="F399" s="8"/>
       <c r="G399" s="18">
-        <v>45775</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B400" s="4"/>
-      <c r="D400" s="30"/>
-      <c r="E400">
-        <v>433</v>
-      </c>
-      <c r="F400" s="5"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E400" s="2">
+        <v>419</v>
+      </c>
+      <c r="F400" s="3"/>
       <c r="G400" s="18">
-        <v>45776</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B401" s="4"/>
-      <c r="D401" s="30"/>
+      <c r="D401" s="31"/>
       <c r="E401">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="F401" s="5"/>
       <c r="G401" s="18">
-        <v>45777</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B402" s="4"/>
-      <c r="D402" s="30"/>
+      <c r="D402" s="31"/>
       <c r="E402">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F402" s="5"/>
       <c r="G402" s="18">
-        <v>45778</v>
+        <v>45764</v>
       </c>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B403" s="4"/>
-      <c r="D403" s="30"/>
+      <c r="D403" s="31"/>
       <c r="E403">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="F403" s="5"/>
       <c r="G403" s="18">
-        <v>45779</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B404" s="4"/>
-      <c r="D404" s="30"/>
+      <c r="D404" s="31"/>
       <c r="E404">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F404" s="5"/>
       <c r="G404" s="18">
-        <v>45780</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B405" s="4"/>
-      <c r="D405" s="30"/>
+      <c r="D405" s="31"/>
       <c r="E405">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="F405" s="5"/>
       <c r="G405" s="18">
-        <v>45781</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B406" s="4"/>
-      <c r="D406" s="30"/>
+      <c r="D406" s="31"/>
       <c r="E406">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F406" s="5"/>
       <c r="G406" s="18">
-        <v>45782</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B407" s="4"/>
-      <c r="D407" s="30"/>
+      <c r="D407" s="31"/>
       <c r="E407">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="F407" s="5"/>
       <c r="G407" s="18">
-        <v>45783</v>
+        <v>45769</v>
       </c>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B408" s="4"/>
-      <c r="D408" s="30"/>
+      <c r="D408" s="31"/>
       <c r="E408">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F408" s="5"/>
       <c r="G408" s="18">
-        <v>45784</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B409" s="4"/>
-      <c r="D409" s="30"/>
+      <c r="D409" s="31"/>
       <c r="E409">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="F409" s="5"/>
       <c r="G409" s="18">
-        <v>45785</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B410" s="4"/>
-      <c r="D410" s="30"/>
+      <c r="D410" s="31"/>
       <c r="E410">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F410" s="5"/>
       <c r="G410" s="18">
-        <v>45786</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B411" s="4"/>
-      <c r="D411" s="30"/>
+      <c r="D411" s="31"/>
       <c r="E411">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="F411" s="5"/>
       <c r="G411" s="18">
-        <v>45787</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B412" s="4"/>
-      <c r="D412" s="30"/>
+      <c r="D412" s="31"/>
       <c r="E412">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F412" s="5"/>
       <c r="G412" s="18">
-        <v>45788</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B413" s="4"/>
-      <c r="D413" s="30"/>
+      <c r="D413" s="31"/>
       <c r="E413">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F413" s="5"/>
       <c r="G413" s="18">
-        <v>45789</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B414" s="4"/>
-      <c r="D414" s="30"/>
+      <c r="D414" s="31"/>
       <c r="E414">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F414" s="5"/>
       <c r="G414" s="18">
-        <v>45790</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B415" s="4"/>
-      <c r="D415" s="30"/>
+      <c r="D415" s="31"/>
       <c r="E415">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="F415" s="5"/>
       <c r="G415" s="18">
-        <v>45791</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B416" s="4"/>
-      <c r="D416" s="30"/>
+      <c r="D416" s="31"/>
       <c r="E416">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F416" s="5"/>
       <c r="G416" s="18">
-        <v>45792</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B417" s="4"/>
-      <c r="D417" s="30"/>
+      <c r="D417" s="31"/>
       <c r="E417">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F417" s="5"/>
       <c r="G417" s="18">
-        <v>45793</v>
+        <v>45779</v>
       </c>
     </row>
     <row r="418" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B418" s="4"/>
-      <c r="D418" s="30"/>
+      <c r="D418" s="31"/>
       <c r="E418">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="F418" s="5"/>
       <c r="G418" s="18">
-        <v>45794</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B419" s="4"/>
-      <c r="D419" s="30"/>
+      <c r="D419" s="31"/>
       <c r="E419">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="F419" s="5"/>
       <c r="G419" s="18">
-        <v>45795</v>
-      </c>
-    </row>
-    <row r="420" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B420" s="6"/>
-      <c r="C420" s="7"/>
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B420" s="4"/>
       <c r="D420" s="31"/>
-      <c r="E420" s="7">
-        <v>453</v>
-      </c>
-      <c r="F420" s="8"/>
+      <c r="E420">
+        <v>439</v>
+      </c>
+      <c r="F420" s="5"/>
       <c r="G420" s="18">
-        <v>45796</v>
+        <v>45782</v>
       </c>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B421" s="1"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E421" s="2">
-        <v>454</v>
-      </c>
-      <c r="F421" s="3"/>
+      <c r="B421" s="4"/>
+      <c r="D421" s="31"/>
+      <c r="E421">
+        <v>440</v>
+      </c>
+      <c r="F421" s="5"/>
       <c r="G421" s="18">
-        <v>45797</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B422" s="4"/>
-      <c r="D422" s="36"/>
+      <c r="D422" s="31"/>
       <c r="E422">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="18">
-        <v>45798</v>
+        <v>45784</v>
       </c>
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B423" s="4"/>
-      <c r="D423" s="36"/>
+      <c r="D423" s="31"/>
       <c r="E423">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="18">
-        <v>45799</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B424" s="4"/>
-      <c r="D424" s="36"/>
+      <c r="D424" s="31"/>
       <c r="E424">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="18">
-        <v>45800</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B425" s="4"/>
-      <c r="D425" s="36"/>
+      <c r="D425" s="31"/>
       <c r="E425">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="F425" s="5"/>
       <c r="G425" s="18">
-        <v>45801</v>
+        <v>45787</v>
       </c>
     </row>
     <row r="426" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B426" s="4"/>
-      <c r="D426" s="36"/>
+      <c r="D426" s="31"/>
       <c r="E426">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F426" s="5"/>
       <c r="G426" s="18">
-        <v>45802</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B427" s="4"/>
-      <c r="D427" s="36"/>
+      <c r="D427" s="31"/>
       <c r="E427">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F427" s="5"/>
       <c r="G427" s="18">
-        <v>45803</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B428" s="4"/>
-      <c r="D428" s="36"/>
+      <c r="D428" s="31"/>
       <c r="E428">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="F428" s="5"/>
       <c r="G428" s="18">
-        <v>45804</v>
-      </c>
-    </row>
-    <row r="429" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B429" s="6"/>
-      <c r="C429" s="7"/>
-      <c r="D429" s="37"/>
-      <c r="E429" s="7">
-        <v>462</v>
-      </c>
-      <c r="F429" s="8"/>
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B429" s="4"/>
+      <c r="D429" s="31"/>
+      <c r="E429">
+        <v>448</v>
+      </c>
+      <c r="F429" s="5"/>
       <c r="G429" s="18">
-        <v>45805</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="430" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B430" s="1"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E430" s="2">
-        <v>463</v>
-      </c>
-      <c r="F430" s="3"/>
+      <c r="B430" s="4"/>
+      <c r="D430" s="31"/>
+      <c r="E430">
+        <v>449</v>
+      </c>
+      <c r="F430" s="5"/>
       <c r="G430" s="18">
-        <v>45806</v>
+        <v>45792</v>
       </c>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B431" s="4"/>
-      <c r="D431" s="39"/>
+      <c r="D431" s="31"/>
       <c r="E431">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="F431" s="5"/>
       <c r="G431" s="18">
-        <v>45807</v>
-      </c>
-    </row>
-    <row r="432" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B432" s="6"/>
-      <c r="C432" s="7"/>
-      <c r="D432" s="40"/>
-      <c r="E432" s="7">
-        <v>465</v>
-      </c>
-      <c r="F432" s="8"/>
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B432" s="4"/>
+      <c r="D432" s="31"/>
+      <c r="E432">
+        <v>451</v>
+      </c>
+      <c r="F432" s="5"/>
       <c r="G432" s="18">
-        <v>45808</v>
+        <v>45794</v>
       </c>
     </row>
     <row r="433" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B433" s="1"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E433" s="2">
-        <v>466</v>
-      </c>
-      <c r="F433" s="3"/>
+      <c r="B433" s="4"/>
+      <c r="D433" s="31"/>
+      <c r="E433">
+        <v>452</v>
+      </c>
+      <c r="F433" s="5"/>
       <c r="G433" s="18">
-        <v>45809</v>
-      </c>
-    </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B434" s="4"/>
-      <c r="D434" s="21"/>
-      <c r="E434">
-        <v>467</v>
-      </c>
-      <c r="F434" s="5"/>
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="434" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B434" s="6"/>
+      <c r="C434" s="7"/>
+      <c r="D434" s="32"/>
+      <c r="E434" s="7">
+        <v>453</v>
+      </c>
+      <c r="F434" s="8"/>
       <c r="G434" s="18">
-        <v>45810</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="435" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B435" s="4"/>
-      <c r="D435" s="21"/>
-      <c r="E435">
-        <v>468</v>
-      </c>
-      <c r="F435" s="5"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E435" s="2">
+        <v>454</v>
+      </c>
+      <c r="F435" s="3"/>
       <c r="G435" s="18">
-        <v>45811</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B436" s="4"/>
-      <c r="D436" s="21"/>
+      <c r="D436" s="37"/>
       <c r="E436">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F436" s="5"/>
       <c r="G436" s="18">
-        <v>45812</v>
+        <v>45798</v>
       </c>
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B437" s="4"/>
-      <c r="D437" s="21"/>
+      <c r="D437" s="37"/>
       <c r="E437">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F437" s="5"/>
       <c r="G437" s="18">
-        <v>45813</v>
+        <v>45799</v>
       </c>
     </row>
     <row r="438" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B438" s="4"/>
-      <c r="D438" s="21"/>
+      <c r="D438" s="37"/>
       <c r="E438">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F438" s="5"/>
       <c r="G438" s="18">
-        <v>45814</v>
-      </c>
-    </row>
-    <row r="439" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B439" s="6"/>
-      <c r="C439" s="7"/>
-      <c r="D439" s="22"/>
-      <c r="E439" s="7">
-        <v>472</v>
-      </c>
-      <c r="F439" s="8"/>
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="439" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B439" s="4"/>
+      <c r="D439" s="37"/>
+      <c r="E439">
+        <v>458</v>
+      </c>
+      <c r="F439" s="5"/>
       <c r="G439" s="18">
-        <v>45815</v>
+        <v>45801</v>
       </c>
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B440" s="1"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E440" s="2">
-        <v>473</v>
-      </c>
-      <c r="F440" s="3"/>
+      <c r="B440" s="4"/>
+      <c r="D440" s="37"/>
+      <c r="E440">
+        <v>459</v>
+      </c>
+      <c r="F440" s="5"/>
       <c r="G440" s="18">
-        <v>45816</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B441" s="4"/>
-      <c r="D441" s="24"/>
+      <c r="D441" s="37"/>
       <c r="E441">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="F441" s="5"/>
       <c r="G441" s="18">
-        <v>45817</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="442" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B442" s="4"/>
-      <c r="D442" s="24"/>
+      <c r="D442" s="37"/>
       <c r="E442">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="F442" s="5"/>
       <c r="G442" s="18">
-        <v>45818</v>
-      </c>
-    </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B443" s="4"/>
-      <c r="D443" s="24"/>
-      <c r="E443">
-        <v>476</v>
-      </c>
-      <c r="F443" s="5"/>
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="443" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B443" s="6"/>
+      <c r="C443" s="7"/>
+      <c r="D443" s="38"/>
+      <c r="E443" s="7">
+        <v>462</v>
+      </c>
+      <c r="F443" s="8"/>
       <c r="G443" s="18">
-        <v>45819</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="444" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B444" s="4"/>
-      <c r="D444" s="24"/>
-      <c r="E444">
-        <v>477</v>
-      </c>
-      <c r="F444" s="5"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E444" s="2">
+        <v>463</v>
+      </c>
+      <c r="F444" s="3"/>
       <c r="G444" s="18">
-        <v>45820</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B445" s="4"/>
-      <c r="D445" s="24"/>
+      <c r="D445" s="40"/>
       <c r="E445">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="F445" s="5"/>
       <c r="G445" s="18">
-        <v>45821</v>
-      </c>
-    </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B446" s="4"/>
-      <c r="D446" s="24"/>
-      <c r="E446">
-        <v>479</v>
-      </c>
-      <c r="F446" s="5"/>
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="446" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B446" s="6"/>
+      <c r="C446" s="7"/>
+      <c r="D446" s="41"/>
+      <c r="E446" s="7">
+        <v>465</v>
+      </c>
+      <c r="F446" s="8"/>
       <c r="G446" s="18">
-        <v>45822</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="447" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B447" s="4"/>
-      <c r="D447" s="24"/>
-      <c r="E447">
-        <v>480</v>
-      </c>
-      <c r="F447" s="5"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="2"/>
+      <c r="D447" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E447" s="2">
+        <v>466</v>
+      </c>
+      <c r="F447" s="3"/>
       <c r="G447" s="18">
-        <v>45823</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="448" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B448" s="4"/>
-      <c r="D448" s="24"/>
+      <c r="D448" s="22"/>
       <c r="E448">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F448" s="5"/>
       <c r="G448" s="18">
-        <v>45824</v>
+        <v>45810</v>
       </c>
     </row>
     <row r="449" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B449" s="4"/>
-      <c r="D449" s="24"/>
+      <c r="D449" s="22"/>
       <c r="E449">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="F449" s="5"/>
       <c r="G449" s="18">
-        <v>45825</v>
+        <v>45811</v>
       </c>
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B450" s="4"/>
-      <c r="D450" s="24"/>
+      <c r="D450" s="22"/>
       <c r="E450">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F450" s="5"/>
       <c r="G450" s="18">
-        <v>45826</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="451" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B451" s="4"/>
-      <c r="D451" s="24"/>
+      <c r="D451" s="22"/>
       <c r="E451">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F451" s="5"/>
       <c r="G451" s="18">
-        <v>45827</v>
+        <v>45813</v>
       </c>
     </row>
     <row r="452" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B452" s="4"/>
-      <c r="D452" s="24"/>
+      <c r="D452" s="22"/>
       <c r="E452">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F452" s="5"/>
       <c r="G452" s="18">
-        <v>45828</v>
-      </c>
-    </row>
-    <row r="453" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B453" s="4"/>
-      <c r="D453" s="24"/>
-      <c r="E453">
-        <v>486</v>
-      </c>
-      <c r="F453" s="5"/>
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="453" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B453" s="6"/>
+      <c r="C453" s="7"/>
+      <c r="D453" s="23"/>
+      <c r="E453" s="7">
+        <v>472</v>
+      </c>
+      <c r="F453" s="8"/>
       <c r="G453" s="18">
-        <v>45829</v>
+        <v>45815</v>
       </c>
     </row>
     <row r="454" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B454" s="4"/>
-      <c r="D454" s="24"/>
-      <c r="E454">
-        <v>487</v>
-      </c>
-      <c r="F454" s="5"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="2"/>
+      <c r="D454" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E454" s="2">
+        <v>473</v>
+      </c>
+      <c r="F454" s="3"/>
       <c r="G454" s="18">
-        <v>45830</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="455" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B455" s="4"/>
-      <c r="D455" s="24"/>
+      <c r="D455" s="25"/>
       <c r="E455">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F455" s="5"/>
       <c r="G455" s="18">
-        <v>45831</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="456" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B456" s="4"/>
-      <c r="D456" s="24"/>
+      <c r="D456" s="25"/>
       <c r="E456">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F456" s="5"/>
       <c r="G456" s="18">
-        <v>45832</v>
+        <v>45818</v>
       </c>
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B457" s="4"/>
-      <c r="D457" s="24"/>
+      <c r="D457" s="25"/>
       <c r="E457">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="F457" s="5"/>
       <c r="G457" s="18">
-        <v>45833</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="458" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B458" s="4"/>
-      <c r="D458" s="24"/>
+      <c r="D458" s="25"/>
       <c r="E458">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="F458" s="5"/>
       <c r="G458" s="18">
-        <v>45834</v>
+        <v>45820</v>
       </c>
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B459" s="4"/>
-      <c r="D459" s="24"/>
+      <c r="D459" s="25"/>
       <c r="E459">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F459" s="5"/>
       <c r="G459" s="18">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="460" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B460" s="4"/>
+      <c r="D460" s="25"/>
+      <c r="E460">
+        <v>479</v>
+      </c>
+      <c r="F460" s="5"/>
+      <c r="G460" s="18">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="461" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B461" s="4"/>
+      <c r="D461" s="25"/>
+      <c r="E461">
+        <v>480</v>
+      </c>
+      <c r="F461" s="5"/>
+      <c r="G461" s="18">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="462" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B462" s="4"/>
+      <c r="D462" s="25"/>
+      <c r="E462">
+        <v>481</v>
+      </c>
+      <c r="F462" s="5"/>
+      <c r="G462" s="18">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="463" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B463" s="4"/>
+      <c r="D463" s="25"/>
+      <c r="E463">
+        <v>482</v>
+      </c>
+      <c r="F463" s="5"/>
+      <c r="G463" s="18">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="464" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B464" s="4"/>
+      <c r="D464" s="25"/>
+      <c r="E464">
+        <v>483</v>
+      </c>
+      <c r="F464" s="5"/>
+      <c r="G464" s="18">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="465" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B465" s="4"/>
+      <c r="D465" s="25"/>
+      <c r="E465">
+        <v>484</v>
+      </c>
+      <c r="F465" s="5"/>
+      <c r="G465" s="18">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="466" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B466" s="4"/>
+      <c r="D466" s="25"/>
+      <c r="E466">
+        <v>485</v>
+      </c>
+      <c r="F466" s="5"/>
+      <c r="G466" s="18">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="467" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B467" s="4"/>
+      <c r="D467" s="25"/>
+      <c r="E467">
+        <v>486</v>
+      </c>
+      <c r="F467" s="5"/>
+      <c r="G467" s="18">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="468" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B468" s="4"/>
+      <c r="D468" s="25"/>
+      <c r="E468">
+        <v>487</v>
+      </c>
+      <c r="F468" s="5"/>
+      <c r="G468" s="18">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="469" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B469" s="4"/>
+      <c r="D469" s="25"/>
+      <c r="E469">
+        <v>488</v>
+      </c>
+      <c r="F469" s="5"/>
+      <c r="G469" s="18">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="470" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B470" s="4"/>
+      <c r="D470" s="25"/>
+      <c r="E470">
+        <v>489</v>
+      </c>
+      <c r="F470" s="5"/>
+      <c r="G470" s="18">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="471" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B471" s="4"/>
+      <c r="D471" s="25"/>
+      <c r="E471">
+        <v>490</v>
+      </c>
+      <c r="F471" s="5"/>
+      <c r="G471" s="18">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="472" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B472" s="4"/>
+      <c r="D472" s="25"/>
+      <c r="E472">
+        <v>491</v>
+      </c>
+      <c r="F472" s="5"/>
+      <c r="G472" s="18">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="473" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B473" s="4"/>
+      <c r="D473" s="25"/>
+      <c r="E473">
+        <v>492</v>
+      </c>
+      <c r="F473" s="5"/>
+      <c r="G473" s="18">
         <v>45835</v>
       </c>
     </row>
-    <row r="460" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B460" s="6"/>
-      <c r="C460" s="7"/>
-      <c r="D460" s="25"/>
-      <c r="E460" s="7">
+    <row r="474" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B474" s="6"/>
+      <c r="C474" s="7"/>
+      <c r="D474" s="26"/>
+      <c r="E474" s="7">
         <v>493</v>
       </c>
-      <c r="F460" s="8"/>
-      <c r="G460" s="18">
+      <c r="F474" s="8"/>
+      <c r="G474" s="18">
         <v>45836</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D84:D96"/>
-    <mergeCell ref="D97:D114"/>
-    <mergeCell ref="D287:D316"/>
-    <mergeCell ref="D163:D191"/>
-    <mergeCell ref="D192:D213"/>
-    <mergeCell ref="D214:D233"/>
-    <mergeCell ref="D234:D251"/>
-    <mergeCell ref="D252:D261"/>
-    <mergeCell ref="D262:D286"/>
-    <mergeCell ref="B20:B41"/>
+    <mergeCell ref="D98:D110"/>
+    <mergeCell ref="D111:D128"/>
+    <mergeCell ref="D301:D330"/>
+    <mergeCell ref="D177:D205"/>
+    <mergeCell ref="D206:D227"/>
+    <mergeCell ref="D228:D247"/>
+    <mergeCell ref="D248:D265"/>
+    <mergeCell ref="D266:D275"/>
+    <mergeCell ref="D276:D300"/>
+    <mergeCell ref="B20:B55"/>
     <mergeCell ref="B2:B19"/>
-    <mergeCell ref="D130:D141"/>
-    <mergeCell ref="D142:D149"/>
-    <mergeCell ref="D150:D162"/>
-    <mergeCell ref="D115:D129"/>
-    <mergeCell ref="B115:B129"/>
-    <mergeCell ref="B97:B114"/>
-    <mergeCell ref="B84:B96"/>
-    <mergeCell ref="B67:B83"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B52:B66"/>
-    <mergeCell ref="D20:D41"/>
+    <mergeCell ref="D144:D155"/>
+    <mergeCell ref="D156:D163"/>
+    <mergeCell ref="D164:D176"/>
+    <mergeCell ref="D129:D143"/>
+    <mergeCell ref="B129:B143"/>
+    <mergeCell ref="B111:B128"/>
+    <mergeCell ref="B98:B110"/>
+    <mergeCell ref="B81:B97"/>
+    <mergeCell ref="B56:B65"/>
+    <mergeCell ref="B66:B80"/>
+    <mergeCell ref="D20:D55"/>
     <mergeCell ref="D2:D19"/>
-    <mergeCell ref="D42:D66"/>
-    <mergeCell ref="D67:D83"/>
-    <mergeCell ref="D433:D439"/>
-    <mergeCell ref="D440:D460"/>
-    <mergeCell ref="D317:D328"/>
-    <mergeCell ref="D329:D374"/>
-    <mergeCell ref="D375:D385"/>
-    <mergeCell ref="D386:D420"/>
-    <mergeCell ref="D421:D429"/>
-    <mergeCell ref="D430:D432"/>
+    <mergeCell ref="D56:D80"/>
+    <mergeCell ref="D81:D97"/>
+    <mergeCell ref="D447:D453"/>
+    <mergeCell ref="D454:D474"/>
+    <mergeCell ref="D331:D342"/>
+    <mergeCell ref="D343:D388"/>
+    <mergeCell ref="D389:D399"/>
+    <mergeCell ref="D400:D434"/>
+    <mergeCell ref="D435:D443"/>
+    <mergeCell ref="D444:D446"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6196,76 +6458,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="47" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="47" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="47" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="47" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="47" t="s">
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="47" t="s">
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="47" t="s">
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="47" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="47" t="s">
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="47" t="s">
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="50"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C2" s="4">

--- a/JavaMasterclassTin_timeSchedulle.xlsx
+++ b/JavaMasterclassTin_timeSchedulle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning\JavaTimBuchalkaClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDC9C0A-914C-4B0C-BFF3-0FCD1B2CF24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276F9FD-6F16-4C8E-962C-6C0AB8A9A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4920" yWindow="-16090" windowWidth="18470" windowHeight="14760" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
+    <workbookView xWindow="14180" yWindow="-16200" windowWidth="14400" windowHeight="15440" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
   <si>
     <t>dia</t>
   </si>
@@ -350,13 +350,67 @@
   </si>
   <si>
     <t>Coding Exercicies 14</t>
+  </si>
+  <si>
+    <t>Parsing Values and Reading Input using System.console()</t>
+  </si>
+  <si>
+    <t>Exception Handling, and Introduction to Scanner</t>
+  </si>
+  <si>
+    <t>Reading Input with Scanner</t>
+  </si>
+  <si>
+    <t>Reading User Input Challenge</t>
+  </si>
+  <si>
+    <t>Min and Max Challenge</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 28</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 29</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Introduction to classes and objects</t>
+  </si>
+  <si>
+    <t>Introduction to classes ussing Getters Methods</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 30</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 31</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 32</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 33</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 34</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 35</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 36</t>
+  </si>
+  <si>
+    <t>Coding Exercicies 37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +476,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -576,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -602,33 +663,6 @@
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -647,22 +681,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -683,6 +717,33 @@
     <xf numFmtId="17" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,6 +753,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC85575E-DCEB-43FC-A93E-D47C9095EFB1}">
-  <dimension ref="A1:H474"/>
+  <dimension ref="A1:H484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,13 +1106,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45">
+      <c r="B2" s="36">
         <v>45323</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2">
@@ -1057,8 +1123,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="46"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="37"/>
+      <c r="D3" s="22"/>
       <c r="E3">
         <v>50</v>
       </c>
@@ -1067,8 +1133,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="46"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="37"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1077,8 +1143,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="46"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="37"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1087,8 +1153,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="37"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1097,8 +1163,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="46"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1107,8 +1173,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="46"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1120,8 +1186,8 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1130,8 +1196,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="46"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="37"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
@@ -1143,8 +1209,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="46"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1156,8 +1222,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="46"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="D12" s="22"/>
       <c r="E12">
         <v>51</v>
       </c>
@@ -1169,8 +1235,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="46"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="D13" s="22"/>
       <c r="E13">
         <v>52</v>
       </c>
@@ -1182,72 +1248,72 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="46"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="37"/>
+      <c r="D14" s="22"/>
       <c r="E14">
         <v>53</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="46"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="37"/>
+      <c r="D15" s="22"/>
       <c r="E15">
         <v>54</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="46"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="37"/>
+      <c r="D16" s="22"/>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="46"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="37"/>
+      <c r="D17" s="22"/>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="46"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="37"/>
+      <c r="D18" s="22"/>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="47"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="43"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="4">
         <v>55</v>
       </c>
@@ -1259,8 +1325,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="43"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="34"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="4">
         <v>56</v>
       </c>
@@ -1272,8 +1338,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="43"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="4">
         <v>57</v>
       </c>
@@ -1285,8 +1351,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="43"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="4">
         <v>58</v>
       </c>
@@ -1298,8 +1364,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="43"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="4">
         <v>59</v>
       </c>
@@ -1311,8 +1377,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="43"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="4"/>
       <c r="F26" s="16" t="s">
         <v>102</v>
@@ -1322,8 +1388,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="43"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="4"/>
       <c r="F27" s="16" t="s">
         <v>103</v>
@@ -1333,8 +1399,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="43"/>
-      <c r="D28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="4">
         <v>60</v>
       </c>
@@ -1346,8 +1412,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="43"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="4">
         <v>61</v>
       </c>
@@ -1359,8 +1425,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="43"/>
-      <c r="D30" s="31"/>
+      <c r="B30" s="34"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="4">
         <v>62</v>
       </c>
@@ -1375,8 +1441,8 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="D31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="4">
         <v>63</v>
       </c>
@@ -1388,8 +1454,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="43"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="4" t="s">
         <v>74</v>
       </c>
@@ -1401,8 +1467,8 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="43"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="34"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="4">
         <v>64</v>
       </c>
@@ -1414,8 +1480,8 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="43"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="4">
         <v>65</v>
       </c>
@@ -1427,8 +1493,8 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="43"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="34"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="4">
         <v>66</v>
       </c>
@@ -1440,8 +1506,8 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="43"/>
-      <c r="D36" s="31"/>
+      <c r="B36" s="34"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="4">
         <v>67</v>
       </c>
@@ -1453,8 +1519,8 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="43"/>
-      <c r="D37" s="31"/>
+      <c r="B37" s="34"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="4">
         <v>68</v>
       </c>
@@ -1466,8 +1532,8 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="43"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="34"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="4">
         <v>69</v>
       </c>
@@ -1479,8 +1545,8 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="43"/>
-      <c r="D39" s="31"/>
+      <c r="B39" s="34"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="4"/>
       <c r="F39" s="16" t="s">
         <v>83</v>
@@ -1488,8 +1554,8 @@
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="43"/>
-      <c r="D40" s="31"/>
+      <c r="B40" s="34"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="4"/>
       <c r="F40" s="16" t="s">
         <v>84</v>
@@ -1497,8 +1563,8 @@
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="43"/>
-      <c r="D41" s="31"/>
+      <c r="B41" s="34"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="4"/>
       <c r="F41" s="16" t="s">
         <v>85</v>
@@ -1506,8 +1572,8 @@
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="43"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="34"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="4"/>
       <c r="F42" s="16" t="s">
         <v>86</v>
@@ -1515,8 +1581,8 @@
       <c r="G42" s="18"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="43"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="34"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="4"/>
       <c r="F43" s="16" t="s">
         <v>87</v>
@@ -1525,8 +1591,8 @@
       <c r="H43" s="20"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="43"/>
-      <c r="D44" s="31"/>
+      <c r="B44" s="34"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="4"/>
       <c r="F44" s="16" t="s">
         <v>88</v>
@@ -1534,8 +1600,8 @@
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="43"/>
-      <c r="D45" s="31"/>
+      <c r="B45" s="34"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="4"/>
       <c r="F45" s="16" t="s">
         <v>89</v>
@@ -1543,8 +1609,8 @@
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="43"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="34"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="4"/>
       <c r="F46" s="16" t="s">
         <v>90</v>
@@ -1552,8 +1618,8 @@
       <c r="G46" s="18"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="43"/>
-      <c r="D47" s="31"/>
+      <c r="B47" s="34"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="4"/>
       <c r="F47" s="16" t="s">
         <v>91</v>
@@ -1561,2601 +1627,2604 @@
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="43"/>
-      <c r="D48" s="31"/>
+      <c r="B48" s="34"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="4"/>
       <c r="F48" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="43"/>
-      <c r="D49" s="31"/>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="34"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="4"/>
       <c r="F49" s="16" t="s">
         <v>93</v>
       </c>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="43"/>
-      <c r="D50" s="31"/>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="34"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="4"/>
       <c r="F50" s="16" t="s">
         <v>94</v>
       </c>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="43"/>
-      <c r="D51" s="31"/>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="34"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="4">
         <v>70</v>
       </c>
-      <c r="F51" s="16"/>
+      <c r="F51" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="G51" s="18">
         <v>45413</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="43"/>
-      <c r="D52" s="31"/>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="34"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="4">
         <v>71</v>
       </c>
-      <c r="F52" s="16"/>
+      <c r="F52" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="G52" s="18">
         <v>45414</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="43"/>
-      <c r="D53" s="31"/>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="34"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="4">
         <v>72</v>
       </c>
-      <c r="F53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="G53" s="18">
         <v>45415</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="43"/>
-      <c r="D54" s="31"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="34"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="4">
         <v>73</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="18">
-        <v>45416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="44"/>
-      <c r="C55" s="7">
+      <c r="F54" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="34"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="4">
+        <v>74</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="52">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="34"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="53">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="35"/>
+      <c r="C57" s="7">
         <v>24</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="6">
-        <v>74</v>
-      </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="30" t="s">
+      <c r="D57" s="23"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="53">
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C58" s="2">
         <v>25</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D58" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E58" s="2">
         <v>75</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="18">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57">
+      <c r="F58" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="53">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59">
         <v>76</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="18">
-        <v>45419</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58">
+      <c r="F59" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="53">
+        <v>45491</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60">
         <v>77</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="18">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59">
+      <c r="F60" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="53">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61">
         <v>78</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="18">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60">
+      <c r="F61" s="16"/>
+      <c r="G61" s="53">
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62">
         <v>79</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="18">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61">
+      <c r="F62" s="16"/>
+      <c r="G62" s="53">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="F63" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" s="53">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="F64" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" s="53">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65">
         <v>80</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="18">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="F65" s="16"/>
+      <c r="G65" s="53">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62">
+      <c r="B66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66">
         <v>81</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="18">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63">
+      <c r="F66" s="16"/>
+      <c r="G66" s="53">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67">
         <v>82</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="18">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64">
+      <c r="F67" s="16"/>
+      <c r="G67" s="53">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68">
         <v>83</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="18">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="32"/>
-      <c r="C65">
+      <c r="F68" s="16"/>
+      <c r="G68" s="53">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="23"/>
+      <c r="C69">
         <v>29</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65">
+      <c r="D69" s="22"/>
+      <c r="E69">
         <v>84</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="18">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B66" s="42" t="s">
+      <c r="F69" s="16"/>
+      <c r="G69" s="53">
+        <v>45501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C66">
+      <c r="C70">
         <v>1</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66">
+      <c r="D70" s="22"/>
+      <c r="E70">
         <v>85</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="18">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="43"/>
-      <c r="D67" s="31"/>
-      <c r="E67">
+      <c r="F70" s="16"/>
+      <c r="G70" s="53">
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="34"/>
+      <c r="D71" s="22"/>
+      <c r="E71">
         <v>86</v>
       </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="18">
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="43"/>
-      <c r="D68" s="31"/>
-      <c r="E68">
+      <c r="F71" s="16"/>
+      <c r="G71" s="53">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="34"/>
+      <c r="D72" s="22"/>
+      <c r="E72">
         <v>87</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="18">
-        <v>45430</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B69" s="43"/>
-      <c r="D69" s="31"/>
-      <c r="E69">
+      <c r="F72" s="16"/>
+      <c r="G72" s="53">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="34"/>
+      <c r="D73" s="22"/>
+      <c r="F73" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="53">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="34"/>
+      <c r="D74" s="22"/>
+      <c r="F74" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G74" s="53">
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="34"/>
+      <c r="D75" s="22"/>
+      <c r="F75" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G75" s="53">
+        <v>45507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="34"/>
+      <c r="D76" s="22"/>
+      <c r="F76" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" s="53">
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="34"/>
+      <c r="D77" s="22"/>
+      <c r="E77">
         <v>88</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="18">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="43"/>
-      <c r="D70" s="31"/>
-      <c r="E70">
+      <c r="F77" s="16"/>
+      <c r="G77" s="53">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="34"/>
+      <c r="D78" s="22"/>
+      <c r="E78">
         <v>89</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="18">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="43"/>
-      <c r="D71" s="31"/>
-      <c r="E71">
+      <c r="F78" s="16"/>
+      <c r="G78" s="53">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="34"/>
+      <c r="D79" s="22"/>
+      <c r="E79">
         <v>90</v>
       </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="18">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B72" s="43"/>
-      <c r="D72" s="31"/>
-      <c r="E72">
+      <c r="F79" s="16"/>
+      <c r="G79" s="53">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="34"/>
+      <c r="D80" s="22"/>
+      <c r="E80">
         <v>91</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="18">
-        <v>45434</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B73" s="43"/>
-      <c r="D73" s="31"/>
-      <c r="E73">
+      <c r="F80" s="16"/>
+      <c r="G80" s="53">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="34"/>
+      <c r="D81" s="22"/>
+      <c r="E81">
         <v>92</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="18">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="43"/>
-      <c r="D74" s="31"/>
-      <c r="E74">
+      <c r="F81" s="16"/>
+      <c r="G81" s="53">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="34"/>
+      <c r="D82" s="22"/>
+      <c r="E82">
         <v>93</v>
       </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="18">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="43"/>
-      <c r="D75" s="31"/>
-      <c r="E75">
+      <c r="F82" s="16"/>
+      <c r="G82" s="53">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="34"/>
+      <c r="D83" s="22"/>
+      <c r="E83">
         <v>94</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="18">
-        <v>45437</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B76" s="43"/>
-      <c r="D76" s="31"/>
-      <c r="E76">
+      <c r="F83" s="16"/>
+      <c r="G83" s="53">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="34"/>
+      <c r="D84" s="22"/>
+      <c r="E84">
         <v>95</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="18">
-        <v>45438</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B77" s="43"/>
-      <c r="D77" s="31"/>
-      <c r="E77">
+      <c r="F84" s="16"/>
+      <c r="G84" s="53">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="34"/>
+      <c r="D85" s="22"/>
+      <c r="E85">
         <v>96</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="18">
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B78" s="43"/>
-      <c r="D78" s="31"/>
-      <c r="E78">
+      <c r="F85" s="16"/>
+      <c r="G85" s="53">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="34"/>
+      <c r="D86" s="22"/>
+      <c r="E86">
         <v>97</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="18">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="43"/>
-      <c r="D79" s="31"/>
-      <c r="E79">
+      <c r="F86" s="16"/>
+      <c r="G86" s="53">
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="34"/>
+      <c r="D87" s="22"/>
+      <c r="E87">
         <v>98</v>
       </c>
-      <c r="F79" s="5"/>
-      <c r="G79" s="18">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="44"/>
-      <c r="C80" s="7">
+      <c r="F87" s="16"/>
+      <c r="G87" s="53">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="34"/>
+      <c r="D88" s="22"/>
+      <c r="E88">
+        <v>99</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="G88" s="53">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B89" s="34"/>
+      <c r="D89" s="22"/>
+      <c r="F89" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G89" s="53">
+        <v>45521</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="35"/>
+      <c r="C90" s="7">
         <v>9</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="7">
-        <v>99</v>
-      </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="18">
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="30" t="s">
+      <c r="D90" s="23"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G90" s="53">
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C91" s="2">
         <v>10</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D91" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E91" s="2">
         <v>100</v>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="18">
+      <c r="F91" s="3"/>
+      <c r="G91" s="18">
         <v>45443</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92">
         <v>101</v>
-      </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="18">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83">
-        <v>102</v>
-      </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="18">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84">
-        <v>103</v>
-      </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="18">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85">
-        <v>104</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="18">
-        <v>45447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86">
-        <v>105</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="18">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87">
-        <v>106</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="18">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88">
-        <v>107</v>
-      </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="18">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89">
-        <v>108</v>
-      </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="18">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90">
-        <v>109</v>
-      </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="18">
-        <v>45452</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91">
-        <v>110</v>
-      </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="18">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92">
-        <v>111</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="18">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="31"/>
-      <c r="D93" s="31"/>
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="22"/>
+      <c r="D93" s="22"/>
       <c r="E93">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="18">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="31"/>
-      <c r="D94" s="31"/>
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="18">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="31"/>
-      <c r="D95" s="31"/>
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="22"/>
+      <c r="D95" s="22"/>
       <c r="E95">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="18">
-        <v>45457</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B96" s="31"/>
-      <c r="D96" s="31"/>
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="22"/>
+      <c r="D96" s="22"/>
       <c r="E96">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="18">
-        <v>45458</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="32"/>
-      <c r="C97" s="7">
-        <v>23</v>
-      </c>
-      <c r="D97" s="32"/>
-      <c r="E97" s="7">
-        <v>116</v>
-      </c>
-      <c r="F97" s="8"/>
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97">
+        <v>106</v>
+      </c>
+      <c r="F97" s="5"/>
       <c r="G97" s="18">
-        <v>45459</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B98" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C98" s="2">
-        <v>24</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98" s="2">
-        <v>117</v>
-      </c>
-      <c r="F98" s="3"/>
+      <c r="B98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98">
+        <v>107</v>
+      </c>
+      <c r="F98" s="5"/>
       <c r="G98" s="18">
-        <v>45460</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B99" s="31"/>
-      <c r="D99" s="31"/>
+      <c r="B99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="18">
-        <v>45461</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B100" s="31"/>
-      <c r="D100" s="31"/>
+      <c r="B100" s="22"/>
+      <c r="D100" s="22"/>
       <c r="E100">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="18">
-        <v>45462</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B101" s="31"/>
-      <c r="D101" s="31"/>
+      <c r="B101" s="22"/>
+      <c r="D101" s="22"/>
       <c r="E101">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="18">
-        <v>45463</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="31"/>
-      <c r="D102" s="31"/>
+      <c r="B102" s="22"/>
+      <c r="D102" s="22"/>
       <c r="E102">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="18">
-        <v>45464</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B103" s="31"/>
-      <c r="D103" s="31"/>
+      <c r="B103" s="22"/>
+      <c r="D103" s="22"/>
       <c r="E103">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="18">
-        <v>45465</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B104" s="31"/>
-      <c r="D104" s="31"/>
+      <c r="B104" s="22"/>
+      <c r="D104" s="22"/>
       <c r="E104">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="18">
-        <v>45466</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B105" s="31"/>
-      <c r="D105" s="31"/>
+      <c r="B105" s="22"/>
+      <c r="D105" s="22"/>
       <c r="E105">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="18">
-        <v>45467</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="B106" s="22"/>
+      <c r="D106" s="22"/>
       <c r="E106">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="18">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107">
-        <v>126</v>
-      </c>
-      <c r="F107" s="5"/>
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="23"/>
+      <c r="C107" s="7">
+        <v>23</v>
+      </c>
+      <c r="D107" s="23"/>
+      <c r="E107" s="7">
+        <v>116</v>
+      </c>
+      <c r="F107" s="8"/>
       <c r="G107" s="18">
-        <v>45469</v>
+        <v>45459</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108">
-        <v>127</v>
-      </c>
-      <c r="F108" s="5"/>
+      <c r="B108" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="2">
+        <v>24</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" s="2">
+        <v>117</v>
+      </c>
+      <c r="F108" s="3"/>
       <c r="G108" s="18">
-        <v>45470</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B109" s="31"/>
-      <c r="D109" s="31"/>
+      <c r="B109" s="22"/>
+      <c r="D109" s="22"/>
       <c r="E109">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="18">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="32"/>
-      <c r="C110" s="7">
-        <v>2</v>
-      </c>
-      <c r="D110" s="32"/>
-      <c r="E110" s="7">
-        <v>129</v>
-      </c>
-      <c r="F110" s="8"/>
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110">
+        <v>119</v>
+      </c>
+      <c r="F110" s="5"/>
       <c r="G110" s="18">
-        <v>45472</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B111" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C111" s="2">
-        <v>3</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E111" s="2">
-        <v>130</v>
-      </c>
-      <c r="F111" s="3"/>
+      <c r="B111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111">
+        <v>120</v>
+      </c>
+      <c r="F111" s="5"/>
       <c r="G111" s="18">
-        <v>45473</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B112" s="34"/>
-      <c r="D112" s="34"/>
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="22"/>
+      <c r="D112" s="22"/>
       <c r="E112">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="18">
-        <v>45474</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B113" s="34"/>
-      <c r="D113" s="34"/>
+      <c r="B113" s="22"/>
+      <c r="D113" s="22"/>
       <c r="E113">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="18">
-        <v>45475</v>
+        <v>45465</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B114" s="34"/>
-      <c r="D114" s="34"/>
+      <c r="B114" s="22"/>
+      <c r="D114" s="22"/>
       <c r="E114">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="18">
-        <v>45476</v>
+        <v>45466</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B115" s="34"/>
-      <c r="D115" s="34"/>
+      <c r="B115" s="22"/>
+      <c r="D115" s="22"/>
       <c r="E115">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="18">
-        <v>45477</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B116" s="34"/>
-      <c r="D116" s="34"/>
+      <c r="B116" s="22"/>
+      <c r="D116" s="22"/>
       <c r="E116">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="18">
-        <v>45478</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B117" s="34"/>
-      <c r="D117" s="34"/>
+      <c r="B117" s="22"/>
+      <c r="D117" s="22"/>
       <c r="E117">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="18">
-        <v>45479</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>35</v>
-      </c>
-      <c r="B118" s="34"/>
-      <c r="D118" s="34"/>
+      <c r="B118" s="22"/>
+      <c r="D118" s="22"/>
       <c r="E118">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="18">
-        <v>45480</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B119" s="34"/>
-      <c r="D119" s="34"/>
+      <c r="B119" s="22"/>
+      <c r="D119" s="22"/>
       <c r="E119">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="18">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120">
-        <v>139</v>
-      </c>
-      <c r="F120" s="5"/>
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="23"/>
+      <c r="C120" s="7">
+        <v>2</v>
+      </c>
+      <c r="D120" s="23"/>
+      <c r="E120" s="7">
+        <v>129</v>
+      </c>
+      <c r="F120" s="8"/>
       <c r="G120" s="18">
-        <v>45482</v>
+        <v>45472</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121">
-        <v>140</v>
-      </c>
-      <c r="F121" s="5"/>
+      <c r="B121" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="2">
+        <v>3</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="2">
+        <v>130</v>
+      </c>
+      <c r="F121" s="3"/>
       <c r="G121" s="18">
-        <v>45483</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B122" s="34"/>
-      <c r="D122" s="34"/>
+      <c r="B122" s="25"/>
+      <c r="D122" s="25"/>
       <c r="E122">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="18">
-        <v>45484</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B123" s="34"/>
-      <c r="D123" s="34"/>
+      <c r="B123" s="25"/>
+      <c r="D123" s="25"/>
       <c r="E123">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="18">
-        <v>45485</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B124" s="34"/>
-      <c r="D124" s="34"/>
+      <c r="B124" s="25"/>
+      <c r="D124" s="25"/>
       <c r="E124">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="18">
-        <v>45486</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B125" s="34"/>
-      <c r="D125" s="34"/>
+      <c r="B125" s="25"/>
+      <c r="D125" s="25"/>
       <c r="E125">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="18">
-        <v>45487</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B126" s="34"/>
-      <c r="D126" s="34"/>
+      <c r="B126" s="25"/>
+      <c r="D126" s="25"/>
       <c r="E126">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="18">
-        <v>45488</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B127" s="34"/>
-      <c r="D127" s="34"/>
+      <c r="B127" s="25"/>
+      <c r="D127" s="25"/>
       <c r="E127">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="18">
-        <v>45489</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B128" s="35"/>
-      <c r="C128" s="7">
-        <v>16</v>
-      </c>
-      <c r="D128" s="35"/>
-      <c r="E128" s="7">
-        <v>147</v>
-      </c>
-      <c r="F128" s="8"/>
+        <v>45479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128">
+        <v>137</v>
+      </c>
+      <c r="F128" s="5"/>
       <c r="G128" s="18">
-        <v>45490</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B129" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C129" s="2">
-        <v>18</v>
-      </c>
-      <c r="D129" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E129" s="2">
-        <v>148</v>
-      </c>
-      <c r="F129" s="3"/>
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129">
+        <v>138</v>
+      </c>
+      <c r="F129" s="5"/>
       <c r="G129" s="18">
-        <v>45491</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B130" s="31"/>
-      <c r="D130" s="31"/>
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B130" s="25"/>
+      <c r="D130" s="25"/>
       <c r="E130">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="18">
-        <v>45492</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B131" s="31"/>
-      <c r="D131" s="31"/>
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B131" s="25"/>
+      <c r="D131" s="25"/>
       <c r="E131">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="18">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B132" s="31"/>
-      <c r="D132" s="31"/>
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B132" s="25"/>
+      <c r="D132" s="25"/>
       <c r="E132">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="18">
-        <v>45494</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B133" s="31"/>
-      <c r="D133" s="31"/>
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B133" s="25"/>
+      <c r="D133" s="25"/>
       <c r="E133">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="18">
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B134" s="31"/>
-      <c r="D134" s="31"/>
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B134" s="25"/>
+      <c r="D134" s="25"/>
       <c r="E134">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="18">
-        <v>45496</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B135" s="31"/>
-      <c r="D135" s="31"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B135" s="25"/>
+      <c r="D135" s="25"/>
       <c r="E135">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="18">
-        <v>45497</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136" s="31"/>
-      <c r="D136" s="31"/>
+        <v>45487</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B136" s="25"/>
+      <c r="D136" s="25"/>
       <c r="E136">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="18">
-        <v>45498</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B137" s="31"/>
-      <c r="D137" s="31"/>
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B137" s="25"/>
+      <c r="D137" s="25"/>
       <c r="E137">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="18">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138">
-        <v>157</v>
-      </c>
-      <c r="F138" s="5"/>
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B138" s="26"/>
+      <c r="C138" s="7">
+        <v>16</v>
+      </c>
+      <c r="D138" s="26"/>
+      <c r="E138" s="7">
+        <v>147</v>
+      </c>
+      <c r="F138" s="8"/>
       <c r="G138" s="18">
-        <v>45500</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139">
-        <v>158</v>
-      </c>
-      <c r="F139" s="5"/>
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B139" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" s="2">
+        <v>18</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="2">
+        <v>148</v>
+      </c>
+      <c r="F139" s="3"/>
       <c r="G139" s="18">
-        <v>45501</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B140" s="31"/>
-      <c r="D140" s="31"/>
+        <v>45491</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B140" s="22"/>
+      <c r="D140" s="22"/>
       <c r="E140">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="18">
-        <v>45502</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B141" s="31"/>
-      <c r="D141" s="31"/>
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B141" s="22"/>
+      <c r="D141" s="22"/>
       <c r="E141">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="18">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B142" s="31"/>
-      <c r="D142" s="31"/>
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B142" s="22"/>
+      <c r="D142" s="22"/>
       <c r="E142">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="18">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B143" s="32"/>
-      <c r="C143" s="7">
-        <v>30</v>
-      </c>
-      <c r="D143" s="32"/>
-      <c r="E143" s="7">
-        <v>162</v>
-      </c>
-      <c r="F143" s="8"/>
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B143" s="22"/>
+      <c r="D143" s="22"/>
+      <c r="E143">
+        <v>152</v>
+      </c>
+      <c r="F143" s="5"/>
       <c r="G143" s="18">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B144" s="1"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E144" s="2">
-        <v>163</v>
-      </c>
-      <c r="F144" s="3"/>
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144">
+        <v>153</v>
+      </c>
+      <c r="F144" s="5"/>
       <c r="G144" s="18">
-        <v>45506</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B145" s="4"/>
-      <c r="D145" s="31"/>
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B145" s="22"/>
+      <c r="D145" s="22"/>
       <c r="E145">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="18">
-        <v>45507</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B146" s="4"/>
-      <c r="D146" s="31"/>
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="22"/>
+      <c r="D146" s="22"/>
       <c r="E146">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="18">
-        <v>45508</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B147" s="4"/>
-      <c r="D147" s="31"/>
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B147" s="22"/>
+      <c r="D147" s="22"/>
       <c r="E147">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="18">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B148" s="4"/>
-      <c r="D148" s="31"/>
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B148" s="22"/>
+      <c r="D148" s="22"/>
       <c r="E148">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="18">
-        <v>45510</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B149" s="4"/>
-      <c r="D149" s="31"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B149" s="22"/>
+      <c r="D149" s="22"/>
       <c r="E149">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="18">
-        <v>45511</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B150" s="4"/>
-      <c r="D150" s="31"/>
+        <v>45501</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B150" s="22"/>
+      <c r="D150" s="22"/>
       <c r="E150">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="18">
-        <v>45512</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B151" s="4"/>
-      <c r="D151" s="31"/>
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B151" s="22"/>
+      <c r="D151" s="22"/>
       <c r="E151">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="18">
-        <v>45513</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B152" s="4"/>
-      <c r="D152" s="31"/>
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B152" s="22"/>
+      <c r="D152" s="22"/>
       <c r="E152">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="18">
-        <v>45514</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B153" s="4"/>
-      <c r="D153" s="31"/>
-      <c r="E153">
-        <v>172</v>
-      </c>
-      <c r="F153" s="5"/>
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B153" s="23"/>
+      <c r="C153" s="7">
+        <v>30</v>
+      </c>
+      <c r="D153" s="23"/>
+      <c r="E153" s="7">
+        <v>162</v>
+      </c>
+      <c r="F153" s="8"/>
       <c r="G153" s="18">
-        <v>45515</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B154" s="4"/>
-      <c r="D154" s="31"/>
-      <c r="E154">
-        <v>173</v>
-      </c>
-      <c r="F154" s="5"/>
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B154" s="1"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E154" s="2">
+        <v>163</v>
+      </c>
+      <c r="F154" s="3"/>
       <c r="G154" s="18">
-        <v>45516</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B155" s="6"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="7">
-        <v>174</v>
-      </c>
-      <c r="F155" s="8"/>
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B155" s="4"/>
+      <c r="D155" s="22"/>
+      <c r="E155">
+        <v>164</v>
+      </c>
+      <c r="F155" s="5"/>
       <c r="G155" s="18">
-        <v>45517</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B156" s="1"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E156" s="2">
-        <v>175</v>
-      </c>
-      <c r="F156" s="3"/>
+        <v>45507</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B156" s="4"/>
+      <c r="D156" s="22"/>
+      <c r="E156">
+        <v>165</v>
+      </c>
+      <c r="F156" s="5"/>
       <c r="G156" s="18">
-        <v>45518</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B157" s="4"/>
-      <c r="D157" s="37"/>
+      <c r="D157" s="22"/>
       <c r="E157">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="18">
-        <v>45519</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B158" s="4"/>
-      <c r="D158" s="37"/>
+      <c r="D158" s="22"/>
       <c r="E158">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="18">
-        <v>45520</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B159" s="4"/>
-      <c r="D159" s="37"/>
+      <c r="D159" s="22"/>
       <c r="E159">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="18">
-        <v>45521</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B160" s="4"/>
-      <c r="D160" s="37"/>
+      <c r="D160" s="22"/>
       <c r="E160">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="18">
-        <v>45522</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B161" s="4"/>
-      <c r="D161" s="37"/>
+      <c r="D161" s="22"/>
       <c r="E161">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="18">
-        <v>45523</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B162" s="4"/>
-      <c r="D162" s="37"/>
+      <c r="D162" s="22"/>
       <c r="E162">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="18">
-        <v>45524</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B163" s="6"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="38"/>
-      <c r="E163" s="7">
-        <v>182</v>
-      </c>
-      <c r="F163" s="8"/>
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B163" s="4"/>
+      <c r="D163" s="22"/>
+      <c r="E163">
+        <v>172</v>
+      </c>
+      <c r="F163" s="5"/>
       <c r="G163" s="18">
-        <v>45525</v>
+        <v>45515</v>
       </c>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B164" s="1"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E164" s="2">
-        <v>183</v>
-      </c>
-      <c r="F164" s="3"/>
+      <c r="B164" s="4"/>
+      <c r="D164" s="22"/>
+      <c r="E164">
+        <v>173</v>
+      </c>
+      <c r="F164" s="5"/>
       <c r="G164" s="18">
-        <v>45526</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B165" s="4"/>
-      <c r="D165" s="28"/>
-      <c r="E165">
-        <v>184</v>
-      </c>
-      <c r="F165" s="5"/>
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B165" s="6"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="7">
+        <v>174</v>
+      </c>
+      <c r="F165" s="8"/>
       <c r="G165" s="18">
-        <v>45527</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B166" s="4"/>
-      <c r="D166" s="28"/>
-      <c r="E166">
-        <v>185</v>
-      </c>
-      <c r="F166" s="5"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E166" s="2">
+        <v>175</v>
+      </c>
+      <c r="F166" s="3"/>
       <c r="G166" s="18">
-        <v>45528</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B167" s="4"/>
-      <c r="D167" s="28"/>
+      <c r="D167" s="40"/>
       <c r="E167">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="18">
-        <v>45529</v>
+        <v>45519</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B168" s="4"/>
-      <c r="D168" s="28"/>
+      <c r="D168" s="40"/>
       <c r="E168">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="18">
-        <v>45530</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B169" s="4"/>
-      <c r="D169" s="28"/>
+      <c r="D169" s="40"/>
       <c r="E169">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="18">
-        <v>45531</v>
+        <v>45521</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B170" s="4"/>
-      <c r="D170" s="28"/>
+      <c r="D170" s="40"/>
       <c r="E170">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="18">
-        <v>45532</v>
+        <v>45522</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B171" s="4"/>
-      <c r="D171" s="28"/>
+      <c r="D171" s="40"/>
       <c r="E171">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="18">
-        <v>45533</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B172" s="4"/>
-      <c r="D172" s="28"/>
+      <c r="D172" s="40"/>
       <c r="E172">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="18">
-        <v>45534</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B173" s="4"/>
-      <c r="D173" s="28"/>
-      <c r="E173">
-        <v>192</v>
-      </c>
-      <c r="F173" s="5"/>
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B173" s="6"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="7">
+        <v>182</v>
+      </c>
+      <c r="F173" s="8"/>
       <c r="G173" s="18">
-        <v>45535</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B174" s="4"/>
-      <c r="D174" s="28"/>
-      <c r="E174">
-        <v>193</v>
-      </c>
-      <c r="F174" s="5"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" s="2">
+        <v>183</v>
+      </c>
+      <c r="F174" s="3"/>
       <c r="G174" s="18">
-        <v>45536</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B175" s="4"/>
-      <c r="D175" s="28"/>
+      <c r="D175" s="31"/>
       <c r="E175">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="18">
-        <v>45537</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B176" s="6"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="7">
-        <v>195</v>
-      </c>
-      <c r="F176" s="8"/>
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B176" s="4"/>
+      <c r="D176" s="31"/>
+      <c r="E176">
+        <v>185</v>
+      </c>
+      <c r="F176" s="5"/>
       <c r="G176" s="18">
-        <v>45538</v>
+        <v>45528</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B177" s="1"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E177" s="2">
-        <v>196</v>
-      </c>
-      <c r="F177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="D177" s="31"/>
+      <c r="E177">
+        <v>186</v>
+      </c>
+      <c r="F177" s="5"/>
       <c r="G177" s="18">
-        <v>45539</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B178" s="4"/>
       <c r="D178" s="31"/>
       <c r="E178">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="18">
-        <v>45540</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B179" s="4"/>
       <c r="D179" s="31"/>
       <c r="E179">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="18">
-        <v>45541</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B180" s="4"/>
       <c r="D180" s="31"/>
       <c r="E180">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="18">
-        <v>45542</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B181" s="4"/>
       <c r="D181" s="31"/>
       <c r="E181">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="18">
-        <v>45543</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B182" s="4"/>
       <c r="D182" s="31"/>
       <c r="E182">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="18">
-        <v>45544</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B183" s="4"/>
       <c r="D183" s="31"/>
       <c r="E183">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="18">
-        <v>45545</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B184" s="4"/>
       <c r="D184" s="31"/>
       <c r="E184">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="18">
-        <v>45546</v>
+        <v>45536</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B185" s="4"/>
       <c r="D185" s="31"/>
       <c r="E185">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="18">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B186" s="4"/>
-      <c r="D186" s="31"/>
-      <c r="E186">
-        <v>205</v>
-      </c>
-      <c r="F186" s="5"/>
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B186" s="6"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="7">
+        <v>195</v>
+      </c>
+      <c r="F186" s="8"/>
       <c r="G186" s="18">
-        <v>45548</v>
+        <v>45538</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B187" s="4"/>
-      <c r="D187" s="31"/>
-      <c r="E187">
-        <v>206</v>
-      </c>
-      <c r="F187" s="5"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E187" s="2">
+        <v>196</v>
+      </c>
+      <c r="F187" s="3"/>
       <c r="G187" s="18">
-        <v>45549</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B188" s="4"/>
-      <c r="D188" s="31"/>
+      <c r="D188" s="22"/>
       <c r="E188">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="18">
-        <v>45550</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B189" s="4"/>
-      <c r="D189" s="31"/>
+      <c r="D189" s="22"/>
       <c r="E189">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="18">
-        <v>45551</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B190" s="4"/>
-      <c r="D190" s="31"/>
+      <c r="D190" s="22"/>
       <c r="E190">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="18">
-        <v>45552</v>
+        <v>45542</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B191" s="4"/>
-      <c r="D191" s="31"/>
+      <c r="D191" s="22"/>
       <c r="E191">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="18">
-        <v>45553</v>
+        <v>45543</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B192" s="4"/>
-      <c r="D192" s="31"/>
+      <c r="D192" s="22"/>
       <c r="E192">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="18">
-        <v>45554</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B193" s="4"/>
-      <c r="D193" s="31"/>
+      <c r="D193" s="22"/>
       <c r="E193">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="18">
-        <v>45555</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B194" s="4"/>
-      <c r="D194" s="31"/>
+      <c r="D194" s="22"/>
       <c r="E194">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="18">
-        <v>45556</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B195" s="4"/>
-      <c r="D195" s="31"/>
+      <c r="D195" s="22"/>
       <c r="E195">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="18">
-        <v>45557</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B196" s="4"/>
-      <c r="D196" s="31"/>
+      <c r="D196" s="22"/>
       <c r="E196">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="18">
-        <v>45558</v>
+        <v>45548</v>
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B197" s="4"/>
-      <c r="D197" s="31"/>
+      <c r="D197" s="22"/>
       <c r="E197">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="18">
-        <v>45559</v>
+        <v>45549</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B198" s="4"/>
-      <c r="D198" s="31"/>
+      <c r="D198" s="22"/>
       <c r="E198">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="18">
-        <v>45560</v>
+        <v>45550</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B199" s="4"/>
-      <c r="D199" s="31"/>
+      <c r="D199" s="22"/>
       <c r="E199">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F199" s="5"/>
       <c r="G199" s="18">
-        <v>45561</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B200" s="4"/>
-      <c r="D200" s="31"/>
+      <c r="D200" s="22"/>
       <c r="E200">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="18">
-        <v>45562</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B201" s="4"/>
-      <c r="D201" s="31"/>
+      <c r="D201" s="22"/>
       <c r="E201">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F201" s="5"/>
       <c r="G201" s="18">
-        <v>45563</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B202" s="4"/>
-      <c r="D202" s="31"/>
+      <c r="D202" s="22"/>
       <c r="E202">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="18">
-        <v>45564</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B203" s="4"/>
-      <c r="D203" s="31"/>
+      <c r="D203" s="22"/>
       <c r="E203">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="18">
-        <v>45565</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B204" s="4"/>
-      <c r="D204" s="31"/>
+      <c r="D204" s="22"/>
       <c r="E204">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="18">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B205" s="6"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="32"/>
-      <c r="E205" s="7">
-        <v>224</v>
-      </c>
-      <c r="F205" s="8"/>
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B205" s="4"/>
+      <c r="D205" s="22"/>
+      <c r="E205">
+        <v>214</v>
+      </c>
+      <c r="F205" s="5"/>
       <c r="G205" s="18">
-        <v>45567</v>
+        <v>45557</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B206" s="1"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E206" s="2">
-        <v>225</v>
-      </c>
-      <c r="F206" s="3"/>
+      <c r="B206" s="4"/>
+      <c r="D206" s="22"/>
+      <c r="E206">
+        <v>215</v>
+      </c>
+      <c r="F206" s="5"/>
       <c r="G206" s="18">
-        <v>45568</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B207" s="4"/>
-      <c r="D207" s="31"/>
+      <c r="D207" s="22"/>
       <c r="E207">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="18">
-        <v>45569</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B208" s="4"/>
-      <c r="D208" s="31"/>
+      <c r="D208" s="22"/>
       <c r="E208">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="18">
-        <v>45570</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B209" s="4"/>
-      <c r="D209" s="31"/>
+      <c r="D209" s="22"/>
       <c r="E209">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="18">
-        <v>45571</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B210" s="4"/>
-      <c r="D210" s="31"/>
+      <c r="D210" s="22"/>
       <c r="E210">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="18">
-        <v>45572</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B211" s="4"/>
-      <c r="D211" s="31"/>
+      <c r="D211" s="22"/>
       <c r="E211">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="18">
-        <v>45573</v>
+        <v>45563</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B212" s="4"/>
-      <c r="D212" s="31"/>
+      <c r="D212" s="22"/>
       <c r="E212">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="18">
-        <v>45574</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B213" s="4"/>
-      <c r="D213" s="31"/>
+      <c r="D213" s="22"/>
       <c r="E213">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="18">
-        <v>45575</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B214" s="4"/>
-      <c r="D214" s="31"/>
+      <c r="D214" s="22"/>
       <c r="E214">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F214" s="5"/>
       <c r="G214" s="18">
-        <v>45576</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B215" s="4"/>
-      <c r="D215" s="31"/>
-      <c r="E215">
-        <v>234</v>
-      </c>
-      <c r="F215" s="5"/>
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B215" s="6"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="7">
+        <v>224</v>
+      </c>
+      <c r="F215" s="8"/>
       <c r="G215" s="18">
-        <v>45577</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B216" s="4"/>
-      <c r="D216" s="31"/>
-      <c r="E216">
-        <v>235</v>
-      </c>
-      <c r="F216" s="5"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E216" s="2">
+        <v>225</v>
+      </c>
+      <c r="F216" s="3"/>
       <c r="G216" s="18">
-        <v>45578</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B217" s="4"/>
-      <c r="D217" s="31"/>
+      <c r="D217" s="22"/>
       <c r="E217">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="18">
-        <v>45579</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B218" s="4"/>
-      <c r="D218" s="31"/>
+      <c r="D218" s="22"/>
       <c r="E218">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="18">
-        <v>45580</v>
+        <v>45570</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B219" s="4"/>
-      <c r="D219" s="31"/>
+      <c r="D219" s="22"/>
       <c r="E219">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="18">
-        <v>45581</v>
+        <v>45571</v>
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B220" s="4"/>
-      <c r="D220" s="31"/>
+      <c r="D220" s="22"/>
       <c r="E220">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="18">
-        <v>45582</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B221" s="4"/>
-      <c r="D221" s="31"/>
+      <c r="D221" s="22"/>
       <c r="E221">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="18">
-        <v>45583</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B222" s="4"/>
-      <c r="D222" s="31"/>
+      <c r="D222" s="22"/>
       <c r="E222">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="18">
-        <v>45584</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B223" s="4"/>
-      <c r="D223" s="31"/>
+      <c r="D223" s="22"/>
       <c r="E223">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="18">
-        <v>45585</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B224" s="4"/>
-      <c r="D224" s="31"/>
+      <c r="D224" s="22"/>
       <c r="E224">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="18">
-        <v>45586</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B225" s="4"/>
-      <c r="D225" s="31"/>
+      <c r="D225" s="22"/>
       <c r="E225">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="18">
-        <v>45587</v>
+        <v>45577</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B226" s="4"/>
-      <c r="D226" s="31"/>
+      <c r="D226" s="22"/>
       <c r="E226">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="18">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="227" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B227" s="6"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="32"/>
-      <c r="E227" s="7">
-        <v>246</v>
-      </c>
-      <c r="F227" s="8"/>
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B227" s="4"/>
+      <c r="D227" s="22"/>
+      <c r="E227">
+        <v>236</v>
+      </c>
+      <c r="F227" s="5"/>
       <c r="G227" s="18">
-        <v>45589</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B228" s="1"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E228" s="2">
-        <v>247</v>
-      </c>
-      <c r="F228" s="3"/>
+      <c r="B228" s="4"/>
+      <c r="D228" s="22"/>
+      <c r="E228">
+        <v>237</v>
+      </c>
+      <c r="F228" s="5"/>
       <c r="G228" s="18">
-        <v>45590</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B229" s="4"/>
-      <c r="D229" s="31"/>
+      <c r="D229" s="22"/>
       <c r="E229">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F229" s="5"/>
       <c r="G229" s="18">
-        <v>45591</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B230" s="4"/>
-      <c r="D230" s="31"/>
+      <c r="D230" s="22"/>
       <c r="E230">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="18">
-        <v>45592</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B231" s="4"/>
-      <c r="D231" s="31"/>
+      <c r="D231" s="22"/>
       <c r="E231">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="18">
-        <v>45593</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B232" s="4"/>
-      <c r="D232" s="31"/>
+      <c r="D232" s="22"/>
       <c r="E232">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="18">
-        <v>45594</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B233" s="4"/>
-      <c r="D233" s="31"/>
+      <c r="D233" s="22"/>
       <c r="E233">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="18">
-        <v>45595</v>
+        <v>45585</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B234" s="4"/>
-      <c r="D234" s="31"/>
+      <c r="D234" s="22"/>
       <c r="E234">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="18">
-        <v>45596</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B235" s="4"/>
-      <c r="D235" s="31"/>
+      <c r="D235" s="22"/>
       <c r="E235">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="18">
-        <v>45597</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B236" s="4"/>
-      <c r="D236" s="31"/>
+      <c r="D236" s="22"/>
       <c r="E236">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="18">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B237" s="4"/>
-      <c r="D237" s="31"/>
-      <c r="E237">
-        <v>256</v>
-      </c>
-      <c r="F237" s="5"/>
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B237" s="6"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="7">
+        <v>246</v>
+      </c>
+      <c r="F237" s="8"/>
       <c r="G237" s="18">
-        <v>45599</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B238" s="4"/>
-      <c r="D238" s="31"/>
-      <c r="E238">
-        <v>257</v>
-      </c>
-      <c r="F238" s="5"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E238" s="2">
+        <v>247</v>
+      </c>
+      <c r="F238" s="3"/>
       <c r="G238" s="18">
-        <v>45600</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B239" s="4"/>
-      <c r="D239" s="31"/>
+      <c r="D239" s="22"/>
       <c r="E239">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="18">
-        <v>45601</v>
+        <v>45591</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B240" s="4"/>
-      <c r="D240" s="31"/>
+      <c r="D240" s="22"/>
       <c r="E240">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="18">
-        <v>45602</v>
+        <v>45592</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B241" s="4"/>
-      <c r="D241" s="31"/>
+      <c r="D241" s="22"/>
       <c r="E241">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="18">
-        <v>45603</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B242" s="4"/>
-      <c r="D242" s="31"/>
+      <c r="D242" s="22"/>
       <c r="E242">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="18">
-        <v>45604</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B243" s="4"/>
-      <c r="D243" s="31"/>
+      <c r="D243" s="22"/>
       <c r="E243">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="18">
-        <v>45605</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B244" s="4"/>
-      <c r="D244" s="31"/>
+      <c r="D244" s="22"/>
       <c r="E244">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="18">
-        <v>45606</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B245" s="4"/>
-      <c r="D245" s="31"/>
+      <c r="D245" s="22"/>
       <c r="E245">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="18">
-        <v>45607</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B246" s="4"/>
-      <c r="D246" s="31"/>
+      <c r="D246" s="22"/>
       <c r="E246">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="18">
-        <v>45608</v>
-      </c>
-    </row>
-    <row r="247" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B247" s="6"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="32"/>
-      <c r="E247" s="7">
-        <v>266</v>
-      </c>
-      <c r="F247" s="8"/>
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B247" s="4"/>
+      <c r="D247" s="22"/>
+      <c r="E247">
+        <v>256</v>
+      </c>
+      <c r="F247" s="5"/>
       <c r="G247" s="18">
-        <v>45609</v>
+        <v>45599</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B248" s="1"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E248" s="2">
-        <v>267</v>
-      </c>
-      <c r="F248" s="3"/>
+      <c r="B248" s="4"/>
+      <c r="D248" s="22"/>
+      <c r="E248">
+        <v>257</v>
+      </c>
+      <c r="F248" s="5"/>
       <c r="G248" s="18">
-        <v>45610</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B249" s="4"/>
-      <c r="D249" s="25"/>
+      <c r="D249" s="22"/>
       <c r="E249">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="18">
-        <v>45611</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B250" s="4"/>
-      <c r="D250" s="25"/>
+      <c r="D250" s="22"/>
       <c r="E250">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F250" s="5"/>
       <c r="G250" s="18">
-        <v>45612</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B251" s="4"/>
-      <c r="D251" s="25"/>
+      <c r="D251" s="22"/>
       <c r="E251">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F251" s="5"/>
       <c r="G251" s="18">
-        <v>45613</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B252" s="4"/>
-      <c r="D252" s="25"/>
+      <c r="D252" s="22"/>
       <c r="E252">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="18">
-        <v>45614</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B253" s="4"/>
-      <c r="D253" s="25"/>
+      <c r="D253" s="22"/>
       <c r="E253">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F253" s="5"/>
       <c r="G253" s="18">
-        <v>45615</v>
+        <v>45605</v>
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B254" s="4"/>
-      <c r="D254" s="25"/>
+      <c r="D254" s="22"/>
       <c r="E254">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F254" s="5"/>
       <c r="G254" s="18">
-        <v>45616</v>
+        <v>45606</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B255" s="4"/>
-      <c r="D255" s="25"/>
+      <c r="D255" s="22"/>
       <c r="E255">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F255" s="5"/>
       <c r="G255" s="18">
-        <v>45617</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B256" s="4"/>
-      <c r="D256" s="25"/>
+      <c r="D256" s="22"/>
       <c r="E256">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F256" s="5"/>
       <c r="G256" s="18">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B257" s="4"/>
-      <c r="D257" s="25"/>
-      <c r="E257">
-        <v>276</v>
-      </c>
-      <c r="F257" s="5"/>
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B257" s="6"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="23"/>
+      <c r="E257" s="7">
+        <v>266</v>
+      </c>
+      <c r="F257" s="8"/>
       <c r="G257" s="18">
-        <v>45619</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B258" s="4"/>
-      <c r="D258" s="25"/>
-      <c r="E258">
-        <v>277</v>
-      </c>
-      <c r="F258" s="5"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E258" s="2">
+        <v>267</v>
+      </c>
+      <c r="F258" s="3"/>
       <c r="G258" s="18">
-        <v>45620</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B259" s="4"/>
-      <c r="D259" s="25"/>
+      <c r="D259" s="28"/>
       <c r="E259">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F259" s="5"/>
       <c r="G259" s="18">
-        <v>45621</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B260" s="4"/>
-      <c r="D260" s="25"/>
+      <c r="D260" s="28"/>
       <c r="E260">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F260" s="5"/>
       <c r="G260" s="18">
-        <v>45622</v>
+        <v>45612</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B261" s="4"/>
-      <c r="D261" s="25"/>
+      <c r="D261" s="28"/>
       <c r="E261">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="18">
-        <v>45623</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B262" s="4"/>
-      <c r="D262" s="25"/>
+      <c r="D262" s="28"/>
       <c r="E262">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F262" s="5"/>
       <c r="G262" s="18">
-        <v>45624</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B263" s="4"/>
-      <c r="D263" s="25"/>
+      <c r="D263" s="28"/>
       <c r="E263">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F263" s="5"/>
       <c r="G263" s="18">
-        <v>45625</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B264" s="4"/>
-      <c r="D264" s="25"/>
+      <c r="D264" s="28"/>
       <c r="E264">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="18">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="265" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B265" s="6"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="26"/>
-      <c r="E265" s="7">
-        <v>284</v>
-      </c>
-      <c r="F265" s="8"/>
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B265" s="4"/>
+      <c r="D265" s="28"/>
+      <c r="E265">
+        <v>274</v>
+      </c>
+      <c r="F265" s="5"/>
       <c r="G265" s="18">
-        <v>45627</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B266" s="1"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E266" s="2">
-        <v>285</v>
-      </c>
-      <c r="F266" s="3"/>
+      <c r="B266" s="4"/>
+      <c r="D266" s="28"/>
+      <c r="E266">
+        <v>275</v>
+      </c>
+      <c r="F266" s="5"/>
       <c r="G266" s="18">
-        <v>45628</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B267" s="4"/>
       <c r="D267" s="28"/>
       <c r="E267">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F267" s="5"/>
       <c r="G267" s="18">
-        <v>45629</v>
+        <v>45619</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B268" s="4"/>
       <c r="D268" s="28"/>
       <c r="E268">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F268" s="5"/>
       <c r="G268" s="18">
-        <v>45630</v>
+        <v>45620</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B269" s="4"/>
       <c r="D269" s="28"/>
       <c r="E269">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F269" s="5"/>
       <c r="G269" s="18">
-        <v>45631</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B270" s="4"/>
       <c r="D270" s="28"/>
       <c r="E270">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F270" s="5"/>
       <c r="G270" s="18">
-        <v>45632</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B271" s="4"/>
       <c r="D271" s="28"/>
       <c r="E271">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F271" s="5"/>
       <c r="G271" s="18">
-        <v>45633</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B272" s="4"/>
       <c r="D272" s="28"/>
       <c r="E272">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F272" s="5"/>
       <c r="G272" s="18">
-        <v>45634</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B273" s="4"/>
       <c r="D273" s="28"/>
       <c r="E273">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="18">
-        <v>45635</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B274" s="4"/>
       <c r="D274" s="28"/>
       <c r="E274">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="18">
-        <v>45636</v>
+        <v>45626</v>
       </c>
     </row>
     <row r="275" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4163,2277 +4232,2391 @@
       <c r="C275" s="7"/>
       <c r="D275" s="29"/>
       <c r="E275" s="7">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F275" s="8"/>
       <c r="G275" s="18">
-        <v>45637</v>
+        <v>45627</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B276" s="1"/>
       <c r="C276" s="2"/>
       <c r="D276" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E276" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F276" s="3"/>
       <c r="G276" s="18">
-        <v>45638</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B277" s="4"/>
       <c r="D277" s="31"/>
       <c r="E277">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F277" s="5"/>
       <c r="G277" s="18">
-        <v>45639</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B278" s="4"/>
       <c r="D278" s="31"/>
       <c r="E278">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F278" s="5"/>
       <c r="G278" s="18">
-        <v>45640</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B279" s="4"/>
       <c r="D279" s="31"/>
       <c r="E279">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F279" s="5"/>
       <c r="G279" s="18">
-        <v>45641</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B280" s="4"/>
       <c r="D280" s="31"/>
       <c r="E280">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F280" s="5"/>
       <c r="G280" s="18">
-        <v>45642</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B281" s="4"/>
       <c r="D281" s="31"/>
       <c r="E281">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F281" s="5"/>
       <c r="G281" s="18">
-        <v>45643</v>
+        <v>45633</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B282" s="4"/>
       <c r="D282" s="31"/>
       <c r="E282">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F282" s="5"/>
       <c r="G282" s="18">
-        <v>45644</v>
+        <v>45634</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B283" s="4"/>
       <c r="D283" s="31"/>
       <c r="E283">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F283" s="5"/>
       <c r="G283" s="18">
-        <v>45645</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B284" s="4"/>
       <c r="D284" s="31"/>
       <c r="E284">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F284" s="5"/>
       <c r="G284" s="18">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B285" s="4"/>
-      <c r="D285" s="31"/>
-      <c r="E285">
-        <v>304</v>
-      </c>
-      <c r="F285" s="5"/>
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B285" s="6"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="32"/>
+      <c r="E285" s="7">
+        <v>294</v>
+      </c>
+      <c r="F285" s="8"/>
       <c r="G285" s="18">
-        <v>45647</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B286" s="4"/>
-      <c r="D286" s="31"/>
-      <c r="E286">
-        <v>305</v>
-      </c>
-      <c r="F286" s="5"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E286" s="2">
+        <v>295</v>
+      </c>
+      <c r="F286" s="3"/>
       <c r="G286" s="18">
-        <v>45648</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B287" s="4"/>
-      <c r="D287" s="31"/>
+      <c r="D287" s="22"/>
       <c r="E287">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F287" s="5"/>
       <c r="G287" s="18">
-        <v>45649</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B288" s="4"/>
-      <c r="D288" s="31"/>
+      <c r="D288" s="22"/>
       <c r="E288">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F288" s="5"/>
       <c r="G288" s="18">
-        <v>45650</v>
+        <v>45640</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B289" s="4"/>
-      <c r="D289" s="31"/>
+      <c r="D289" s="22"/>
       <c r="E289">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F289" s="5"/>
       <c r="G289" s="18">
-        <v>45651</v>
+        <v>45641</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B290" s="4"/>
-      <c r="D290" s="31"/>
+      <c r="D290" s="22"/>
       <c r="E290">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F290" s="5"/>
       <c r="G290" s="18">
-        <v>45652</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B291" s="4"/>
-      <c r="D291" s="31"/>
+      <c r="D291" s="22"/>
       <c r="E291">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F291" s="5"/>
       <c r="G291" s="18">
-        <v>45653</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B292" s="4"/>
-      <c r="D292" s="31"/>
+      <c r="D292" s="22"/>
       <c r="E292">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F292" s="5"/>
       <c r="G292" s="18">
-        <v>45654</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B293" s="4"/>
-      <c r="D293" s="31"/>
+      <c r="D293" s="22"/>
       <c r="E293">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F293" s="5"/>
       <c r="G293" s="18">
-        <v>45655</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B294" s="4"/>
-      <c r="D294" s="31"/>
+      <c r="D294" s="22"/>
       <c r="E294">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F294" s="5"/>
       <c r="G294" s="18">
-        <v>45656</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B295" s="4"/>
-      <c r="D295" s="31"/>
+      <c r="D295" s="22"/>
       <c r="E295">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="18">
-        <v>45657</v>
+        <v>45647</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B296" s="4"/>
-      <c r="D296" s="31"/>
+      <c r="D296" s="22"/>
       <c r="E296">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="18">
-        <v>45658</v>
+        <v>45648</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B297" s="4"/>
-      <c r="D297" s="31"/>
+      <c r="D297" s="22"/>
       <c r="E297">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F297" s="5"/>
       <c r="G297" s="18">
-        <v>45659</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B298" s="4"/>
-      <c r="D298" s="31"/>
+      <c r="D298" s="22"/>
       <c r="E298">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F298" s="5"/>
       <c r="G298" s="18">
-        <v>45660</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B299" s="4"/>
-      <c r="D299" s="31"/>
+      <c r="D299" s="22"/>
       <c r="E299">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F299" s="5"/>
       <c r="G299" s="18">
-        <v>45661</v>
-      </c>
-    </row>
-    <row r="300" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B300" s="6"/>
-      <c r="C300" s="7"/>
-      <c r="D300" s="32"/>
-      <c r="E300" s="7">
-        <v>319</v>
-      </c>
-      <c r="F300" s="8"/>
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B300" s="4"/>
+      <c r="D300" s="22"/>
+      <c r="E300">
+        <v>309</v>
+      </c>
+      <c r="F300" s="5"/>
       <c r="G300" s="18">
-        <v>45662</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B301" s="1"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E301" s="2">
-        <v>320</v>
-      </c>
-      <c r="F301" s="3"/>
+      <c r="B301" s="4"/>
+      <c r="D301" s="22"/>
+      <c r="E301">
+        <v>310</v>
+      </c>
+      <c r="F301" s="5"/>
       <c r="G301" s="18">
-        <v>45663</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B302" s="4"/>
-      <c r="D302" s="31"/>
+      <c r="D302" s="22"/>
       <c r="E302">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F302" s="5"/>
       <c r="G302" s="18">
-        <v>45664</v>
+        <v>45654</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B303" s="4"/>
-      <c r="D303" s="31"/>
+      <c r="D303" s="22"/>
       <c r="E303">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F303" s="5"/>
       <c r="G303" s="18">
-        <v>45665</v>
+        <v>45655</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B304" s="4"/>
-      <c r="D304" s="31"/>
+      <c r="D304" s="22"/>
       <c r="E304">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F304" s="5"/>
       <c r="G304" s="18">
-        <v>45666</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B305" s="4"/>
-      <c r="D305" s="31"/>
+      <c r="D305" s="22"/>
       <c r="E305">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F305" s="5"/>
       <c r="G305" s="18">
-        <v>45667</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B306" s="4"/>
-      <c r="D306" s="31"/>
+      <c r="D306" s="22"/>
       <c r="E306">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F306" s="5"/>
       <c r="G306" s="18">
-        <v>45668</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B307" s="4"/>
-      <c r="D307" s="31"/>
+      <c r="D307" s="22"/>
       <c r="E307">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F307" s="5"/>
       <c r="G307" s="18">
-        <v>45669</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B308" s="4"/>
-      <c r="D308" s="31"/>
+      <c r="D308" s="22"/>
       <c r="E308">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F308" s="5"/>
       <c r="G308" s="18">
-        <v>45670</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B309" s="4"/>
-      <c r="D309" s="31"/>
+      <c r="D309" s="22"/>
       <c r="E309">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F309" s="5"/>
       <c r="G309" s="18">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B310" s="4"/>
-      <c r="D310" s="31"/>
-      <c r="E310">
-        <v>329</v>
-      </c>
-      <c r="F310" s="5"/>
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B310" s="6"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="23"/>
+      <c r="E310" s="7">
+        <v>319</v>
+      </c>
+      <c r="F310" s="8"/>
       <c r="G310" s="18">
-        <v>45672</v>
+        <v>45662</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B311" s="4"/>
-      <c r="D311" s="31"/>
-      <c r="E311">
-        <v>330</v>
-      </c>
-      <c r="F311" s="5"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E311" s="2">
+        <v>320</v>
+      </c>
+      <c r="F311" s="3"/>
       <c r="G311" s="18">
-        <v>45673</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B312" s="4"/>
-      <c r="D312" s="31"/>
+      <c r="D312" s="22"/>
       <c r="E312">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F312" s="5"/>
       <c r="G312" s="18">
-        <v>45674</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B313" s="4"/>
-      <c r="D313" s="31"/>
+      <c r="D313" s="22"/>
       <c r="E313">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F313" s="5"/>
       <c r="G313" s="18">
-        <v>45675</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B314" s="4"/>
-      <c r="D314" s="31"/>
+      <c r="D314" s="22"/>
       <c r="E314">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="18">
-        <v>45676</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B315" s="4"/>
-      <c r="D315" s="31"/>
+      <c r="D315" s="22"/>
       <c r="E315">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F315" s="5"/>
       <c r="G315" s="18">
-        <v>45677</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B316" s="4"/>
-      <c r="D316" s="31"/>
+      <c r="D316" s="22"/>
       <c r="E316">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F316" s="5"/>
       <c r="G316" s="18">
-        <v>45678</v>
+        <v>45668</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B317" s="4"/>
-      <c r="D317" s="31"/>
+      <c r="D317" s="22"/>
       <c r="E317">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F317" s="5"/>
       <c r="G317" s="18">
-        <v>45679</v>
+        <v>45669</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B318" s="4"/>
-      <c r="D318" s="31"/>
+      <c r="D318" s="22"/>
       <c r="E318">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F318" s="5"/>
       <c r="G318" s="18">
-        <v>45680</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B319" s="4"/>
-      <c r="D319" s="31"/>
+      <c r="D319" s="22"/>
       <c r="E319">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F319" s="5"/>
       <c r="G319" s="18">
-        <v>45681</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B320" s="4"/>
-      <c r="D320" s="31"/>
+      <c r="D320" s="22"/>
       <c r="E320">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F320" s="5"/>
       <c r="G320" s="18">
-        <v>45682</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B321" s="4"/>
-      <c r="D321" s="31"/>
+      <c r="D321" s="22"/>
       <c r="E321">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F321" s="5"/>
       <c r="G321" s="18">
-        <v>45683</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B322" s="4"/>
-      <c r="D322" s="31"/>
+      <c r="D322" s="22"/>
       <c r="E322">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="18">
-        <v>45684</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B323" s="4"/>
-      <c r="D323" s="31"/>
+      <c r="D323" s="22"/>
       <c r="E323">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="18">
-        <v>45685</v>
+        <v>45675</v>
       </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B324" s="4"/>
-      <c r="D324" s="31"/>
+      <c r="D324" s="22"/>
       <c r="E324">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F324" s="5"/>
       <c r="G324" s="18">
-        <v>45686</v>
+        <v>45676</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B325" s="4"/>
-      <c r="D325" s="31"/>
+      <c r="D325" s="22"/>
       <c r="E325">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="18">
-        <v>45687</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B326" s="4"/>
-      <c r="D326" s="31"/>
+      <c r="D326" s="22"/>
       <c r="E326">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="18">
-        <v>45688</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B327" s="4"/>
-      <c r="D327" s="31"/>
+      <c r="D327" s="22"/>
       <c r="E327">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F327" s="5"/>
       <c r="G327" s="18">
-        <v>45689</v>
+        <v>45679</v>
       </c>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B328" s="4"/>
-      <c r="D328" s="31"/>
+      <c r="D328" s="22"/>
       <c r="E328">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F328" s="5"/>
       <c r="G328" s="18">
-        <v>45690</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B329" s="4"/>
-      <c r="D329" s="31"/>
+      <c r="D329" s="22"/>
       <c r="E329">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F329" s="5"/>
       <c r="G329" s="18">
-        <v>45691</v>
-      </c>
-    </row>
-    <row r="330" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B330" s="6"/>
-      <c r="C330" s="7"/>
-      <c r="D330" s="32"/>
-      <c r="E330" s="7">
-        <v>349</v>
-      </c>
-      <c r="F330" s="8"/>
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B330" s="4"/>
+      <c r="D330" s="22"/>
+      <c r="E330">
+        <v>339</v>
+      </c>
+      <c r="F330" s="5"/>
       <c r="G330" s="18">
-        <v>45692</v>
+        <v>45682</v>
       </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B331" s="1"/>
-      <c r="C331" s="2"/>
-      <c r="D331" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E331" s="2">
-        <v>350</v>
-      </c>
-      <c r="F331" s="3"/>
+      <c r="B331" s="4"/>
+      <c r="D331" s="22"/>
+      <c r="E331">
+        <v>340</v>
+      </c>
+      <c r="F331" s="5"/>
       <c r="G331" s="18">
-        <v>45693</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B332" s="4"/>
-      <c r="D332" s="28"/>
+      <c r="D332" s="22"/>
       <c r="E332">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F332" s="5"/>
       <c r="G332" s="18">
-        <v>45694</v>
+        <v>45684</v>
       </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B333" s="4"/>
-      <c r="D333" s="28"/>
+      <c r="D333" s="22"/>
       <c r="E333">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="18">
-        <v>45695</v>
+        <v>45685</v>
       </c>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B334" s="4"/>
-      <c r="D334" s="28"/>
+      <c r="D334" s="22"/>
       <c r="E334">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F334" s="5"/>
       <c r="G334" s="18">
-        <v>45696</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B335" s="4"/>
-      <c r="D335" s="28"/>
+      <c r="D335" s="22"/>
       <c r="E335">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F335" s="5"/>
       <c r="G335" s="18">
-        <v>45697</v>
+        <v>45687</v>
       </c>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B336" s="4"/>
-      <c r="D336" s="28"/>
+      <c r="D336" s="22"/>
       <c r="E336">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="18">
-        <v>45698</v>
+        <v>45688</v>
       </c>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B337" s="4"/>
-      <c r="D337" s="28"/>
+      <c r="D337" s="22"/>
       <c r="E337">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F337" s="5"/>
       <c r="G337" s="18">
-        <v>45699</v>
+        <v>45689</v>
       </c>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B338" s="4"/>
-      <c r="D338" s="28"/>
+      <c r="D338" s="22"/>
       <c r="E338">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="18">
-        <v>45700</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B339" s="4"/>
-      <c r="D339" s="28"/>
+      <c r="D339" s="22"/>
       <c r="E339">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F339" s="5"/>
       <c r="G339" s="18">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B340" s="4"/>
-      <c r="D340" s="28"/>
-      <c r="E340">
-        <v>359</v>
-      </c>
-      <c r="F340" s="5"/>
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B340" s="6"/>
+      <c r="C340" s="7"/>
+      <c r="D340" s="23"/>
+      <c r="E340" s="7">
+        <v>349</v>
+      </c>
+      <c r="F340" s="8"/>
       <c r="G340" s="18">
-        <v>45702</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B341" s="4"/>
-      <c r="D341" s="28"/>
-      <c r="E341">
-        <v>360</v>
-      </c>
-      <c r="F341" s="5"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E341" s="2">
+        <v>350</v>
+      </c>
+      <c r="F341" s="3"/>
       <c r="G341" s="18">
-        <v>45703</v>
-      </c>
-    </row>
-    <row r="342" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B342" s="6"/>
-      <c r="C342" s="7"/>
-      <c r="D342" s="29"/>
-      <c r="E342" s="7">
-        <v>361</v>
-      </c>
-      <c r="F342" s="8"/>
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B342" s="4"/>
+      <c r="D342" s="31"/>
+      <c r="E342">
+        <v>351</v>
+      </c>
+      <c r="F342" s="5"/>
       <c r="G342" s="18">
-        <v>45704</v>
+        <v>45694</v>
       </c>
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B343" s="1"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E343" s="2">
-        <v>362</v>
-      </c>
-      <c r="F343" s="3"/>
+      <c r="B343" s="4"/>
+      <c r="D343" s="31"/>
+      <c r="E343">
+        <v>352</v>
+      </c>
+      <c r="F343" s="5"/>
       <c r="G343" s="18">
-        <v>45705</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B344" s="4"/>
       <c r="D344" s="31"/>
       <c r="E344">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="18">
-        <v>45706</v>
+        <v>45696</v>
       </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B345" s="4"/>
       <c r="D345" s="31"/>
       <c r="E345">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F345" s="5"/>
       <c r="G345" s="18">
-        <v>45707</v>
+        <v>45697</v>
       </c>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B346" s="4"/>
       <c r="D346" s="31"/>
       <c r="E346">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="18">
-        <v>45708</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B347" s="4"/>
       <c r="D347" s="31"/>
       <c r="E347">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F347" s="5"/>
       <c r="G347" s="18">
-        <v>45709</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B348" s="4"/>
       <c r="D348" s="31"/>
       <c r="E348">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F348" s="5"/>
       <c r="G348" s="18">
-        <v>45710</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B349" s="4"/>
       <c r="D349" s="31"/>
       <c r="E349">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F349" s="5"/>
       <c r="G349" s="18">
-        <v>45711</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B350" s="4"/>
       <c r="D350" s="31"/>
       <c r="E350">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F350" s="5"/>
       <c r="G350" s="18">
-        <v>45712</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B351" s="4"/>
       <c r="D351" s="31"/>
       <c r="E351">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F351" s="5"/>
       <c r="G351" s="18">
-        <v>45713</v>
-      </c>
-    </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B352" s="4"/>
-      <c r="D352" s="31"/>
-      <c r="E352">
-        <v>371</v>
-      </c>
-      <c r="F352" s="5"/>
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B352" s="6"/>
+      <c r="C352" s="7"/>
+      <c r="D352" s="32"/>
+      <c r="E352" s="7">
+        <v>361</v>
+      </c>
+      <c r="F352" s="8"/>
       <c r="G352" s="18">
-        <v>45714</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B353" s="4"/>
-      <c r="D353" s="31"/>
-      <c r="E353">
-        <v>372</v>
-      </c>
-      <c r="F353" s="5"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E353" s="2">
+        <v>362</v>
+      </c>
+      <c r="F353" s="3"/>
       <c r="G353" s="18">
-        <v>45715</v>
+        <v>45705</v>
       </c>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B354" s="4"/>
-      <c r="D354" s="31"/>
+      <c r="D354" s="22"/>
       <c r="E354">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F354" s="5"/>
       <c r="G354" s="18">
-        <v>45716</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B355" s="4"/>
-      <c r="D355" s="31"/>
+      <c r="D355" s="22"/>
       <c r="E355">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F355" s="5"/>
       <c r="G355" s="18">
-        <v>45717</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B356" s="4"/>
-      <c r="D356" s="31"/>
+      <c r="D356" s="22"/>
       <c r="E356">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F356" s="5"/>
       <c r="G356" s="18">
-        <v>45718</v>
+        <v>45708</v>
       </c>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B357" s="4"/>
-      <c r="D357" s="31"/>
+      <c r="D357" s="22"/>
       <c r="E357">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F357" s="5"/>
       <c r="G357" s="18">
-        <v>45719</v>
+        <v>45709</v>
       </c>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B358" s="4"/>
-      <c r="D358" s="31"/>
+      <c r="D358" s="22"/>
       <c r="E358">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F358" s="5"/>
       <c r="G358" s="18">
-        <v>45720</v>
+        <v>45710</v>
       </c>
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B359" s="4"/>
-      <c r="D359" s="31"/>
+      <c r="D359" s="22"/>
       <c r="E359">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F359" s="5"/>
       <c r="G359" s="18">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B360" s="4"/>
-      <c r="D360" s="31"/>
+      <c r="D360" s="22"/>
       <c r="E360">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F360" s="5"/>
       <c r="G360" s="18">
-        <v>45722</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B361" s="4"/>
-      <c r="D361" s="31"/>
+      <c r="D361" s="22"/>
       <c r="E361">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F361" s="5"/>
       <c r="G361" s="18">
-        <v>45723</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B362" s="4"/>
-      <c r="D362" s="31"/>
+      <c r="D362" s="22"/>
       <c r="E362">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F362" s="5"/>
       <c r="G362" s="18">
-        <v>45724</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B363" s="4"/>
-      <c r="D363" s="31"/>
+      <c r="D363" s="22"/>
       <c r="E363">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F363" s="5"/>
       <c r="G363" s="18">
-        <v>45725</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B364" s="4"/>
-      <c r="D364" s="31"/>
+      <c r="D364" s="22"/>
       <c r="E364">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F364" s="5"/>
       <c r="G364" s="18">
-        <v>45726</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B365" s="4"/>
-      <c r="D365" s="31"/>
+      <c r="D365" s="22"/>
       <c r="E365">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F365" s="5"/>
       <c r="G365" s="18">
-        <v>45727</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B366" s="4"/>
-      <c r="D366" s="31"/>
+      <c r="D366" s="22"/>
       <c r="E366">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F366" s="5"/>
       <c r="G366" s="18">
-        <v>45728</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B367" s="4"/>
-      <c r="D367" s="31"/>
+      <c r="D367" s="22"/>
       <c r="E367">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F367" s="5"/>
       <c r="G367" s="18">
-        <v>45729</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B368" s="4"/>
-      <c r="D368" s="31"/>
+      <c r="D368" s="22"/>
       <c r="E368">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F368" s="5"/>
       <c r="G368" s="18">
-        <v>45730</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B369" s="4"/>
-      <c r="D369" s="31"/>
+      <c r="D369" s="22"/>
       <c r="E369">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F369" s="5"/>
       <c r="G369" s="18">
-        <v>45731</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B370" s="4"/>
-      <c r="D370" s="31"/>
+      <c r="D370" s="22"/>
       <c r="E370">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F370" s="5"/>
       <c r="G370" s="18">
-        <v>45732</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B371" s="4"/>
-      <c r="D371" s="31"/>
+      <c r="D371" s="22"/>
       <c r="E371">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F371" s="5"/>
       <c r="G371" s="18">
-        <v>45733</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B372" s="4"/>
-      <c r="D372" s="31"/>
+      <c r="D372" s="22"/>
       <c r="E372">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F372" s="5"/>
       <c r="G372" s="18">
-        <v>45734</v>
+        <v>45724</v>
       </c>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B373" s="4"/>
-      <c r="D373" s="31"/>
+      <c r="D373" s="22"/>
       <c r="E373">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F373" s="5"/>
       <c r="G373" s="18">
-        <v>45735</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B374" s="4"/>
-      <c r="D374" s="31"/>
+      <c r="D374" s="22"/>
       <c r="E374">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F374" s="5"/>
       <c r="G374" s="18">
-        <v>45736</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B375" s="4"/>
-      <c r="D375" s="31"/>
+      <c r="D375" s="22"/>
       <c r="E375">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F375" s="5"/>
       <c r="G375" s="18">
-        <v>45737</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B376" s="4"/>
-      <c r="D376" s="31"/>
+      <c r="D376" s="22"/>
       <c r="E376">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="18">
-        <v>45738</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B377" s="4"/>
-      <c r="D377" s="31"/>
+      <c r="D377" s="22"/>
       <c r="E377">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F377" s="5"/>
       <c r="G377" s="18">
-        <v>45739</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B378" s="4"/>
-      <c r="D378" s="31"/>
+      <c r="D378" s="22"/>
       <c r="E378">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F378" s="5"/>
       <c r="G378" s="18">
-        <v>45740</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B379" s="4"/>
-      <c r="D379" s="31"/>
+      <c r="D379" s="22"/>
       <c r="E379">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F379" s="5"/>
       <c r="G379" s="18">
-        <v>45741</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B380" s="4"/>
-      <c r="D380" s="31"/>
+      <c r="D380" s="22"/>
       <c r="E380">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F380" s="5"/>
       <c r="G380" s="18">
-        <v>45742</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B381" s="4"/>
-      <c r="D381" s="31"/>
+      <c r="D381" s="22"/>
       <c r="E381">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F381" s="5"/>
       <c r="G381" s="18">
-        <v>45743</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B382" s="4"/>
-      <c r="D382" s="31"/>
+      <c r="D382" s="22"/>
       <c r="E382">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F382" s="5"/>
       <c r="G382" s="18">
-        <v>45744</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B383" s="4"/>
-      <c r="D383" s="31"/>
+      <c r="D383" s="22"/>
       <c r="E383">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F383" s="5"/>
       <c r="G383" s="18">
-        <v>45745</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B384" s="4"/>
-      <c r="D384" s="31"/>
+      <c r="D384" s="22"/>
       <c r="E384">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F384" s="5"/>
       <c r="G384" s="18">
-        <v>45746</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B385" s="4"/>
-      <c r="D385" s="31"/>
+      <c r="D385" s="22"/>
       <c r="E385">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F385" s="5"/>
       <c r="G385" s="18">
-        <v>45747</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B386" s="4"/>
-      <c r="D386" s="31"/>
+      <c r="D386" s="22"/>
       <c r="E386">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F386" s="5"/>
       <c r="G386" s="18">
-        <v>45748</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="387" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B387" s="4"/>
-      <c r="D387" s="31"/>
+      <c r="D387" s="22"/>
       <c r="E387">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="F387" s="5"/>
       <c r="G387" s="18">
-        <v>45749</v>
-      </c>
-    </row>
-    <row r="388" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B388" s="6"/>
-      <c r="C388" s="7"/>
-      <c r="D388" s="32"/>
-      <c r="E388" s="7">
-        <v>407</v>
-      </c>
-      <c r="F388" s="8"/>
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B388" s="4"/>
+      <c r="D388" s="22"/>
+      <c r="E388">
+        <v>397</v>
+      </c>
+      <c r="F388" s="5"/>
       <c r="G388" s="18">
-        <v>45750</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B389" s="1"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E389" s="2">
-        <v>408</v>
-      </c>
-      <c r="F389" s="3"/>
+      <c r="B389" s="4"/>
+      <c r="D389" s="22"/>
+      <c r="E389">
+        <v>398</v>
+      </c>
+      <c r="F389" s="5"/>
       <c r="G389" s="18">
-        <v>45751</v>
+        <v>45741</v>
       </c>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B390" s="4"/>
-      <c r="D390" s="34"/>
+      <c r="D390" s="22"/>
       <c r="E390">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F390" s="5"/>
       <c r="G390" s="18">
-        <v>45752</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B391" s="4"/>
-      <c r="D391" s="34"/>
+      <c r="D391" s="22"/>
       <c r="E391">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F391" s="5"/>
       <c r="G391" s="18">
-        <v>45753</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B392" s="4"/>
-      <c r="D392" s="34"/>
+      <c r="D392" s="22"/>
       <c r="E392">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F392" s="5"/>
       <c r="G392" s="18">
-        <v>45754</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B393" s="4"/>
-      <c r="D393" s="34"/>
+      <c r="D393" s="22"/>
       <c r="E393">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F393" s="5"/>
       <c r="G393" s="18">
-        <v>45755</v>
+        <v>45745</v>
       </c>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B394" s="4"/>
-      <c r="D394" s="34"/>
+      <c r="D394" s="22"/>
       <c r="E394">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F394" s="5"/>
       <c r="G394" s="18">
-        <v>45756</v>
+        <v>45746</v>
       </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B395" s="4"/>
-      <c r="D395" s="34"/>
+      <c r="D395" s="22"/>
       <c r="E395">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F395" s="5"/>
       <c r="G395" s="18">
-        <v>45757</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B396" s="4"/>
-      <c r="D396" s="34"/>
+      <c r="D396" s="22"/>
       <c r="E396">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F396" s="5"/>
       <c r="G396" s="18">
-        <v>45758</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B397" s="4"/>
-      <c r="D397" s="34"/>
+      <c r="D397" s="22"/>
       <c r="E397">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F397" s="5"/>
       <c r="G397" s="18">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="398" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B398" s="4"/>
-      <c r="D398" s="34"/>
-      <c r="E398">
-        <v>417</v>
-      </c>
-      <c r="F398" s="5"/>
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="398" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B398" s="6"/>
+      <c r="C398" s="7"/>
+      <c r="D398" s="23"/>
+      <c r="E398" s="7">
+        <v>407</v>
+      </c>
+      <c r="F398" s="8"/>
       <c r="G398" s="18">
-        <v>45760</v>
-      </c>
-    </row>
-    <row r="399" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B399" s="6"/>
-      <c r="C399" s="7"/>
-      <c r="D399" s="35"/>
-      <c r="E399" s="7">
-        <v>418</v>
-      </c>
-      <c r="F399" s="8"/>
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="399" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B399" s="1"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E399" s="2">
+        <v>408</v>
+      </c>
+      <c r="F399" s="3"/>
       <c r="G399" s="18">
-        <v>45761</v>
+        <v>45751</v>
       </c>
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B400" s="1"/>
-      <c r="C400" s="2"/>
-      <c r="D400" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E400" s="2">
-        <v>419</v>
-      </c>
-      <c r="F400" s="3"/>
+      <c r="B400" s="4"/>
+      <c r="D400" s="25"/>
+      <c r="E400">
+        <v>409</v>
+      </c>
+      <c r="F400" s="5"/>
       <c r="G400" s="18">
-        <v>45762</v>
+        <v>45752</v>
       </c>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B401" s="4"/>
-      <c r="D401" s="31"/>
+      <c r="D401" s="25"/>
       <c r="E401">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F401" s="5"/>
       <c r="G401" s="18">
-        <v>45763</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B402" s="4"/>
-      <c r="D402" s="31"/>
+      <c r="D402" s="25"/>
       <c r="E402">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F402" s="5"/>
       <c r="G402" s="18">
-        <v>45764</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B403" s="4"/>
-      <c r="D403" s="31"/>
+      <c r="D403" s="25"/>
       <c r="E403">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F403" s="5"/>
       <c r="G403" s="18">
-        <v>45765</v>
+        <v>45755</v>
       </c>
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B404" s="4"/>
-      <c r="D404" s="31"/>
+      <c r="D404" s="25"/>
       <c r="E404">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F404" s="5"/>
       <c r="G404" s="18">
-        <v>45766</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B405" s="4"/>
-      <c r="D405" s="31"/>
+      <c r="D405" s="25"/>
       <c r="E405">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F405" s="5"/>
       <c r="G405" s="18">
-        <v>45767</v>
+        <v>45757</v>
       </c>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B406" s="4"/>
-      <c r="D406" s="31"/>
+      <c r="D406" s="25"/>
       <c r="E406">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F406" s="5"/>
       <c r="G406" s="18">
-        <v>45768</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B407" s="4"/>
-      <c r="D407" s="31"/>
+      <c r="D407" s="25"/>
       <c r="E407">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F407" s="5"/>
       <c r="G407" s="18">
-        <v>45769</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B408" s="4"/>
-      <c r="D408" s="31"/>
+      <c r="D408" s="25"/>
       <c r="E408">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F408" s="5"/>
       <c r="G408" s="18">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="409" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B409" s="4"/>
-      <c r="D409" s="31"/>
-      <c r="E409">
-        <v>428</v>
-      </c>
-      <c r="F409" s="5"/>
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="409" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B409" s="6"/>
+      <c r="C409" s="7"/>
+      <c r="D409" s="26"/>
+      <c r="E409" s="7">
+        <v>418</v>
+      </c>
+      <c r="F409" s="8"/>
       <c r="G409" s="18">
-        <v>45771</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B410" s="4"/>
-      <c r="D410" s="31"/>
-      <c r="E410">
-        <v>429</v>
-      </c>
-      <c r="F410" s="5"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E410" s="2">
+        <v>419</v>
+      </c>
+      <c r="F410" s="3"/>
       <c r="G410" s="18">
-        <v>45772</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B411" s="4"/>
-      <c r="D411" s="31"/>
+      <c r="D411" s="22"/>
       <c r="E411">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F411" s="5"/>
       <c r="G411" s="18">
-        <v>45773</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B412" s="4"/>
-      <c r="D412" s="31"/>
+      <c r="D412" s="22"/>
       <c r="E412">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F412" s="5"/>
       <c r="G412" s="18">
-        <v>45774</v>
+        <v>45764</v>
       </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B413" s="4"/>
-      <c r="D413" s="31"/>
+      <c r="D413" s="22"/>
       <c r="E413">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F413" s="5"/>
       <c r="G413" s="18">
-        <v>45775</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B414" s="4"/>
-      <c r="D414" s="31"/>
+      <c r="D414" s="22"/>
       <c r="E414">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F414" s="5"/>
       <c r="G414" s="18">
-        <v>45776</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B415" s="4"/>
-      <c r="D415" s="31"/>
+      <c r="D415" s="22"/>
       <c r="E415">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F415" s="5"/>
       <c r="G415" s="18">
-        <v>45777</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B416" s="4"/>
-      <c r="D416" s="31"/>
+      <c r="D416" s="22"/>
       <c r="E416">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F416" s="5"/>
       <c r="G416" s="18">
-        <v>45778</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B417" s="4"/>
-      <c r="D417" s="31"/>
+      <c r="D417" s="22"/>
       <c r="E417">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F417" s="5"/>
       <c r="G417" s="18">
-        <v>45779</v>
+        <v>45769</v>
       </c>
     </row>
     <row r="418" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B418" s="4"/>
-      <c r="D418" s="31"/>
+      <c r="D418" s="22"/>
       <c r="E418">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F418" s="5"/>
       <c r="G418" s="18">
-        <v>45780</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B419" s="4"/>
-      <c r="D419" s="31"/>
+      <c r="D419" s="22"/>
       <c r="E419">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F419" s="5"/>
       <c r="G419" s="18">
-        <v>45781</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="420" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B420" s="4"/>
-      <c r="D420" s="31"/>
+      <c r="D420" s="22"/>
       <c r="E420">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F420" s="5"/>
       <c r="G420" s="18">
-        <v>45782</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B421" s="4"/>
-      <c r="D421" s="31"/>
+      <c r="D421" s="22"/>
       <c r="E421">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F421" s="5"/>
       <c r="G421" s="18">
-        <v>45783</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B422" s="4"/>
-      <c r="D422" s="31"/>
+      <c r="D422" s="22"/>
       <c r="E422">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="18">
-        <v>45784</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B423" s="4"/>
-      <c r="D423" s="31"/>
+      <c r="D423" s="22"/>
       <c r="E423">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="18">
-        <v>45785</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B424" s="4"/>
-      <c r="D424" s="31"/>
+      <c r="D424" s="22"/>
       <c r="E424">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="18">
-        <v>45786</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B425" s="4"/>
-      <c r="D425" s="31"/>
+      <c r="D425" s="22"/>
       <c r="E425">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F425" s="5"/>
       <c r="G425" s="18">
-        <v>45787</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="426" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B426" s="4"/>
-      <c r="D426" s="31"/>
+      <c r="D426" s="22"/>
       <c r="E426">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F426" s="5"/>
       <c r="G426" s="18">
-        <v>45788</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B427" s="4"/>
-      <c r="D427" s="31"/>
+      <c r="D427" s="22"/>
       <c r="E427">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F427" s="5"/>
       <c r="G427" s="18">
-        <v>45789</v>
+        <v>45779</v>
       </c>
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B428" s="4"/>
-      <c r="D428" s="31"/>
+      <c r="D428" s="22"/>
       <c r="E428">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F428" s="5"/>
       <c r="G428" s="18">
-        <v>45790</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B429" s="4"/>
-      <c r="D429" s="31"/>
+      <c r="D429" s="22"/>
       <c r="E429">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F429" s="5"/>
       <c r="G429" s="18">
-        <v>45791</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="430" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B430" s="4"/>
-      <c r="D430" s="31"/>
+      <c r="D430" s="22"/>
       <c r="E430">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F430" s="5"/>
       <c r="G430" s="18">
-        <v>45792</v>
+        <v>45782</v>
       </c>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B431" s="4"/>
-      <c r="D431" s="31"/>
+      <c r="D431" s="22"/>
       <c r="E431">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F431" s="5"/>
       <c r="G431" s="18">
-        <v>45793</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="432" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B432" s="4"/>
-      <c r="D432" s="31"/>
+      <c r="D432" s="22"/>
       <c r="E432">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F432" s="5"/>
       <c r="G432" s="18">
-        <v>45794</v>
+        <v>45784</v>
       </c>
     </row>
     <row r="433" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B433" s="4"/>
-      <c r="D433" s="31"/>
+      <c r="D433" s="22"/>
       <c r="E433">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F433" s="5"/>
       <c r="G433" s="18">
-        <v>45795</v>
-      </c>
-    </row>
-    <row r="434" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B434" s="6"/>
-      <c r="C434" s="7"/>
-      <c r="D434" s="32"/>
-      <c r="E434" s="7">
-        <v>453</v>
-      </c>
-      <c r="F434" s="8"/>
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="434" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B434" s="4"/>
+      <c r="D434" s="22"/>
+      <c r="E434">
+        <v>443</v>
+      </c>
+      <c r="F434" s="5"/>
       <c r="G434" s="18">
-        <v>45796</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="435" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B435" s="1"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E435" s="2">
-        <v>454</v>
-      </c>
-      <c r="F435" s="3"/>
+      <c r="B435" s="4"/>
+      <c r="D435" s="22"/>
+      <c r="E435">
+        <v>444</v>
+      </c>
+      <c r="F435" s="5"/>
       <c r="G435" s="18">
-        <v>45797</v>
+        <v>45787</v>
       </c>
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B436" s="4"/>
-      <c r="D436" s="37"/>
+      <c r="D436" s="22"/>
       <c r="E436">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F436" s="5"/>
       <c r="G436" s="18">
-        <v>45798</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B437" s="4"/>
-      <c r="D437" s="37"/>
+      <c r="D437" s="22"/>
       <c r="E437">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F437" s="5"/>
       <c r="G437" s="18">
-        <v>45799</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="438" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B438" s="4"/>
-      <c r="D438" s="37"/>
+      <c r="D438" s="22"/>
       <c r="E438">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F438" s="5"/>
       <c r="G438" s="18">
-        <v>45800</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="439" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B439" s="4"/>
-      <c r="D439" s="37"/>
+      <c r="D439" s="22"/>
       <c r="E439">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F439" s="5"/>
       <c r="G439" s="18">
-        <v>45801</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B440" s="4"/>
-      <c r="D440" s="37"/>
+      <c r="D440" s="22"/>
       <c r="E440">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F440" s="5"/>
       <c r="G440" s="18">
-        <v>45802</v>
+        <v>45792</v>
       </c>
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B441" s="4"/>
-      <c r="D441" s="37"/>
+      <c r="D441" s="22"/>
       <c r="E441">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F441" s="5"/>
       <c r="G441" s="18">
-        <v>45803</v>
+        <v>45793</v>
       </c>
     </row>
     <row r="442" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B442" s="4"/>
-      <c r="D442" s="37"/>
+      <c r="D442" s="22"/>
       <c r="E442">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F442" s="5"/>
       <c r="G442" s="18">
-        <v>45804</v>
-      </c>
-    </row>
-    <row r="443" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B443" s="6"/>
-      <c r="C443" s="7"/>
-      <c r="D443" s="38"/>
-      <c r="E443" s="7">
-        <v>462</v>
-      </c>
-      <c r="F443" s="8"/>
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="443" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B443" s="4"/>
+      <c r="D443" s="22"/>
+      <c r="E443">
+        <v>452</v>
+      </c>
+      <c r="F443" s="5"/>
       <c r="G443" s="18">
-        <v>45805</v>
-      </c>
-    </row>
-    <row r="444" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B444" s="1"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E444" s="2">
-        <v>463</v>
-      </c>
-      <c r="F444" s="3"/>
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="444" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B444" s="6"/>
+      <c r="C444" s="7"/>
+      <c r="D444" s="23"/>
+      <c r="E444" s="7">
+        <v>453</v>
+      </c>
+      <c r="F444" s="8"/>
       <c r="G444" s="18">
-        <v>45806</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B445" s="4"/>
-      <c r="D445" s="40"/>
-      <c r="E445">
-        <v>464</v>
-      </c>
-      <c r="F445" s="5"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E445" s="2">
+        <v>454</v>
+      </c>
+      <c r="F445" s="3"/>
       <c r="G445" s="18">
-        <v>45807</v>
-      </c>
-    </row>
-    <row r="446" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B446" s="6"/>
-      <c r="C446" s="7"/>
-      <c r="D446" s="41"/>
-      <c r="E446" s="7">
-        <v>465</v>
-      </c>
-      <c r="F446" s="8"/>
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="446" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B446" s="4"/>
+      <c r="D446" s="40"/>
+      <c r="E446">
+        <v>455</v>
+      </c>
+      <c r="F446" s="5"/>
       <c r="G446" s="18">
-        <v>45808</v>
+        <v>45798</v>
       </c>
     </row>
     <row r="447" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B447" s="1"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E447" s="2">
-        <v>466</v>
-      </c>
-      <c r="F447" s="3"/>
+      <c r="B447" s="4"/>
+      <c r="D447" s="40"/>
+      <c r="E447">
+        <v>456</v>
+      </c>
+      <c r="F447" s="5"/>
       <c r="G447" s="18">
-        <v>45809</v>
+        <v>45799</v>
       </c>
     </row>
     <row r="448" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B448" s="4"/>
-      <c r="D448" s="22"/>
+      <c r="D448" s="40"/>
       <c r="E448">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F448" s="5"/>
       <c r="G448" s="18">
-        <v>45810</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="449" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B449" s="4"/>
-      <c r="D449" s="22"/>
+      <c r="D449" s="40"/>
       <c r="E449">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F449" s="5"/>
       <c r="G449" s="18">
-        <v>45811</v>
+        <v>45801</v>
       </c>
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B450" s="4"/>
-      <c r="D450" s="22"/>
+      <c r="D450" s="40"/>
       <c r="E450">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F450" s="5"/>
       <c r="G450" s="18">
-        <v>45812</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="451" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B451" s="4"/>
-      <c r="D451" s="22"/>
+      <c r="D451" s="40"/>
       <c r="E451">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F451" s="5"/>
       <c r="G451" s="18">
-        <v>45813</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="452" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B452" s="4"/>
-      <c r="D452" s="22"/>
+      <c r="D452" s="40"/>
       <c r="E452">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F452" s="5"/>
       <c r="G452" s="18">
-        <v>45814</v>
+        <v>45804</v>
       </c>
     </row>
     <row r="453" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B453" s="6"/>
       <c r="C453" s="7"/>
-      <c r="D453" s="23"/>
+      <c r="D453" s="41"/>
       <c r="E453" s="7">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F453" s="8"/>
       <c r="G453" s="18">
-        <v>45815</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="454" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B454" s="1"/>
       <c r="C454" s="2"/>
-      <c r="D454" s="24" t="s">
-        <v>59</v>
+      <c r="D454" s="45" t="s">
+        <v>57</v>
       </c>
       <c r="E454" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F454" s="3"/>
       <c r="G454" s="18">
-        <v>45816</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="455" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B455" s="4"/>
-      <c r="D455" s="25"/>
+      <c r="D455" s="46"/>
       <c r="E455">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F455" s="5"/>
       <c r="G455" s="18">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="456" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B456" s="4"/>
-      <c r="D456" s="25"/>
-      <c r="E456">
-        <v>475</v>
-      </c>
-      <c r="F456" s="5"/>
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="456" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B456" s="6"/>
+      <c r="C456" s="7"/>
+      <c r="D456" s="47"/>
+      <c r="E456" s="7">
+        <v>465</v>
+      </c>
+      <c r="F456" s="8"/>
       <c r="G456" s="18">
-        <v>45818</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B457" s="4"/>
-      <c r="D457" s="25"/>
-      <c r="E457">
-        <v>476</v>
-      </c>
-      <c r="F457" s="5"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E457" s="2">
+        <v>466</v>
+      </c>
+      <c r="F457" s="3"/>
       <c r="G457" s="18">
-        <v>45819</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="458" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B458" s="4"/>
-      <c r="D458" s="25"/>
+      <c r="D458" s="43"/>
       <c r="E458">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F458" s="5"/>
       <c r="G458" s="18">
-        <v>45820</v>
+        <v>45810</v>
       </c>
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B459" s="4"/>
-      <c r="D459" s="25"/>
+      <c r="D459" s="43"/>
       <c r="E459">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F459" s="5"/>
       <c r="G459" s="18">
-        <v>45821</v>
+        <v>45811</v>
       </c>
     </row>
     <row r="460" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B460" s="4"/>
-      <c r="D460" s="25"/>
+      <c r="D460" s="43"/>
       <c r="E460">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F460" s="5"/>
       <c r="G460" s="18">
-        <v>45822</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="461" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B461" s="4"/>
-      <c r="D461" s="25"/>
+      <c r="D461" s="43"/>
       <c r="E461">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F461" s="5"/>
       <c r="G461" s="18">
-        <v>45823</v>
+        <v>45813</v>
       </c>
     </row>
     <row r="462" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B462" s="4"/>
-      <c r="D462" s="25"/>
+      <c r="D462" s="43"/>
       <c r="E462">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F462" s="5"/>
       <c r="G462" s="18">
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="463" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B463" s="4"/>
-      <c r="D463" s="25"/>
-      <c r="E463">
-        <v>482</v>
-      </c>
-      <c r="F463" s="5"/>
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="463" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B463" s="6"/>
+      <c r="C463" s="7"/>
+      <c r="D463" s="44"/>
+      <c r="E463" s="7">
+        <v>472</v>
+      </c>
+      <c r="F463" s="8"/>
       <c r="G463" s="18">
-        <v>45825</v>
+        <v>45815</v>
       </c>
     </row>
     <row r="464" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B464" s="4"/>
-      <c r="D464" s="25"/>
-      <c r="E464">
-        <v>483</v>
-      </c>
-      <c r="F464" s="5"/>
+      <c r="B464" s="1"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E464" s="2">
+        <v>473</v>
+      </c>
+      <c r="F464" s="3"/>
       <c r="G464" s="18">
-        <v>45826</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B465" s="4"/>
-      <c r="D465" s="25"/>
+      <c r="D465" s="28"/>
       <c r="E465">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F465" s="5"/>
       <c r="G465" s="18">
-        <v>45827</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B466" s="4"/>
-      <c r="D466" s="25"/>
+      <c r="D466" s="28"/>
       <c r="E466">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F466" s="5"/>
       <c r="G466" s="18">
-        <v>45828</v>
+        <v>45818</v>
       </c>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B467" s="4"/>
-      <c r="D467" s="25"/>
+      <c r="D467" s="28"/>
       <c r="E467">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F467" s="5"/>
       <c r="G467" s="18">
-        <v>45829</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="468" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B468" s="4"/>
-      <c r="D468" s="25"/>
+      <c r="D468" s="28"/>
       <c r="E468">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F468" s="5"/>
       <c r="G468" s="18">
-        <v>45830</v>
+        <v>45820</v>
       </c>
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B469" s="4"/>
-      <c r="D469" s="25"/>
+      <c r="D469" s="28"/>
       <c r="E469">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F469" s="5"/>
       <c r="G469" s="18">
-        <v>45831</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="470" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B470" s="4"/>
-      <c r="D470" s="25"/>
+      <c r="D470" s="28"/>
       <c r="E470">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F470" s="5"/>
       <c r="G470" s="18">
-        <v>45832</v>
+        <v>45822</v>
       </c>
     </row>
     <row r="471" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B471" s="4"/>
-      <c r="D471" s="25"/>
+      <c r="D471" s="28"/>
       <c r="E471">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F471" s="5"/>
       <c r="G471" s="18">
-        <v>45833</v>
+        <v>45823</v>
       </c>
     </row>
     <row r="472" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B472" s="4"/>
-      <c r="D472" s="25"/>
+      <c r="D472" s="28"/>
       <c r="E472">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F472" s="5"/>
       <c r="G472" s="18">
-        <v>45834</v>
+        <v>45824</v>
       </c>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B473" s="4"/>
-      <c r="D473" s="25"/>
+      <c r="D473" s="28"/>
       <c r="E473">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F473" s="5"/>
       <c r="G473" s="18">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="474" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B474" s="4"/>
+      <c r="D474" s="28"/>
+      <c r="E474">
+        <v>483</v>
+      </c>
+      <c r="F474" s="5"/>
+      <c r="G474" s="18">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="475" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B475" s="4"/>
+      <c r="D475" s="28"/>
+      <c r="E475">
+        <v>484</v>
+      </c>
+      <c r="F475" s="5"/>
+      <c r="G475" s="18">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="476" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B476" s="4"/>
+      <c r="D476" s="28"/>
+      <c r="E476">
+        <v>485</v>
+      </c>
+      <c r="F476" s="5"/>
+      <c r="G476" s="18">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="477" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B477" s="4"/>
+      <c r="D477" s="28"/>
+      <c r="E477">
+        <v>486</v>
+      </c>
+      <c r="F477" s="5"/>
+      <c r="G477" s="18">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="478" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B478" s="4"/>
+      <c r="D478" s="28"/>
+      <c r="E478">
+        <v>487</v>
+      </c>
+      <c r="F478" s="5"/>
+      <c r="G478" s="18">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="479" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B479" s="4"/>
+      <c r="D479" s="28"/>
+      <c r="E479">
+        <v>488</v>
+      </c>
+      <c r="F479" s="5"/>
+      <c r="G479" s="18">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="480" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B480" s="4"/>
+      <c r="D480" s="28"/>
+      <c r="E480">
+        <v>489</v>
+      </c>
+      <c r="F480" s="5"/>
+      <c r="G480" s="18">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="481" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B481" s="4"/>
+      <c r="D481" s="28"/>
+      <c r="E481">
+        <v>490</v>
+      </c>
+      <c r="F481" s="5"/>
+      <c r="G481" s="18">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="482" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B482" s="4"/>
+      <c r="D482" s="28"/>
+      <c r="E482">
+        <v>491</v>
+      </c>
+      <c r="F482" s="5"/>
+      <c r="G482" s="18">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="483" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B483" s="4"/>
+      <c r="D483" s="28"/>
+      <c r="E483">
+        <v>492</v>
+      </c>
+      <c r="F483" s="5"/>
+      <c r="G483" s="18">
         <v>45835</v>
       </c>
     </row>
-    <row r="474" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B474" s="6"/>
-      <c r="C474" s="7"/>
-      <c r="D474" s="26"/>
-      <c r="E474" s="7">
+    <row r="484" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B484" s="6"/>
+      <c r="C484" s="7"/>
+      <c r="D484" s="29"/>
+      <c r="E484" s="7">
         <v>493</v>
       </c>
-      <c r="F474" s="8"/>
-      <c r="G474" s="18">
+      <c r="F484" s="8"/>
+      <c r="G484" s="18">
         <v>45836</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D98:D110"/>
-    <mergeCell ref="D111:D128"/>
-    <mergeCell ref="D301:D330"/>
-    <mergeCell ref="D177:D205"/>
-    <mergeCell ref="D206:D227"/>
-    <mergeCell ref="D228:D247"/>
-    <mergeCell ref="D248:D265"/>
-    <mergeCell ref="D266:D275"/>
-    <mergeCell ref="D276:D300"/>
-    <mergeCell ref="B20:B55"/>
+    <mergeCell ref="D457:D463"/>
+    <mergeCell ref="D464:D484"/>
+    <mergeCell ref="D341:D352"/>
+    <mergeCell ref="D353:D398"/>
+    <mergeCell ref="D399:D409"/>
+    <mergeCell ref="D410:D444"/>
+    <mergeCell ref="D445:D453"/>
+    <mergeCell ref="D454:D456"/>
+    <mergeCell ref="B20:B57"/>
     <mergeCell ref="B2:B19"/>
-    <mergeCell ref="D144:D155"/>
-    <mergeCell ref="D156:D163"/>
-    <mergeCell ref="D164:D176"/>
-    <mergeCell ref="D129:D143"/>
-    <mergeCell ref="B129:B143"/>
-    <mergeCell ref="B111:B128"/>
-    <mergeCell ref="B98:B110"/>
-    <mergeCell ref="B81:B97"/>
-    <mergeCell ref="B56:B65"/>
-    <mergeCell ref="B66:B80"/>
-    <mergeCell ref="D20:D55"/>
+    <mergeCell ref="D154:D165"/>
+    <mergeCell ref="D166:D173"/>
+    <mergeCell ref="D174:D186"/>
+    <mergeCell ref="D139:D153"/>
+    <mergeCell ref="B139:B153"/>
+    <mergeCell ref="B121:B138"/>
+    <mergeCell ref="B108:B120"/>
+    <mergeCell ref="B91:B107"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="B70:B90"/>
+    <mergeCell ref="D20:D57"/>
     <mergeCell ref="D2:D19"/>
-    <mergeCell ref="D56:D80"/>
-    <mergeCell ref="D81:D97"/>
-    <mergeCell ref="D447:D453"/>
-    <mergeCell ref="D454:D474"/>
-    <mergeCell ref="D331:D342"/>
-    <mergeCell ref="D343:D388"/>
-    <mergeCell ref="D389:D399"/>
-    <mergeCell ref="D400:D434"/>
-    <mergeCell ref="D435:D443"/>
-    <mergeCell ref="D444:D446"/>
+    <mergeCell ref="D58:D90"/>
+    <mergeCell ref="D91:D107"/>
+    <mergeCell ref="D108:D120"/>
+    <mergeCell ref="D121:D138"/>
+    <mergeCell ref="D311:D340"/>
+    <mergeCell ref="D187:D215"/>
+    <mergeCell ref="D216:D237"/>
+    <mergeCell ref="D238:D257"/>
+    <mergeCell ref="D258:D275"/>
+    <mergeCell ref="D276:D285"/>
+    <mergeCell ref="D286:D310"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/JavaMasterclassTin_timeSchedulle.xlsx
+++ b/JavaMasterclassTin_timeSchedulle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning\JavaTimBuchalkaClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276F9FD-6F16-4C8E-962C-6C0AB8A9A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE3CDDD-989A-4958-9483-1F1DAAD6F3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14180" yWindow="-16200" windowWidth="14400" windowHeight="15440" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
+    <workbookView xWindow="0" yWindow="2088" windowWidth="19032" windowHeight="10272" xr2:uid="{A2FFCC18-C15A-4597-97E1-7242F90C579E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +483,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -663,6 +669,34 @@
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -681,22 +715,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,32 +751,8 @@
     <xf numFmtId="17" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,11 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,18 +1080,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC85575E-DCEB-43FC-A93E-D47C9095EFB1}">
   <dimension ref="A1:H484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="D69" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1105,14 +1111,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="36">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="46">
         <v>45323</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2">
@@ -1122,9 +1128,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="37"/>
-      <c r="D3" s="22"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="47"/>
+      <c r="D3" s="32"/>
       <c r="E3">
         <v>50</v>
       </c>
@@ -1132,9 +1138,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="D4" s="22"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="47"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1142,9 +1148,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
-      <c r="D5" s="22"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="47"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1152,9 +1158,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="D6" s="22"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="47"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1162,9 +1168,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="D7" s="22"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="47"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1172,9 +1178,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="37"/>
-      <c r="D8" s="22"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="47"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1182,12 +1188,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="47"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1195,9 +1201,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="37"/>
-      <c r="D10" s="22"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
@@ -1208,9 +1214,9 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="37"/>
-      <c r="D11" s="22"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1221,9 +1227,9 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="37"/>
-      <c r="D12" s="22"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="47"/>
+      <c r="D12" s="32"/>
       <c r="E12">
         <v>51</v>
       </c>
@@ -1234,9 +1240,9 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="37"/>
-      <c r="D13" s="22"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
+      <c r="D13" s="32"/>
       <c r="E13">
         <v>52</v>
       </c>
@@ -1247,73 +1253,73 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="37"/>
-      <c r="D14" s="22"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
+      <c r="D14" s="32"/>
       <c r="E14">
         <v>53</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="37"/>
-      <c r="D15" s="22"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="47"/>
+      <c r="D15" s="32"/>
       <c r="E15">
         <v>54</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="37"/>
-      <c r="D16" s="22"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
+      <c r="D16" s="32"/>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="37"/>
-      <c r="D17" s="22"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
+      <c r="D17" s="32"/>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="37"/>
-      <c r="D18" s="22"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="47"/>
+      <c r="D18" s="32"/>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="38"/>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="48"/>
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="33" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="34"/>
-      <c r="D21" s="22"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="44"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="4">
         <v>55</v>
       </c>
@@ -1324,9 +1330,9 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
-      <c r="D22" s="22"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="44"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="4">
         <v>56</v>
       </c>
@@ -1337,9 +1343,9 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
-      <c r="D23" s="22"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="44"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="4">
         <v>57</v>
       </c>
@@ -1350,9 +1356,9 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
-      <c r="D24" s="22"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="4">
         <v>58</v>
       </c>
@@ -1363,9 +1369,9 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
-      <c r="D25" s="22"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="44"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="4">
         <v>59</v>
       </c>
@@ -1376,9 +1382,9 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
-      <c r="D26" s="22"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="4"/>
       <c r="F26" s="16" t="s">
         <v>102</v>
@@ -1387,9 +1393,9 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
-      <c r="D27" s="22"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="44"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="4"/>
       <c r="F27" s="16" t="s">
         <v>103</v>
@@ -1398,9 +1404,9 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
-      <c r="D28" s="22"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="44"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="4">
         <v>60</v>
       </c>
@@ -1411,9 +1417,9 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
-      <c r="D29" s="22"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="44"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="4">
         <v>61</v>
       </c>
@@ -1424,9 +1430,9 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="34"/>
-      <c r="D30" s="22"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="44"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="4">
         <v>62</v>
       </c>
@@ -1437,12 +1443,12 @@
         <v>45405</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="D31" s="22"/>
+      <c r="B31" s="44"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="4">
         <v>63</v>
       </c>
@@ -1453,9 +1459,9 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="34"/>
-      <c r="D32" s="22"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="44"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="4" t="s">
         <v>74</v>
       </c>
@@ -1466,9 +1472,9 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="34"/>
-      <c r="D33" s="22"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="44"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="4">
         <v>64</v>
       </c>
@@ -1479,9 +1485,9 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="34"/>
-      <c r="D34" s="22"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="44"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="4">
         <v>65</v>
       </c>
@@ -1492,9 +1498,9 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="34"/>
-      <c r="D35" s="22"/>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="44"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="4">
         <v>66</v>
       </c>
@@ -1505,9 +1511,9 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="34"/>
-      <c r="D36" s="22"/>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="44"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="4">
         <v>67</v>
       </c>
@@ -1518,9 +1524,9 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="34"/>
-      <c r="D37" s="22"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="44"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="4">
         <v>68</v>
       </c>
@@ -1531,9 +1537,9 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="34"/>
-      <c r="D38" s="22"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="44"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="4">
         <v>69</v>
       </c>
@@ -1544,45 +1550,45 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="34"/>
-      <c r="D39" s="22"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="44"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="4"/>
       <c r="F39" s="16" t="s">
         <v>83</v>
       </c>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="34"/>
-      <c r="D40" s="22"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="44"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="4"/>
       <c r="F40" s="16" t="s">
         <v>84</v>
       </c>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="34"/>
-      <c r="D41" s="22"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="44"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="4"/>
       <c r="F41" s="16" t="s">
         <v>85</v>
       </c>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="34"/>
-      <c r="D42" s="22"/>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="44"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="4"/>
       <c r="F42" s="16" t="s">
         <v>86</v>
       </c>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="34"/>
-      <c r="D43" s="22"/>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="44"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="4"/>
       <c r="F43" s="16" t="s">
         <v>87</v>
@@ -1590,72 +1596,72 @@
       <c r="G43" s="18"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="34"/>
-      <c r="D44" s="22"/>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="44"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="4"/>
       <c r="F44" s="16" t="s">
         <v>88</v>
       </c>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="34"/>
-      <c r="D45" s="22"/>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="44"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="4"/>
       <c r="F45" s="16" t="s">
         <v>89</v>
       </c>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="34"/>
-      <c r="D46" s="22"/>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="44"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="4"/>
       <c r="F46" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="34"/>
-      <c r="D47" s="22"/>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="44"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="4"/>
       <c r="F47" s="16" t="s">
         <v>91</v>
       </c>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="34"/>
-      <c r="D48" s="22"/>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="44"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="4"/>
       <c r="F48" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="34"/>
-      <c r="D49" s="22"/>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="44"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="4"/>
       <c r="F49" s="16" t="s">
         <v>93</v>
       </c>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="34"/>
-      <c r="D50" s="22"/>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="44"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="4"/>
       <c r="F50" s="16" t="s">
         <v>94</v>
       </c>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="34"/>
-      <c r="D51" s="22"/>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="44"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="4">
         <v>70</v>
       </c>
@@ -1666,9 +1672,9 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="34"/>
-      <c r="D52" s="22"/>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="44"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="4">
         <v>71</v>
       </c>
@@ -1679,9 +1685,9 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="34"/>
-      <c r="D53" s="22"/>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="44"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="4">
         <v>72</v>
       </c>
@@ -1692,9 +1698,9 @@
         <v>45415</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="34"/>
-      <c r="D54" s="22"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="44"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="4">
         <v>73</v>
       </c>
@@ -1703,52 +1709,52 @@
       </c>
       <c r="G54" s="18"/>
     </row>
-    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="34"/>
-      <c r="D55" s="51"/>
+    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="44"/>
+      <c r="D55" s="49"/>
       <c r="E55" s="4">
         <v>74</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G55" s="52">
+      <c r="G55" s="15">
         <v>45488</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="34"/>
-      <c r="D56" s="51"/>
+    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="44"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="4"/>
       <c r="F56" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G56" s="53">
+      <c r="G56" s="21">
         <v>45488</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="35"/>
+    <row r="57" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="45"/>
       <c r="C57" s="7">
         <v>24</v>
       </c>
-      <c r="D57" s="23"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="4"/>
       <c r="F57" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G57" s="53">
+      <c r="G57" s="21">
         <v>45489</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="21" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C58" s="2">
         <v>25</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="2">
@@ -1757,381 +1763,381 @@
       <c r="F58" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G58" s="53">
+      <c r="G58" s="21">
         <v>45490</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="22"/>
-      <c r="D59" s="22"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="32"/>
+      <c r="D59" s="32"/>
       <c r="E59">
         <v>76</v>
       </c>
       <c r="F59" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="53">
+      <c r="G59" s="21">
         <v>45491</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="22"/>
-      <c r="D60" s="22"/>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="32"/>
+      <c r="D60" s="32"/>
       <c r="E60">
         <v>77</v>
       </c>
       <c r="F60" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G60" s="53">
+      <c r="G60" s="21">
         <v>45492</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="22"/>
-      <c r="D61" s="22"/>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="32"/>
+      <c r="D61" s="32"/>
       <c r="E61">
         <v>78</v>
       </c>
       <c r="F61" s="16"/>
-      <c r="G61" s="53">
+      <c r="G61" s="21">
         <v>45493</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="22"/>
-      <c r="D62" s="22"/>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="32"/>
+      <c r="D62" s="32"/>
       <c r="E62">
         <v>79</v>
       </c>
       <c r="F62" s="16"/>
-      <c r="G62" s="53">
+      <c r="G62" s="21">
         <v>45494</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="22"/>
-      <c r="D63" s="22"/>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="32"/>
+      <c r="D63" s="32"/>
       <c r="F63" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G63" s="53">
+      <c r="G63" s="21">
         <v>45495</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="22"/>
-      <c r="D64" s="22"/>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="32"/>
+      <c r="D64" s="32"/>
       <c r="F64" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G64" s="53">
+      <c r="G64" s="21">
         <v>45496</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="22"/>
-      <c r="D65" s="22"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="32"/>
+      <c r="D65" s="32"/>
       <c r="E65">
         <v>80</v>
       </c>
       <c r="F65" s="16"/>
-      <c r="G65" s="53">
+      <c r="G65" s="21">
         <v>45497</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="B66" s="32"/>
+      <c r="D66" s="32"/>
       <c r="E66">
         <v>81</v>
       </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="53">
+      <c r="G66" s="21">
         <v>45498</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="22"/>
-      <c r="D67" s="22"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67">
         <v>82</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="53">
+      <c r="G67" s="21">
         <v>45499</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="22"/>
-      <c r="D68" s="22"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="32"/>
+      <c r="D68" s="32"/>
       <c r="E68">
         <v>83</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="53">
+      <c r="G68" s="21">
         <v>45500</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="23"/>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="33"/>
       <c r="C69">
         <v>29</v>
       </c>
-      <c r="D69" s="22"/>
+      <c r="D69" s="32"/>
       <c r="E69">
         <v>84</v>
       </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="53">
+      <c r="G69" s="21">
         <v>45501</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="33" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="22"/>
+      <c r="D70" s="32"/>
       <c r="E70">
         <v>85</v>
       </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="53">
+      <c r="G70" s="21">
         <v>45502</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="34"/>
-      <c r="D71" s="22"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="44"/>
+      <c r="D71" s="32"/>
       <c r="E71">
         <v>86</v>
       </c>
       <c r="F71" s="16"/>
-      <c r="G71" s="53">
+      <c r="G71" s="21">
         <v>45503</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B72" s="34"/>
-      <c r="D72" s="22"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="44"/>
+      <c r="D72" s="32"/>
       <c r="E72">
         <v>87</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="53">
+      <c r="G72" s="21">
         <v>45504</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B73" s="34"/>
-      <c r="D73" s="22"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="44"/>
+      <c r="D73" s="32"/>
       <c r="F73" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G73" s="53">
+      <c r="G73" s="21">
         <v>45505</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="34"/>
-      <c r="D74" s="22"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="44"/>
+      <c r="D74" s="32"/>
       <c r="F74" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G74" s="53">
+      <c r="G74" s="21">
         <v>45506</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="34"/>
-      <c r="D75" s="22"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="44"/>
+      <c r="D75" s="32"/>
       <c r="F75" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="53">
+      <c r="G75" s="21">
         <v>45507</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B76" s="34"/>
-      <c r="D76" s="22"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="44"/>
+      <c r="D76" s="32"/>
       <c r="F76" s="16" t="s">
         <v>119</v>
       </c>
       <c r="G76" s="53">
-        <v>45508</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B77" s="34"/>
-      <c r="D77" s="22"/>
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="44"/>
+      <c r="D77" s="32"/>
       <c r="E77">
         <v>88</v>
       </c>
       <c r="F77" s="16"/>
-      <c r="G77" s="53">
+      <c r="G77" s="21">
         <v>45509</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B78" s="34"/>
-      <c r="D78" s="22"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="44"/>
+      <c r="D78" s="32"/>
       <c r="E78">
         <v>89</v>
       </c>
       <c r="F78" s="16"/>
-      <c r="G78" s="53">
+      <c r="G78" s="21">
         <v>45510</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="34"/>
-      <c r="D79" s="22"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="44"/>
+      <c r="D79" s="32"/>
       <c r="E79">
         <v>90</v>
       </c>
       <c r="F79" s="16"/>
-      <c r="G79" s="53">
+      <c r="G79" s="21">
         <v>45511</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="34"/>
-      <c r="D80" s="22"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="44"/>
+      <c r="D80" s="32"/>
       <c r="E80">
         <v>91</v>
       </c>
       <c r="F80" s="16"/>
-      <c r="G80" s="53">
+      <c r="G80" s="21">
         <v>45512</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="34"/>
-      <c r="D81" s="22"/>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="44"/>
+      <c r="D81" s="32"/>
       <c r="E81">
         <v>92</v>
       </c>
       <c r="F81" s="16"/>
-      <c r="G81" s="53">
+      <c r="G81" s="21">
         <v>45513</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="34"/>
-      <c r="D82" s="22"/>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="44"/>
+      <c r="D82" s="32"/>
       <c r="E82">
         <v>93</v>
       </c>
       <c r="F82" s="16"/>
-      <c r="G82" s="53">
+      <c r="G82" s="21">
         <v>45514</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B83" s="34"/>
-      <c r="D83" s="22"/>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="44"/>
+      <c r="D83" s="32"/>
       <c r="E83">
         <v>94</v>
       </c>
       <c r="F83" s="16"/>
-      <c r="G83" s="53">
+      <c r="G83" s="21">
         <v>45515</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B84" s="34"/>
-      <c r="D84" s="22"/>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="44"/>
+      <c r="D84" s="32"/>
       <c r="E84">
         <v>95</v>
       </c>
       <c r="F84" s="16"/>
-      <c r="G84" s="53">
+      <c r="G84" s="21">
         <v>45516</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B85" s="34"/>
-      <c r="D85" s="22"/>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="44"/>
+      <c r="D85" s="32"/>
       <c r="E85">
         <v>96</v>
       </c>
       <c r="F85" s="16"/>
-      <c r="G85" s="53">
+      <c r="G85" s="21">
         <v>45517</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B86" s="34"/>
-      <c r="D86" s="22"/>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="44"/>
+      <c r="D86" s="32"/>
       <c r="E86">
         <v>97</v>
       </c>
       <c r="F86" s="16"/>
-      <c r="G86" s="53">
+      <c r="G86" s="21">
         <v>45518</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B87" s="34"/>
-      <c r="D87" s="22"/>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="44"/>
+      <c r="D87" s="32"/>
       <c r="E87">
         <v>98</v>
       </c>
       <c r="F87" s="16"/>
-      <c r="G87" s="53">
+      <c r="G87" s="21">
         <v>45519</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B88" s="34"/>
-      <c r="D88" s="22"/>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="44"/>
+      <c r="D88" s="32"/>
       <c r="E88">
         <v>99</v>
       </c>
       <c r="F88" s="16"/>
-      <c r="G88" s="53">
+      <c r="G88" s="21">
         <v>45520</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B89" s="34"/>
-      <c r="D89" s="22"/>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="44"/>
+      <c r="D89" s="32"/>
       <c r="F89" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G89" s="53">
+      <c r="G89" s="21">
         <v>45521</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="35"/>
+    <row r="90" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="45"/>
       <c r="C90" s="7">
         <v>9</v>
       </c>
-      <c r="D90" s="23"/>
+      <c r="D90" s="33"/>
       <c r="E90" s="7"/>
       <c r="F90" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G90" s="53">
+      <c r="G90" s="21">
         <v>45522</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="21" t="s">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C91" s="2">
         <v>10</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E91" s="2">
@@ -2142,9 +2148,9 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B92" s="22"/>
-      <c r="D92" s="22"/>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="32"/>
+      <c r="D92" s="32"/>
       <c r="E92">
         <v>101</v>
       </c>
@@ -2153,9 +2159,9 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="22"/>
-      <c r="D93" s="22"/>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="32"/>
+      <c r="D93" s="32"/>
       <c r="E93">
         <v>102</v>
       </c>
@@ -2164,9 +2170,9 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="22"/>
-      <c r="D94" s="22"/>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="32"/>
+      <c r="D94" s="32"/>
       <c r="E94">
         <v>103</v>
       </c>
@@ -2175,9 +2181,9 @@
         <v>45446</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="22"/>
-      <c r="D95" s="22"/>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="32"/>
+      <c r="D95" s="32"/>
       <c r="E95">
         <v>104</v>
       </c>
@@ -2186,9 +2192,9 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B96" s="22"/>
-      <c r="D96" s="22"/>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="32"/>
+      <c r="D96" s="32"/>
       <c r="E96">
         <v>105</v>
       </c>
@@ -2197,12 +2203,12 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>35</v>
       </c>
-      <c r="B97" s="22"/>
-      <c r="D97" s="22"/>
+      <c r="B97" s="32"/>
+      <c r="D97" s="32"/>
       <c r="E97">
         <v>106</v>
       </c>
@@ -2211,9 +2217,9 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B98" s="22"/>
-      <c r="D98" s="22"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="32"/>
+      <c r="D98" s="32"/>
       <c r="E98">
         <v>107</v>
       </c>
@@ -2222,9 +2228,9 @@
         <v>45450</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B99" s="22"/>
-      <c r="D99" s="22"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="32"/>
+      <c r="D99" s="32"/>
       <c r="E99">
         <v>108</v>
       </c>
@@ -2233,9 +2239,9 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B100" s="22"/>
-      <c r="D100" s="22"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="32"/>
+      <c r="D100" s="32"/>
       <c r="E100">
         <v>109</v>
       </c>
@@ -2244,9 +2250,9 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B101" s="22"/>
-      <c r="D101" s="22"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="32"/>
+      <c r="D101" s="32"/>
       <c r="E101">
         <v>110</v>
       </c>
@@ -2255,9 +2261,9 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B102" s="22"/>
-      <c r="D102" s="22"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="32"/>
+      <c r="D102" s="32"/>
       <c r="E102">
         <v>111</v>
       </c>
@@ -2266,9 +2272,9 @@
         <v>45454</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B103" s="22"/>
-      <c r="D103" s="22"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="32"/>
+      <c r="D103" s="32"/>
       <c r="E103">
         <v>112</v>
       </c>
@@ -2277,9 +2283,9 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B104" s="22"/>
-      <c r="D104" s="22"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="32"/>
+      <c r="D104" s="32"/>
       <c r="E104">
         <v>113</v>
       </c>
@@ -2288,9 +2294,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B105" s="22"/>
-      <c r="D105" s="22"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="32"/>
+      <c r="D105" s="32"/>
       <c r="E105">
         <v>114</v>
       </c>
@@ -2299,9 +2305,9 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B106" s="22"/>
-      <c r="D106" s="22"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="32"/>
+      <c r="D106" s="32"/>
       <c r="E106">
         <v>115</v>
       </c>
@@ -2310,12 +2316,12 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="23"/>
+    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="33"/>
       <c r="C107" s="7">
         <v>23</v>
       </c>
-      <c r="D107" s="23"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="7">
         <v>116</v>
       </c>
@@ -2324,14 +2330,14 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="21" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C108" s="2">
         <v>24</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="31" t="s">
         <v>32</v>
       </c>
       <c r="E108" s="2">
@@ -2342,9 +2348,9 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B109" s="22"/>
-      <c r="D109" s="22"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="32"/>
+      <c r="D109" s="32"/>
       <c r="E109">
         <v>118</v>
       </c>
@@ -2353,9 +2359,9 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B110" s="22"/>
-      <c r="D110" s="22"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="32"/>
+      <c r="D110" s="32"/>
       <c r="E110">
         <v>119</v>
       </c>
@@ -2364,9 +2370,9 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B111" s="22"/>
-      <c r="D111" s="22"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="32"/>
+      <c r="D111" s="32"/>
       <c r="E111">
         <v>120</v>
       </c>
@@ -2375,12 +2381,12 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="22"/>
-      <c r="D112" s="22"/>
+      <c r="B112" s="32"/>
+      <c r="D112" s="32"/>
       <c r="E112">
         <v>121</v>
       </c>
@@ -2389,9 +2395,9 @@
         <v>45464</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B113" s="22"/>
-      <c r="D113" s="22"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="32"/>
+      <c r="D113" s="32"/>
       <c r="E113">
         <v>122</v>
       </c>
@@ -2400,9 +2406,9 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B114" s="22"/>
-      <c r="D114" s="22"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="32"/>
+      <c r="D114" s="32"/>
       <c r="E114">
         <v>123</v>
       </c>
@@ -2411,9 +2417,9 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B115" s="22"/>
-      <c r="D115" s="22"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="32"/>
+      <c r="D115" s="32"/>
       <c r="E115">
         <v>124</v>
       </c>
@@ -2422,9 +2428,9 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B116" s="22"/>
-      <c r="D116" s="22"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="32"/>
+      <c r="D116" s="32"/>
       <c r="E116">
         <v>125</v>
       </c>
@@ -2433,9 +2439,9 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B117" s="22"/>
-      <c r="D117" s="22"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B117" s="32"/>
+      <c r="D117" s="32"/>
       <c r="E117">
         <v>126</v>
       </c>
@@ -2444,9 +2450,9 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B118" s="22"/>
-      <c r="D118" s="22"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B118" s="32"/>
+      <c r="D118" s="32"/>
       <c r="E118">
         <v>127</v>
       </c>
@@ -2455,9 +2461,9 @@
         <v>45470</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B119" s="22"/>
-      <c r="D119" s="22"/>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B119" s="32"/>
+      <c r="D119" s="32"/>
       <c r="E119">
         <v>128</v>
       </c>
@@ -2466,12 +2472,12 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B120" s="23"/>
+    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="33"/>
       <c r="C120" s="7">
         <v>2</v>
       </c>
-      <c r="D120" s="23"/>
+      <c r="D120" s="33"/>
       <c r="E120" s="7">
         <v>129</v>
       </c>
@@ -2480,14 +2486,14 @@
         <v>45472</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B121" s="24" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B121" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C121" s="2">
         <v>3</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="D121" s="34" t="s">
         <v>33</v>
       </c>
       <c r="E121" s="2">
@@ -2498,9 +2504,9 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B122" s="25"/>
-      <c r="D122" s="25"/>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B122" s="35"/>
+      <c r="D122" s="35"/>
       <c r="E122">
         <v>131</v>
       </c>
@@ -2509,9 +2515,9 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B123" s="25"/>
-      <c r="D123" s="25"/>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B123" s="35"/>
+      <c r="D123" s="35"/>
       <c r="E123">
         <v>132</v>
       </c>
@@ -2520,9 +2526,9 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B124" s="25"/>
-      <c r="D124" s="25"/>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="35"/>
+      <c r="D124" s="35"/>
       <c r="E124">
         <v>133</v>
       </c>
@@ -2531,9 +2537,9 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B125" s="25"/>
-      <c r="D125" s="25"/>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="35"/>
+      <c r="D125" s="35"/>
       <c r="E125">
         <v>134</v>
       </c>
@@ -2542,9 +2548,9 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B126" s="25"/>
-      <c r="D126" s="25"/>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="35"/>
+      <c r="D126" s="35"/>
       <c r="E126">
         <v>135</v>
       </c>
@@ -2553,9 +2559,9 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B127" s="25"/>
-      <c r="D127" s="25"/>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="35"/>
+      <c r="D127" s="35"/>
       <c r="E127">
         <v>136</v>
       </c>
@@ -2564,12 +2570,12 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>35</v>
       </c>
-      <c r="B128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="B128" s="35"/>
+      <c r="D128" s="35"/>
       <c r="E128">
         <v>137</v>
       </c>
@@ -2578,9 +2584,9 @@
         <v>45480</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B129" s="25"/>
-      <c r="D129" s="25"/>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B129" s="35"/>
+      <c r="D129" s="35"/>
       <c r="E129">
         <v>138</v>
       </c>
@@ -2589,9 +2595,9 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B130" s="25"/>
-      <c r="D130" s="25"/>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B130" s="35"/>
+      <c r="D130" s="35"/>
       <c r="E130">
         <v>139</v>
       </c>
@@ -2600,9 +2606,9 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B131" s="25"/>
-      <c r="D131" s="25"/>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B131" s="35"/>
+      <c r="D131" s="35"/>
       <c r="E131">
         <v>140</v>
       </c>
@@ -2611,9 +2617,9 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B132" s="25"/>
-      <c r="D132" s="25"/>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B132" s="35"/>
+      <c r="D132" s="35"/>
       <c r="E132">
         <v>141</v>
       </c>
@@ -2622,9 +2628,9 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B133" s="25"/>
-      <c r="D133" s="25"/>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B133" s="35"/>
+      <c r="D133" s="35"/>
       <c r="E133">
         <v>142</v>
       </c>
@@ -2633,9 +2639,9 @@
         <v>45485</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B134" s="25"/>
-      <c r="D134" s="25"/>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B134" s="35"/>
+      <c r="D134" s="35"/>
       <c r="E134">
         <v>143</v>
       </c>
@@ -2644,9 +2650,9 @@
         <v>45486</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B135" s="25"/>
-      <c r="D135" s="25"/>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B135" s="35"/>
+      <c r="D135" s="35"/>
       <c r="E135">
         <v>144</v>
       </c>
@@ -2655,9 +2661,9 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B136" s="25"/>
-      <c r="D136" s="25"/>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B136" s="35"/>
+      <c r="D136" s="35"/>
       <c r="E136">
         <v>145</v>
       </c>
@@ -2666,9 +2672,9 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B137" s="25"/>
-      <c r="D137" s="25"/>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B137" s="35"/>
+      <c r="D137" s="35"/>
       <c r="E137">
         <v>146</v>
       </c>
@@ -2677,12 +2683,12 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B138" s="26"/>
+    <row r="138" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="36"/>
       <c r="C138" s="7">
         <v>16</v>
       </c>
-      <c r="D138" s="26"/>
+      <c r="D138" s="36"/>
       <c r="E138" s="7">
         <v>147</v>
       </c>
@@ -2691,14 +2697,14 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B139" s="21" t="s">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B139" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C139" s="2">
         <v>18</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D139" s="31" t="s">
         <v>36</v>
       </c>
       <c r="E139" s="2">
@@ -2709,9 +2715,9 @@
         <v>45491</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B140" s="22"/>
-      <c r="D140" s="22"/>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B140" s="32"/>
+      <c r="D140" s="32"/>
       <c r="E140">
         <v>149</v>
       </c>
@@ -2720,9 +2726,9 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B141" s="22"/>
-      <c r="D141" s="22"/>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B141" s="32"/>
+      <c r="D141" s="32"/>
       <c r="E141">
         <v>150</v>
       </c>
@@ -2731,9 +2737,9 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B142" s="22"/>
-      <c r="D142" s="22"/>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B142" s="32"/>
+      <c r="D142" s="32"/>
       <c r="E142">
         <v>151</v>
       </c>
@@ -2742,9 +2748,9 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B143" s="22"/>
-      <c r="D143" s="22"/>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B143" s="32"/>
+      <c r="D143" s="32"/>
       <c r="E143">
         <v>152</v>
       </c>
@@ -2753,9 +2759,9 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B144" s="22"/>
-      <c r="D144" s="22"/>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B144" s="32"/>
+      <c r="D144" s="32"/>
       <c r="E144">
         <v>153</v>
       </c>
@@ -2764,9 +2770,9 @@
         <v>45496</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B145" s="22"/>
-      <c r="D145" s="22"/>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B145" s="32"/>
+      <c r="D145" s="32"/>
       <c r="E145">
         <v>154</v>
       </c>
@@ -2775,12 +2781,12 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>37</v>
       </c>
-      <c r="B146" s="22"/>
-      <c r="D146" s="22"/>
+      <c r="B146" s="32"/>
+      <c r="D146" s="32"/>
       <c r="E146">
         <v>155</v>
       </c>
@@ -2789,9 +2795,9 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B147" s="22"/>
-      <c r="D147" s="22"/>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B147" s="32"/>
+      <c r="D147" s="32"/>
       <c r="E147">
         <v>156</v>
       </c>
@@ -2800,9 +2806,9 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B148" s="22"/>
-      <c r="D148" s="22"/>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B148" s="32"/>
+      <c r="D148" s="32"/>
       <c r="E148">
         <v>157</v>
       </c>
@@ -2811,9 +2817,9 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B149" s="22"/>
-      <c r="D149" s="22"/>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B149" s="32"/>
+      <c r="D149" s="32"/>
       <c r="E149">
         <v>158</v>
       </c>
@@ -2822,9 +2828,9 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B150" s="22"/>
-      <c r="D150" s="22"/>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B150" s="32"/>
+      <c r="D150" s="32"/>
       <c r="E150">
         <v>159</v>
       </c>
@@ -2833,9 +2839,9 @@
         <v>45502</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B151" s="22"/>
-      <c r="D151" s="22"/>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B151" s="32"/>
+      <c r="D151" s="32"/>
       <c r="E151">
         <v>160</v>
       </c>
@@ -2844,9 +2850,9 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B152" s="22"/>
-      <c r="D152" s="22"/>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B152" s="32"/>
+      <c r="D152" s="32"/>
       <c r="E152">
         <v>161</v>
       </c>
@@ -2855,12 +2861,12 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B153" s="23"/>
+    <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="33"/>
       <c r="C153" s="7">
         <v>30</v>
       </c>
-      <c r="D153" s="23"/>
+      <c r="D153" s="33"/>
       <c r="E153" s="7">
         <v>162</v>
       </c>
@@ -2869,10 +2875,10 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="21" t="s">
+      <c r="D154" s="31" t="s">
         <v>42</v>
       </c>
       <c r="E154" s="2">
@@ -2883,9 +2889,9 @@
         <v>45506</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B155" s="4"/>
-      <c r="D155" s="22"/>
+      <c r="D155" s="32"/>
       <c r="E155">
         <v>164</v>
       </c>
@@ -2894,9 +2900,9 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B156" s="4"/>
-      <c r="D156" s="22"/>
+      <c r="D156" s="32"/>
       <c r="E156">
         <v>165</v>
       </c>
@@ -2905,9 +2911,9 @@
         <v>45508</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B157" s="4"/>
-      <c r="D157" s="22"/>
+      <c r="D157" s="32"/>
       <c r="E157">
         <v>166</v>
       </c>
@@ -2916,9 +2922,9 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B158" s="4"/>
-      <c r="D158" s="22"/>
+      <c r="D158" s="32"/>
       <c r="E158">
         <v>167</v>
       </c>
@@ -2927,9 +2933,9 @@
         <v>45510</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B159" s="4"/>
-      <c r="D159" s="22"/>
+      <c r="D159" s="32"/>
       <c r="E159">
         <v>168</v>
       </c>
@@ -2938,9 +2944,9 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B160" s="4"/>
-      <c r="D160" s="22"/>
+      <c r="D160" s="32"/>
       <c r="E160">
         <v>169</v>
       </c>
@@ -2949,9 +2955,9 @@
         <v>45512</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="4"/>
-      <c r="D161" s="22"/>
+      <c r="D161" s="32"/>
       <c r="E161">
         <v>170</v>
       </c>
@@ -2960,9 +2966,9 @@
         <v>45513</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162" s="4"/>
-      <c r="D162" s="22"/>
+      <c r="D162" s="32"/>
       <c r="E162">
         <v>171</v>
       </c>
@@ -2971,9 +2977,9 @@
         <v>45514</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="4"/>
-      <c r="D163" s="22"/>
+      <c r="D163" s="32"/>
       <c r="E163">
         <v>172</v>
       </c>
@@ -2982,9 +2988,9 @@
         <v>45515</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="4"/>
-      <c r="D164" s="22"/>
+      <c r="D164" s="32"/>
       <c r="E164">
         <v>173</v>
       </c>
@@ -2993,10 +2999,10 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="165" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
-      <c r="D165" s="23"/>
+      <c r="D165" s="33"/>
       <c r="E165" s="7">
         <v>174</v>
       </c>
@@ -3005,10 +3011,10 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="39" t="s">
+      <c r="D166" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E166" s="2">
@@ -3019,9 +3025,9 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="4"/>
-      <c r="D167" s="40"/>
+      <c r="D167" s="38"/>
       <c r="E167">
         <v>176</v>
       </c>
@@ -3030,9 +3036,9 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="4"/>
-      <c r="D168" s="40"/>
+      <c r="D168" s="38"/>
       <c r="E168">
         <v>177</v>
       </c>
@@ -3041,9 +3047,9 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="4"/>
-      <c r="D169" s="40"/>
+      <c r="D169" s="38"/>
       <c r="E169">
         <v>178</v>
       </c>
@@ -3052,9 +3058,9 @@
         <v>45521</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="4"/>
-      <c r="D170" s="40"/>
+      <c r="D170" s="38"/>
       <c r="E170">
         <v>179</v>
       </c>
@@ -3063,9 +3069,9 @@
         <v>45522</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="4"/>
-      <c r="D171" s="40"/>
+      <c r="D171" s="38"/>
       <c r="E171">
         <v>180</v>
       </c>
@@ -3074,9 +3080,9 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="4"/>
-      <c r="D172" s="40"/>
+      <c r="D172" s="38"/>
       <c r="E172">
         <v>181</v>
       </c>
@@ -3085,10 +3091,10 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="173" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B173" s="6"/>
       <c r="C173" s="7"/>
-      <c r="D173" s="41"/>
+      <c r="D173" s="39"/>
       <c r="E173" s="7">
         <v>182</v>
       </c>
@@ -3097,10 +3103,10 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="30" t="s">
+      <c r="D174" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E174" s="2">
@@ -3111,9 +3117,9 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="4"/>
-      <c r="D175" s="31"/>
+      <c r="D175" s="29"/>
       <c r="E175">
         <v>184</v>
       </c>
@@ -3122,9 +3128,9 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="4"/>
-      <c r="D176" s="31"/>
+      <c r="D176" s="29"/>
       <c r="E176">
         <v>185</v>
       </c>
@@ -3133,9 +3139,9 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="4"/>
-      <c r="D177" s="31"/>
+      <c r="D177" s="29"/>
       <c r="E177">
         <v>186</v>
       </c>
@@ -3144,9 +3150,9 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="4"/>
-      <c r="D178" s="31"/>
+      <c r="D178" s="29"/>
       <c r="E178">
         <v>187</v>
       </c>
@@ -3155,9 +3161,9 @@
         <v>45530</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="4"/>
-      <c r="D179" s="31"/>
+      <c r="D179" s="29"/>
       <c r="E179">
         <v>188</v>
       </c>
@@ -3166,9 +3172,9 @@
         <v>45531</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="4"/>
-      <c r="D180" s="31"/>
+      <c r="D180" s="29"/>
       <c r="E180">
         <v>189</v>
       </c>
@@ -3177,9 +3183,9 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="4"/>
-      <c r="D181" s="31"/>
+      <c r="D181" s="29"/>
       <c r="E181">
         <v>190</v>
       </c>
@@ -3188,9 +3194,9 @@
         <v>45533</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="4"/>
-      <c r="D182" s="31"/>
+      <c r="D182" s="29"/>
       <c r="E182">
         <v>191</v>
       </c>
@@ -3199,9 +3205,9 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="4"/>
-      <c r="D183" s="31"/>
+      <c r="D183" s="29"/>
       <c r="E183">
         <v>192</v>
       </c>
@@ -3210,9 +3216,9 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="4"/>
-      <c r="D184" s="31"/>
+      <c r="D184" s="29"/>
       <c r="E184">
         <v>193</v>
       </c>
@@ -3221,9 +3227,9 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="4"/>
-      <c r="D185" s="31"/>
+      <c r="D185" s="29"/>
       <c r="E185">
         <v>194</v>
       </c>
@@ -3232,10 +3238,10 @@
         <v>45537</v>
       </c>
     </row>
-    <row r="186" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
-      <c r="D186" s="32"/>
+      <c r="D186" s="30"/>
       <c r="E186" s="7">
         <v>195</v>
       </c>
@@ -3244,10 +3250,10 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="21" t="s">
+      <c r="D187" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E187" s="2">
@@ -3258,9 +3264,9 @@
         <v>45539</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="4"/>
-      <c r="D188" s="22"/>
+      <c r="D188" s="32"/>
       <c r="E188">
         <v>197</v>
       </c>
@@ -3269,9 +3275,9 @@
         <v>45540</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="4"/>
-      <c r="D189" s="22"/>
+      <c r="D189" s="32"/>
       <c r="E189">
         <v>198</v>
       </c>
@@ -3280,9 +3286,9 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="4"/>
-      <c r="D190" s="22"/>
+      <c r="D190" s="32"/>
       <c r="E190">
         <v>199</v>
       </c>
@@ -3291,9 +3297,9 @@
         <v>45542</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="4"/>
-      <c r="D191" s="22"/>
+      <c r="D191" s="32"/>
       <c r="E191">
         <v>200</v>
       </c>
@@ -3302,9 +3308,9 @@
         <v>45543</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="4"/>
-      <c r="D192" s="22"/>
+      <c r="D192" s="32"/>
       <c r="E192">
         <v>201</v>
       </c>
@@ -3313,9 +3319,9 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="4"/>
-      <c r="D193" s="22"/>
+      <c r="D193" s="32"/>
       <c r="E193">
         <v>202</v>
       </c>
@@ -3324,9 +3330,9 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="4"/>
-      <c r="D194" s="22"/>
+      <c r="D194" s="32"/>
       <c r="E194">
         <v>203</v>
       </c>
@@ -3335,9 +3341,9 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="4"/>
-      <c r="D195" s="22"/>
+      <c r="D195" s="32"/>
       <c r="E195">
         <v>204</v>
       </c>
@@ -3346,9 +3352,9 @@
         <v>45547</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="4"/>
-      <c r="D196" s="22"/>
+      <c r="D196" s="32"/>
       <c r="E196">
         <v>205</v>
       </c>
@@ -3357,9 +3363,9 @@
         <v>45548</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="4"/>
-      <c r="D197" s="22"/>
+      <c r="D197" s="32"/>
       <c r="E197">
         <v>206</v>
       </c>
@@ -3368,9 +3374,9 @@
         <v>45549</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="4"/>
-      <c r="D198" s="22"/>
+      <c r="D198" s="32"/>
       <c r="E198">
         <v>207</v>
       </c>
@@ -3379,9 +3385,9 @@
         <v>45550</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="4"/>
-      <c r="D199" s="22"/>
+      <c r="D199" s="32"/>
       <c r="E199">
         <v>208</v>
       </c>
@@ -3390,9 +3396,9 @@
         <v>45551</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B200" s="4"/>
-      <c r="D200" s="22"/>
+      <c r="D200" s="32"/>
       <c r="E200">
         <v>209</v>
       </c>
@@ -3401,9 +3407,9 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B201" s="4"/>
-      <c r="D201" s="22"/>
+      <c r="D201" s="32"/>
       <c r="E201">
         <v>210</v>
       </c>
@@ -3412,9 +3418,9 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B202" s="4"/>
-      <c r="D202" s="22"/>
+      <c r="D202" s="32"/>
       <c r="E202">
         <v>211</v>
       </c>
@@ -3423,9 +3429,9 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B203" s="4"/>
-      <c r="D203" s="22"/>
+      <c r="D203" s="32"/>
       <c r="E203">
         <v>212</v>
       </c>
@@ -3434,9 +3440,9 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B204" s="4"/>
-      <c r="D204" s="22"/>
+      <c r="D204" s="32"/>
       <c r="E204">
         <v>213</v>
       </c>
@@ -3445,9 +3451,9 @@
         <v>45556</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B205" s="4"/>
-      <c r="D205" s="22"/>
+      <c r="D205" s="32"/>
       <c r="E205">
         <v>214</v>
       </c>
@@ -3456,9 +3462,9 @@
         <v>45557</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B206" s="4"/>
-      <c r="D206" s="22"/>
+      <c r="D206" s="32"/>
       <c r="E206">
         <v>215</v>
       </c>
@@ -3467,9 +3473,9 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B207" s="4"/>
-      <c r="D207" s="22"/>
+      <c r="D207" s="32"/>
       <c r="E207">
         <v>216</v>
       </c>
@@ -3478,9 +3484,9 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B208" s="4"/>
-      <c r="D208" s="22"/>
+      <c r="D208" s="32"/>
       <c r="E208">
         <v>217</v>
       </c>
@@ -3489,9 +3495,9 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209" s="4"/>
-      <c r="D209" s="22"/>
+      <c r="D209" s="32"/>
       <c r="E209">
         <v>218</v>
       </c>
@@ -3500,9 +3506,9 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="4"/>
-      <c r="D210" s="22"/>
+      <c r="D210" s="32"/>
       <c r="E210">
         <v>219</v>
       </c>
@@ -3511,9 +3517,9 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211" s="4"/>
-      <c r="D211" s="22"/>
+      <c r="D211" s="32"/>
       <c r="E211">
         <v>220</v>
       </c>
@@ -3522,9 +3528,9 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212" s="4"/>
-      <c r="D212" s="22"/>
+      <c r="D212" s="32"/>
       <c r="E212">
         <v>221</v>
       </c>
@@ -3533,9 +3539,9 @@
         <v>45564</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B213" s="4"/>
-      <c r="D213" s="22"/>
+      <c r="D213" s="32"/>
       <c r="E213">
         <v>222</v>
       </c>
@@ -3544,9 +3550,9 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B214" s="4"/>
-      <c r="D214" s="22"/>
+      <c r="D214" s="32"/>
       <c r="E214">
         <v>223</v>
       </c>
@@ -3555,10 +3561,10 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="215" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B215" s="6"/>
       <c r="C215" s="7"/>
-      <c r="D215" s="23"/>
+      <c r="D215" s="33"/>
       <c r="E215" s="7">
         <v>224</v>
       </c>
@@ -3567,10 +3573,10 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="21" t="s">
+      <c r="D216" s="31" t="s">
         <v>46</v>
       </c>
       <c r="E216" s="2">
@@ -3581,9 +3587,9 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B217" s="4"/>
-      <c r="D217" s="22"/>
+      <c r="D217" s="32"/>
       <c r="E217">
         <v>226</v>
       </c>
@@ -3592,9 +3598,9 @@
         <v>45569</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218" s="4"/>
-      <c r="D218" s="22"/>
+      <c r="D218" s="32"/>
       <c r="E218">
         <v>227</v>
       </c>
@@ -3603,9 +3609,9 @@
         <v>45570</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219" s="4"/>
-      <c r="D219" s="22"/>
+      <c r="D219" s="32"/>
       <c r="E219">
         <v>228</v>
       </c>
@@ -3614,9 +3620,9 @@
         <v>45571</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B220" s="4"/>
-      <c r="D220" s="22"/>
+      <c r="D220" s="32"/>
       <c r="E220">
         <v>229</v>
       </c>
@@ -3625,9 +3631,9 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B221" s="4"/>
-      <c r="D221" s="22"/>
+      <c r="D221" s="32"/>
       <c r="E221">
         <v>230</v>
       </c>
@@ -3636,9 +3642,9 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B222" s="4"/>
-      <c r="D222" s="22"/>
+      <c r="D222" s="32"/>
       <c r="E222">
         <v>231</v>
       </c>
@@ -3647,9 +3653,9 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B223" s="4"/>
-      <c r="D223" s="22"/>
+      <c r="D223" s="32"/>
       <c r="E223">
         <v>232</v>
       </c>
@@ -3658,9 +3664,9 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B224" s="4"/>
-      <c r="D224" s="22"/>
+      <c r="D224" s="32"/>
       <c r="E224">
         <v>233</v>
       </c>
@@ -3669,9 +3675,9 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B225" s="4"/>
-      <c r="D225" s="22"/>
+      <c r="D225" s="32"/>
       <c r="E225">
         <v>234</v>
       </c>
@@ -3680,9 +3686,9 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B226" s="4"/>
-      <c r="D226" s="22"/>
+      <c r="D226" s="32"/>
       <c r="E226">
         <v>235</v>
       </c>
@@ -3691,9 +3697,9 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B227" s="4"/>
-      <c r="D227" s="22"/>
+      <c r="D227" s="32"/>
       <c r="E227">
         <v>236</v>
       </c>
@@ -3702,9 +3708,9 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B228" s="4"/>
-      <c r="D228" s="22"/>
+      <c r="D228" s="32"/>
       <c r="E228">
         <v>237</v>
       </c>
@@ -3713,9 +3719,9 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B229" s="4"/>
-      <c r="D229" s="22"/>
+      <c r="D229" s="32"/>
       <c r="E229">
         <v>238</v>
       </c>
@@ -3724,9 +3730,9 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B230" s="4"/>
-      <c r="D230" s="22"/>
+      <c r="D230" s="32"/>
       <c r="E230">
         <v>239</v>
       </c>
@@ -3735,9 +3741,9 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B231" s="4"/>
-      <c r="D231" s="22"/>
+      <c r="D231" s="32"/>
       <c r="E231">
         <v>240</v>
       </c>
@@ -3746,9 +3752,9 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B232" s="4"/>
-      <c r="D232" s="22"/>
+      <c r="D232" s="32"/>
       <c r="E232">
         <v>241</v>
       </c>
@@ -3757,9 +3763,9 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B233" s="4"/>
-      <c r="D233" s="22"/>
+      <c r="D233" s="32"/>
       <c r="E233">
         <v>242</v>
       </c>
@@ -3768,9 +3774,9 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B234" s="4"/>
-      <c r="D234" s="22"/>
+      <c r="D234" s="32"/>
       <c r="E234">
         <v>243</v>
       </c>
@@ -3779,9 +3785,9 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B235" s="4"/>
-      <c r="D235" s="22"/>
+      <c r="D235" s="32"/>
       <c r="E235">
         <v>244</v>
       </c>
@@ -3790,9 +3796,9 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B236" s="4"/>
-      <c r="D236" s="22"/>
+      <c r="D236" s="32"/>
       <c r="E236">
         <v>245</v>
       </c>
@@ -3801,10 +3807,10 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="237" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B237" s="6"/>
       <c r="C237" s="7"/>
-      <c r="D237" s="23"/>
+      <c r="D237" s="33"/>
       <c r="E237" s="7">
         <v>246</v>
       </c>
@@ -3813,10 +3819,10 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="2"/>
-      <c r="D238" s="21" t="s">
+      <c r="D238" s="31" t="s">
         <v>47</v>
       </c>
       <c r="E238" s="2">
@@ -3827,9 +3833,9 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B239" s="4"/>
-      <c r="D239" s="22"/>
+      <c r="D239" s="32"/>
       <c r="E239">
         <v>248</v>
       </c>
@@ -3838,9 +3844,9 @@
         <v>45591</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B240" s="4"/>
-      <c r="D240" s="22"/>
+      <c r="D240" s="32"/>
       <c r="E240">
         <v>249</v>
       </c>
@@ -3849,9 +3855,9 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B241" s="4"/>
-      <c r="D241" s="22"/>
+      <c r="D241" s="32"/>
       <c r="E241">
         <v>250</v>
       </c>
@@ -3860,9 +3866,9 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B242" s="4"/>
-      <c r="D242" s="22"/>
+      <c r="D242" s="32"/>
       <c r="E242">
         <v>251</v>
       </c>
@@ -3871,9 +3877,9 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B243" s="4"/>
-      <c r="D243" s="22"/>
+      <c r="D243" s="32"/>
       <c r="E243">
         <v>252</v>
       </c>
@@ -3882,9 +3888,9 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B244" s="4"/>
-      <c r="D244" s="22"/>
+      <c r="D244" s="32"/>
       <c r="E244">
         <v>253</v>
       </c>
@@ -3893,9 +3899,9 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B245" s="4"/>
-      <c r="D245" s="22"/>
+      <c r="D245" s="32"/>
       <c r="E245">
         <v>254</v>
       </c>
@@ -3904,9 +3910,9 @@
         <v>45597</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B246" s="4"/>
-      <c r="D246" s="22"/>
+      <c r="D246" s="32"/>
       <c r="E246">
         <v>255</v>
       </c>
@@ -3915,9 +3921,9 @@
         <v>45598</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B247" s="4"/>
-      <c r="D247" s="22"/>
+      <c r="D247" s="32"/>
       <c r="E247">
         <v>256</v>
       </c>
@@ -3926,9 +3932,9 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B248" s="4"/>
-      <c r="D248" s="22"/>
+      <c r="D248" s="32"/>
       <c r="E248">
         <v>257</v>
       </c>
@@ -3937,9 +3943,9 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B249" s="4"/>
-      <c r="D249" s="22"/>
+      <c r="D249" s="32"/>
       <c r="E249">
         <v>258</v>
       </c>
@@ -3948,9 +3954,9 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B250" s="4"/>
-      <c r="D250" s="22"/>
+      <c r="D250" s="32"/>
       <c r="E250">
         <v>259</v>
       </c>
@@ -3959,9 +3965,9 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B251" s="4"/>
-      <c r="D251" s="22"/>
+      <c r="D251" s="32"/>
       <c r="E251">
         <v>260</v>
       </c>
@@ -3970,9 +3976,9 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B252" s="4"/>
-      <c r="D252" s="22"/>
+      <c r="D252" s="32"/>
       <c r="E252">
         <v>261</v>
       </c>
@@ -3981,9 +3987,9 @@
         <v>45604</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B253" s="4"/>
-      <c r="D253" s="22"/>
+      <c r="D253" s="32"/>
       <c r="E253">
         <v>262</v>
       </c>
@@ -3992,9 +3998,9 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B254" s="4"/>
-      <c r="D254" s="22"/>
+      <c r="D254" s="32"/>
       <c r="E254">
         <v>263</v>
       </c>
@@ -4003,9 +4009,9 @@
         <v>45606</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B255" s="4"/>
-      <c r="D255" s="22"/>
+      <c r="D255" s="32"/>
       <c r="E255">
         <v>264</v>
       </c>
@@ -4014,9 +4020,9 @@
         <v>45607</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B256" s="4"/>
-      <c r="D256" s="22"/>
+      <c r="D256" s="32"/>
       <c r="E256">
         <v>265</v>
       </c>
@@ -4025,10 +4031,10 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="257" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
-      <c r="D257" s="23"/>
+      <c r="D257" s="33"/>
       <c r="E257" s="7">
         <v>266</v>
       </c>
@@ -4037,10 +4043,10 @@
         <v>45609</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B258" s="1"/>
       <c r="C258" s="2"/>
-      <c r="D258" s="27" t="s">
+      <c r="D258" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E258" s="2">
@@ -4051,9 +4057,9 @@
         <v>45610</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B259" s="4"/>
-      <c r="D259" s="28"/>
+      <c r="D259" s="26"/>
       <c r="E259">
         <v>268</v>
       </c>
@@ -4062,9 +4068,9 @@
         <v>45611</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B260" s="4"/>
-      <c r="D260" s="28"/>
+      <c r="D260" s="26"/>
       <c r="E260">
         <v>269</v>
       </c>
@@ -4073,9 +4079,9 @@
         <v>45612</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B261" s="4"/>
-      <c r="D261" s="28"/>
+      <c r="D261" s="26"/>
       <c r="E261">
         <v>270</v>
       </c>
@@ -4084,9 +4090,9 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B262" s="4"/>
-      <c r="D262" s="28"/>
+      <c r="D262" s="26"/>
       <c r="E262">
         <v>271</v>
       </c>
@@ -4095,9 +4101,9 @@
         <v>45614</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B263" s="4"/>
-      <c r="D263" s="28"/>
+      <c r="D263" s="26"/>
       <c r="E263">
         <v>272</v>
       </c>
@@ -4106,9 +4112,9 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B264" s="4"/>
-      <c r="D264" s="28"/>
+      <c r="D264" s="26"/>
       <c r="E264">
         <v>273</v>
       </c>
@@ -4117,9 +4123,9 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B265" s="4"/>
-      <c r="D265" s="28"/>
+      <c r="D265" s="26"/>
       <c r="E265">
         <v>274</v>
       </c>
@@ -4128,9 +4134,9 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B266" s="4"/>
-      <c r="D266" s="28"/>
+      <c r="D266" s="26"/>
       <c r="E266">
         <v>275</v>
       </c>
@@ -4139,9 +4145,9 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B267" s="4"/>
-      <c r="D267" s="28"/>
+      <c r="D267" s="26"/>
       <c r="E267">
         <v>276</v>
       </c>
@@ -4150,9 +4156,9 @@
         <v>45619</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B268" s="4"/>
-      <c r="D268" s="28"/>
+      <c r="D268" s="26"/>
       <c r="E268">
         <v>277</v>
       </c>
@@ -4161,9 +4167,9 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B269" s="4"/>
-      <c r="D269" s="28"/>
+      <c r="D269" s="26"/>
       <c r="E269">
         <v>278</v>
       </c>
@@ -4172,9 +4178,9 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B270" s="4"/>
-      <c r="D270" s="28"/>
+      <c r="D270" s="26"/>
       <c r="E270">
         <v>279</v>
       </c>
@@ -4183,9 +4189,9 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B271" s="4"/>
-      <c r="D271" s="28"/>
+      <c r="D271" s="26"/>
       <c r="E271">
         <v>280</v>
       </c>
@@ -4194,9 +4200,9 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272" s="4"/>
-      <c r="D272" s="28"/>
+      <c r="D272" s="26"/>
       <c r="E272">
         <v>281</v>
       </c>
@@ -4205,9 +4211,9 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B273" s="4"/>
-      <c r="D273" s="28"/>
+      <c r="D273" s="26"/>
       <c r="E273">
         <v>282</v>
       </c>
@@ -4216,9 +4222,9 @@
         <v>45625</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B274" s="4"/>
-      <c r="D274" s="28"/>
+      <c r="D274" s="26"/>
       <c r="E274">
         <v>283</v>
       </c>
@@ -4227,10 +4233,10 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="275" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B275" s="6"/>
       <c r="C275" s="7"/>
-      <c r="D275" s="29"/>
+      <c r="D275" s="27"/>
       <c r="E275" s="7">
         <v>284</v>
       </c>
@@ -4239,10 +4245,10 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B276" s="1"/>
       <c r="C276" s="2"/>
-      <c r="D276" s="30" t="s">
+      <c r="D276" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E276" s="2">
@@ -4253,9 +4259,9 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B277" s="4"/>
-      <c r="D277" s="31"/>
+      <c r="D277" s="29"/>
       <c r="E277">
         <v>286</v>
       </c>
@@ -4264,9 +4270,9 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B278" s="4"/>
-      <c r="D278" s="31"/>
+      <c r="D278" s="29"/>
       <c r="E278">
         <v>287</v>
       </c>
@@ -4275,9 +4281,9 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B279" s="4"/>
-      <c r="D279" s="31"/>
+      <c r="D279" s="29"/>
       <c r="E279">
         <v>288</v>
       </c>
@@ -4286,9 +4292,9 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B280" s="4"/>
-      <c r="D280" s="31"/>
+      <c r="D280" s="29"/>
       <c r="E280">
         <v>289</v>
       </c>
@@ -4297,9 +4303,9 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B281" s="4"/>
-      <c r="D281" s="31"/>
+      <c r="D281" s="29"/>
       <c r="E281">
         <v>290</v>
       </c>
@@ -4308,9 +4314,9 @@
         <v>45633</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B282" s="4"/>
-      <c r="D282" s="31"/>
+      <c r="D282" s="29"/>
       <c r="E282">
         <v>291</v>
       </c>
@@ -4319,9 +4325,9 @@
         <v>45634</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B283" s="4"/>
-      <c r="D283" s="31"/>
+      <c r="D283" s="29"/>
       <c r="E283">
         <v>292</v>
       </c>
@@ -4330,9 +4336,9 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B284" s="4"/>
-      <c r="D284" s="31"/>
+      <c r="D284" s="29"/>
       <c r="E284">
         <v>293</v>
       </c>
@@ -4341,10 +4347,10 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="285" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B285" s="6"/>
       <c r="C285" s="7"/>
-      <c r="D285" s="32"/>
+      <c r="D285" s="30"/>
       <c r="E285" s="7">
         <v>294</v>
       </c>
@@ -4353,10 +4359,10 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B286" s="1"/>
       <c r="C286" s="2"/>
-      <c r="D286" s="21" t="s">
+      <c r="D286" s="31" t="s">
         <v>50</v>
       </c>
       <c r="E286" s="2">
@@ -4367,9 +4373,9 @@
         <v>45638</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B287" s="4"/>
-      <c r="D287" s="22"/>
+      <c r="D287" s="32"/>
       <c r="E287">
         <v>296</v>
       </c>
@@ -4378,9 +4384,9 @@
         <v>45639</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B288" s="4"/>
-      <c r="D288" s="22"/>
+      <c r="D288" s="32"/>
       <c r="E288">
         <v>297</v>
       </c>
@@ -4389,9 +4395,9 @@
         <v>45640</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B289" s="4"/>
-      <c r="D289" s="22"/>
+      <c r="D289" s="32"/>
       <c r="E289">
         <v>298</v>
       </c>
@@ -4400,9 +4406,9 @@
         <v>45641</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B290" s="4"/>
-      <c r="D290" s="22"/>
+      <c r="D290" s="32"/>
       <c r="E290">
         <v>299</v>
       </c>
@@ -4411,9 +4417,9 @@
         <v>45642</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B291" s="4"/>
-      <c r="D291" s="22"/>
+      <c r="D291" s="32"/>
       <c r="E291">
         <v>300</v>
       </c>
@@ -4422,9 +4428,9 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B292" s="4"/>
-      <c r="D292" s="22"/>
+      <c r="D292" s="32"/>
       <c r="E292">
         <v>301</v>
       </c>
@@ -4433,9 +4439,9 @@
         <v>45644</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B293" s="4"/>
-      <c r="D293" s="22"/>
+      <c r="D293" s="32"/>
       <c r="E293">
         <v>302</v>
       </c>
@@ -4444,9 +4450,9 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B294" s="4"/>
-      <c r="D294" s="22"/>
+      <c r="D294" s="32"/>
       <c r="E294">
         <v>303</v>
       </c>
@@ -4455,9 +4461,9 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B295" s="4"/>
-      <c r="D295" s="22"/>
+      <c r="D295" s="32"/>
       <c r="E295">
         <v>304</v>
       </c>
@@ -4466,9 +4472,9 @@
         <v>45647</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B296" s="4"/>
-      <c r="D296" s="22"/>
+      <c r="D296" s="32"/>
       <c r="E296">
         <v>305</v>
       </c>
@@ -4477,9 +4483,9 @@
         <v>45648</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B297" s="4"/>
-      <c r="D297" s="22"/>
+      <c r="D297" s="32"/>
       <c r="E297">
         <v>306</v>
       </c>
@@ -4488,9 +4494,9 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B298" s="4"/>
-      <c r="D298" s="22"/>
+      <c r="D298" s="32"/>
       <c r="E298">
         <v>307</v>
       </c>
@@ -4499,9 +4505,9 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B299" s="4"/>
-      <c r="D299" s="22"/>
+      <c r="D299" s="32"/>
       <c r="E299">
         <v>308</v>
       </c>
@@ -4510,9 +4516,9 @@
         <v>45651</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B300" s="4"/>
-      <c r="D300" s="22"/>
+      <c r="D300" s="32"/>
       <c r="E300">
         <v>309</v>
       </c>
@@ -4521,9 +4527,9 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B301" s="4"/>
-      <c r="D301" s="22"/>
+      <c r="D301" s="32"/>
       <c r="E301">
         <v>310</v>
       </c>
@@ -4532,9 +4538,9 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B302" s="4"/>
-      <c r="D302" s="22"/>
+      <c r="D302" s="32"/>
       <c r="E302">
         <v>311</v>
       </c>
@@ -4543,9 +4549,9 @@
         <v>45654</v>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B303" s="4"/>
-      <c r="D303" s="22"/>
+      <c r="D303" s="32"/>
       <c r="E303">
         <v>312</v>
       </c>
@@ -4554,9 +4560,9 @@
         <v>45655</v>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B304" s="4"/>
-      <c r="D304" s="22"/>
+      <c r="D304" s="32"/>
       <c r="E304">
         <v>313</v>
       </c>
@@ -4565,9 +4571,9 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B305" s="4"/>
-      <c r="D305" s="22"/>
+      <c r="D305" s="32"/>
       <c r="E305">
         <v>314</v>
       </c>
@@ -4576,9 +4582,9 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B306" s="4"/>
-      <c r="D306" s="22"/>
+      <c r="D306" s="32"/>
       <c r="E306">
         <v>315</v>
       </c>
@@ -4587,9 +4593,9 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B307" s="4"/>
-      <c r="D307" s="22"/>
+      <c r="D307" s="32"/>
       <c r="E307">
         <v>316</v>
       </c>
@@ -4598,9 +4604,9 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B308" s="4"/>
-      <c r="D308" s="22"/>
+      <c r="D308" s="32"/>
       <c r="E308">
         <v>317</v>
       </c>
@@ -4609,9 +4615,9 @@
         <v>45660</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B309" s="4"/>
-      <c r="D309" s="22"/>
+      <c r="D309" s="32"/>
       <c r="E309">
         <v>318</v>
       </c>
@@ -4620,10 +4626,10 @@
         <v>45661</v>
       </c>
     </row>
-    <row r="310" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B310" s="6"/>
       <c r="C310" s="7"/>
-      <c r="D310" s="23"/>
+      <c r="D310" s="33"/>
       <c r="E310" s="7">
         <v>319</v>
       </c>
@@ -4632,10 +4638,10 @@
         <v>45662</v>
       </c>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B311" s="1"/>
       <c r="C311" s="2"/>
-      <c r="D311" s="21" t="s">
+      <c r="D311" s="31" t="s">
         <v>51</v>
       </c>
       <c r="E311" s="2">
@@ -4646,9 +4652,9 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B312" s="4"/>
-      <c r="D312" s="22"/>
+      <c r="D312" s="32"/>
       <c r="E312">
         <v>321</v>
       </c>
@@ -4657,9 +4663,9 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B313" s="4"/>
-      <c r="D313" s="22"/>
+      <c r="D313" s="32"/>
       <c r="E313">
         <v>322</v>
       </c>
@@ -4668,9 +4674,9 @@
         <v>45665</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B314" s="4"/>
-      <c r="D314" s="22"/>
+      <c r="D314" s="32"/>
       <c r="E314">
         <v>323</v>
       </c>
@@ -4679,9 +4685,9 @@
         <v>45666</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B315" s="4"/>
-      <c r="D315" s="22"/>
+      <c r="D315" s="32"/>
       <c r="E315">
         <v>324</v>
       </c>
@@ -4690,9 +4696,9 @@
         <v>45667</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B316" s="4"/>
-      <c r="D316" s="22"/>
+      <c r="D316" s="32"/>
       <c r="E316">
         <v>325</v>
       </c>
@@ -4701,9 +4707,9 @@
         <v>45668</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B317" s="4"/>
-      <c r="D317" s="22"/>
+      <c r="D317" s="32"/>
       <c r="E317">
         <v>326</v>
       </c>
@@ -4712,9 +4718,9 @@
         <v>45669</v>
       </c>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B318" s="4"/>
-      <c r="D318" s="22"/>
+      <c r="D318" s="32"/>
       <c r="E318">
         <v>327</v>
       </c>
@@ -4723,9 +4729,9 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B319" s="4"/>
-      <c r="D319" s="22"/>
+      <c r="D319" s="32"/>
       <c r="E319">
         <v>328</v>
       </c>
@@ -4734,9 +4740,9 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B320" s="4"/>
-      <c r="D320" s="22"/>
+      <c r="D320" s="32"/>
       <c r="E320">
         <v>329</v>
       </c>
@@ -4745,9 +4751,9 @@
         <v>45672</v>
       </c>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B321" s="4"/>
-      <c r="D321" s="22"/>
+      <c r="D321" s="32"/>
       <c r="E321">
         <v>330</v>
       </c>
@@ -4756,9 +4762,9 @@
         <v>45673</v>
       </c>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B322" s="4"/>
-      <c r="D322" s="22"/>
+      <c r="D322" s="32"/>
       <c r="E322">
         <v>331</v>
       </c>
@@ -4767,9 +4773,9 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B323" s="4"/>
-      <c r="D323" s="22"/>
+      <c r="D323" s="32"/>
       <c r="E323">
         <v>332</v>
       </c>
@@ -4778,9 +4784,9 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B324" s="4"/>
-      <c r="D324" s="22"/>
+      <c r="D324" s="32"/>
       <c r="E324">
         <v>333</v>
       </c>
@@ -4789,9 +4795,9 @@
         <v>45676</v>
       </c>
     </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B325" s="4"/>
-      <c r="D325" s="22"/>
+      <c r="D325" s="32"/>
       <c r="E325">
         <v>334</v>
       </c>
@@ -4800,9 +4806,9 @@
         <v>45677</v>
       </c>
     </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B326" s="4"/>
-      <c r="D326" s="22"/>
+      <c r="D326" s="32"/>
       <c r="E326">
         <v>335</v>
       </c>
@@ -4811,9 +4817,9 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B327" s="4"/>
-      <c r="D327" s="22"/>
+      <c r="D327" s="32"/>
       <c r="E327">
         <v>336</v>
       </c>
@@ -4822,9 +4828,9 @@
         <v>45679</v>
       </c>
     </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B328" s="4"/>
-      <c r="D328" s="22"/>
+      <c r="D328" s="32"/>
       <c r="E328">
         <v>337</v>
       </c>
@@ -4833,9 +4839,9 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B329" s="4"/>
-      <c r="D329" s="22"/>
+      <c r="D329" s="32"/>
       <c r="E329">
         <v>338</v>
       </c>
@@ -4844,9 +4850,9 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B330" s="4"/>
-      <c r="D330" s="22"/>
+      <c r="D330" s="32"/>
       <c r="E330">
         <v>339</v>
       </c>
@@ -4855,9 +4861,9 @@
         <v>45682</v>
       </c>
     </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B331" s="4"/>
-      <c r="D331" s="22"/>
+      <c r="D331" s="32"/>
       <c r="E331">
         <v>340</v>
       </c>
@@ -4866,9 +4872,9 @@
         <v>45683</v>
       </c>
     </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B332" s="4"/>
-      <c r="D332" s="22"/>
+      <c r="D332" s="32"/>
       <c r="E332">
         <v>341</v>
       </c>
@@ -4877,9 +4883,9 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B333" s="4"/>
-      <c r="D333" s="22"/>
+      <c r="D333" s="32"/>
       <c r="E333">
         <v>342</v>
       </c>
@@ -4888,9 +4894,9 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B334" s="4"/>
-      <c r="D334" s="22"/>
+      <c r="D334" s="32"/>
       <c r="E334">
         <v>343</v>
       </c>
@@ -4899,9 +4905,9 @@
         <v>45686</v>
       </c>
     </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B335" s="4"/>
-      <c r="D335" s="22"/>
+      <c r="D335" s="32"/>
       <c r="E335">
         <v>344</v>
       </c>
@@ -4910,9 +4916,9 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B336" s="4"/>
-      <c r="D336" s="22"/>
+      <c r="D336" s="32"/>
       <c r="E336">
         <v>345</v>
       </c>
@@ -4921,9 +4927,9 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B337" s="4"/>
-      <c r="D337" s="22"/>
+      <c r="D337" s="32"/>
       <c r="E337">
         <v>346</v>
       </c>
@@ -4932,9 +4938,9 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B338" s="4"/>
-      <c r="D338" s="22"/>
+      <c r="D338" s="32"/>
       <c r="E338">
         <v>347</v>
       </c>
@@ -4943,9 +4949,9 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B339" s="4"/>
-      <c r="D339" s="22"/>
+      <c r="D339" s="32"/>
       <c r="E339">
         <v>348</v>
       </c>
@@ -4954,10 +4960,10 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="340" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B340" s="6"/>
       <c r="C340" s="7"/>
-      <c r="D340" s="23"/>
+      <c r="D340" s="33"/>
       <c r="E340" s="7">
         <v>349</v>
       </c>
@@ -4966,10 +4972,10 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B341" s="1"/>
       <c r="C341" s="2"/>
-      <c r="D341" s="30" t="s">
+      <c r="D341" s="28" t="s">
         <v>52</v>
       </c>
       <c r="E341" s="2">
@@ -4980,9 +4986,9 @@
         <v>45693</v>
       </c>
     </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B342" s="4"/>
-      <c r="D342" s="31"/>
+      <c r="D342" s="29"/>
       <c r="E342">
         <v>351</v>
       </c>
@@ -4991,9 +4997,9 @@
         <v>45694</v>
       </c>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B343" s="4"/>
-      <c r="D343" s="31"/>
+      <c r="D343" s="29"/>
       <c r="E343">
         <v>352</v>
       </c>
@@ -5002,9 +5008,9 @@
         <v>45695</v>
       </c>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B344" s="4"/>
-      <c r="D344" s="31"/>
+      <c r="D344" s="29"/>
       <c r="E344">
         <v>353</v>
       </c>
@@ -5013,9 +5019,9 @@
         <v>45696</v>
       </c>
     </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B345" s="4"/>
-      <c r="D345" s="31"/>
+      <c r="D345" s="29"/>
       <c r="E345">
         <v>354</v>
       </c>
@@ -5024,9 +5030,9 @@
         <v>45697</v>
       </c>
     </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B346" s="4"/>
-      <c r="D346" s="31"/>
+      <c r="D346" s="29"/>
       <c r="E346">
         <v>355</v>
       </c>
@@ -5035,9 +5041,9 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B347" s="4"/>
-      <c r="D347" s="31"/>
+      <c r="D347" s="29"/>
       <c r="E347">
         <v>356</v>
       </c>
@@ -5046,9 +5052,9 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B348" s="4"/>
-      <c r="D348" s="31"/>
+      <c r="D348" s="29"/>
       <c r="E348">
         <v>357</v>
       </c>
@@ -5057,9 +5063,9 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B349" s="4"/>
-      <c r="D349" s="31"/>
+      <c r="D349" s="29"/>
       <c r="E349">
         <v>358</v>
       </c>
@@ -5068,9 +5074,9 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B350" s="4"/>
-      <c r="D350" s="31"/>
+      <c r="D350" s="29"/>
       <c r="E350">
         <v>359</v>
       </c>
@@ -5079,9 +5085,9 @@
         <v>45702</v>
       </c>
     </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B351" s="4"/>
-      <c r="D351" s="31"/>
+      <c r="D351" s="29"/>
       <c r="E351">
         <v>360</v>
       </c>
@@ -5090,10 +5096,10 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="352" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B352" s="6"/>
       <c r="C352" s="7"/>
-      <c r="D352" s="32"/>
+      <c r="D352" s="30"/>
       <c r="E352" s="7">
         <v>361</v>
       </c>
@@ -5102,10 +5108,10 @@
         <v>45704</v>
       </c>
     </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
       <c r="C353" s="2"/>
-      <c r="D353" s="21" t="s">
+      <c r="D353" s="31" t="s">
         <v>53</v>
       </c>
       <c r="E353" s="2">
@@ -5116,9 +5122,9 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B354" s="4"/>
-      <c r="D354" s="22"/>
+      <c r="D354" s="32"/>
       <c r="E354">
         <v>363</v>
       </c>
@@ -5127,9 +5133,9 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B355" s="4"/>
-      <c r="D355" s="22"/>
+      <c r="D355" s="32"/>
       <c r="E355">
         <v>364</v>
       </c>
@@ -5138,9 +5144,9 @@
         <v>45707</v>
       </c>
     </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B356" s="4"/>
-      <c r="D356" s="22"/>
+      <c r="D356" s="32"/>
       <c r="E356">
         <v>365</v>
       </c>
@@ -5149,9 +5155,9 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B357" s="4"/>
-      <c r="D357" s="22"/>
+      <c r="D357" s="32"/>
       <c r="E357">
         <v>366</v>
       </c>
@@ -5160,9 +5166,9 @@
         <v>45709</v>
       </c>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B358" s="4"/>
-      <c r="D358" s="22"/>
+      <c r="D358" s="32"/>
       <c r="E358">
         <v>367</v>
       </c>
@@ -5171,9 +5177,9 @@
         <v>45710</v>
       </c>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B359" s="4"/>
-      <c r="D359" s="22"/>
+      <c r="D359" s="32"/>
       <c r="E359">
         <v>368</v>
       </c>
@@ -5182,9 +5188,9 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B360" s="4"/>
-      <c r="D360" s="22"/>
+      <c r="D360" s="32"/>
       <c r="E360">
         <v>369</v>
       </c>
@@ -5193,9 +5199,9 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="361" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B361" s="4"/>
-      <c r="D361" s="22"/>
+      <c r="D361" s="32"/>
       <c r="E361">
         <v>370</v>
       </c>
@@ -5204,9 +5210,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B362" s="4"/>
-      <c r="D362" s="22"/>
+      <c r="D362" s="32"/>
       <c r="E362">
         <v>371</v>
       </c>
@@ -5215,9 +5221,9 @@
         <v>45714</v>
       </c>
     </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B363" s="4"/>
-      <c r="D363" s="22"/>
+      <c r="D363" s="32"/>
       <c r="E363">
         <v>372</v>
       </c>
@@ -5226,9 +5232,9 @@
         <v>45715</v>
       </c>
     </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B364" s="4"/>
-      <c r="D364" s="22"/>
+      <c r="D364" s="32"/>
       <c r="E364">
         <v>373</v>
       </c>
@@ -5237,9 +5243,9 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="365" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B365" s="4"/>
-      <c r="D365" s="22"/>
+      <c r="D365" s="32"/>
       <c r="E365">
         <v>374</v>
       </c>
@@ -5248,9 +5254,9 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="366" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B366" s="4"/>
-      <c r="D366" s="22"/>
+      <c r="D366" s="32"/>
       <c r="E366">
         <v>375</v>
       </c>
@@ -5259,9 +5265,9 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="367" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B367" s="4"/>
-      <c r="D367" s="22"/>
+      <c r="D367" s="32"/>
       <c r="E367">
         <v>376</v>
       </c>
@@ -5270,9 +5276,9 @@
         <v>45719</v>
       </c>
     </row>
-    <row r="368" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B368" s="4"/>
-      <c r="D368" s="22"/>
+      <c r="D368" s="32"/>
       <c r="E368">
         <v>377</v>
       </c>
@@ -5281,9 +5287,9 @@
         <v>45720</v>
       </c>
     </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B369" s="4"/>
-      <c r="D369" s="22"/>
+      <c r="D369" s="32"/>
       <c r="E369">
         <v>378</v>
       </c>
@@ -5292,9 +5298,9 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B370" s="4"/>
-      <c r="D370" s="22"/>
+      <c r="D370" s="32"/>
       <c r="E370">
         <v>379</v>
       </c>
@@ -5303,9 +5309,9 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B371" s="4"/>
-      <c r="D371" s="22"/>
+      <c r="D371" s="32"/>
       <c r="E371">
         <v>380</v>
       </c>
@@ -5314,9 +5320,9 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B372" s="4"/>
-      <c r="D372" s="22"/>
+      <c r="D372" s="32"/>
       <c r="E372">
         <v>381</v>
       </c>
@@ -5325,9 +5331,9 @@
         <v>45724</v>
       </c>
     </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B373" s="4"/>
-      <c r="D373" s="22"/>
+      <c r="D373" s="32"/>
       <c r="E373">
         <v>382</v>
       </c>
@@ -5336,9 +5342,9 @@
         <v>45725</v>
       </c>
     </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B374" s="4"/>
-      <c r="D374" s="22"/>
+      <c r="D374" s="32"/>
       <c r="E374">
         <v>383</v>
       </c>
@@ -5347,9 +5353,9 @@
         <v>45726</v>
       </c>
     </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B375" s="4"/>
-      <c r="D375" s="22"/>
+      <c r="D375" s="32"/>
       <c r="E375">
         <v>384</v>
       </c>
@@ -5358,9 +5364,9 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B376" s="4"/>
-      <c r="D376" s="22"/>
+      <c r="D376" s="32"/>
       <c r="E376">
         <v>385</v>
       </c>
@@ -5369,9 +5375,9 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B377" s="4"/>
-      <c r="D377" s="22"/>
+      <c r="D377" s="32"/>
       <c r="E377">
         <v>386</v>
       </c>
@@ -5380,9 +5386,9 @@
         <v>45729</v>
       </c>
     </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B378" s="4"/>
-      <c r="D378" s="22"/>
+      <c r="D378" s="32"/>
       <c r="E378">
         <v>387</v>
       </c>
@@ -5391,9 +5397,9 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B379" s="4"/>
-      <c r="D379" s="22"/>
+      <c r="D379" s="32"/>
       <c r="E379">
         <v>388</v>
       </c>
@@ -5402,9 +5408,9 @@
         <v>45731</v>
       </c>
     </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B380" s="4"/>
-      <c r="D380" s="22"/>
+      <c r="D380" s="32"/>
       <c r="E380">
         <v>389</v>
       </c>
@@ -5413,9 +5419,9 @@
         <v>45732</v>
       </c>
     </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B381" s="4"/>
-      <c r="D381" s="22"/>
+      <c r="D381" s="32"/>
       <c r="E381">
         <v>390</v>
       </c>
@@ -5424,9 +5430,9 @@
         <v>45733</v>
       </c>
     </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B382" s="4"/>
-      <c r="D382" s="22"/>
+      <c r="D382" s="32"/>
       <c r="E382">
         <v>391</v>
       </c>
@@ -5435,9 +5441,9 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B383" s="4"/>
-      <c r="D383" s="22"/>
+      <c r="D383" s="32"/>
       <c r="E383">
         <v>392</v>
       </c>
@@ -5446,9 +5452,9 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B384" s="4"/>
-      <c r="D384" s="22"/>
+      <c r="D384" s="32"/>
       <c r="E384">
         <v>393</v>
       </c>
@@ -5457,9 +5463,9 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B385" s="4"/>
-      <c r="D385" s="22"/>
+      <c r="D385" s="32"/>
       <c r="E385">
         <v>394</v>
       </c>
@@ -5468,9 +5474,9 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B386" s="4"/>
-      <c r="D386" s="22"/>
+      <c r="D386" s="32"/>
       <c r="E386">
         <v>395</v>
       </c>
@@ -5479,9 +5485,9 @@
         <v>45738</v>
       </c>
     </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B387" s="4"/>
-      <c r="D387" s="22"/>
+      <c r="D387" s="32"/>
       <c r="E387">
         <v>396</v>
       </c>
@@ -5490,9 +5496,9 @@
         <v>45739</v>
       </c>
     </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B388" s="4"/>
-      <c r="D388" s="22"/>
+      <c r="D388" s="32"/>
       <c r="E388">
         <v>397</v>
       </c>
@@ -5501,9 +5507,9 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B389" s="4"/>
-      <c r="D389" s="22"/>
+      <c r="D389" s="32"/>
       <c r="E389">
         <v>398</v>
       </c>
@@ -5512,9 +5518,9 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B390" s="4"/>
-      <c r="D390" s="22"/>
+      <c r="D390" s="32"/>
       <c r="E390">
         <v>399</v>
       </c>
@@ -5523,9 +5529,9 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B391" s="4"/>
-      <c r="D391" s="22"/>
+      <c r="D391" s="32"/>
       <c r="E391">
         <v>400</v>
       </c>
@@ -5534,9 +5540,9 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B392" s="4"/>
-      <c r="D392" s="22"/>
+      <c r="D392" s="32"/>
       <c r="E392">
         <v>401</v>
       </c>
@@ -5545,9 +5551,9 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="393" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B393" s="4"/>
-      <c r="D393" s="22"/>
+      <c r="D393" s="32"/>
       <c r="E393">
         <v>402</v>
       </c>
@@ -5556,9 +5562,9 @@
         <v>45745</v>
       </c>
     </row>
-    <row r="394" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B394" s="4"/>
-      <c r="D394" s="22"/>
+      <c r="D394" s="32"/>
       <c r="E394">
         <v>403</v>
       </c>
@@ -5567,9 +5573,9 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="395" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B395" s="4"/>
-      <c r="D395" s="22"/>
+      <c r="D395" s="32"/>
       <c r="E395">
         <v>404</v>
       </c>
@@ -5578,9 +5584,9 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="396" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B396" s="4"/>
-      <c r="D396" s="22"/>
+      <c r="D396" s="32"/>
       <c r="E396">
         <v>405</v>
       </c>
@@ -5589,9 +5595,9 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="397" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B397" s="4"/>
-      <c r="D397" s="22"/>
+      <c r="D397" s="32"/>
       <c r="E397">
         <v>406</v>
       </c>
@@ -5600,10 +5606,10 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="398" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B398" s="6"/>
       <c r="C398" s="7"/>
-      <c r="D398" s="23"/>
+      <c r="D398" s="33"/>
       <c r="E398" s="7">
         <v>407</v>
       </c>
@@ -5612,10 +5618,10 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B399" s="1"/>
       <c r="C399" s="2"/>
-      <c r="D399" s="24" t="s">
+      <c r="D399" s="34" t="s">
         <v>54</v>
       </c>
       <c r="E399" s="2">
@@ -5626,9 +5632,9 @@
         <v>45751</v>
       </c>
     </row>
-    <row r="400" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B400" s="4"/>
-      <c r="D400" s="25"/>
+      <c r="D400" s="35"/>
       <c r="E400">
         <v>409</v>
       </c>
@@ -5637,9 +5643,9 @@
         <v>45752</v>
       </c>
     </row>
-    <row r="401" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B401" s="4"/>
-      <c r="D401" s="25"/>
+      <c r="D401" s="35"/>
       <c r="E401">
         <v>410</v>
       </c>
@@ -5648,9 +5654,9 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="402" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B402" s="4"/>
-      <c r="D402" s="25"/>
+      <c r="D402" s="35"/>
       <c r="E402">
         <v>411</v>
       </c>
@@ -5659,9 +5665,9 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="403" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B403" s="4"/>
-      <c r="D403" s="25"/>
+      <c r="D403" s="35"/>
       <c r="E403">
         <v>412</v>
       </c>
@@ -5670,9 +5676,9 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="404" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B404" s="4"/>
-      <c r="D404" s="25"/>
+      <c r="D404" s="35"/>
       <c r="E404">
         <v>413</v>
       </c>
@@ -5681,9 +5687,9 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="405" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B405" s="4"/>
-      <c r="D405" s="25"/>
+      <c r="D405" s="35"/>
       <c r="E405">
         <v>414</v>
       </c>
@@ -5692,9 +5698,9 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="406" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B406" s="4"/>
-      <c r="D406" s="25"/>
+      <c r="D406" s="35"/>
       <c r="E406">
         <v>415</v>
       </c>
@@ -5703,9 +5709,9 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="407" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B407" s="4"/>
-      <c r="D407" s="25"/>
+      <c r="D407" s="35"/>
       <c r="E407">
         <v>416</v>
       </c>
@@ -5714,9 +5720,9 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="408" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B408" s="4"/>
-      <c r="D408" s="25"/>
+      <c r="D408" s="35"/>
       <c r="E408">
         <v>417</v>
       </c>
@@ -5725,10 +5731,10 @@
         <v>45760</v>
       </c>
     </row>
-    <row r="409" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B409" s="6"/>
       <c r="C409" s="7"/>
-      <c r="D409" s="26"/>
+      <c r="D409" s="36"/>
       <c r="E409" s="7">
         <v>418</v>
       </c>
@@ -5737,10 +5743,10 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="410" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B410" s="1"/>
       <c r="C410" s="2"/>
-      <c r="D410" s="21" t="s">
+      <c r="D410" s="31" t="s">
         <v>55</v>
       </c>
       <c r="E410" s="2">
@@ -5751,9 +5757,9 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="411" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B411" s="4"/>
-      <c r="D411" s="22"/>
+      <c r="D411" s="32"/>
       <c r="E411">
         <v>420</v>
       </c>
@@ -5762,9 +5768,9 @@
         <v>45763</v>
       </c>
     </row>
-    <row r="412" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B412" s="4"/>
-      <c r="D412" s="22"/>
+      <c r="D412" s="32"/>
       <c r="E412">
         <v>421</v>
       </c>
@@ -5773,9 +5779,9 @@
         <v>45764</v>
       </c>
     </row>
-    <row r="413" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B413" s="4"/>
-      <c r="D413" s="22"/>
+      <c r="D413" s="32"/>
       <c r="E413">
         <v>422</v>
       </c>
@@ -5784,9 +5790,9 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="414" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B414" s="4"/>
-      <c r="D414" s="22"/>
+      <c r="D414" s="32"/>
       <c r="E414">
         <v>423</v>
       </c>
@@ -5795,9 +5801,9 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="415" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B415" s="4"/>
-      <c r="D415" s="22"/>
+      <c r="D415" s="32"/>
       <c r="E415">
         <v>424</v>
       </c>
@@ -5806,9 +5812,9 @@
         <v>45767</v>
       </c>
     </row>
-    <row r="416" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B416" s="4"/>
-      <c r="D416" s="22"/>
+      <c r="D416" s="32"/>
       <c r="E416">
         <v>425</v>
       </c>
@@ -5817,9 +5823,9 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="417" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B417" s="4"/>
-      <c r="D417" s="22"/>
+      <c r="D417" s="32"/>
       <c r="E417">
         <v>426</v>
       </c>
@@ -5828,9 +5834,9 @@
         <v>45769</v>
       </c>
     </row>
-    <row r="418" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B418" s="4"/>
-      <c r="D418" s="22"/>
+      <c r="D418" s="32"/>
       <c r="E418">
         <v>427</v>
       </c>
@@ -5839,9 +5845,9 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B419" s="4"/>
-      <c r="D419" s="22"/>
+      <c r="D419" s="32"/>
       <c r="E419">
         <v>428</v>
       </c>
@@ -5850,9 +5856,9 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B420" s="4"/>
-      <c r="D420" s="22"/>
+      <c r="D420" s="32"/>
       <c r="E420">
         <v>429</v>
       </c>
@@ -5861,9 +5867,9 @@
         <v>45772</v>
       </c>
     </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B421" s="4"/>
-      <c r="D421" s="22"/>
+      <c r="D421" s="32"/>
       <c r="E421">
         <v>430</v>
       </c>
@@ -5872,9 +5878,9 @@
         <v>45773</v>
       </c>
     </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B422" s="4"/>
-      <c r="D422" s="22"/>
+      <c r="D422" s="32"/>
       <c r="E422">
         <v>431</v>
       </c>
@@ -5883,9 +5889,9 @@
         <v>45774</v>
       </c>
     </row>
-    <row r="423" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B423" s="4"/>
-      <c r="D423" s="22"/>
+      <c r="D423" s="32"/>
       <c r="E423">
         <v>432</v>
       </c>
@@ -5894,9 +5900,9 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="424" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B424" s="4"/>
-      <c r="D424" s="22"/>
+      <c r="D424" s="32"/>
       <c r="E424">
         <v>433</v>
       </c>
@@ -5905,9 +5911,9 @@
         <v>45776</v>
       </c>
     </row>
-    <row r="425" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B425" s="4"/>
-      <c r="D425" s="22"/>
+      <c r="D425" s="32"/>
       <c r="E425">
         <v>434</v>
       </c>
@@ -5916,9 +5922,9 @@
         <v>45777</v>
       </c>
     </row>
-    <row r="426" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B426" s="4"/>
-      <c r="D426" s="22"/>
+      <c r="D426" s="32"/>
       <c r="E426">
         <v>435</v>
       </c>
@@ -5927,9 +5933,9 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="427" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B427" s="4"/>
-      <c r="D427" s="22"/>
+      <c r="D427" s="32"/>
       <c r="E427">
         <v>436</v>
       </c>
@@ -5938,9 +5944,9 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="428" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B428" s="4"/>
-      <c r="D428" s="22"/>
+      <c r="D428" s="32"/>
       <c r="E428">
         <v>437</v>
       </c>
@@ -5949,9 +5955,9 @@
         <v>45780</v>
       </c>
     </row>
-    <row r="429" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B429" s="4"/>
-      <c r="D429" s="22"/>
+      <c r="D429" s="32"/>
       <c r="E429">
         <v>438</v>
       </c>
@@ -5960,9 +5966,9 @@
         <v>45781</v>
       </c>
     </row>
-    <row r="430" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B430" s="4"/>
-      <c r="D430" s="22"/>
+      <c r="D430" s="32"/>
       <c r="E430">
         <v>439</v>
       </c>
@@ -5971,9 +5977,9 @@
         <v>45782</v>
       </c>
     </row>
-    <row r="431" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B431" s="4"/>
-      <c r="D431" s="22"/>
+      <c r="D431" s="32"/>
       <c r="E431">
         <v>440</v>
       </c>
@@ -5982,9 +5988,9 @@
         <v>45783</v>
       </c>
     </row>
-    <row r="432" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B432" s="4"/>
-      <c r="D432" s="22"/>
+      <c r="D432" s="32"/>
       <c r="E432">
         <v>441</v>
       </c>
@@ -5993,9 +5999,9 @@
         <v>45784</v>
       </c>
     </row>
-    <row r="433" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B433" s="4"/>
-      <c r="D433" s="22"/>
+      <c r="D433" s="32"/>
       <c r="E433">
         <v>442</v>
       </c>
@@ -6004,9 +6010,9 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B434" s="4"/>
-      <c r="D434" s="22"/>
+      <c r="D434" s="32"/>
       <c r="E434">
         <v>443</v>
       </c>
@@ -6015,9 +6021,9 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="435" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B435" s="4"/>
-      <c r="D435" s="22"/>
+      <c r="D435" s="32"/>
       <c r="E435">
         <v>444</v>
       </c>
@@ -6026,9 +6032,9 @@
         <v>45787</v>
       </c>
     </row>
-    <row r="436" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B436" s="4"/>
-      <c r="D436" s="22"/>
+      <c r="D436" s="32"/>
       <c r="E436">
         <v>445</v>
       </c>
@@ -6037,9 +6043,9 @@
         <v>45788</v>
       </c>
     </row>
-    <row r="437" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B437" s="4"/>
-      <c r="D437" s="22"/>
+      <c r="D437" s="32"/>
       <c r="E437">
         <v>446</v>
       </c>
@@ -6048,9 +6054,9 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="438" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B438" s="4"/>
-      <c r="D438" s="22"/>
+      <c r="D438" s="32"/>
       <c r="E438">
         <v>447</v>
       </c>
@@ -6059,9 +6065,9 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="439" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B439" s="4"/>
-      <c r="D439" s="22"/>
+      <c r="D439" s="32"/>
       <c r="E439">
         <v>448</v>
       </c>
@@ -6070,9 +6076,9 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="440" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B440" s="4"/>
-      <c r="D440" s="22"/>
+      <c r="D440" s="32"/>
       <c r="E440">
         <v>449</v>
       </c>
@@ -6081,9 +6087,9 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="441" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B441" s="4"/>
-      <c r="D441" s="22"/>
+      <c r="D441" s="32"/>
       <c r="E441">
         <v>450</v>
       </c>
@@ -6092,9 +6098,9 @@
         <v>45793</v>
       </c>
     </row>
-    <row r="442" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B442" s="4"/>
-      <c r="D442" s="22"/>
+      <c r="D442" s="32"/>
       <c r="E442">
         <v>451</v>
       </c>
@@ -6103,9 +6109,9 @@
         <v>45794</v>
       </c>
     </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B443" s="4"/>
-      <c r="D443" s="22"/>
+      <c r="D443" s="32"/>
       <c r="E443">
         <v>452</v>
       </c>
@@ -6114,10 +6120,10 @@
         <v>45795</v>
       </c>
     </row>
-    <row r="444" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B444" s="6"/>
       <c r="C444" s="7"/>
-      <c r="D444" s="23"/>
+      <c r="D444" s="33"/>
       <c r="E444" s="7">
         <v>453</v>
       </c>
@@ -6126,10 +6132,10 @@
         <v>45796</v>
       </c>
     </row>
-    <row r="445" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B445" s="1"/>
       <c r="C445" s="2"/>
-      <c r="D445" s="39" t="s">
+      <c r="D445" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E445" s="2">
@@ -6140,9 +6146,9 @@
         <v>45797</v>
       </c>
     </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B446" s="4"/>
-      <c r="D446" s="40"/>
+      <c r="D446" s="38"/>
       <c r="E446">
         <v>455</v>
       </c>
@@ -6151,9 +6157,9 @@
         <v>45798</v>
       </c>
     </row>
-    <row r="447" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B447" s="4"/>
-      <c r="D447" s="40"/>
+      <c r="D447" s="38"/>
       <c r="E447">
         <v>456</v>
       </c>
@@ -6162,9 +6168,9 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B448" s="4"/>
-      <c r="D448" s="40"/>
+      <c r="D448" s="38"/>
       <c r="E448">
         <v>457</v>
       </c>
@@ -6173,9 +6179,9 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="449" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B449" s="4"/>
-      <c r="D449" s="40"/>
+      <c r="D449" s="38"/>
       <c r="E449">
         <v>458</v>
       </c>
@@ -6184,9 +6190,9 @@
         <v>45801</v>
       </c>
     </row>
-    <row r="450" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B450" s="4"/>
-      <c r="D450" s="40"/>
+      <c r="D450" s="38"/>
       <c r="E450">
         <v>459</v>
       </c>
@@ -6195,9 +6201,9 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="451" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B451" s="4"/>
-      <c r="D451" s="40"/>
+      <c r="D451" s="38"/>
       <c r="E451">
         <v>460</v>
       </c>
@@ -6206,9 +6212,9 @@
         <v>45803</v>
       </c>
     </row>
-    <row r="452" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B452" s="4"/>
-      <c r="D452" s="40"/>
+      <c r="D452" s="38"/>
       <c r="E452">
         <v>461</v>
       </c>
@@ -6217,10 +6223,10 @@
         <v>45804</v>
       </c>
     </row>
-    <row r="453" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B453" s="6"/>
       <c r="C453" s="7"/>
-      <c r="D453" s="41"/>
+      <c r="D453" s="39"/>
       <c r="E453" s="7">
         <v>462</v>
       </c>
@@ -6229,10 +6235,10 @@
         <v>45805</v>
       </c>
     </row>
-    <row r="454" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B454" s="1"/>
       <c r="C454" s="2"/>
-      <c r="D454" s="45" t="s">
+      <c r="D454" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E454" s="2">
@@ -6243,9 +6249,9 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="455" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B455" s="4"/>
-      <c r="D455" s="46"/>
+      <c r="D455" s="41"/>
       <c r="E455">
         <v>464</v>
       </c>
@@ -6254,10 +6260,10 @@
         <v>45807</v>
       </c>
     </row>
-    <row r="456" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B456" s="6"/>
       <c r="C456" s="7"/>
-      <c r="D456" s="47"/>
+      <c r="D456" s="42"/>
       <c r="E456" s="7">
         <v>465</v>
       </c>
@@ -6266,10 +6272,10 @@
         <v>45808</v>
       </c>
     </row>
-    <row r="457" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B457" s="1"/>
       <c r="C457" s="2"/>
-      <c r="D457" s="42" t="s">
+      <c r="D457" s="22" t="s">
         <v>58</v>
       </c>
       <c r="E457" s="2">
@@ -6280,9 +6286,9 @@
         <v>45809</v>
       </c>
     </row>
-    <row r="458" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B458" s="4"/>
-      <c r="D458" s="43"/>
+      <c r="D458" s="23"/>
       <c r="E458">
         <v>467</v>
       </c>
@@ -6291,9 +6297,9 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="459" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B459" s="4"/>
-      <c r="D459" s="43"/>
+      <c r="D459" s="23"/>
       <c r="E459">
         <v>468</v>
       </c>
@@ -6302,9 +6308,9 @@
         <v>45811</v>
       </c>
     </row>
-    <row r="460" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B460" s="4"/>
-      <c r="D460" s="43"/>
+      <c r="D460" s="23"/>
       <c r="E460">
         <v>469</v>
       </c>
@@ -6313,9 +6319,9 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="461" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B461" s="4"/>
-      <c r="D461" s="43"/>
+      <c r="D461" s="23"/>
       <c r="E461">
         <v>470</v>
       </c>
@@ -6324,9 +6330,9 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="462" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B462" s="4"/>
-      <c r="D462" s="43"/>
+      <c r="D462" s="23"/>
       <c r="E462">
         <v>471</v>
       </c>
@@ -6335,10 +6341,10 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="463" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B463" s="6"/>
       <c r="C463" s="7"/>
-      <c r="D463" s="44"/>
+      <c r="D463" s="24"/>
       <c r="E463" s="7">
         <v>472</v>
       </c>
@@ -6347,10 +6353,10 @@
         <v>45815</v>
       </c>
     </row>
-    <row r="464" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B464" s="1"/>
       <c r="C464" s="2"/>
-      <c r="D464" s="27" t="s">
+      <c r="D464" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E464" s="2">
@@ -6361,9 +6367,9 @@
         <v>45816</v>
       </c>
     </row>
-    <row r="465" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B465" s="4"/>
-      <c r="D465" s="28"/>
+      <c r="D465" s="26"/>
       <c r="E465">
         <v>474</v>
       </c>
@@ -6372,9 +6378,9 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="466" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B466" s="4"/>
-      <c r="D466" s="28"/>
+      <c r="D466" s="26"/>
       <c r="E466">
         <v>475</v>
       </c>
@@ -6383,9 +6389,9 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="467" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B467" s="4"/>
-      <c r="D467" s="28"/>
+      <c r="D467" s="26"/>
       <c r="E467">
         <v>476</v>
       </c>
@@ -6394,9 +6400,9 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="468" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B468" s="4"/>
-      <c r="D468" s="28"/>
+      <c r="D468" s="26"/>
       <c r="E468">
         <v>477</v>
       </c>
@@ -6405,9 +6411,9 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="469" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B469" s="4"/>
-      <c r="D469" s="28"/>
+      <c r="D469" s="26"/>
       <c r="E469">
         <v>478</v>
       </c>
@@ -6416,9 +6422,9 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="470" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B470" s="4"/>
-      <c r="D470" s="28"/>
+      <c r="D470" s="26"/>
       <c r="E470">
         <v>479</v>
       </c>
@@ -6427,9 +6433,9 @@
         <v>45822</v>
       </c>
     </row>
-    <row r="471" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B471" s="4"/>
-      <c r="D471" s="28"/>
+      <c r="D471" s="26"/>
       <c r="E471">
         <v>480</v>
       </c>
@@ -6438,9 +6444,9 @@
         <v>45823</v>
       </c>
     </row>
-    <row r="472" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B472" s="4"/>
-      <c r="D472" s="28"/>
+      <c r="D472" s="26"/>
       <c r="E472">
         <v>481</v>
       </c>
@@ -6449,9 +6455,9 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="473" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B473" s="4"/>
-      <c r="D473" s="28"/>
+      <c r="D473" s="26"/>
       <c r="E473">
         <v>482</v>
       </c>
@@ -6460,9 +6466,9 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="474" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B474" s="4"/>
-      <c r="D474" s="28"/>
+      <c r="D474" s="26"/>
       <c r="E474">
         <v>483</v>
       </c>
@@ -6471,9 +6477,9 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="475" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B475" s="4"/>
-      <c r="D475" s="28"/>
+      <c r="D475" s="26"/>
       <c r="E475">
         <v>484</v>
       </c>
@@ -6482,9 +6488,9 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="476" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B476" s="4"/>
-      <c r="D476" s="28"/>
+      <c r="D476" s="26"/>
       <c r="E476">
         <v>485</v>
       </c>
@@ -6493,9 +6499,9 @@
         <v>45828</v>
       </c>
     </row>
-    <row r="477" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B477" s="4"/>
-      <c r="D477" s="28"/>
+      <c r="D477" s="26"/>
       <c r="E477">
         <v>486</v>
       </c>
@@ -6504,9 +6510,9 @@
         <v>45829</v>
       </c>
     </row>
-    <row r="478" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B478" s="4"/>
-      <c r="D478" s="28"/>
+      <c r="D478" s="26"/>
       <c r="E478">
         <v>487</v>
       </c>
@@ -6515,9 +6521,9 @@
         <v>45830</v>
       </c>
     </row>
-    <row r="479" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B479" s="4"/>
-      <c r="D479" s="28"/>
+      <c r="D479" s="26"/>
       <c r="E479">
         <v>488</v>
       </c>
@@ -6526,9 +6532,9 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="480" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B480" s="4"/>
-      <c r="D480" s="28"/>
+      <c r="D480" s="26"/>
       <c r="E480">
         <v>489</v>
       </c>
@@ -6537,9 +6543,9 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="481" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B481" s="4"/>
-      <c r="D481" s="28"/>
+      <c r="D481" s="26"/>
       <c r="E481">
         <v>490</v>
       </c>
@@ -6548,9 +6554,9 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="482" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B482" s="4"/>
-      <c r="D482" s="28"/>
+      <c r="D482" s="26"/>
       <c r="E482">
         <v>491</v>
       </c>
@@ -6559,9 +6565,9 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="483" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B483" s="4"/>
-      <c r="D483" s="28"/>
+      <c r="D483" s="26"/>
       <c r="E483">
         <v>492</v>
       </c>
@@ -6570,10 +6576,10 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="484" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B484" s="6"/>
       <c r="C484" s="7"/>
-      <c r="D484" s="29"/>
+      <c r="D484" s="27"/>
       <c r="E484" s="7">
         <v>493</v>
       </c>
@@ -6584,14 +6590,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D457:D463"/>
-    <mergeCell ref="D464:D484"/>
-    <mergeCell ref="D341:D352"/>
-    <mergeCell ref="D353:D398"/>
-    <mergeCell ref="D399:D409"/>
-    <mergeCell ref="D410:D444"/>
-    <mergeCell ref="D445:D453"/>
-    <mergeCell ref="D454:D456"/>
+    <mergeCell ref="D108:D120"/>
+    <mergeCell ref="D121:D138"/>
+    <mergeCell ref="D311:D340"/>
+    <mergeCell ref="D187:D215"/>
+    <mergeCell ref="D216:D237"/>
+    <mergeCell ref="D238:D257"/>
+    <mergeCell ref="D258:D275"/>
+    <mergeCell ref="D276:D285"/>
+    <mergeCell ref="D286:D310"/>
     <mergeCell ref="B20:B57"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="D154:D165"/>
@@ -6608,15 +6615,14 @@
     <mergeCell ref="D2:D19"/>
     <mergeCell ref="D58:D90"/>
     <mergeCell ref="D91:D107"/>
-    <mergeCell ref="D108:D120"/>
-    <mergeCell ref="D121:D138"/>
-    <mergeCell ref="D311:D340"/>
-    <mergeCell ref="D187:D215"/>
-    <mergeCell ref="D216:D237"/>
-    <mergeCell ref="D238:D257"/>
-    <mergeCell ref="D258:D275"/>
-    <mergeCell ref="D276:D285"/>
-    <mergeCell ref="D286:D310"/>
+    <mergeCell ref="D457:D463"/>
+    <mergeCell ref="D464:D484"/>
+    <mergeCell ref="D341:D352"/>
+    <mergeCell ref="D353:D398"/>
+    <mergeCell ref="D399:D409"/>
+    <mergeCell ref="D410:D444"/>
+    <mergeCell ref="D445:D453"/>
+    <mergeCell ref="D454:D456"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6632,87 +6638,87 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="10"/>
-    <col min="3" max="6" width="3.6328125" customWidth="1"/>
-    <col min="7" max="50" width="3.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="10"/>
+    <col min="3" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="50" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C1" s="48" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C1" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="48" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="48" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="48" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="48" t="s">
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="48" t="s">
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="48" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="50"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="52"/>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C2" s="4">
         <v>5</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -6888,7 +6894,7 @@
       <c r="AU3" s="4"/>
       <c r="AX3" s="5"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -6918,7 +6924,7 @@
       <c r="AU4" s="4"/>
       <c r="AX4" s="5"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
@@ -6942,7 +6948,7 @@
       <c r="AU5" s="4"/>
       <c r="AX5" s="5"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -6975,7 +6981,7 @@
       <c r="AU6" s="4"/>
       <c r="AX6" s="5"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
@@ -6999,7 +7005,7 @@
       <c r="AU7" s="4"/>
       <c r="AX7" s="5"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
@@ -7031,7 +7037,7 @@
       <c r="AU8" s="4"/>
       <c r="AX8" s="5"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
@@ -7055,7 +7061,7 @@
       <c r="AU9" s="4"/>
       <c r="AX9" s="5"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
@@ -7085,7 +7091,7 @@
       <c r="AU10" s="4"/>
       <c r="AX10" s="5"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
@@ -7109,7 +7115,7 @@
       <c r="AU11" s="4"/>
       <c r="AX11" s="5"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
@@ -7141,7 +7147,7 @@
       <c r="AU12" s="4"/>
       <c r="AX12" s="5"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
@@ -7165,7 +7171,7 @@
       <c r="AU13" s="4"/>
       <c r="AX13" s="5"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>33</v>
       </c>
@@ -7196,7 +7202,7 @@
       <c r="AU14" s="4"/>
       <c r="AX14" s="5"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
@@ -7220,7 +7226,7 @@
       <c r="AU15" s="4"/>
       <c r="AX15" s="5"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
@@ -7252,7 +7258,7 @@
       <c r="AU16" s="4"/>
       <c r="AX16" s="5"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
@@ -7276,7 +7282,7 @@
       <c r="AU17" s="4"/>
       <c r="AX17" s="5"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>42</v>
       </c>
@@ -7306,7 +7312,7 @@
       <c r="AU18" s="4"/>
       <c r="AX18" s="5"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
@@ -7330,7 +7336,7 @@
       <c r="AU19" s="4"/>
       <c r="AX19" s="5"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>43</v>
       </c>
@@ -7361,7 +7367,7 @@
       <c r="AU20" s="4"/>
       <c r="AX20" s="5"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
@@ -7385,7 +7391,7 @@
       <c r="AU21" s="4"/>
       <c r="AX21" s="5"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>44</v>
       </c>
@@ -7416,7 +7422,7 @@
       <c r="AU22" s="4"/>
       <c r="AX22" s="5"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
@@ -7440,7 +7446,7 @@
       <c r="AU23" s="4"/>
       <c r="AX23" s="5"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>45</v>
       </c>
@@ -7473,7 +7479,7 @@
       <c r="AU24" s="4"/>
       <c r="AX24" s="5"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
@@ -7497,7 +7503,7 @@
       <c r="AU25" s="4"/>
       <c r="AX25" s="5"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -7528,7 +7534,7 @@
       <c r="AU26" s="4"/>
       <c r="AX26" s="5"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
@@ -7552,7 +7558,7 @@
       <c r="AU27" s="4"/>
       <c r="AX27" s="5"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
@@ -7583,7 +7589,7 @@
       <c r="AU28" s="4"/>
       <c r="AX28" s="5"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
@@ -7607,7 +7613,7 @@
       <c r="AU29" s="4"/>
       <c r="AX29" s="5"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -7639,7 +7645,7 @@
       <c r="AU30" s="4"/>
       <c r="AX30" s="5"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
@@ -7663,7 +7669,7 @@
       <c r="AU31" s="4"/>
       <c r="AX31" s="5"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -7694,7 +7700,7 @@
       <c r="AU32" s="4"/>
       <c r="AX32" s="5"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
@@ -7718,7 +7724,7 @@
       <c r="AU33" s="4"/>
       <c r="AX33" s="5"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -7750,7 +7756,7 @@
       <c r="AU34" s="4"/>
       <c r="AX34" s="5"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
@@ -7774,7 +7780,7 @@
       <c r="AU35" s="4"/>
       <c r="AX35" s="5"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>51</v>
       </c>
@@ -7806,7 +7812,7 @@
       <c r="AU36" s="11"/>
       <c r="AX36" s="5"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
@@ -7830,7 +7836,7 @@
       <c r="AU37" s="4"/>
       <c r="AX37" s="5"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -7862,7 +7868,7 @@
       <c r="AW38" s="12"/>
       <c r="AX38" s="5"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
@@ -7886,7 +7892,7 @@
       <c r="AU39" s="4"/>
       <c r="AX39" s="5"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -7916,7 +7922,7 @@
       <c r="AU40" s="4"/>
       <c r="AX40" s="5"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
@@ -7940,7 +7946,7 @@
       <c r="AU41" s="4"/>
       <c r="AX41" s="5"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -7970,7 +7976,7 @@
       <c r="AU42" s="4"/>
       <c r="AX42" s="5"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
@@ -7994,7 +8000,7 @@
       <c r="AU43" s="4"/>
       <c r="AX43" s="5"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -8024,7 +8030,7 @@
       <c r="AU44" s="4"/>
       <c r="AX44" s="5"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
@@ -8048,7 +8054,7 @@
       <c r="AU45" s="4"/>
       <c r="AX45" s="5"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -8078,7 +8084,7 @@
       <c r="AU46" s="4"/>
       <c r="AX46" s="5"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
@@ -8102,7 +8108,7 @@
       <c r="AU47" s="4"/>
       <c r="AX47" s="5"/>
     </row>
-    <row r="48" spans="1:50" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -8132,7 +8138,7 @@
       <c r="AU48" s="4"/>
       <c r="AX48" s="5"/>
     </row>
-    <row r="49" spans="1:50" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:50" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4"/>
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
@@ -8156,7 +8162,7 @@
       <c r="AU49" s="4"/>
       <c r="AX49" s="5"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -8186,7 +8192,7 @@
       <c r="AU50" s="4"/>
       <c r="AX50" s="5"/>
     </row>
-    <row r="51" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4"/>
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
@@ -8210,7 +8216,7 @@
       <c r="AU51" s="4"/>
       <c r="AX51" s="5"/>
     </row>
-    <row r="52" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -8240,7 +8246,7 @@
       <c r="AU52" s="4"/>
       <c r="AX52" s="5"/>
     </row>
-    <row r="53" spans="1:50" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:50" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -8290,7 +8296,7 @@
       <c r="AW53" s="7"/>
       <c r="AX53" s="8"/>
     </row>
-    <row r="54" spans="1:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AU1:AX1"/>
@@ -8317,7 +8323,7 @@
       <selection sqref="A1:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
